--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1672,11 +1672,11 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B190" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A193" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B201" activeCellId="0" sqref="B201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -3779,7 +3779,7 @@
       <c r="A201" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B201" s="7" t="s">
+      <c r="B201" s="9" t="s">
         <v>197</v>
       </c>
       <c r="C201" s="5" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1496,7 +1496,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1507,6 +1507,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1547,7 +1553,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1585,6 +1591,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1672,11 +1682,11 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A193" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B201" activeCellId="0" sqref="B201"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A205" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B204" activeCellId="0" sqref="B204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -3779,7 +3789,7 @@
       <c r="A201" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B201" s="9" t="s">
+      <c r="B201" s="10" t="s">
         <v>197</v>
       </c>
       <c r="C201" s="5" t="s">
@@ -3801,7 +3811,7 @@
       <c r="A203" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B203" s="7" t="s">
+      <c r="B203" s="9" t="s">
         <v>199</v>
       </c>
       <c r="C203" s="5" t="s">
@@ -3976,7 +3986,7 @@
       <c r="A220" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B220" s="10" t="s">
+      <c r="B220" s="11" t="s">
         <v>215</v>
       </c>
       <c r="C220" s="5" t="s">
@@ -4913,7 +4923,7 @@
       <c r="A309" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B309" s="10" t="s">
+      <c r="B309" s="11" t="s">
         <v>300</v>
       </c>
       <c r="C309" s="5" t="s">
@@ -5284,7 +5294,7 @@
       <c r="A344" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B344" s="10" t="s">
+      <c r="B344" s="11" t="s">
         <v>334</v>
       </c>
       <c r="C344" s="5" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\DSA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8016E74B-2D3E-469A-A823-6351CA55DE0C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,13 +27,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="465">
   <si>
-    <t xml:space="preserve">Questions by Love Babbar:</t>
+    <t>Questions by Love Babbar:</t>
   </si>
   <si>
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
   </si>
   <si>
-    <t xml:space="preserve">Topic:</t>
+    <t>Topic:</t>
   </si>
   <si>
     <t xml:space="preserve">Problem: </t>
@@ -37,850 +42,850 @@
     <t xml:space="preserve">Done [yes or no] </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;-&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse the array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the maximum and minimum element in an array</t>
+    <t>&lt;-&gt;</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Reverse the array</t>
+  </si>
+  <si>
+    <t>Find the maximum and minimum element in an array</t>
   </si>
   <si>
     <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
   </si>
   <si>
-    <t xml:space="preserve">Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
+    <t>Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
   </si>
   <si>
     <t xml:space="preserve">Move all the negative elements to one side of the array </t>
   </si>
   <si>
-    <t xml:space="preserve">Find the Union and Intersection of the two sorted arrays.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program to cyclically rotate an array by one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find Largest sum contiguous Subarray [V. IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimise the maximum difference between heights [V.IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum no. of Jumps to reach end of an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find duplicate in an array of N+1 Integers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge 2 sorted arrays without using Extra space.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kadane's Algo [V.V.V.V.V IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge Intervals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Next Permutation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count Inversion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best time to buy and Sell stock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find all pairs on integer array whose sum is equal to given number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find common elements In 3 sorted arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rearrange the array in alternating positive and negative items with O(1) extra space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find if there is any subarray with sum equal to 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find factorial of a large number</t>
+    <t>Find the Union and Intersection of the two sorted arrays.</t>
+  </si>
+  <si>
+    <t>Write a program to cyclically rotate an array by one.</t>
+  </si>
+  <si>
+    <t>find Largest sum contiguous Subarray [V. IMP]</t>
+  </si>
+  <si>
+    <t>Minimise the maximum difference between heights [V.IMP]</t>
+  </si>
+  <si>
+    <t>Minimum no. of Jumps to reach end of an array</t>
+  </si>
+  <si>
+    <t>find duplicate in an array of N+1 Integers</t>
+  </si>
+  <si>
+    <t>Merge 2 sorted arrays without using Extra space.</t>
+  </si>
+  <si>
+    <t>Kadane's Algo [V.V.V.V.V IMP]</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>Count Inversion</t>
+  </si>
+  <si>
+    <t>Best time to buy and Sell stock</t>
+  </si>
+  <si>
+    <t>find all pairs on integer array whose sum is equal to given number</t>
+  </si>
+  <si>
+    <t>find common elements In 3 sorted arrays</t>
+  </si>
+  <si>
+    <t>Rearrange the array in alternating positive and negative items with O(1) extra space</t>
+  </si>
+  <si>
+    <t>Find if there is any subarray with sum equal to 0</t>
+  </si>
+  <si>
+    <t>Find factorial of a large number</t>
   </si>
   <si>
     <t xml:space="preserve">find maximum product subarray </t>
   </si>
   <si>
-    <t xml:space="preserve">Find longest coinsecutive subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given an array of size n and a number k, fin all elements that appear more than " n/k " times.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum profit by buying and selling a share atmost twice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find whether an array is a subset of another array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the triplet that sum to a given value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trapping Rain water problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chocolate Distribution problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smallest Subarray with sum greater than a given value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Three way partitioning of an array around a given value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum swaps required bring elements less equal K together</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum no. of operations required to make an array palindrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median of 2 sorted arrays of equal size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median of 2 sorted arrays of different size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spiral traversal on a Matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search an element in a matriix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find median in a row wise sorted matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find row with maximum no. of 1's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print elements in sorted order using row-column wise sorted matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum size rectangle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a specific pair in matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotate matrix by 90 degrees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth smallest element in a row-cpumn wise sorted matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Common elements in all rows of a given matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check whether a String is Palindrome or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Duplicate characters in a string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why strings are immutable in Java?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a Code to check whether one string is a rotation of another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a Program to check whether a string is a valid shuffle of two strings or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count and Say problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Longest Recurring Subsequence in String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print all Subsequences of a string.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print all the permutations of the given string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Split the Binary string into two substring with equal 0’s and 1’s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word Wrap Problem [VERY IMP].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDIT Distance [Very Imp]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find next greater number with same set of digits. [Very Very IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balanced Parenthesis problem.[Imp]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word break Problem[ Very Imp]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rabin Karp Algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KMP Algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert a Sentence into its equivalent mobile numeric keypad sequence.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum number of bracket reversals needed to make an expression balanced.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count All Palindromic Subsequence in a given String.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of number of given string in 2D character array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search a Word in a 2D Grid of characters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boyer Moore Algorithm for Pattern Searching.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Converting Roman Numerals to Decimal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Common Prefix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of flips to make binary string alternate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the first repeated word in string.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum number of swaps for bracket balancing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the longest common subsequence between two strings.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program to generate all possible valid IP addresses from given  string.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program tofind the smallest window that contains all characters of string itself.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rearrange characters in a string such that no two adjacent are same</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum characters to be added at front to make string palindrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a sequence of words, print all anagrams together</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the smallest window in a string containing all characters of another string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recursively remove all adjacent duplicates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String matching where one string contains wildcard characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Function to find Number of customers who could not get a computer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transform One String to Another using Minimum Number of Given Operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if two given strings are isomorphic to each other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recursively print all sentences that can be formed from list of word lists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Searching &amp; Sorting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find first and last positions of an element in a sorted array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a Fixed Point (Value equal to index) in a given array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search in a rotated sorted array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">square root of an integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum and minimum of an array using minimum number of comparisons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimum location of point to minimize total distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the repeating and the missing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find majority element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Searching in an array where adjacent differ by at most k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find a pair with a given difference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find four elements that sum to a given value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maximum sum such that no 2 elements are adjacent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count triplet with sum smaller than a given value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merge 2 sorted arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">print all subarrays with 0 sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product array Puzzle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort array according to count of set bits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minimum no. of swaps required to sort the array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bishu and Soldiers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rasta and Kheshtak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth smallest number again</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find pivot element in a sorted array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K-th Element of Two Sorted Arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aggressive cows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Book Allocation Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKOSPOJ:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job Scheduling Algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missing Number in AP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smallest number with atleastn trailing zeroes infactorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Painters Partition Problem:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROTI-Prata SPOJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DoubleHelix SPOJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subset Sums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Findthe inversion count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Merge-sort in-place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partitioning and Sorting Arrays with Many Repeated Entries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LinkedList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a Program to reverse the Linked List. (Both Iterative and recursive)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a Linked List in group of Given Size. [Very Imp]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program to Detect loop in a linked list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program to Delete loop in a linked list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the starting point of the loop. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Duplicates in a sorted Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Duplicates in a Un-sorted Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a Program to Move the last element to Front in a Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add “1” to a number represented as a Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add two numbers represented by linked lists.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intersection of two Sorted Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intersection Point of two Linked Lists.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge Sort For Linked lists.[Very Important]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quicksort for Linked Lists.[Very Important]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the middle Element of a linked list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if a linked list is a circular linked list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Split a Circular linked list into two halves.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a Program to check whether the Singly Linked list is a palindrome or not.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deletion from a Circular Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a Doubly Linked list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find pairs with a given sum in a DLL.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count triplets in a sorted DLL whose sum is equal to given value “X”.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort a “k”sorted Doubly Linked list.[Very IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotate DoublyLinked list by N nodes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotate a Doubly Linked list in group of Given Size.[Very IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can we reverse a linked list in less than O(n) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why Quicksort is preferred for. Arrays and Merge Sort for LinkedLists ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flatten a Linked List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort a LL of 0's, 1's and 2's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clone a linked list with next and random pointer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge K sorted Linked list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiply 2 no. represented by LL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete nodes which have a greater value on right side</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segregate even and odd nodes in a Linked List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program for n’th node from the end of a Linked List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the first non-repeating character from a stream of characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binary Trees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">level order traversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse Level Order traversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Height of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mirror of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Left View of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Right View of Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Top View of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bottom View of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zig-Zag traversal of a binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if a tree is balanced or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diagnol Traversal of a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boundary traversal of a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct Binary Tree from String with Bracket Representation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert Binary tree into Doubly Linked List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert Binary tree into Sum tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct Binary tree from Inorder and preorder traversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find minimum swaps required to convert a Binary tree into BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if Binary tree is Sum tree or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if all leaf nodes are at same level or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if 2 trees are mirror or not</t>
+    <t>Find longest coinsecutive subsequence</t>
+  </si>
+  <si>
+    <t>Given an array of size n and a number k, fin all elements that appear more than " n/k " times.</t>
+  </si>
+  <si>
+    <t>Maximum profit by buying and selling a share atmost twice</t>
+  </si>
+  <si>
+    <t>Find whether an array is a subset of another array</t>
+  </si>
+  <si>
+    <t>Find the triplet that sum to a given value</t>
+  </si>
+  <si>
+    <t>Trapping Rain water problem</t>
+  </si>
+  <si>
+    <t>Chocolate Distribution problem</t>
+  </si>
+  <si>
+    <t>Smallest Subarray with sum greater than a given value</t>
+  </si>
+  <si>
+    <t>Three way partitioning of an array around a given value</t>
+  </si>
+  <si>
+    <t>Minimum swaps required bring elements less equal K together</t>
+  </si>
+  <si>
+    <t>Minimum no. of operations required to make an array palindrome</t>
+  </si>
+  <si>
+    <t>Median of 2 sorted arrays of equal size</t>
+  </si>
+  <si>
+    <t>Median of 2 sorted arrays of different size</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>Spiral traversal on a Matrix</t>
+  </si>
+  <si>
+    <t>Search an element in a matriix</t>
+  </si>
+  <si>
+    <t>Find median in a row wise sorted matrix</t>
+  </si>
+  <si>
+    <t>Find row with maximum no. of 1's</t>
+  </si>
+  <si>
+    <t>Print elements in sorted order using row-column wise sorted matrix</t>
+  </si>
+  <si>
+    <t>Maximum size rectangle</t>
+  </si>
+  <si>
+    <t>Find a specific pair in matrix</t>
+  </si>
+  <si>
+    <t>Rotate matrix by 90 degrees</t>
+  </si>
+  <si>
+    <t>Kth smallest element in a row-cpumn wise sorted matrix</t>
+  </si>
+  <si>
+    <t>Common elements in all rows of a given matrix</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Reverse a String</t>
+  </si>
+  <si>
+    <t>Check whether a String is Palindrome or not</t>
+  </si>
+  <si>
+    <t>Find Duplicate characters in a string</t>
+  </si>
+  <si>
+    <t>Why strings are immutable in Java?</t>
+  </si>
+  <si>
+    <t>Write a Code to check whether one string is a rotation of another</t>
+  </si>
+  <si>
+    <t>Write a Program to check whether a string is a valid shuffle of two strings or not</t>
+  </si>
+  <si>
+    <t>Count and Say problem</t>
+  </si>
+  <si>
+    <t>Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]</t>
+  </si>
+  <si>
+    <t>Find Longest Recurring Subsequence in String</t>
+  </si>
+  <si>
+    <t>Print all Subsequences of a string.</t>
+  </si>
+  <si>
+    <t>Print all the permutations of the given string</t>
+  </si>
+  <si>
+    <t>Split the Binary string into two substring with equal 0’s and 1’s</t>
+  </si>
+  <si>
+    <t>Word Wrap Problem [VERY IMP].</t>
+  </si>
+  <si>
+    <t>EDIT Distance [Very Imp]</t>
+  </si>
+  <si>
+    <t>Find next greater number with same set of digits. [Very Very IMP]</t>
+  </si>
+  <si>
+    <t>Balanced Parenthesis problem.[Imp]</t>
+  </si>
+  <si>
+    <t>Word break Problem[ Very Imp]</t>
+  </si>
+  <si>
+    <t>Rabin Karp Algo</t>
+  </si>
+  <si>
+    <t>KMP Algo</t>
+  </si>
+  <si>
+    <t>Convert a Sentence into its equivalent mobile numeric keypad sequence.</t>
+  </si>
+  <si>
+    <t>Minimum number of bracket reversals needed to make an expression balanced.</t>
+  </si>
+  <si>
+    <t>Count All Palindromic Subsequence in a given String.</t>
+  </si>
+  <si>
+    <t>Count of number of given string in 2D character array</t>
+  </si>
+  <si>
+    <t>Search a Word in a 2D Grid of characters.</t>
+  </si>
+  <si>
+    <t>Boyer Moore Algorithm for Pattern Searching.</t>
+  </si>
+  <si>
+    <t>Converting Roman Numerals to Decimal</t>
+  </si>
+  <si>
+    <t>Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>Number of flips to make binary string alternate</t>
+  </si>
+  <si>
+    <t>Find the first repeated word in string.</t>
+  </si>
+  <si>
+    <t>Minimum number of swaps for bracket balancing.</t>
+  </si>
+  <si>
+    <t>Find the longest common subsequence between two strings.</t>
+  </si>
+  <si>
+    <t>Program to generate all possible valid IP addresses from given  string.</t>
+  </si>
+  <si>
+    <t>Write a program tofind the smallest window that contains all characters of string itself.</t>
+  </si>
+  <si>
+    <t>Rearrange characters in a string such that no two adjacent are same</t>
+  </si>
+  <si>
+    <t>Minimum characters to be added at front to make string palindrome</t>
+  </si>
+  <si>
+    <t>Given a sequence of words, print all anagrams together</t>
+  </si>
+  <si>
+    <t>Find the smallest window in a string containing all characters of another string</t>
+  </si>
+  <si>
+    <t>Recursively remove all adjacent duplicates</t>
+  </si>
+  <si>
+    <t>String matching where one string contains wildcard characters</t>
+  </si>
+  <si>
+    <t>Function to find Number of customers who could not get a computer</t>
+  </si>
+  <si>
+    <t>Transform One String to Another using Minimum Number of Given Operation</t>
+  </si>
+  <si>
+    <t>Check if two given strings are isomorphic to each other</t>
+  </si>
+  <si>
+    <t>Recursively print all sentences that can be formed from list of word lists</t>
+  </si>
+  <si>
+    <t>Searching &amp; Sorting</t>
+  </si>
+  <si>
+    <t>Find first and last positions of an element in a sorted array</t>
+  </si>
+  <si>
+    <t>Find a Fixed Point (Value equal to index) in a given array</t>
+  </si>
+  <si>
+    <t>Search in a rotated sorted array</t>
+  </si>
+  <si>
+    <t>square root of an integer</t>
+  </si>
+  <si>
+    <t>Maximum and minimum of an array using minimum number of comparisons</t>
+  </si>
+  <si>
+    <t>Optimum location of point to minimize total distance</t>
+  </si>
+  <si>
+    <t>Find the repeating and the missing</t>
+  </si>
+  <si>
+    <t>find majority element</t>
+  </si>
+  <si>
+    <t>Searching in an array where adjacent differ by at most k</t>
+  </si>
+  <si>
+    <t>find a pair with a given difference</t>
+  </si>
+  <si>
+    <t>find four elements that sum to a given value</t>
+  </si>
+  <si>
+    <t>maximum sum such that no 2 elements are adjacent</t>
+  </si>
+  <si>
+    <t>Count triplet with sum smaller than a given value</t>
+  </si>
+  <si>
+    <t>merge 2 sorted arrays</t>
+  </si>
+  <si>
+    <t>print all subarrays with 0 sum</t>
+  </si>
+  <si>
+    <t>Product array Puzzle</t>
+  </si>
+  <si>
+    <t>Sort array according to count of set bits</t>
+  </si>
+  <si>
+    <t>minimum no. of swaps required to sort the array</t>
+  </si>
+  <si>
+    <t>Bishu and Soldiers</t>
+  </si>
+  <si>
+    <t>Rasta and Kheshtak</t>
+  </si>
+  <si>
+    <t>Kth smallest number again</t>
+  </si>
+  <si>
+    <t>Find pivot element in a sorted array</t>
+  </si>
+  <si>
+    <t>K-th Element of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Aggressive cows</t>
+  </si>
+  <si>
+    <t>Book Allocation Problem</t>
+  </si>
+  <si>
+    <t>EKOSPOJ:</t>
+  </si>
+  <si>
+    <t>Job Scheduling Algo</t>
+  </si>
+  <si>
+    <t>Missing Number in AP</t>
+  </si>
+  <si>
+    <t>Smallest number with atleastn trailing zeroes infactorial</t>
+  </si>
+  <si>
+    <t>Painters Partition Problem:</t>
+  </si>
+  <si>
+    <t>ROTI-Prata SPOJ</t>
+  </si>
+  <si>
+    <t>DoubleHelix SPOJ</t>
+  </si>
+  <si>
+    <t>Subset Sums</t>
+  </si>
+  <si>
+    <t>Findthe inversion count</t>
+  </si>
+  <si>
+    <t>Implement Merge-sort in-place</t>
+  </si>
+  <si>
+    <t>Partitioning and Sorting Arrays with Many Repeated Entries</t>
+  </si>
+  <si>
+    <t>LinkedList</t>
+  </si>
+  <si>
+    <t>Write a Program to reverse the Linked List. (Both Iterative and recursive)</t>
+  </si>
+  <si>
+    <t>Reverse a Linked List in group of Given Size. [Very Imp]</t>
+  </si>
+  <si>
+    <t>Write a program to Detect loop in a linked list.</t>
+  </si>
+  <si>
+    <t>Write a program to Delete loop in a linked list.</t>
+  </si>
+  <si>
+    <t>Find the starting point of the loop. </t>
+  </si>
+  <si>
+    <t>Remove Duplicates in a sorted Linked List.</t>
+  </si>
+  <si>
+    <t>Remove Duplicates in a Un-sorted Linked List.</t>
+  </si>
+  <si>
+    <t>Write a Program to Move the last element to Front in a Linked List.</t>
+  </si>
+  <si>
+    <t>Add “1” to a number represented as a Linked List.</t>
+  </si>
+  <si>
+    <t>Add two numbers represented by linked lists.</t>
+  </si>
+  <si>
+    <t>Intersection of two Sorted Linked List.</t>
+  </si>
+  <si>
+    <t>Intersection Point of two Linked Lists.</t>
+  </si>
+  <si>
+    <t>Merge Sort For Linked lists.[Very Important]</t>
+  </si>
+  <si>
+    <t>Quicksort for Linked Lists.[Very Important]</t>
+  </si>
+  <si>
+    <t>Find the middle Element of a linked list.</t>
+  </si>
+  <si>
+    <t>Check if a linked list is a circular linked list.</t>
+  </si>
+  <si>
+    <t>Split a Circular linked list into two halves.</t>
+  </si>
+  <si>
+    <t>Write a Program to check whether the Singly Linked list is a palindrome or not.</t>
+  </si>
+  <si>
+    <t>Deletion from a Circular Linked List.</t>
+  </si>
+  <si>
+    <t>Reverse a Doubly Linked list.</t>
+  </si>
+  <si>
+    <t>Find pairs with a given sum in a DLL.</t>
+  </si>
+  <si>
+    <t>Count triplets in a sorted DLL whose sum is equal to given value “X”.</t>
+  </si>
+  <si>
+    <t>Sort a “k”sorted Doubly Linked list.[Very IMP]</t>
+  </si>
+  <si>
+    <t>Rotate DoublyLinked list by N nodes.</t>
+  </si>
+  <si>
+    <t>Rotate a Doubly Linked list in group of Given Size.[Very IMP]</t>
+  </si>
+  <si>
+    <t>Can we reverse a linked list in less than O(n) ?</t>
+  </si>
+  <si>
+    <t>Why Quicksort is preferred for. Arrays and Merge Sort for LinkedLists ?</t>
+  </si>
+  <si>
+    <t>Flatten a Linked List</t>
+  </si>
+  <si>
+    <t>Sort a LL of 0's, 1's and 2's</t>
+  </si>
+  <si>
+    <t>Clone a linked list with next and random pointer</t>
+  </si>
+  <si>
+    <t>Merge K sorted Linked list</t>
+  </si>
+  <si>
+    <t>Multiply 2 no. represented by LL</t>
+  </si>
+  <si>
+    <t>Delete nodes which have a greater value on right side</t>
+  </si>
+  <si>
+    <t>Segregate even and odd nodes in a Linked List</t>
+  </si>
+  <si>
+    <t>Program for n’th node from the end of a Linked List</t>
+  </si>
+  <si>
+    <t>Find the first non-repeating character from a stream of characters</t>
+  </si>
+  <si>
+    <t>Binary Trees</t>
+  </si>
+  <si>
+    <t>level order traversal</t>
+  </si>
+  <si>
+    <t>Reverse Level Order traversal</t>
+  </si>
+  <si>
+    <t>Height of a tree</t>
+  </si>
+  <si>
+    <t>Diameter of a tree</t>
+  </si>
+  <si>
+    <t>Mirror of a tree</t>
+  </si>
+  <si>
+    <t>Inorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t>Preorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t>Postorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t>Left View of a tree</t>
+  </si>
+  <si>
+    <t>Right View of Tree</t>
+  </si>
+  <si>
+    <t>Top View of a tree</t>
+  </si>
+  <si>
+    <t>Bottom View of a tree</t>
+  </si>
+  <si>
+    <t>Zig-Zag traversal of a binary tree</t>
+  </si>
+  <si>
+    <t>Check if a tree is balanced or not</t>
+  </si>
+  <si>
+    <t>Diagnol Traversal of a Binary tree</t>
+  </si>
+  <si>
+    <t>Boundary traversal of a Binary tree</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from String with Bracket Representation</t>
+  </si>
+  <si>
+    <t>Convert Binary tree into Doubly Linked List</t>
+  </si>
+  <si>
+    <t>Convert Binary tree into Sum tree</t>
+  </si>
+  <si>
+    <t>Construct Binary tree from Inorder and preorder traversal</t>
+  </si>
+  <si>
+    <t>Find minimum swaps required to convert a Binary tree into BST</t>
+  </si>
+  <si>
+    <t>Check if Binary tree is Sum tree or not</t>
+  </si>
+  <si>
+    <t>Check if all leaf nodes are at same level or not</t>
+  </si>
+  <si>
+    <t>Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]</t>
+  </si>
+  <si>
+    <t>Check if 2 trees are mirror or not</t>
   </si>
   <si>
     <t xml:space="preserve">Sum of Nodes on the Longest path from root to leaf node </t>
   </si>
   <si>
-    <t xml:space="preserve">Check if given graph is tree or not.  [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Largest subtree sum in a tree</t>
+    <t>Check if given graph is tree or not.  [ IMP ]</t>
+  </si>
+  <si>
+    <t>Find Largest subtree sum in a tree</t>
   </si>
   <si>
     <t xml:space="preserve">Maximum Sum of nodes in Binary tree such that no two are adjacent </t>
   </si>
   <si>
-    <t xml:space="preserve">Print all "K" Sum paths in a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find LCA in a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find distance between 2 nodes in a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth Ancestor of node in a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find all Duplicate subtrees in a Binary tree [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tree Isomorphism Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binary Search Trees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fina a value in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deletion of a node in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find min and max value in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find inorder successor and inorder predecessor in a BST</t>
+    <t>Print all "K" Sum paths in a Binary tree</t>
+  </si>
+  <si>
+    <t>Find LCA in a Binary tree</t>
+  </si>
+  <si>
+    <t>Find distance between 2 nodes in a Binary tree</t>
+  </si>
+  <si>
+    <t>Kth Ancestor of node in a Binary tree</t>
+  </si>
+  <si>
+    <t>Find all Duplicate subtrees in a Binary tree [ IMP ]</t>
+  </si>
+  <si>
+    <t>Tree Isomorphism Problem</t>
+  </si>
+  <si>
+    <t>Binary Search Trees</t>
+  </si>
+  <si>
+    <t>Fina a value in a BST</t>
+  </si>
+  <si>
+    <t>Deletion of a node in a BST</t>
+  </si>
+  <si>
+    <t>Find min and max value in a BST</t>
+  </si>
+  <si>
+    <t>Find inorder successor and inorder predecessor in a BST</t>
   </si>
   <si>
     <t xml:space="preserve">Check if a tree is a BST or not </t>
   </si>
   <si>
-    <t xml:space="preserve">Populate Inorder successor of all nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find LCA  of 2 nodes in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct BST from preorder traversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert Binary tree into BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert a normal BST into a Balanced BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge two BST [ V.V.V&gt;IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Kth largest element in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Kth smallest element in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count pairs from 2 BST whose sum is equal to given value "X"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the median of BST in O(n) time and O(1) space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count BST ndoes that lie in a given range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Replace every element with the least greater element on its right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given "n" appointments, find the conflicting appointments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check preorder is valid or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check whether BST contains Dead end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largest BST in a Binary Tree [ V.V.V.V.V IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flatten BST to sorted list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greedy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activity Selection Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job SequencingProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huffman Coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Connection Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fractional Knapsack Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greedy Algorithm to find Minimum number of Coins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum trains for which stoppage can be provided</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Platforms Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buy Maximum Stocks if i stocks can be bought on i-th day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the minimum and maximum amount to buy all N candies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimize Cash Flow among a given set of friends who have borrowed money from each other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Cost to cut a board into squares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if it is possible to survive on Island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find maximum meetings in one room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum product subset of an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximize array sum after K negations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximize the sum of arr[i]*i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum sum of absolute difference of an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximize sum of consecutive differences in a circular array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum sum of absolute difference of pairs of two arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program for Shortest Job First (or SJF) CPU Scheduling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program for Least Recently Used (LRU) Page Replacement algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smallest subset with sum greater than all other elements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chocolate Distribution Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFKIN -Defense of a Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIEHARD -DIE HARD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GERGOVIA -Wine trading in Gergovia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Picking Up Chicks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHOCOLA –Chocolate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARRANGE -Arranging Amplifiers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K Centers Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Cost of ropes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find smallest number with given number of digits and sum of digits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find maximum sum possible equal sum of three stacks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackTracking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rat in a maze Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Printing all solutions in N-Queen Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word Break Problem using Backtracking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Invalid Parentheses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudoku Solver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m Coloring Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print all palindromic partitions of a string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subset Sum Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Knight’s tour problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tug of War</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find shortest safe route in a path with landmines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combinational Sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Maximum number possible by doing at-most K swaps</t>
+    <t>Populate Inorder successor of all nodes</t>
+  </si>
+  <si>
+    <t>Find LCA  of 2 nodes in a BST</t>
+  </si>
+  <si>
+    <t>Construct BST from preorder traversal</t>
+  </si>
+  <si>
+    <t>Convert Binary tree into BST</t>
+  </si>
+  <si>
+    <t>Convert a normal BST into a Balanced BST</t>
+  </si>
+  <si>
+    <t>Merge two BST [ V.V.V&gt;IMP ]</t>
+  </si>
+  <si>
+    <t>Find Kth largest element in a BST</t>
+  </si>
+  <si>
+    <t>Find Kth smallest element in a BST</t>
+  </si>
+  <si>
+    <t>Count pairs from 2 BST whose sum is equal to given value "X"</t>
+  </si>
+  <si>
+    <t>Find the median of BST in O(n) time and O(1) space</t>
+  </si>
+  <si>
+    <t>Count BST ndoes that lie in a given range</t>
+  </si>
+  <si>
+    <t>Replace every element with the least greater element on its right</t>
+  </si>
+  <si>
+    <t>Given "n" appointments, find the conflicting appointments</t>
+  </si>
+  <si>
+    <t>Check preorder is valid or not</t>
+  </si>
+  <si>
+    <t>Check whether BST contains Dead end</t>
+  </si>
+  <si>
+    <t>Largest BST in a Binary Tree [ V.V.V.V.V IMP ]</t>
+  </si>
+  <si>
+    <t>Flatten BST to sorted list</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>Activity Selection Problem</t>
+  </si>
+  <si>
+    <t>Job SequencingProblem</t>
+  </si>
+  <si>
+    <t>Huffman Coding</t>
+  </si>
+  <si>
+    <t>Water Connection Problem</t>
+  </si>
+  <si>
+    <t>Fractional Knapsack Problem</t>
+  </si>
+  <si>
+    <t>Greedy Algorithm to find Minimum number of Coins</t>
+  </si>
+  <si>
+    <t>Maximum trains for which stoppage can be provided</t>
+  </si>
+  <si>
+    <t>Minimum Platforms Problem</t>
+  </si>
+  <si>
+    <t>Buy Maximum Stocks if i stocks can be bought on i-th day</t>
+  </si>
+  <si>
+    <t>Find the minimum and maximum amount to buy all N candies</t>
+  </si>
+  <si>
+    <t>Minimize Cash Flow among a given set of friends who have borrowed money from each other</t>
+  </si>
+  <si>
+    <t>Minimum Cost to cut a board into squares</t>
+  </si>
+  <si>
+    <t>Check if it is possible to survive on Island</t>
+  </si>
+  <si>
+    <t>Find maximum meetings in one room</t>
+  </si>
+  <si>
+    <t>Maximum product subset of an array</t>
+  </si>
+  <si>
+    <t>Maximize array sum after K negations</t>
+  </si>
+  <si>
+    <t>Maximize the sum of arr[i]*i</t>
+  </si>
+  <si>
+    <t>Maximum sum of absolute difference of an array</t>
+  </si>
+  <si>
+    <t>Maximize sum of consecutive differences in a circular array</t>
+  </si>
+  <si>
+    <t>Minimum sum of absolute difference of pairs of two arrays</t>
+  </si>
+  <si>
+    <t>Program for Shortest Job First (or SJF) CPU Scheduling</t>
+  </si>
+  <si>
+    <t>Program for Least Recently Used (LRU) Page Replacement algorithm</t>
+  </si>
+  <si>
+    <t>Smallest subset with sum greater than all other elements</t>
+  </si>
+  <si>
+    <t>Chocolate Distribution Problem</t>
+  </si>
+  <si>
+    <t>DEFKIN -Defense of a Kingdom</t>
+  </si>
+  <si>
+    <t>DIEHARD -DIE HARD</t>
+  </si>
+  <si>
+    <t>GERGOVIA -Wine trading in Gergovia</t>
+  </si>
+  <si>
+    <t>Picking Up Chicks</t>
+  </si>
+  <si>
+    <t>CHOCOLA –Chocolate</t>
+  </si>
+  <si>
+    <t>ARRANGE -Arranging Amplifiers</t>
+  </si>
+  <si>
+    <t>K Centers Problem</t>
+  </si>
+  <si>
+    <t>Minimum Cost of ropes</t>
+  </si>
+  <si>
+    <t>Find smallest number with given number of digits and sum of digits</t>
+  </si>
+  <si>
+    <t>Find maximum sum possible equal sum of three stacks</t>
+  </si>
+  <si>
+    <t>BackTracking</t>
+  </si>
+  <si>
+    <t>Rat in a maze Problem</t>
+  </si>
+  <si>
+    <t>Printing all solutions in N-Queen Problem</t>
+  </si>
+  <si>
+    <t>Word Break Problem using Backtracking</t>
+  </si>
+  <si>
+    <t>Remove Invalid Parentheses</t>
+  </si>
+  <si>
+    <t>Sudoku Solver</t>
+  </si>
+  <si>
+    <t>m Coloring Problem</t>
+  </si>
+  <si>
+    <t>Print all palindromic partitions of a string</t>
+  </si>
+  <si>
+    <t>Subset Sum Problem</t>
+  </si>
+  <si>
+    <t>The Knight’s tour problem</t>
+  </si>
+  <si>
+    <t>Tug of War</t>
+  </si>
+  <si>
+    <t>Find shortest safe route in a path with landmines</t>
+  </si>
+  <si>
+    <t>Combinational Sum</t>
+  </si>
+  <si>
+    <t>Find Maximum number possible by doing at-most K swaps</t>
   </si>
   <si>
     <t xml:space="preserve">Print all permutations of a string </t>
   </si>
   <si>
-    <t xml:space="preserve">Find if there is a path of more than k length from a source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Possible Route in a Matrix with Hurdles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print all possible paths from top left to bottom right of a mXn matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partition of a set intoK subsets with equal sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the K-th Permutation Sequence of first N natural numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stacks &amp; Queues</t>
+    <t>Find if there is a path of more than k length from a source</t>
+  </si>
+  <si>
+    <t>Longest Possible Route in a Matrix with Hurdles</t>
+  </si>
+  <si>
+    <t>Print all possible paths from top left to bottom right of a mXn matrix</t>
+  </si>
+  <si>
+    <t>Partition of a set intoK subsets with equal sum</t>
+  </si>
+  <si>
+    <t>Find the K-th Permutation Sequence of first N natural numbers</t>
+  </si>
+  <si>
+    <t>Stacks &amp; Queues</t>
   </si>
   <si>
     <t xml:space="preserve"> Implement Stack from Scratch</t>
@@ -889,175 +894,175 @@
     <t xml:space="preserve"> Implement Queue from Scratch</t>
   </si>
   <si>
-    <t xml:space="preserve">Implement 2 stack in an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find the middle element of a stack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement "N" stacks in an Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check the expression has valid or Balanced parenthesis or not.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a String using Stack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design a Stack that supports getMin() in O(1) time and O(1) extra space.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the next Greater element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The celebrity Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arithmetic Expression evaluation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluation of Postfix expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement a method to insert an element at its bottom without using any other data structure.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a stack using recursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort a Stack using recursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge Overlapping Intervals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largest rectangular Area in Histogram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length of the Longest Valid Substring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression contains redundant bracket or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Stack using Queue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Stack using Deque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stack Permutations (Check if an array is stack permutation of other)</t>
+    <t>Implement 2 stack in an array</t>
+  </si>
+  <si>
+    <t>find the middle element of a stack</t>
+  </si>
+  <si>
+    <t>Implement "N" stacks in an Array</t>
+  </si>
+  <si>
+    <t>Check the expression has valid or Balanced parenthesis or not.</t>
+  </si>
+  <si>
+    <t>Reverse a String using Stack</t>
+  </si>
+  <si>
+    <t>Design a Stack that supports getMin() in O(1) time and O(1) extra space.</t>
+  </si>
+  <si>
+    <t>Find the next Greater element</t>
+  </si>
+  <si>
+    <t>The celebrity Problem</t>
+  </si>
+  <si>
+    <t>Arithmetic Expression evaluation</t>
+  </si>
+  <si>
+    <t>Evaluation of Postfix expression</t>
+  </si>
+  <si>
+    <t>Implement a method to insert an element at its bottom without using any other data structure.</t>
+  </si>
+  <si>
+    <t>Reverse a stack using recursion</t>
+  </si>
+  <si>
+    <t>Sort a Stack using recursion</t>
+  </si>
+  <si>
+    <t>Merge Overlapping Intervals</t>
+  </si>
+  <si>
+    <t>Largest rectangular Area in Histogram</t>
+  </si>
+  <si>
+    <t>Length of the Longest Valid Substring</t>
+  </si>
+  <si>
+    <t>Expression contains redundant bracket or not</t>
+  </si>
+  <si>
+    <t>Implement Stack using Queue</t>
+  </si>
+  <si>
+    <t>Implement Stack using Deque</t>
+  </si>
+  <si>
+    <t>Stack Permutations (Check if an array is stack permutation of other)</t>
   </si>
   <si>
     <t xml:space="preserve">Implement Queue using Stack  </t>
   </si>
   <si>
-    <t xml:space="preserve">Implement "n" queue in an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement a Circular queue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LRU Cache Implementationa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a Queue using recursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse the first “K” elements of a queue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interleave the first half of the queue with second half</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the first circular tour that visits all Petrol Pumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum time required to rot all oranges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distance of nearest cell having 1 in a binary matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First negative integer in every window of size “k”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if all levels of two trees are anagrams or not.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sum of minimum and maximum elements of all subarrays of size “k”.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum sum of squares of character counts in a given string after removing “k” characters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queue based approach or first non-repeating character in a stream.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Next Smaller Element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement a Maxheap/MinHeap using arrays and recursion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort an Array using heap. (HeapSort)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum of all subarrays of size k.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“k” largest element in an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth smallest and largest element in an unsorted array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge “K” sorted arrays. [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge 2 Binary Max Heaps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth largest sum continuous subarrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leetcode- reorganize strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge “K” Sorted Linked Lists [V.IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smallest range in “K” Lists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median in a stream of Integers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if a Binary Tree is Heap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connect “n” ropes with minimum cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert BST to Min Heap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert min heap to max heap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rearrange characters in a string such that no two adjacent are same.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum sum of two numbers formed from digits of an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a Graph, print it</t>
+    <t>Implement "n" queue in an array</t>
+  </si>
+  <si>
+    <t>Implement a Circular queue</t>
+  </si>
+  <si>
+    <t>LRU Cache Implementationa</t>
+  </si>
+  <si>
+    <t>Reverse a Queue using recursion</t>
+  </si>
+  <si>
+    <t>Reverse the first “K” elements of a queue</t>
+  </si>
+  <si>
+    <t>Interleave the first half of the queue with second half</t>
+  </si>
+  <si>
+    <t>Find the first circular tour that visits all Petrol Pumps</t>
+  </si>
+  <si>
+    <t>Minimum time required to rot all oranges</t>
+  </si>
+  <si>
+    <t>Distance of nearest cell having 1 in a binary matrix</t>
+  </si>
+  <si>
+    <t>First negative integer in every window of size “k”</t>
+  </si>
+  <si>
+    <t>Check if all levels of two trees are anagrams or not.</t>
+  </si>
+  <si>
+    <t>Sum of minimum and maximum elements of all subarrays of size “k”.</t>
+  </si>
+  <si>
+    <t>Minimum sum of squares of character counts in a given string after removing “k” characters.</t>
+  </si>
+  <si>
+    <t>Queue based approach or first non-repeating character in a stream.</t>
+  </si>
+  <si>
+    <t>Next Smaller Element</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>Implement a Maxheap/MinHeap using arrays and recursion.</t>
+  </si>
+  <si>
+    <t>Sort an Array using heap. (HeapSort)</t>
+  </si>
+  <si>
+    <t>Maximum of all subarrays of size k.</t>
+  </si>
+  <si>
+    <t>“k” largest element in an array</t>
+  </si>
+  <si>
+    <t>Kth smallest and largest element in an unsorted array</t>
+  </si>
+  <si>
+    <t>Merge “K” sorted arrays. [ IMP ]</t>
+  </si>
+  <si>
+    <t>Merge 2 Binary Max Heaps</t>
+  </si>
+  <si>
+    <t>Kth largest sum continuous subarrays</t>
+  </si>
+  <si>
+    <t>Leetcode- reorganize strings</t>
+  </si>
+  <si>
+    <t>Merge “K” Sorted Linked Lists [V.IMP]</t>
+  </si>
+  <si>
+    <t>Smallest range in “K” Lists</t>
+  </si>
+  <si>
+    <t>Median in a stream of Integers</t>
+  </si>
+  <si>
+    <t>Check if a Binary Tree is Heap</t>
+  </si>
+  <si>
+    <t>Connect “n” ropes with minimum cost</t>
+  </si>
+  <si>
+    <t>Convert BST to Min Heap</t>
+  </si>
+  <si>
+    <t>Convert min heap to max heap</t>
+  </si>
+  <si>
+    <t>Rearrange characters in a string such that no two adjacent are same.</t>
+  </si>
+  <si>
+    <t>Minimum sum of two numbers formed from digits of an array</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Create a Graph, print it</t>
   </si>
   <si>
     <t xml:space="preserve">Implement BFS algorithm </t>
@@ -1072,359 +1077,356 @@
     <t xml:space="preserve">Detect Cycle in UnDirected Graph using BFS/DFS Algo </t>
   </si>
   <si>
-    <t xml:space="preserve">Search in a Maze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Step by Knight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flood fill algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clone a graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Making wired Connections</t>
+    <t>Search in a Maze</t>
+  </si>
+  <si>
+    <t>Minimum Step by Knight</t>
+  </si>
+  <si>
+    <t>flood fill algo</t>
+  </si>
+  <si>
+    <t>Clone a graph</t>
+  </si>
+  <si>
+    <t>Making wired Connections</t>
   </si>
   <si>
     <t xml:space="preserve">word Ladder </t>
   </si>
   <si>
-    <t xml:space="preserve">Dijkstra algo</t>
+    <t>Dijkstra algo</t>
   </si>
   <si>
     <t xml:space="preserve">Implement Topological Sort </t>
   </si>
   <si>
-    <t xml:space="preserve">Minimum time taken by each job to be completed given by a Directed Acyclic Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find whether it is possible to finish all tasks or not from given dependencies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the no. of Isalnds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a sorted Dictionary of an Alien Language, find order of characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Kruksal’sAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Prim’s Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total no. of Spanning tree in a graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Bellman Ford Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Floyd warshallAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Travelling Salesman Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph ColouringProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snake and Ladders Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find bridge in a graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count Strongly connected Components(Kosaraju Algo)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check whether a graph is Bipartite or Not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detect Negative cycle in a graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest path in a Directed Acyclic Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Journey to the Moon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheapest Flights Within K Stops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oliver and the Game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Jug problem using BFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find if there is a path of more thank length from a source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M-ColouringProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum edges to reverse o make path from source to destination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paths to travel each nodes using each edge(Seven Bridges)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vertex Cover Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chinese Postman or Route Inspection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Triangles in a Directed and Undirected Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimise the cashflow among a given set of friends who have borrowed money from each other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two Clique Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct a trie from scratch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find shortest unique prefix for every word in a given list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word Break Problem | (Trie solution)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement a Phone Directory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print unique rows in a given boolean matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dynamic Programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coin ChangeProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knapsack Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binomial CoefficientProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permutation CoefficientProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program for nth Catalan Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matrix Chain Multiplication </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit Distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friends Pairing Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold Mine Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assembly Line SchedulingProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Painting the Fenceproblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximize The Cut Segments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Common Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Repeated Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Increasing Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Space Optimized Solution of LCS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCS (Longest Common Subsequence) of three strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum Sum Increasing Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count all subsequences having product less than K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest subsequence such that difference between adjacent is one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum subsequence sum such that no three are consecutive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egg Dropping Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum Length Chain of Pairs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum size square sub-matrix with all 1s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum sum of pairs with specific difference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min Cost PathProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum difference of zeros and ones in binary string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum number of jumps to reach end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum cost to fill given weight in a bag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum removals from array to make max –min &lt;= K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Common Substring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count number of ways to reacha given score in a game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count Balanced Binary Trees of Height h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smallest sum contiguous subarray</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unbounded Knapsack (Repetition of items allowed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word Break Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largest Independent Set Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partition problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Palindromic Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count All Palindromic Subsequence in a given String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Palindromic Substring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest alternating subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weighted Job Scheduling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coin game winner where every player has three choices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum profit by buying and selling a share at most twice [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimal Strategy for a Game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimal Binary Search Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palindrome PartitioningProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word Wrap Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile Numeric Keypad Problem [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boolean Parenthesization Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largest rectangular sub-matrix whose sum is 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum sum rectangle in a 2D matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum profit by buying and selling a share at most k times</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find if a string is interleaved of two other strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum Length of Pair Chain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit Manipulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count set bits in an integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the two non-repeating elements in an array of repeating elements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count number of bits to be flipped to convert A to B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count total set bits in all numbers from 1 to n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program to find whether a no is power of two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find position of the only set bit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copy set bits in a range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divide two integers without using multiplication, division and mod operator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate square of a number without using *, / and pow()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Set</t>
+    <t>Minimum time taken by each job to be completed given by a Directed Acyclic Graph</t>
+  </si>
+  <si>
+    <t>Find whether it is possible to finish all tasks or not from given dependencies</t>
+  </si>
+  <si>
+    <t>Find the no. of Isalnds</t>
+  </si>
+  <si>
+    <t>Given a sorted Dictionary of an Alien Language, find order of characters</t>
+  </si>
+  <si>
+    <t>Implement Kruksal’sAlgorithm</t>
+  </si>
+  <si>
+    <t>Implement Prim’s Algorithm</t>
+  </si>
+  <si>
+    <t>Total no. of Spanning tree in a graph</t>
+  </si>
+  <si>
+    <t>Implement Bellman Ford Algorithm</t>
+  </si>
+  <si>
+    <t>Implement Floyd warshallAlgorithm</t>
+  </si>
+  <si>
+    <t>Travelling Salesman Problem</t>
+  </si>
+  <si>
+    <t>Graph ColouringProblem</t>
+  </si>
+  <si>
+    <t>Snake and Ladders Problem</t>
+  </si>
+  <si>
+    <t>Find bridge in a graph</t>
+  </si>
+  <si>
+    <t>Count Strongly connected Components(Kosaraju Algo)</t>
+  </si>
+  <si>
+    <t>Check whether a graph is Bipartite or Not</t>
+  </si>
+  <si>
+    <t>Detect Negative cycle in a graph</t>
+  </si>
+  <si>
+    <t>Longest path in a Directed Acyclic Graph</t>
+  </si>
+  <si>
+    <t>Journey to the Moon</t>
+  </si>
+  <si>
+    <t>Cheapest Flights Within K Stops</t>
+  </si>
+  <si>
+    <t>Oliver and the Game</t>
+  </si>
+  <si>
+    <t>Water Jug problem using BFS</t>
+  </si>
+  <si>
+    <t>Find if there is a path of more thank length from a source</t>
+  </si>
+  <si>
+    <t>M-ColouringProblem</t>
+  </si>
+  <si>
+    <t>Minimum edges to reverse o make path from source to destination</t>
+  </si>
+  <si>
+    <t>Paths to travel each nodes using each edge(Seven Bridges)</t>
+  </si>
+  <si>
+    <t>Vertex Cover Problem</t>
+  </si>
+  <si>
+    <t>Chinese Postman or Route Inspection</t>
+  </si>
+  <si>
+    <t>Number of Triangles in a Directed and Undirected Graph</t>
+  </si>
+  <si>
+    <t>Minimise the cashflow among a given set of friends who have borrowed money from each other</t>
+  </si>
+  <si>
+    <t>Two Clique Problem</t>
+  </si>
+  <si>
+    <t>Trie</t>
+  </si>
+  <si>
+    <t>Construct a trie from scratch</t>
+  </si>
+  <si>
+    <t>Find shortest unique prefix for every word in a given list</t>
+  </si>
+  <si>
+    <t>Word Break Problem | (Trie solution)</t>
+  </si>
+  <si>
+    <t>Implement a Phone Directory</t>
+  </si>
+  <si>
+    <t>Print unique rows in a given boolean matrix</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>Coin ChangeProblem</t>
+  </si>
+  <si>
+    <t>Knapsack Problem</t>
+  </si>
+  <si>
+    <t>Binomial CoefficientProblem</t>
+  </si>
+  <si>
+    <t>Permutation CoefficientProblem</t>
+  </si>
+  <si>
+    <t>Program for nth Catalan Number</t>
+  </si>
+  <si>
+    <t>Matrix Chain Multiplication </t>
+  </si>
+  <si>
+    <t>Edit Distance</t>
+  </si>
+  <si>
+    <t>Friends Pairing Problem</t>
+  </si>
+  <si>
+    <t>Gold Mine Problem</t>
+  </si>
+  <si>
+    <t>Assembly Line SchedulingProblem</t>
+  </si>
+  <si>
+    <t>Painting the Fenceproblem</t>
+  </si>
+  <si>
+    <t>Maximize The Cut Segments</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>Longest Repeated Subsequence</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>Space Optimized Solution of LCS</t>
+  </si>
+  <si>
+    <t>LCS (Longest Common Subsequence) of three strings</t>
+  </si>
+  <si>
+    <t>Maximum Sum Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>Count all subsequences having product less than K</t>
+  </si>
+  <si>
+    <t>Longest subsequence such that difference between adjacent is one</t>
+  </si>
+  <si>
+    <t>Maximum subsequence sum such that no three are consecutive</t>
+  </si>
+  <si>
+    <t>Egg Dropping Problem</t>
+  </si>
+  <si>
+    <t>Maximum Length Chain of Pairs</t>
+  </si>
+  <si>
+    <t>Maximum size square sub-matrix with all 1s</t>
+  </si>
+  <si>
+    <t>Maximum sum of pairs with specific difference</t>
+  </si>
+  <si>
+    <t>Min Cost PathProblem</t>
+  </si>
+  <si>
+    <t>Maximum difference of zeros and ones in binary string</t>
+  </si>
+  <si>
+    <t>Minimum number of jumps to reach end</t>
+  </si>
+  <si>
+    <t>Minimum cost to fill given weight in a bag</t>
+  </si>
+  <si>
+    <t>Minimum removals from array to make max –min &lt;= K</t>
+  </si>
+  <si>
+    <t>Longest Common Substring</t>
+  </si>
+  <si>
+    <t>Count number of ways to reacha given score in a game</t>
+  </si>
+  <si>
+    <t>Count Balanced Binary Trees of Height h</t>
+  </si>
+  <si>
+    <t>LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]</t>
+  </si>
+  <si>
+    <t>Smallest sum contiguous subarray</t>
+  </si>
+  <si>
+    <t>Unbounded Knapsack (Repetition of items allowed)</t>
+  </si>
+  <si>
+    <t>Word Break Problem</t>
+  </si>
+  <si>
+    <t>Largest Independent Set Problem</t>
+  </si>
+  <si>
+    <t>Partition problem</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Subsequence</t>
+  </si>
+  <si>
+    <t>Count All Palindromic Subsequence in a given String</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>Longest alternating subsequence</t>
+  </si>
+  <si>
+    <t>Weighted Job Scheduling</t>
+  </si>
+  <si>
+    <t>Coin game winner where every player has three choices</t>
+  </si>
+  <si>
+    <t>Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]</t>
+  </si>
+  <si>
+    <t>Maximum profit by buying and selling a share at most twice [ IMP ]</t>
+  </si>
+  <si>
+    <t>Optimal Strategy for a Game</t>
+  </si>
+  <si>
+    <t>Optimal Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Palindrome PartitioningProblem</t>
+  </si>
+  <si>
+    <t>Word Wrap Problem</t>
+  </si>
+  <si>
+    <t>Mobile Numeric Keypad Problem [ IMP ]</t>
+  </si>
+  <si>
+    <t>Boolean Parenthesization Problem</t>
+  </si>
+  <si>
+    <t>Largest rectangular sub-matrix whose sum is 0</t>
+  </si>
+  <si>
+    <t>Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]</t>
+  </si>
+  <si>
+    <t>Maximum sum rectangle in a 2D matrix</t>
+  </si>
+  <si>
+    <t>Maximum profit by buying and selling a share at most k times</t>
+  </si>
+  <si>
+    <t>Find if a string is interleaved of two other strings</t>
+  </si>
+  <si>
+    <t>Maximum Length of Pair Chain</t>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
+  </si>
+  <si>
+    <t>Count set bits in an integer</t>
+  </si>
+  <si>
+    <t>Find the two non-repeating elements in an array of repeating elements</t>
+  </si>
+  <si>
+    <t>Count number of bits to be flipped to convert A to B</t>
+  </si>
+  <si>
+    <t>Count total set bits in all numbers from 1 to n</t>
+  </si>
+  <si>
+    <t>Program to find whether a no is power of two</t>
+  </si>
+  <si>
+    <t>Find position of the only set bit</t>
+  </si>
+  <si>
+    <t>Copy set bits in a range</t>
+  </si>
+  <si>
+    <t>Divide two integers without using multiplication, division and mod operator</t>
+  </si>
+  <si>
+    <t>Calculate square of a number without using *, / and pow()</t>
+  </si>
+  <si>
+    <t>Power Set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1433,30 +1435,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -1464,8 +1450,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1473,7 +1459,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1481,7 +1467,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="16"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -1496,7 +1482,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1515,9 +1501,15 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1525,93 +1517,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1670,40 +1610,348 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A205" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B204" activeCellId="0" sqref="B204"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.5"/>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="2" max="2" width="123" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="26.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" ht="21">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1714,12 +1962,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3">
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" ht="21">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1730,7 +1978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" ht="21">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1741,7 +1989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" ht="21">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1752,7 +2000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" ht="21">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1763,7 +2011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" ht="21">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1774,7 +2022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" ht="21">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -1785,7 +2033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" ht="21">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -1796,7 +2044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3" ht="21">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -1807,7 +2055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:3" ht="21">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -1818,7 +2066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:3" ht="21">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -1829,7 +2077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:3" ht="21">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -1840,7 +2088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:3" ht="21">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -1851,7 +2099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:3" ht="21">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -1862,7 +2110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:3" ht="21">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -1873,7 +2121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:3" ht="21">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -1884,7 +2132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:3" ht="21">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -1895,7 +2143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:3" ht="21">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -1906,7 +2154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:3" ht="21">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -1917,7 +2165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:3" ht="21">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -1928,7 +2176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:3" ht="21">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -1939,7 +2187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:3" ht="21">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
@@ -1950,7 +2198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:3" ht="21">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -1961,7 +2209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:3" ht="21">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
@@ -1972,7 +2220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:3" ht="21">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
@@ -1983,7 +2231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:3" ht="21">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
@@ -1994,7 +2242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:3" ht="21">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
@@ -2005,7 +2253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:3" ht="21">
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
@@ -2016,7 +2264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:3" ht="21">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -2027,7 +2275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:3" ht="21">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
@@ -2038,7 +2286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:3" ht="21">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
@@ -2049,7 +2297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:3" ht="21">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
@@ -2060,7 +2308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:3" ht="21">
       <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
@@ -2071,7 +2319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:3" ht="21">
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
@@ -2082,7 +2330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:3" ht="21">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -2093,7 +2341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:3" ht="21">
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
@@ -2104,7 +2352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:3" ht="21">
       <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
@@ -2115,20 +2363,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:3" ht="21">
       <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:3" ht="21">
       <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:3" ht="21">
       <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
@@ -2139,7 +2387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:3" ht="21">
       <c r="A45" s="6" t="s">
         <v>43</v>
       </c>
@@ -2150,7 +2398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:3" ht="21">
       <c r="A46" s="6" t="s">
         <v>43</v>
       </c>
@@ -2161,7 +2409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:3" ht="21">
       <c r="A47" s="6" t="s">
         <v>43</v>
       </c>
@@ -2172,7 +2420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:3" ht="21">
       <c r="A48" s="6" t="s">
         <v>43</v>
       </c>
@@ -2183,7 +2431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:3" ht="21">
       <c r="A49" s="6" t="s">
         <v>43</v>
       </c>
@@ -2194,7 +2442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:3" ht="21">
       <c r="A50" s="6" t="s">
         <v>43</v>
       </c>
@@ -2205,7 +2453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:3" ht="21">
       <c r="A51" s="6" t="s">
         <v>43</v>
       </c>
@@ -2216,7 +2464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:3" ht="21">
       <c r="A52" s="6" t="s">
         <v>43</v>
       </c>
@@ -2227,7 +2475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:3" ht="21">
       <c r="A53" s="6" t="s">
         <v>43</v>
       </c>
@@ -2238,12 +2486,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:3" ht="21">
       <c r="A55" s="6"/>
       <c r="B55" s="8"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:3" ht="21">
       <c r="A56" s="6" t="s">
         <v>54</v>
       </c>
@@ -2254,7 +2502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:3" ht="21">
       <c r="A57" s="6" t="s">
         <v>54</v>
       </c>
@@ -2265,7 +2513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:3" ht="21">
       <c r="A58" s="6" t="s">
         <v>54</v>
       </c>
@@ -2276,7 +2524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:3" ht="21">
       <c r="A59" s="6" t="s">
         <v>54</v>
       </c>
@@ -2287,7 +2535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:3" ht="21">
       <c r="A60" s="6" t="s">
         <v>54</v>
       </c>
@@ -2298,7 +2546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:3" ht="21">
       <c r="A61" s="6" t="s">
         <v>54</v>
       </c>
@@ -2309,7 +2557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:3" ht="21">
       <c r="A62" s="6" t="s">
         <v>54</v>
       </c>
@@ -2320,7 +2568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:3" ht="21">
       <c r="A63" s="6" t="s">
         <v>54</v>
       </c>
@@ -2331,7 +2579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:3" ht="21">
       <c r="A64" s="6" t="s">
         <v>54</v>
       </c>
@@ -2342,7 +2590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:3" ht="21">
       <c r="A65" s="6" t="s">
         <v>54</v>
       </c>
@@ -2353,7 +2601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:3" ht="21">
       <c r="A66" s="6" t="s">
         <v>54</v>
       </c>
@@ -2364,7 +2612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:3" ht="21">
       <c r="A67" s="6" t="s">
         <v>54</v>
       </c>
@@ -2375,7 +2623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:3" ht="21">
       <c r="A68" s="6" t="s">
         <v>54</v>
       </c>
@@ -2386,7 +2634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:3" ht="21">
       <c r="A69" s="6" t="s">
         <v>54</v>
       </c>
@@ -2397,7 +2645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:3" ht="21">
       <c r="A70" s="6" t="s">
         <v>54</v>
       </c>
@@ -2408,7 +2656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:3" ht="21">
       <c r="A71" s="6" t="s">
         <v>54</v>
       </c>
@@ -2419,7 +2667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:3" ht="21">
       <c r="A72" s="6" t="s">
         <v>54</v>
       </c>
@@ -2430,7 +2678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:3" ht="21">
       <c r="A73" s="6" t="s">
         <v>54</v>
       </c>
@@ -2441,7 +2689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:3" ht="21">
       <c r="A74" s="6" t="s">
         <v>54</v>
       </c>
@@ -2452,7 +2700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:3" ht="21">
       <c r="A75" s="6" t="s">
         <v>54</v>
       </c>
@@ -2463,7 +2711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:3" ht="21">
       <c r="A76" s="6" t="s">
         <v>54</v>
       </c>
@@ -2474,7 +2722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:3" ht="21">
       <c r="A77" s="6" t="s">
         <v>54</v>
       </c>
@@ -2485,7 +2733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:3" ht="21">
       <c r="A78" s="6" t="s">
         <v>54</v>
       </c>
@@ -2496,7 +2744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:3" ht="21">
       <c r="A79" s="6" t="s">
         <v>54</v>
       </c>
@@ -2507,7 +2755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:3" ht="21">
       <c r="A80" s="6" t="s">
         <v>54</v>
       </c>
@@ -2518,7 +2766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:3" ht="21">
       <c r="A81" s="6" t="s">
         <v>54</v>
       </c>
@@ -2529,7 +2777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:3" ht="21">
       <c r="A82" s="6" t="s">
         <v>54</v>
       </c>
@@ -2540,7 +2788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:3" ht="21">
       <c r="A83" s="6" t="s">
         <v>54</v>
       </c>
@@ -2551,7 +2799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:3" ht="21">
       <c r="A84" s="6" t="s">
         <v>54</v>
       </c>
@@ -2562,7 +2810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:3" ht="21">
       <c r="A85" s="6" t="s">
         <v>54</v>
       </c>
@@ -2573,7 +2821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:3" ht="21">
       <c r="A86" s="6" t="s">
         <v>54</v>
       </c>
@@ -2584,7 +2832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:3" ht="21">
       <c r="A87" s="6" t="s">
         <v>54</v>
       </c>
@@ -2595,7 +2843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:3" ht="21">
       <c r="A88" s="6" t="s">
         <v>54</v>
       </c>
@@ -2606,7 +2854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:3" ht="21">
       <c r="A89" s="6" t="s">
         <v>54</v>
       </c>
@@ -2617,7 +2865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:3" ht="21">
       <c r="A90" s="6" t="s">
         <v>54</v>
       </c>
@@ -2628,7 +2876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:3" ht="21">
       <c r="A91" s="6" t="s">
         <v>54</v>
       </c>
@@ -2639,7 +2887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:3" ht="21">
       <c r="A92" s="6" t="s">
         <v>54</v>
       </c>
@@ -2650,7 +2898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:3" ht="21">
       <c r="A93" s="6" t="s">
         <v>54</v>
       </c>
@@ -2661,7 +2909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:3" ht="21">
       <c r="A94" s="6" t="s">
         <v>54</v>
       </c>
@@ -2672,7 +2920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:3" ht="21">
       <c r="A95" s="6" t="s">
         <v>54</v>
       </c>
@@ -2683,7 +2931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:3" ht="21">
       <c r="A96" s="6" t="s">
         <v>54</v>
       </c>
@@ -2694,7 +2942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:3" ht="21">
       <c r="A97" s="6" t="s">
         <v>54</v>
       </c>
@@ -2705,7 +2953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:3" ht="21">
       <c r="A98" s="6" t="s">
         <v>54</v>
       </c>
@@ -2716,12 +2964,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:3" ht="21">
       <c r="A100" s="6"/>
       <c r="B100" s="8"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:3" ht="21">
       <c r="A101" s="6" t="s">
         <v>98</v>
       </c>
@@ -2732,7 +2980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:3" ht="21">
       <c r="A102" s="6" t="s">
         <v>98</v>
       </c>
@@ -2743,7 +2991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:3" ht="21">
       <c r="A103" s="6" t="s">
         <v>98</v>
       </c>
@@ -2754,7 +3002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:3" ht="21">
       <c r="A104" s="6" t="s">
         <v>98</v>
       </c>
@@ -2765,7 +3013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:3" ht="21">
       <c r="A105" s="6" t="s">
         <v>98</v>
       </c>
@@ -2776,7 +3024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:3" ht="21">
       <c r="A106" s="6" t="s">
         <v>98</v>
       </c>
@@ -2787,7 +3035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:3" ht="21">
       <c r="A107" s="6" t="s">
         <v>98</v>
       </c>
@@ -2798,7 +3046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:3" ht="21">
       <c r="A108" s="6" t="s">
         <v>98</v>
       </c>
@@ -2809,7 +3057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:3" ht="21">
       <c r="A109" s="6" t="s">
         <v>98</v>
       </c>
@@ -2820,7 +3068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:3" ht="21">
       <c r="A110" s="6" t="s">
         <v>98</v>
       </c>
@@ -2831,7 +3079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:3" ht="21">
       <c r="A111" s="6" t="s">
         <v>98</v>
       </c>
@@ -2842,7 +3090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:3" ht="21">
       <c r="A112" s="6" t="s">
         <v>98</v>
       </c>
@@ -2853,7 +3101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:3" ht="21">
       <c r="A113" s="6" t="s">
         <v>98</v>
       </c>
@@ -2864,7 +3112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:3" ht="21">
       <c r="A114" s="6" t="s">
         <v>98</v>
       </c>
@@ -2875,7 +3123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:3" ht="21">
       <c r="A115" s="6" t="s">
         <v>98</v>
       </c>
@@ -2886,7 +3134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:3" ht="21">
       <c r="A116" s="6" t="s">
         <v>98</v>
       </c>
@@ -2897,7 +3145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:3" ht="21">
       <c r="A117" s="6" t="s">
         <v>98</v>
       </c>
@@ -2908,7 +3156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:3" ht="21">
       <c r="A118" s="6" t="s">
         <v>98</v>
       </c>
@@ -2919,7 +3167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:3" ht="21">
       <c r="A119" s="6" t="s">
         <v>98</v>
       </c>
@@ -2930,7 +3178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:3" ht="21">
       <c r="A120" s="6" t="s">
         <v>98</v>
       </c>
@@ -2941,7 +3189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:3" ht="21">
       <c r="A121" s="6" t="s">
         <v>98</v>
       </c>
@@ -2952,7 +3200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:3" ht="21">
       <c r="A122" s="6" t="s">
         <v>98</v>
       </c>
@@ -2963,7 +3211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:3" ht="21">
       <c r="A123" s="6" t="s">
         <v>98</v>
       </c>
@@ -2974,7 +3222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:3" ht="21">
       <c r="A124" s="6" t="s">
         <v>98</v>
       </c>
@@ -2985,7 +3233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:3" ht="21">
       <c r="A125" s="6" t="s">
         <v>98</v>
       </c>
@@ -2996,7 +3244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:3" ht="21">
       <c r="A126" s="6" t="s">
         <v>98</v>
       </c>
@@ -3007,7 +3255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:3" ht="21">
       <c r="A127" s="6" t="s">
         <v>98</v>
       </c>
@@ -3018,7 +3266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:3" ht="21">
       <c r="A128" s="6" t="s">
         <v>98</v>
       </c>
@@ -3029,7 +3277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:3" ht="21">
       <c r="A129" s="6" t="s">
         <v>98</v>
       </c>
@@ -3040,7 +3288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:3" ht="21">
       <c r="A130" s="6" t="s">
         <v>98</v>
       </c>
@@ -3051,7 +3299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:3" ht="21">
       <c r="A131" s="6" t="s">
         <v>98</v>
       </c>
@@ -3062,7 +3310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:3" ht="21">
       <c r="A132" s="6" t="s">
         <v>98</v>
       </c>
@@ -3073,7 +3321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:3" ht="21">
       <c r="A133" s="6" t="s">
         <v>98</v>
       </c>
@@ -3084,7 +3332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:3" ht="21">
       <c r="A134" s="6" t="s">
         <v>98</v>
       </c>
@@ -3095,7 +3343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:3" ht="21">
       <c r="A135" s="6" t="s">
         <v>98</v>
       </c>
@@ -3106,7 +3354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:3" ht="21">
       <c r="A136" s="6" t="s">
         <v>98</v>
       </c>
@@ -3117,11 +3365,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:3" ht="21">
       <c r="B138" s="8"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:3" ht="21">
       <c r="A139" s="6" t="s">
         <v>135</v>
       </c>
@@ -3132,7 +3380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:3" ht="21">
       <c r="A140" s="6" t="s">
         <v>135</v>
       </c>
@@ -3143,7 +3391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:3" ht="21">
       <c r="A141" s="6" t="s">
         <v>135</v>
       </c>
@@ -3154,7 +3402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:3" ht="21">
       <c r="A142" s="6" t="s">
         <v>135</v>
       </c>
@@ -3165,7 +3413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:3" ht="21">
       <c r="A143" s="6" t="s">
         <v>135</v>
       </c>
@@ -3176,7 +3424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:3" ht="21">
       <c r="A144" s="6" t="s">
         <v>135</v>
       </c>
@@ -3187,7 +3435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:3" ht="21">
       <c r="A145" s="6" t="s">
         <v>135</v>
       </c>
@@ -3198,7 +3446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:3" ht="21">
       <c r="A146" s="6" t="s">
         <v>135</v>
       </c>
@@ -3209,7 +3457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:3" ht="21">
       <c r="A147" s="6" t="s">
         <v>135</v>
       </c>
@@ -3220,7 +3468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:3" ht="21">
       <c r="A148" s="6" t="s">
         <v>135</v>
       </c>
@@ -3231,7 +3479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:3" ht="21">
       <c r="A149" s="6" t="s">
         <v>135</v>
       </c>
@@ -3242,7 +3490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:3" ht="21">
       <c r="A150" s="6" t="s">
         <v>135</v>
       </c>
@@ -3253,7 +3501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:3" ht="21">
       <c r="A151" s="6" t="s">
         <v>135</v>
       </c>
@@ -3264,7 +3512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:3" ht="21">
       <c r="A152" s="6" t="s">
         <v>135</v>
       </c>
@@ -3275,7 +3523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:3" ht="21">
       <c r="A153" s="6" t="s">
         <v>135</v>
       </c>
@@ -3286,7 +3534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:3" ht="21">
       <c r="A154" s="6" t="s">
         <v>135</v>
       </c>
@@ -3297,7 +3545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:3" ht="21">
       <c r="A155" s="6" t="s">
         <v>135</v>
       </c>
@@ -3308,7 +3556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:3" ht="21">
       <c r="A156" s="6" t="s">
         <v>135</v>
       </c>
@@ -3319,7 +3567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:3" ht="21">
       <c r="A157" s="6" t="s">
         <v>135</v>
       </c>
@@ -3330,7 +3578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:3" ht="21">
       <c r="A158" s="6" t="s">
         <v>135</v>
       </c>
@@ -3341,7 +3589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:3" ht="21">
       <c r="A159" s="6" t="s">
         <v>135</v>
       </c>
@@ -3352,7 +3600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:3" ht="21">
       <c r="A160" s="6" t="s">
         <v>135</v>
       </c>
@@ -3363,7 +3611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:3" ht="21">
       <c r="A161" s="6" t="s">
         <v>135</v>
       </c>
@@ -3374,7 +3622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:3" ht="21">
       <c r="A162" s="6" t="s">
         <v>135</v>
       </c>
@@ -3385,7 +3633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:3" ht="21">
       <c r="A163" s="6" t="s">
         <v>135</v>
       </c>
@@ -3396,7 +3644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:3" ht="21">
       <c r="A164" s="6" t="s">
         <v>135</v>
       </c>
@@ -3407,7 +3655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:3" ht="21">
       <c r="A165" s="6" t="s">
         <v>135</v>
       </c>
@@ -3418,7 +3666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:3" ht="21">
       <c r="A166" s="6" t="s">
         <v>135</v>
       </c>
@@ -3429,7 +3677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:3" ht="21">
       <c r="A167" s="6" t="s">
         <v>135</v>
       </c>
@@ -3440,7 +3688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:3" ht="21">
       <c r="A168" s="6" t="s">
         <v>135</v>
       </c>
@@ -3451,7 +3699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:3" ht="21">
       <c r="A169" s="6" t="s">
         <v>135</v>
       </c>
@@ -3462,7 +3710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:3" ht="21">
       <c r="A170" s="6" t="s">
         <v>135</v>
       </c>
@@ -3473,7 +3721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:3" ht="21">
       <c r="A171" s="6" t="s">
         <v>135</v>
       </c>
@@ -3484,7 +3732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:3" ht="21">
       <c r="A172" s="6" t="s">
         <v>135</v>
       </c>
@@ -3495,7 +3743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:3" ht="21">
       <c r="A173" s="6" t="s">
         <v>135</v>
       </c>
@@ -3506,7 +3754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:3" ht="21">
       <c r="A174" s="6" t="s">
         <v>135</v>
       </c>
@@ -3517,11 +3765,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:3" ht="21">
       <c r="B176" s="8"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:3" ht="21">
       <c r="A177" s="6" t="s">
         <v>172</v>
       </c>
@@ -3532,7 +3780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:3" ht="21">
       <c r="A178" s="6" t="s">
         <v>172</v>
       </c>
@@ -3543,7 +3791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:3" ht="21">
       <c r="A179" s="6" t="s">
         <v>172</v>
       </c>
@@ -3554,7 +3802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:3" ht="21">
       <c r="A180" s="6" t="s">
         <v>172</v>
       </c>
@@ -3565,7 +3813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:3" ht="21">
       <c r="A181" s="6" t="s">
         <v>172</v>
       </c>
@@ -3576,7 +3824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:3" ht="21">
       <c r="A182" s="6" t="s">
         <v>172</v>
       </c>
@@ -3587,7 +3835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:3" ht="21">
       <c r="A183" s="6" t="s">
         <v>172</v>
       </c>
@@ -3598,7 +3846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:3" ht="21">
       <c r="A184" s="6" t="s">
         <v>172</v>
       </c>
@@ -3609,7 +3857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:3" ht="21">
       <c r="A185" s="6" t="s">
         <v>172</v>
       </c>
@@ -3620,7 +3868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:3" ht="21">
       <c r="A186" s="6" t="s">
         <v>172</v>
       </c>
@@ -3631,7 +3879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:3" ht="21">
       <c r="A187" s="6" t="s">
         <v>172</v>
       </c>
@@ -3642,7 +3890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:3" ht="21">
       <c r="A188" s="6" t="s">
         <v>172</v>
       </c>
@@ -3653,7 +3901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:3" ht="21">
       <c r="A189" s="6" t="s">
         <v>172</v>
       </c>
@@ -3664,7 +3912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:3" ht="21">
       <c r="A190" s="6" t="s">
         <v>172</v>
       </c>
@@ -3675,7 +3923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:3" ht="21">
       <c r="A191" s="6" t="s">
         <v>172</v>
       </c>
@@ -3686,7 +3934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:3" ht="21">
       <c r="A192" s="6" t="s">
         <v>172</v>
       </c>
@@ -3697,7 +3945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:3" ht="21">
       <c r="A193" s="6" t="s">
         <v>172</v>
       </c>
@@ -3708,7 +3956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:3" ht="21">
       <c r="A194" s="6" t="s">
         <v>172</v>
       </c>
@@ -3719,7 +3967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:3" ht="21">
       <c r="A195" s="6" t="s">
         <v>172</v>
       </c>
@@ -3730,7 +3978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:3" ht="21">
       <c r="A196" s="6" t="s">
         <v>172</v>
       </c>
@@ -3741,7 +3989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:3" ht="21">
       <c r="A197" s="6" t="s">
         <v>172</v>
       </c>
@@ -3752,7 +4000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:3" ht="21">
       <c r="A198" s="6" t="s">
         <v>172</v>
       </c>
@@ -3763,7 +4011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:3" ht="21">
       <c r="A199" s="6" t="s">
         <v>172</v>
       </c>
@@ -3774,7 +4022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:3" ht="21">
       <c r="A200" s="6" t="s">
         <v>172</v>
       </c>
@@ -3785,7 +4033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:3" ht="21">
       <c r="A201" s="6" t="s">
         <v>172</v>
       </c>
@@ -3796,7 +4044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" spans="1:3" ht="21">
       <c r="A202" s="6" t="s">
         <v>172</v>
       </c>
@@ -3807,7 +4055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:3" ht="21">
       <c r="A203" s="6" t="s">
         <v>172</v>
       </c>
@@ -3818,7 +4066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" spans="1:3" ht="21">
       <c r="A204" s="6" t="s">
         <v>172</v>
       </c>
@@ -3829,7 +4077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:3" ht="21">
       <c r="A205" s="6" t="s">
         <v>172</v>
       </c>
@@ -3840,7 +4088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" spans="1:3" ht="21">
       <c r="A206" s="6" t="s">
         <v>172</v>
       </c>
@@ -3851,7 +4099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:3" ht="21">
       <c r="A207" s="6" t="s">
         <v>172</v>
       </c>
@@ -3862,7 +4110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" spans="1:3" ht="21">
       <c r="A208" s="6" t="s">
         <v>172</v>
       </c>
@@ -3873,7 +4121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" spans="1:3" ht="21">
       <c r="A209" s="6" t="s">
         <v>172</v>
       </c>
@@ -3884,18 +4132,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" spans="1:3" ht="21">
       <c r="A210" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B210" s="7" t="s">
+      <c r="B210" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" spans="1:3" ht="21">
       <c r="A211" s="6" t="s">
         <v>172</v>
       </c>
@@ -3906,17 +4154,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" spans="1:3" ht="21">
       <c r="A212" s="6"/>
       <c r="B212" s="8"/>
       <c r="C212" s="5"/>
     </row>
-    <row r="213" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" spans="1:3" ht="21">
       <c r="A213" s="6"/>
       <c r="B213" s="8"/>
       <c r="C213" s="5"/>
     </row>
-    <row r="214" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" spans="1:3" ht="21">
       <c r="A214" s="6" t="s">
         <v>208</v>
       </c>
@@ -3927,7 +4175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" spans="1:3" ht="21">
       <c r="A215" s="6" t="s">
         <v>208</v>
       </c>
@@ -3938,7 +4186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" spans="1:3" ht="21">
       <c r="A216" s="6" t="s">
         <v>208</v>
       </c>
@@ -3949,7 +4197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" spans="1:3" ht="21">
       <c r="A217" s="6" t="s">
         <v>208</v>
       </c>
@@ -3960,7 +4208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" spans="1:3" ht="21">
       <c r="A218" s="6" t="s">
         <v>208</v>
       </c>
@@ -3971,7 +4219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:3" ht="21">
       <c r="A219" s="6" t="s">
         <v>208</v>
       </c>
@@ -3982,7 +4230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:3" ht="21">
       <c r="A220" s="6" t="s">
         <v>208</v>
       </c>
@@ -3993,7 +4241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:3" ht="21">
       <c r="A221" s="6" t="s">
         <v>208</v>
       </c>
@@ -4004,7 +4252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:3" ht="21">
       <c r="A222" s="6" t="s">
         <v>208</v>
       </c>
@@ -4015,7 +4263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" spans="1:3" ht="21">
       <c r="A223" s="6" t="s">
         <v>208</v>
       </c>
@@ -4026,7 +4274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" spans="1:3" ht="21">
       <c r="A224" s="6" t="s">
         <v>208</v>
       </c>
@@ -4037,7 +4285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" spans="1:3" ht="21">
       <c r="A225" s="6" t="s">
         <v>208</v>
       </c>
@@ -4048,7 +4296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" spans="1:3" ht="21">
       <c r="A226" s="6" t="s">
         <v>208</v>
       </c>
@@ -4059,7 +4307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" spans="1:3" ht="21">
       <c r="A227" s="6" t="s">
         <v>208</v>
       </c>
@@ -4070,7 +4318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" spans="1:3" ht="21">
       <c r="A228" s="6" t="s">
         <v>208</v>
       </c>
@@ -4081,7 +4329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" spans="1:3" ht="21">
       <c r="A229" s="6" t="s">
         <v>208</v>
       </c>
@@ -4092,7 +4340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" spans="1:3" ht="21">
       <c r="A230" s="6" t="s">
         <v>208</v>
       </c>
@@ -4103,7 +4351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" spans="1:3" ht="21">
       <c r="A231" s="6" t="s">
         <v>208</v>
       </c>
@@ -4114,7 +4362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" spans="1:3" ht="21">
       <c r="A232" s="6" t="s">
         <v>208</v>
       </c>
@@ -4125,7 +4373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:3" ht="21">
       <c r="A233" s="6" t="s">
         <v>208</v>
       </c>
@@ -4136,7 +4384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" spans="1:3" ht="21">
       <c r="A234" s="6" t="s">
         <v>208</v>
       </c>
@@ -4147,7 +4395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" spans="1:3" ht="21">
       <c r="A235" s="6" t="s">
         <v>208</v>
       </c>
@@ -4158,15 +4406,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" spans="1:3" ht="21">
       <c r="B236" s="8"/>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" spans="1:3" ht="21">
       <c r="B237" s="8"/>
       <c r="C237" s="5"/>
     </row>
-    <row r="238" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" spans="1:3" ht="21">
       <c r="A238" s="6" t="s">
         <v>231</v>
       </c>
@@ -4177,7 +4425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" spans="1:3" ht="21">
       <c r="A239" s="6" t="s">
         <v>231</v>
       </c>
@@ -4188,7 +4436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" spans="1:3" ht="21">
       <c r="A240" s="6" t="s">
         <v>231</v>
       </c>
@@ -4199,7 +4447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" spans="1:3" ht="21">
       <c r="A241" s="6" t="s">
         <v>231</v>
       </c>
@@ -4210,7 +4458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" spans="1:3" ht="21">
       <c r="A242" s="6" t="s">
         <v>231</v>
       </c>
@@ -4221,7 +4469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" spans="1:3" ht="21">
       <c r="A243" s="6" t="s">
         <v>231</v>
       </c>
@@ -4232,7 +4480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" spans="1:3" ht="21">
       <c r="A244" s="6" t="s">
         <v>231</v>
       </c>
@@ -4243,7 +4491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" spans="1:3" ht="21">
       <c r="A245" s="6" t="s">
         <v>231</v>
       </c>
@@ -4254,7 +4502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" spans="1:3" ht="21">
       <c r="A246" s="6" t="s">
         <v>231</v>
       </c>
@@ -4265,7 +4513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" spans="1:3" ht="21">
       <c r="A247" s="6" t="s">
         <v>231</v>
       </c>
@@ -4276,7 +4524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" spans="1:3" ht="21">
       <c r="A248" s="6" t="s">
         <v>231</v>
       </c>
@@ -4287,7 +4535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" spans="1:3" ht="21">
       <c r="A249" s="6" t="s">
         <v>231</v>
       </c>
@@ -4298,7 +4546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" spans="1:3" ht="21">
       <c r="A250" s="6" t="s">
         <v>231</v>
       </c>
@@ -4309,7 +4557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" spans="1:3" ht="21">
       <c r="A251" s="6" t="s">
         <v>231</v>
       </c>
@@ -4320,7 +4568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" spans="1:3" ht="21">
       <c r="A252" s="6" t="s">
         <v>231</v>
       </c>
@@ -4331,7 +4579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" spans="1:3" ht="21">
       <c r="A253" s="6" t="s">
         <v>231</v>
       </c>
@@ -4342,7 +4590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" spans="1:3" ht="21">
       <c r="A254" s="6" t="s">
         <v>231</v>
       </c>
@@ -4353,7 +4601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" spans="1:3" ht="21">
       <c r="A255" s="6" t="s">
         <v>231</v>
       </c>
@@ -4364,7 +4612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" spans="1:3" ht="21">
       <c r="A256" s="6" t="s">
         <v>231</v>
       </c>
@@ -4375,7 +4623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" spans="1:3" ht="21">
       <c r="A257" s="6" t="s">
         <v>231</v>
       </c>
@@ -4386,7 +4634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" spans="1:3" ht="21">
       <c r="A258" s="6" t="s">
         <v>231</v>
       </c>
@@ -4397,7 +4645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" spans="1:3" ht="21">
       <c r="A259" s="6" t="s">
         <v>231</v>
       </c>
@@ -4408,7 +4656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" spans="1:3" ht="21">
       <c r="A260" s="6" t="s">
         <v>231</v>
       </c>
@@ -4419,7 +4667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" spans="1:3" ht="21">
       <c r="A261" s="6" t="s">
         <v>231</v>
       </c>
@@ -4430,7 +4678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" spans="1:3" ht="21">
       <c r="A262" s="6" t="s">
         <v>231</v>
       </c>
@@ -4441,7 +4689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" spans="1:3" ht="21">
       <c r="A263" s="6" t="s">
         <v>231</v>
       </c>
@@ -4452,7 +4700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" spans="1:3" ht="21">
       <c r="A264" s="6" t="s">
         <v>231</v>
       </c>
@@ -4463,7 +4711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" spans="1:3" ht="21">
       <c r="A265" s="6" t="s">
         <v>231</v>
       </c>
@@ -4474,7 +4722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" spans="1:3" ht="21">
       <c r="A266" s="6" t="s">
         <v>231</v>
       </c>
@@ -4485,7 +4733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" spans="1:3" ht="21">
       <c r="A267" s="6" t="s">
         <v>231</v>
       </c>
@@ -4496,7 +4744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" spans="1:3" ht="21">
       <c r="A268" s="6" t="s">
         <v>231</v>
       </c>
@@ -4507,7 +4755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" spans="1:3" ht="21">
       <c r="A269" s="6" t="s">
         <v>231</v>
       </c>
@@ -4518,7 +4766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" spans="1:3" ht="21">
       <c r="A270" s="6" t="s">
         <v>231</v>
       </c>
@@ -4529,7 +4777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" spans="1:3" ht="21">
       <c r="A271" s="6" t="s">
         <v>231</v>
       </c>
@@ -4540,7 +4788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" spans="1:3" ht="21">
       <c r="A272" s="6" t="s">
         <v>231</v>
       </c>
@@ -4551,15 +4799,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" spans="1:3" ht="21">
       <c r="B273" s="8"/>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" spans="1:3" ht="21">
       <c r="B274" s="8"/>
       <c r="C274" s="5"/>
     </row>
-    <row r="275" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" spans="1:3" ht="21">
       <c r="A275" s="6" t="s">
         <v>266</v>
       </c>
@@ -4570,7 +4818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" spans="1:3" ht="21">
       <c r="A276" s="6" t="s">
         <v>266</v>
       </c>
@@ -4581,7 +4829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" spans="1:3" ht="21">
       <c r="A277" s="6" t="s">
         <v>266</v>
       </c>
@@ -4592,7 +4840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" spans="1:3" ht="21">
       <c r="A278" s="6" t="s">
         <v>266</v>
       </c>
@@ -4603,7 +4851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" spans="1:3" ht="21">
       <c r="A279" s="6" t="s">
         <v>266</v>
       </c>
@@ -4614,7 +4862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" spans="1:3" ht="21">
       <c r="A280" s="6" t="s">
         <v>266</v>
       </c>
@@ -4625,7 +4873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" spans="1:3" ht="21">
       <c r="A281" s="6" t="s">
         <v>266</v>
       </c>
@@ -4636,7 +4884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" spans="1:3" ht="21">
       <c r="A282" s="6" t="s">
         <v>266</v>
       </c>
@@ -4647,7 +4895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" spans="1:3" ht="21">
       <c r="A283" s="6" t="s">
         <v>266</v>
       </c>
@@ -4658,7 +4906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" spans="1:3" ht="21">
       <c r="A284" s="6" t="s">
         <v>266</v>
       </c>
@@ -4669,7 +4917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" spans="1:3" ht="21">
       <c r="A285" s="6" t="s">
         <v>266</v>
       </c>
@@ -4680,7 +4928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" spans="1:3" ht="21">
       <c r="A286" s="6" t="s">
         <v>266</v>
       </c>
@@ -4691,7 +4939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" spans="1:3" ht="21">
       <c r="A287" s="6" t="s">
         <v>266</v>
       </c>
@@ -4702,7 +4950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" spans="1:3" ht="21">
       <c r="A288" s="6" t="s">
         <v>266</v>
       </c>
@@ -4713,7 +4961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" spans="1:3" ht="21">
       <c r="A289" s="6" t="s">
         <v>266</v>
       </c>
@@ -4724,7 +4972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" spans="1:3" ht="21">
       <c r="A290" s="6" t="s">
         <v>266</v>
       </c>
@@ -4735,7 +4983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" spans="1:3" ht="21">
       <c r="A291" s="6" t="s">
         <v>266</v>
       </c>
@@ -4746,7 +4994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" spans="1:3" ht="21">
       <c r="A292" s="6" t="s">
         <v>266</v>
       </c>
@@ -4757,7 +5005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" spans="1:3" ht="21">
       <c r="A293" s="6" t="s">
         <v>266</v>
       </c>
@@ -4768,15 +5016,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" spans="1:3" ht="21">
       <c r="B294" s="8"/>
       <c r="C294" s="5"/>
     </row>
-    <row r="295" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" spans="1:3" ht="21">
       <c r="B295" s="8"/>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" spans="1:3" ht="21">
       <c r="A296" s="6" t="s">
         <v>286</v>
       </c>
@@ -4787,7 +5035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" spans="1:3" ht="21">
       <c r="A297" s="6" t="s">
         <v>286</v>
       </c>
@@ -4798,7 +5046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" spans="1:3" ht="21">
       <c r="A298" s="6" t="s">
         <v>286</v>
       </c>
@@ -4809,7 +5057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" spans="1:3" ht="21">
       <c r="A299" s="6" t="s">
         <v>286</v>
       </c>
@@ -4820,7 +5068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" spans="1:3" ht="21">
       <c r="A300" s="6" t="s">
         <v>286</v>
       </c>
@@ -4831,7 +5079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" spans="1:3" ht="21">
       <c r="A301" s="6" t="s">
         <v>286</v>
       </c>
@@ -4842,7 +5090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" spans="1:3" ht="21">
       <c r="A302" s="6" t="s">
         <v>286</v>
       </c>
@@ -4853,7 +5101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" spans="1:3" ht="21">
       <c r="A303" s="6" t="s">
         <v>286</v>
       </c>
@@ -4864,7 +5112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" spans="1:3" ht="21">
       <c r="A304" s="6" t="s">
         <v>286</v>
       </c>
@@ -4875,7 +5123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" spans="1:3" ht="21">
       <c r="A305" s="6" t="s">
         <v>286</v>
       </c>
@@ -4886,7 +5134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" spans="1:3" ht="21">
       <c r="A306" s="6" t="s">
         <v>286</v>
       </c>
@@ -4897,7 +5145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" spans="1:3" ht="21">
       <c r="A307" s="6" t="s">
         <v>286</v>
       </c>
@@ -4908,7 +5156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" spans="1:3" ht="21">
       <c r="A308" s="6" t="s">
         <v>286</v>
       </c>
@@ -4919,7 +5167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" spans="1:3" ht="21">
       <c r="A309" s="6" t="s">
         <v>286</v>
       </c>
@@ -4930,7 +5178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" spans="1:3" ht="21">
       <c r="A310" s="6" t="s">
         <v>286</v>
       </c>
@@ -4941,7 +5189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" spans="1:3" ht="21">
       <c r="A311" s="6" t="s">
         <v>286</v>
       </c>
@@ -4952,7 +5200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" spans="1:3" ht="21">
       <c r="A312" s="6" t="s">
         <v>286</v>
       </c>
@@ -4963,7 +5211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" spans="1:3" ht="21">
       <c r="A313" s="6" t="s">
         <v>286</v>
       </c>
@@ -4974,7 +5222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" spans="1:3" ht="21">
       <c r="A314" s="6" t="s">
         <v>286</v>
       </c>
@@ -4985,7 +5233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" spans="1:3" ht="21">
       <c r="A315" s="6" t="s">
         <v>286</v>
       </c>
@@ -4996,7 +5244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" spans="1:3" ht="21">
       <c r="A316" s="6" t="s">
         <v>286</v>
       </c>
@@ -5007,7 +5255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" spans="1:3" ht="21">
       <c r="A317" s="6" t="s">
         <v>286</v>
       </c>
@@ -5018,7 +5266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" spans="1:3" ht="21">
       <c r="A318" s="6" t="s">
         <v>286</v>
       </c>
@@ -5029,7 +5277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" spans="1:3" ht="21">
       <c r="A319" s="6" t="s">
         <v>286</v>
       </c>
@@ -5040,7 +5288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" spans="1:3" ht="21">
       <c r="A320" s="6" t="s">
         <v>286</v>
       </c>
@@ -5051,7 +5299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" spans="1:3" ht="21">
       <c r="A321" s="6" t="s">
         <v>286</v>
       </c>
@@ -5062,7 +5310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" spans="1:3" ht="21">
       <c r="A322" s="6" t="s">
         <v>286</v>
       </c>
@@ -5073,7 +5321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" spans="1:3" ht="21">
       <c r="A323" s="6" t="s">
         <v>286</v>
       </c>
@@ -5084,7 +5332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" spans="1:3" ht="21">
       <c r="A324" s="6" t="s">
         <v>286</v>
       </c>
@@ -5095,7 +5343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" spans="1:3" ht="21">
       <c r="A325" s="6" t="s">
         <v>286</v>
       </c>
@@ -5106,7 +5354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" spans="1:3" ht="21">
       <c r="A326" s="6" t="s">
         <v>286</v>
       </c>
@@ -5117,7 +5365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" spans="1:3" ht="21">
       <c r="A327" s="6" t="s">
         <v>286</v>
       </c>
@@ -5128,7 +5376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" spans="1:3" ht="21">
       <c r="A328" s="6" t="s">
         <v>286</v>
       </c>
@@ -5139,7 +5387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" spans="1:3" ht="21">
       <c r="A329" s="6" t="s">
         <v>286</v>
       </c>
@@ -5150,7 +5398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" spans="1:3" ht="21">
       <c r="A330" s="6" t="s">
         <v>286</v>
       </c>
@@ -5161,7 +5409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" spans="1:3" ht="21">
       <c r="A331" s="6" t="s">
         <v>286</v>
       </c>
@@ -5172,7 +5420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" spans="1:3" ht="21">
       <c r="A332" s="6" t="s">
         <v>286</v>
       </c>
@@ -5183,7 +5431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" spans="1:3" ht="21">
       <c r="A333" s="6" t="s">
         <v>286</v>
       </c>
@@ -5194,15 +5442,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" spans="1:3" ht="21">
       <c r="B334" s="8"/>
       <c r="C334" s="5"/>
     </row>
-    <row r="335" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" spans="1:3" ht="21">
       <c r="B335" s="8"/>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" spans="1:3" ht="21">
       <c r="A336" s="6" t="s">
         <v>325</v>
       </c>
@@ -5213,7 +5461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" spans="1:3" ht="21">
       <c r="A337" s="6" t="s">
         <v>325</v>
       </c>
@@ -5224,7 +5472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" spans="1:3" ht="21">
       <c r="A338" s="6" t="s">
         <v>325</v>
       </c>
@@ -5235,7 +5483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" spans="1:3" ht="21">
       <c r="A339" s="6" t="s">
         <v>325</v>
       </c>
@@ -5246,7 +5494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" spans="1:3" ht="21">
       <c r="A340" s="6" t="s">
         <v>325</v>
       </c>
@@ -5257,7 +5505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" spans="1:3" ht="21">
       <c r="A341" s="6" t="s">
         <v>325</v>
       </c>
@@ -5268,7 +5516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" spans="1:3" ht="21">
       <c r="A342" s="6" t="s">
         <v>325</v>
       </c>
@@ -5279,7 +5527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" spans="1:3" ht="21">
       <c r="A343" s="6" t="s">
         <v>325</v>
       </c>
@@ -5290,7 +5538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" spans="1:3" ht="21">
       <c r="A344" s="6" t="s">
         <v>325</v>
       </c>
@@ -5301,7 +5549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" spans="1:3" ht="21">
       <c r="A345" s="6" t="s">
         <v>325</v>
       </c>
@@ -5312,7 +5560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" spans="1:3" ht="21">
       <c r="A346" s="6" t="s">
         <v>325</v>
       </c>
@@ -5323,7 +5571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" spans="1:3" ht="21">
       <c r="A347" s="6" t="s">
         <v>325</v>
       </c>
@@ -5334,7 +5582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" spans="1:3" ht="21">
       <c r="A348" s="6" t="s">
         <v>325</v>
       </c>
@@ -5345,7 +5593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" spans="1:3" ht="21">
       <c r="A349" s="6" t="s">
         <v>325</v>
       </c>
@@ -5356,7 +5604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" spans="1:3" ht="21">
       <c r="A350" s="6" t="s">
         <v>325</v>
       </c>
@@ -5367,7 +5615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" spans="1:3" ht="21">
       <c r="A351" s="6" t="s">
         <v>325</v>
       </c>
@@ -5378,7 +5626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" spans="1:3" ht="21">
       <c r="A352" s="6" t="s">
         <v>325</v>
       </c>
@@ -5389,7 +5637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" spans="1:3" ht="21">
       <c r="A353" s="6" t="s">
         <v>325</v>
       </c>
@@ -5400,15 +5648,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" spans="1:3" ht="21">
       <c r="B354" s="8"/>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" spans="1:3" ht="21">
       <c r="B355" s="8"/>
       <c r="C355" s="5"/>
     </row>
-    <row r="356" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" spans="1:3" ht="21">
       <c r="A356" s="6" t="s">
         <v>344</v>
       </c>
@@ -5419,7 +5667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" spans="1:3" ht="21">
       <c r="A357" s="6" t="s">
         <v>344</v>
       </c>
@@ -5430,7 +5678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" spans="1:3" ht="21">
       <c r="A358" s="6" t="s">
         <v>344</v>
       </c>
@@ -5441,7 +5689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" spans="1:3" ht="21">
       <c r="A359" s="6" t="s">
         <v>344</v>
       </c>
@@ -5452,7 +5700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" spans="1:3" ht="21">
       <c r="A360" s="6" t="s">
         <v>344</v>
       </c>
@@ -5463,7 +5711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" spans="1:3" ht="21">
       <c r="A361" s="6" t="s">
         <v>344</v>
       </c>
@@ -5474,7 +5722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" spans="1:3" ht="21">
       <c r="A362" s="6" t="s">
         <v>344</v>
       </c>
@@ -5485,7 +5733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" spans="1:3" ht="21">
       <c r="A363" s="6" t="s">
         <v>344</v>
       </c>
@@ -5496,7 +5744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" spans="1:3" ht="21">
       <c r="A364" s="6" t="s">
         <v>344</v>
       </c>
@@ -5507,7 +5755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" spans="1:3" ht="21">
       <c r="A365" s="6" t="s">
         <v>344</v>
       </c>
@@ -5518,7 +5766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" spans="1:3" ht="21">
       <c r="A366" s="6" t="s">
         <v>344</v>
       </c>
@@ -5529,7 +5777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" spans="1:3" ht="21">
       <c r="A367" s="6" t="s">
         <v>344</v>
       </c>
@@ -5540,7 +5788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" spans="1:3" ht="21">
       <c r="A368" s="6" t="s">
         <v>344</v>
       </c>
@@ -5551,7 +5799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" spans="1:3" ht="21">
       <c r="A369" s="6" t="s">
         <v>344</v>
       </c>
@@ -5562,7 +5810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" spans="1:3" ht="21">
       <c r="A370" s="6" t="s">
         <v>344</v>
       </c>
@@ -5573,7 +5821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" spans="1:3" ht="21">
       <c r="A371" s="6" t="s">
         <v>344</v>
       </c>
@@ -5584,7 +5832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" spans="1:3" ht="21">
       <c r="A372" s="6" t="s">
         <v>344</v>
       </c>
@@ -5595,7 +5843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" spans="1:3" ht="21">
       <c r="A373" s="6" t="s">
         <v>344</v>
       </c>
@@ -5606,7 +5854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" spans="1:3" ht="21">
       <c r="A374" s="6" t="s">
         <v>344</v>
       </c>
@@ -5617,7 +5865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" spans="1:3" ht="21">
       <c r="A375" s="6" t="s">
         <v>344</v>
       </c>
@@ -5628,7 +5876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" spans="1:3" ht="21">
       <c r="A376" s="6" t="s">
         <v>344</v>
       </c>
@@ -5639,7 +5887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" spans="1:3" ht="21">
       <c r="A377" s="6" t="s">
         <v>344</v>
       </c>
@@ -5650,7 +5898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" spans="1:3" ht="21">
       <c r="A378" s="6" t="s">
         <v>344</v>
       </c>
@@ -5661,7 +5909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" spans="1:3" ht="21">
       <c r="A379" s="6" t="s">
         <v>344</v>
       </c>
@@ -5672,7 +5920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" spans="1:3" ht="21">
       <c r="A380" s="6" t="s">
         <v>344</v>
       </c>
@@ -5683,7 +5931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" spans="1:3" ht="21">
       <c r="A381" s="6" t="s">
         <v>344</v>
       </c>
@@ -5694,7 +5942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" spans="1:3" ht="21">
       <c r="A382" s="6" t="s">
         <v>344</v>
       </c>
@@ -5705,7 +5953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" spans="1:3" ht="21">
       <c r="A383" s="6" t="s">
         <v>344</v>
       </c>
@@ -5716,7 +5964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" spans="1:3" ht="21">
       <c r="A384" s="6" t="s">
         <v>344</v>
       </c>
@@ -5727,7 +5975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" spans="1:3" ht="21">
       <c r="A385" s="6" t="s">
         <v>344</v>
       </c>
@@ -5738,7 +5986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" spans="1:3" ht="21">
       <c r="A386" s="6" t="s">
         <v>344</v>
       </c>
@@ -5749,7 +5997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" spans="1:3" ht="21">
       <c r="A387" s="6" t="s">
         <v>344</v>
       </c>
@@ -5760,7 +6008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" spans="1:3" ht="21">
       <c r="A388" s="6" t="s">
         <v>344</v>
       </c>
@@ -5771,7 +6019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" spans="1:3" ht="21">
       <c r="A389" s="6" t="s">
         <v>344</v>
       </c>
@@ -5782,7 +6030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" spans="1:3" ht="21">
       <c r="A390" s="6" t="s">
         <v>344</v>
       </c>
@@ -5793,7 +6041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" spans="1:3" ht="21">
       <c r="A391" s="6" t="s">
         <v>344</v>
       </c>
@@ -5804,7 +6052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" spans="1:3" ht="21">
       <c r="A392" s="6" t="s">
         <v>344</v>
       </c>
@@ -5815,7 +6063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" spans="1:3" ht="21">
       <c r="A393" s="6" t="s">
         <v>344</v>
       </c>
@@ -5826,7 +6074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" spans="1:3" ht="21">
       <c r="A394" s="6" t="s">
         <v>344</v>
       </c>
@@ -5837,7 +6085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" spans="1:3" ht="21">
       <c r="A395" s="6" t="s">
         <v>344</v>
       </c>
@@ -5848,7 +6096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" spans="1:3" ht="21">
       <c r="A396" s="6" t="s">
         <v>344</v>
       </c>
@@ -5859,7 +6107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" spans="1:3" ht="21">
       <c r="A397" s="6" t="s">
         <v>344</v>
       </c>
@@ -5870,7 +6118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" spans="1:3" ht="21">
       <c r="A398" s="6" t="s">
         <v>344</v>
       </c>
@@ -5881,7 +6129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" spans="1:3" ht="21">
       <c r="A399" s="6" t="s">
         <v>344</v>
       </c>
@@ -5892,15 +6140,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" spans="1:3" ht="21">
       <c r="B400" s="8"/>
       <c r="C400" s="5"/>
     </row>
-    <row r="401" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" spans="1:3" ht="21">
       <c r="B401" s="8"/>
       <c r="C401" s="5"/>
     </row>
-    <row r="402" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" spans="1:3" ht="21">
       <c r="A402" s="6" t="s">
         <v>388</v>
       </c>
@@ -5911,7 +6159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" spans="1:3" ht="21">
       <c r="A403" s="6" t="s">
         <v>388</v>
       </c>
@@ -5922,7 +6170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" spans="1:3" ht="21">
       <c r="A404" s="6" t="s">
         <v>388</v>
       </c>
@@ -5933,7 +6181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" spans="1:3" ht="21">
       <c r="A405" s="6" t="s">
         <v>388</v>
       </c>
@@ -5944,7 +6192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" spans="1:3" ht="21">
       <c r="A406" s="6" t="s">
         <v>388</v>
       </c>
@@ -5955,7 +6203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" spans="1:3" ht="21">
       <c r="A407" s="6" t="s">
         <v>388</v>
       </c>
@@ -5966,15 +6214,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" spans="1:3" ht="21">
       <c r="B408" s="8"/>
       <c r="C408" s="5"/>
     </row>
-    <row r="409" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" spans="1:3" ht="21">
       <c r="B409" s="8"/>
       <c r="C409" s="5"/>
     </row>
-    <row r="410" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" spans="1:3" ht="21">
       <c r="A410" s="6" t="s">
         <v>394</v>
       </c>
@@ -5985,7 +6233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" spans="1:3" ht="21">
       <c r="A411" s="6" t="s">
         <v>394</v>
       </c>
@@ -5996,7 +6244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" spans="1:3" ht="21">
       <c r="A412" s="6" t="s">
         <v>394</v>
       </c>
@@ -6007,7 +6255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" spans="1:3" ht="21">
       <c r="A413" s="6" t="s">
         <v>394</v>
       </c>
@@ -6018,7 +6266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" spans="1:3" ht="21">
       <c r="A414" s="6" t="s">
         <v>394</v>
       </c>
@@ -6029,7 +6277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" spans="1:3" ht="21">
       <c r="A415" s="6" t="s">
         <v>394</v>
       </c>
@@ -6040,7 +6288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" spans="1:3" ht="21">
       <c r="A416" s="6" t="s">
         <v>394</v>
       </c>
@@ -6051,7 +6299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" spans="1:3" ht="21">
       <c r="A417" s="6" t="s">
         <v>394</v>
       </c>
@@ -6062,7 +6310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" spans="1:3" ht="21">
       <c r="A418" s="6" t="s">
         <v>394</v>
       </c>
@@ -6073,7 +6321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" spans="1:3" ht="21">
       <c r="A419" s="6" t="s">
         <v>394</v>
       </c>
@@ -6084,7 +6332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" spans="1:3" ht="21">
       <c r="A420" s="6" t="s">
         <v>394</v>
       </c>
@@ -6095,7 +6343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" spans="1:3" ht="21">
       <c r="A421" s="6" t="s">
         <v>394</v>
       </c>
@@ -6106,7 +6354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" spans="1:3" ht="21">
       <c r="A422" s="6" t="s">
         <v>394</v>
       </c>
@@ -6117,7 +6365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" spans="1:3" ht="21">
       <c r="A423" s="6" t="s">
         <v>394</v>
       </c>
@@ -6128,7 +6376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" spans="1:3" ht="21">
       <c r="A424" s="6" t="s">
         <v>394</v>
       </c>
@@ -6139,7 +6387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" spans="1:3" ht="21">
       <c r="A425" s="6" t="s">
         <v>394</v>
       </c>
@@ -6150,7 +6398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" spans="1:3" ht="21">
       <c r="A426" s="6" t="s">
         <v>394</v>
       </c>
@@ -6161,7 +6409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" spans="1:3" ht="21">
       <c r="A427" s="6" t="s">
         <v>394</v>
       </c>
@@ -6172,7 +6420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" spans="1:3" ht="21">
       <c r="A428" s="6" t="s">
         <v>394</v>
       </c>
@@ -6183,7 +6431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" spans="1:3" ht="21">
       <c r="A429" s="6" t="s">
         <v>394</v>
       </c>
@@ -6194,7 +6442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" spans="1:3" ht="21">
       <c r="A430" s="6" t="s">
         <v>394</v>
       </c>
@@ -6205,7 +6453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" spans="1:3" ht="21">
       <c r="A431" s="6" t="s">
         <v>394</v>
       </c>
@@ -6216,7 +6464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" spans="1:3" ht="21">
       <c r="A432" s="6" t="s">
         <v>394</v>
       </c>
@@ -6227,7 +6475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" spans="1:3" ht="21">
       <c r="A433" s="6" t="s">
         <v>394</v>
       </c>
@@ -6238,7 +6486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" spans="1:3" ht="21">
       <c r="A434" s="6" t="s">
         <v>394</v>
       </c>
@@ -6249,7 +6497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" spans="1:3" ht="21">
       <c r="A435" s="6" t="s">
         <v>394</v>
       </c>
@@ -6260,7 +6508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" spans="1:3" ht="21">
       <c r="A436" s="6" t="s">
         <v>394</v>
       </c>
@@ -6271,7 +6519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" spans="1:3" ht="21">
       <c r="A437" s="6" t="s">
         <v>394</v>
       </c>
@@ -6282,7 +6530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" spans="1:3" ht="21">
       <c r="A438" s="6" t="s">
         <v>394</v>
       </c>
@@ -6293,7 +6541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" spans="1:3" ht="21">
       <c r="A439" s="6" t="s">
         <v>394</v>
       </c>
@@ -6304,7 +6552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" spans="1:3" ht="21">
       <c r="A440" s="6" t="s">
         <v>394</v>
       </c>
@@ -6315,7 +6563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" spans="1:3" ht="21">
       <c r="A441" s="6" t="s">
         <v>394</v>
       </c>
@@ -6326,7 +6574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" spans="1:3" ht="21">
       <c r="A442" s="6" t="s">
         <v>394</v>
       </c>
@@ -6337,7 +6585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" spans="1:3" ht="21">
       <c r="A443" s="6" t="s">
         <v>394</v>
       </c>
@@ -6348,7 +6596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" spans="1:3" ht="21">
       <c r="A444" s="6" t="s">
         <v>394</v>
       </c>
@@ -6359,7 +6607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" spans="1:3" ht="21">
       <c r="A445" s="6" t="s">
         <v>394</v>
       </c>
@@ -6370,7 +6618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" spans="1:3" ht="21">
       <c r="A446" s="6" t="s">
         <v>394</v>
       </c>
@@ -6381,7 +6629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" spans="1:3" ht="21">
       <c r="A447" s="6" t="s">
         <v>394</v>
       </c>
@@ -6392,7 +6640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" spans="1:3" ht="21">
       <c r="A448" s="6" t="s">
         <v>394</v>
       </c>
@@ -6403,7 +6651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" spans="1:3" ht="21">
       <c r="A449" s="6" t="s">
         <v>394</v>
       </c>
@@ -6414,7 +6662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" spans="1:3" ht="21">
       <c r="A450" s="6" t="s">
         <v>394</v>
       </c>
@@ -6425,7 +6673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" spans="1:3" ht="21">
       <c r="A451" s="6" t="s">
         <v>394</v>
       </c>
@@ -6436,7 +6684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" spans="1:3" ht="21">
       <c r="A452" s="6" t="s">
         <v>394</v>
       </c>
@@ -6447,7 +6695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" spans="1:3" ht="21">
       <c r="A453" s="6" t="s">
         <v>394</v>
       </c>
@@ -6458,7 +6706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" spans="1:3" ht="21">
       <c r="A454" s="6" t="s">
         <v>394</v>
       </c>
@@ -6469,7 +6717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" spans="1:3" ht="21">
       <c r="A455" s="6" t="s">
         <v>394</v>
       </c>
@@ -6480,7 +6728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" spans="1:3" ht="21">
       <c r="A456" s="6" t="s">
         <v>394</v>
       </c>
@@ -6491,7 +6739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" spans="1:3" ht="21">
       <c r="A457" s="6" t="s">
         <v>394</v>
       </c>
@@ -6502,7 +6750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" spans="1:3" ht="21">
       <c r="A458" s="6" t="s">
         <v>394</v>
       </c>
@@ -6513,7 +6761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" spans="1:3" ht="21">
       <c r="A459" s="6" t="s">
         <v>394</v>
       </c>
@@ -6524,7 +6772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" spans="1:3" ht="21">
       <c r="A460" s="6" t="s">
         <v>394</v>
       </c>
@@ -6535,7 +6783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" spans="1:3" ht="21">
       <c r="A461" s="6" t="s">
         <v>394</v>
       </c>
@@ -6546,7 +6794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" spans="1:3" ht="21">
       <c r="A462" s="6" t="s">
         <v>394</v>
       </c>
@@ -6557,7 +6805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" spans="1:3" ht="21">
       <c r="A463" s="6" t="s">
         <v>394</v>
       </c>
@@ -6568,7 +6816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" spans="1:3" ht="21">
       <c r="A464" s="6" t="s">
         <v>394</v>
       </c>
@@ -6579,7 +6827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" spans="1:3" ht="21">
       <c r="A465" s="6" t="s">
         <v>394</v>
       </c>
@@ -6590,7 +6838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" spans="1:3" ht="21">
       <c r="A466" s="6" t="s">
         <v>394</v>
       </c>
@@ -6601,7 +6849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" spans="1:3" ht="21">
       <c r="A467" s="6" t="s">
         <v>394</v>
       </c>
@@ -6612,7 +6860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" spans="1:3" ht="21">
       <c r="A468" s="6" t="s">
         <v>394</v>
       </c>
@@ -6623,7 +6871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" spans="1:3" ht="21">
       <c r="A469" s="6" t="s">
         <v>394</v>
       </c>
@@ -6634,16 +6882,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" spans="1:3" ht="21">
       <c r="B470" s="8"/>
       <c r="C470" s="5"/>
     </row>
-    <row r="471" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" spans="1:3" ht="21">
       <c r="A471" s="6"/>
       <c r="B471" s="8"/>
       <c r="C471" s="5"/>
     </row>
-    <row r="472" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" spans="1:3" ht="21">
       <c r="A472" s="6" t="s">
         <v>454</v>
       </c>
@@ -6654,7 +6902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" spans="1:3" ht="21">
       <c r="A473" s="6" t="s">
         <v>454</v>
       </c>
@@ -6665,7 +6913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" spans="1:3" ht="21">
       <c r="A474" s="6" t="s">
         <v>454</v>
       </c>
@@ -6676,7 +6924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" spans="1:3" ht="21">
       <c r="A475" s="6" t="s">
         <v>454</v>
       </c>
@@ -6687,7 +6935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="476" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" spans="1:3" ht="21">
       <c r="A476" s="6" t="s">
         <v>454</v>
       </c>
@@ -6698,7 +6946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" spans="1:3" ht="21">
       <c r="A477" s="6" t="s">
         <v>454</v>
       </c>
@@ -6709,7 +6957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" spans="1:3" ht="21">
       <c r="A478" s="6" t="s">
         <v>454</v>
       </c>
@@ -6720,7 +6968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" spans="1:3" ht="21">
       <c r="A479" s="6" t="s">
         <v>454</v>
       </c>
@@ -6731,7 +6979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" spans="1:3" ht="21">
       <c r="A480" s="6" t="s">
         <v>454</v>
       </c>
@@ -6742,7 +6990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" spans="1:3" ht="21">
       <c r="A481" s="6" t="s">
         <v>454</v>
       </c>
@@ -6755,459 +7003,454 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw "/>
-    <hyperlink ref="B6" r:id="rId2" display="Reverse the array"/>
-    <hyperlink ref="B7" r:id="rId3" display="Find the maximum and minimum element in an array"/>
-    <hyperlink ref="B8" r:id="rId4" display="Find the &quot;Kth&quot; max and min element of an array "/>
-    <hyperlink ref="B9" r:id="rId5" display="Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo"/>
-    <hyperlink ref="B10" r:id="rId6" display="Move all the negative elements to one side of the array "/>
-    <hyperlink ref="B11" r:id="rId7" display="Find the Union and Intersection of the two sorted arrays."/>
-    <hyperlink ref="B12" r:id="rId8" display="Write a program to cyclically rotate an array by one."/>
-    <hyperlink ref="B13" r:id="rId9" display="find Largest sum contiguous Subarray [V. IMP]"/>
-    <hyperlink ref="B14" r:id="rId10" display="Minimise the maximum difference between heights [V.IMP]"/>
-    <hyperlink ref="B15" r:id="rId11" display="Minimum no. of Jumps to reach end of an array"/>
-    <hyperlink ref="B16" r:id="rId12" display="find duplicate in an array of N+1 Integers"/>
-    <hyperlink ref="B17" r:id="rId13" display="Merge 2 sorted arrays without using Extra space."/>
-    <hyperlink ref="B18" r:id="rId14" display="Kadane's Algo [V.V.V.V.V IMP]"/>
-    <hyperlink ref="B19" r:id="rId15" display="Merge Intervals"/>
-    <hyperlink ref="B20" r:id="rId16" display="Next Permutation"/>
-    <hyperlink ref="B21" r:id="rId17" display="Count Inversion"/>
-    <hyperlink ref="B22" r:id="rId18" display="Best time to buy and Sell stock"/>
-    <hyperlink ref="B23" r:id="rId19" display="find all pairs on integer array whose sum is equal to given number"/>
-    <hyperlink ref="B24" r:id="rId20" display="find common elements In 3 sorted arrays"/>
-    <hyperlink ref="B25" r:id="rId21" display="Rearrange the array in alternating positive and negative items with O(1) extra space"/>
-    <hyperlink ref="B26" r:id="rId22" display="Find if there is any subarray with sum equal to 0"/>
-    <hyperlink ref="B27" r:id="rId23" display="Find factorial of a large number"/>
-    <hyperlink ref="B28" r:id="rId24" display="find maximum product subarray "/>
-    <hyperlink ref="B29" r:id="rId25" display="Find longest coinsecutive subsequence"/>
-    <hyperlink ref="B30" r:id="rId26" display="Given an array of size n and a number k, fin all elements that appear more than &quot; n/k &quot; times."/>
-    <hyperlink ref="B31" r:id="rId27" display="Maximum profit by buying and selling a share atmost twice"/>
-    <hyperlink ref="B32" r:id="rId28" display="Find whether an array is a subset of another array"/>
-    <hyperlink ref="B33" r:id="rId29" display="Find the triplet that sum to a given value"/>
-    <hyperlink ref="B34" r:id="rId30" display="Trapping Rain water problem"/>
-    <hyperlink ref="B35" r:id="rId31" display="Chocolate Distribution problem"/>
-    <hyperlink ref="B36" r:id="rId32" display="Smallest Subarray with sum greater than a given value"/>
-    <hyperlink ref="B37" r:id="rId33" display="Three way partitioning of an array around a given value"/>
-    <hyperlink ref="B38" r:id="rId34" display="Minimum swaps required bring elements less equal K together"/>
-    <hyperlink ref="B39" r:id="rId35" display="Minimum no. of operations required to make an array palindrome"/>
-    <hyperlink ref="B40" r:id="rId36" display="Median of 2 sorted arrays of equal size"/>
-    <hyperlink ref="B41" r:id="rId37" display="Median of 2 sorted arrays of different size"/>
-    <hyperlink ref="B44" r:id="rId38" display="Spiral traversal on a Matrix"/>
-    <hyperlink ref="B45" r:id="rId39" display="Search an element in a matriix"/>
-    <hyperlink ref="B46" r:id="rId40" display="Find median in a row wise sorted matrix"/>
-    <hyperlink ref="B47" r:id="rId41" display="Find row with maximum no. of 1's"/>
-    <hyperlink ref="B48" r:id="rId42" display="Print elements in sorted order using row-column wise sorted matrix"/>
-    <hyperlink ref="B49" r:id="rId43" display="Maximum size rectangle"/>
-    <hyperlink ref="B50" r:id="rId44" display="Find a specific pair in matrix"/>
-    <hyperlink ref="B51" r:id="rId45" display="Rotate matrix by 90 degrees"/>
-    <hyperlink ref="B52" r:id="rId46" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
-    <hyperlink ref="B53" r:id="rId47" display="Common elements in all rows of a given matrix"/>
-    <hyperlink ref="B56" r:id="rId48" display="Reverse a String"/>
-    <hyperlink ref="B57" r:id="rId49" display="Check whether a String is Palindrome or not"/>
-    <hyperlink ref="B58" r:id="rId50" display="Find Duplicate characters in a string"/>
-    <hyperlink ref="B60" r:id="rId51" display="Write a Code to check whether one string is a rotation of another"/>
-    <hyperlink ref="B61" r:id="rId52" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
-    <hyperlink ref="B62" r:id="rId53" display="Count and Say problem"/>
-    <hyperlink ref="B63" r:id="rId54" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
-    <hyperlink ref="B64" r:id="rId55" display="Find Longest Recurring Subsequence in String"/>
-    <hyperlink ref="B65" r:id="rId56" display="Print all Subsequences of a string."/>
-    <hyperlink ref="B66" r:id="rId57" display="Print all the permutations of the given string"/>
-    <hyperlink ref="B67" r:id="rId58" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
-    <hyperlink ref="B68" r:id="rId59" display="Word Wrap Problem [VERY IMP]."/>
-    <hyperlink ref="B69" r:id="rId60" display="EDIT Distance [Very Imp]"/>
-    <hyperlink ref="B70" r:id="rId61" display="Find next greater number with same set of digits. [Very Very IMP]"/>
-    <hyperlink ref="B71" r:id="rId62" display="Balanced Parenthesis problem.[Imp]"/>
-    <hyperlink ref="B72" r:id="rId63" display="Word break Problem[ Very Imp]"/>
-    <hyperlink ref="B73" r:id="rId64" display="Rabin Karp Algo"/>
-    <hyperlink ref="B74" r:id="rId65" display="KMP Algo"/>
-    <hyperlink ref="B75" r:id="rId66" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
-    <hyperlink ref="B76" r:id="rId67" display="Minimum number of bracket reversals needed to make an expression balanced."/>
-    <hyperlink ref="B77" r:id="rId68" display="Count All Palindromic Subsequence in a given String."/>
-    <hyperlink ref="B78" r:id="rId69" display="Count of number of given string in 2D character array"/>
-    <hyperlink ref="B79" r:id="rId70" display="Search a Word in a 2D Grid of characters."/>
-    <hyperlink ref="B80" r:id="rId71" display="Boyer Moore Algorithm for Pattern Searching."/>
-    <hyperlink ref="B81" r:id="rId72" display="Converting Roman Numerals to Decimal"/>
-    <hyperlink ref="B82" r:id="rId73" display="Longest Common Prefix"/>
-    <hyperlink ref="B83" r:id="rId74" display="Number of flips to make binary string alternate"/>
-    <hyperlink ref="B84" r:id="rId75" display="Find the first repeated word in string."/>
-    <hyperlink ref="B85" r:id="rId76" display="Minimum number of swaps for bracket balancing."/>
-    <hyperlink ref="B86" r:id="rId77" display="Find the longest common subsequence between two strings."/>
-    <hyperlink ref="B87" r:id="rId78" display="Program to generate all possible valid IP addresses from given  string."/>
-    <hyperlink ref="B88" r:id="rId79" display="Write a program tofind the smallest window that contains all characters of string itself."/>
-    <hyperlink ref="B89" r:id="rId80" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B90" r:id="rId81" display="Minimum characters to be added at front to make string palindrome"/>
-    <hyperlink ref="B91" r:id="rId82" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B92" r:id="rId83" display="Find the smallest window in a string containing all characters of another string"/>
-    <hyperlink ref="B93" r:id="rId84" display="Recursively remove all adjacent duplicates"/>
-    <hyperlink ref="B94" r:id="rId85" display="String matching where one string contains wildcard characters"/>
-    <hyperlink ref="B95" r:id="rId86" display="Function to find Number of customers who could not get a computer"/>
-    <hyperlink ref="B96" r:id="rId87" display="Transform One String to Another using Minimum Number of Given Operation"/>
-    <hyperlink ref="B97" r:id="rId88" display="Check if two given strings are isomorphic to each other"/>
-    <hyperlink ref="B98" r:id="rId89" display="Recursively print all sentences that can be formed from list of word lists"/>
-    <hyperlink ref="B101" r:id="rId90" display="Find first and last positions of an element in a sorted array"/>
-    <hyperlink ref="B102" r:id="rId91" display="Find a Fixed Point (Value equal to index) in a given array"/>
-    <hyperlink ref="B103" r:id="rId92" display="Search in a rotated sorted array"/>
-    <hyperlink ref="B104" r:id="rId93" display="square root of an integer"/>
-    <hyperlink ref="B105" r:id="rId94" display="Maximum and minimum of an array using minimum number of comparisons"/>
-    <hyperlink ref="B106" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
-    <hyperlink ref="B107" r:id="rId96" display="Find the repeating and the missing"/>
-    <hyperlink ref="B108" r:id="rId97" display="find majority element"/>
-    <hyperlink ref="B109" r:id="rId98" display="Searching in an array where adjacent differ by at most k"/>
-    <hyperlink ref="B110" r:id="rId99" display="find a pair with a given difference"/>
-    <hyperlink ref="B111" r:id="rId100" display="find four elements that sum to a given value"/>
-    <hyperlink ref="B112" r:id="rId101" display="maximum sum such that no 2 elements are adjacent"/>
-    <hyperlink ref="B113" r:id="rId102" display="Count triplet with sum smaller than a given value"/>
-    <hyperlink ref="B114" r:id="rId103" display="merge 2 sorted arrays"/>
-    <hyperlink ref="B115" r:id="rId104" display="print all subarrays with 0 sum"/>
-    <hyperlink ref="B116" r:id="rId105" display="Product array Puzzle"/>
-    <hyperlink ref="B117" r:id="rId106" display="Sort array according to count of set bits"/>
-    <hyperlink ref="B118" r:id="rId107" display="minimum no. of swaps required to sort the array"/>
-    <hyperlink ref="B119" r:id="rId108" display="Bishu and Soldiers"/>
-    <hyperlink ref="B120" r:id="rId109" display="Rasta and Kheshtak"/>
-    <hyperlink ref="B121" r:id="rId110" display="Kth smallest number again"/>
-    <hyperlink ref="B122" r:id="rId111" display="Find pivot element in a sorted array"/>
-    <hyperlink ref="B123" r:id="rId112" display="K-th Element of Two Sorted Arrays"/>
-    <hyperlink ref="B124" r:id="rId113" display="Aggressive cows"/>
-    <hyperlink ref="B125" r:id="rId114" display="Book Allocation Problem"/>
-    <hyperlink ref="B126" r:id="rId115" display="EKOSPOJ:"/>
-    <hyperlink ref="B127" r:id="rId116" display="Job Scheduling Algo"/>
-    <hyperlink ref="B128" r:id="rId117" display="Missing Number in AP"/>
-    <hyperlink ref="B129" r:id="rId118" display="Smallest number with atleastn trailing zeroes infactorial"/>
-    <hyperlink ref="B130" r:id="rId119" display="Painters Partition Problem:"/>
-    <hyperlink ref="B131" r:id="rId120" display="ROTI-Prata SPOJ"/>
-    <hyperlink ref="B132" r:id="rId121" display="DoubleHelix SPOJ"/>
-    <hyperlink ref="B133" r:id="rId122" display="Subset Sums"/>
-    <hyperlink ref="B134" r:id="rId123" display="Findthe inversion count"/>
-    <hyperlink ref="B135" r:id="rId124" display="Implement Merge-sort in-place"/>
-    <hyperlink ref="B136" r:id="rId125" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
-    <hyperlink ref="B139" r:id="rId126" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
-    <hyperlink ref="B140" r:id="rId127" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
-    <hyperlink ref="B141" r:id="rId128" display="Write a program to Detect loop in a linked list."/>
-    <hyperlink ref="B142" r:id="rId129" display="Write a program to Delete loop in a linked list."/>
-    <hyperlink ref="B143" r:id="rId130" display="Find the starting point of the loop. "/>
-    <hyperlink ref="B144" r:id="rId131" display="Remove Duplicates in a sorted Linked List."/>
-    <hyperlink ref="B145" r:id="rId132" display="Remove Duplicates in a Un-sorted Linked List."/>
-    <hyperlink ref="B146" r:id="rId133" display="Write a Program to Move the last element to Front in a Linked List."/>
-    <hyperlink ref="B147" r:id="rId134" display="Add “1” to a number represented as a Linked List."/>
-    <hyperlink ref="B148" r:id="rId135" display="Add two numbers represented by linked lists."/>
-    <hyperlink ref="B149" r:id="rId136" display="Intersection of two Sorted Linked List."/>
-    <hyperlink ref="B150" r:id="rId137" display="Intersection Point of two Linked Lists."/>
-    <hyperlink ref="B151" r:id="rId138" display="Merge Sort For Linked lists.[Very Important]"/>
-    <hyperlink ref="B152" r:id="rId139" display="Quicksort for Linked Lists.[Very Important]"/>
-    <hyperlink ref="B153" r:id="rId140" display="Find the middle Element of a linked list."/>
-    <hyperlink ref="B154" r:id="rId141" display="Check if a linked list is a circular linked list."/>
-    <hyperlink ref="B155" r:id="rId142" display="Split a Circular linked list into two halves."/>
-    <hyperlink ref="B156" r:id="rId143" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
-    <hyperlink ref="B157" r:id="rId144" display="Deletion from a Circular Linked List."/>
-    <hyperlink ref="B158" r:id="rId145" display="Reverse a Doubly Linked list."/>
-    <hyperlink ref="B159" r:id="rId146" display="Find pairs with a given sum in a DLL."/>
-    <hyperlink ref="B160" r:id="rId147" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
-    <hyperlink ref="B161" r:id="rId148" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
-    <hyperlink ref="B162" r:id="rId149" display="Rotate DoublyLinked list by N nodes."/>
-    <hyperlink ref="B163" r:id="rId150" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
-    <hyperlink ref="B166" r:id="rId151" display="Flatten a Linked List"/>
-    <hyperlink ref="B167" r:id="rId152" display="Sort a LL of 0's, 1's and 2's"/>
-    <hyperlink ref="B168" r:id="rId153" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="B169" r:id="rId154" display="Merge K sorted Linked list"/>
-    <hyperlink ref="B170" r:id="rId155" display="Multiply 2 no. represented by LL"/>
-    <hyperlink ref="B171" r:id="rId156" display="Delete nodes which have a greater value on right side"/>
-    <hyperlink ref="B172" r:id="rId157" display="Segregate even and odd nodes in a Linked List"/>
-    <hyperlink ref="B173" r:id="rId158" display="Program for n’th node from the end of a Linked List"/>
-    <hyperlink ref="B174" r:id="rId159" display="Find the first non-repeating character from a stream of characters"/>
-    <hyperlink ref="B177" r:id="rId160" display="level order traversal"/>
-    <hyperlink ref="B178" r:id="rId161" display="Reverse Level Order traversal"/>
-    <hyperlink ref="B179" r:id="rId162" display="Height of a tree"/>
-    <hyperlink ref="B180" r:id="rId163" display="Diameter of a tree"/>
-    <hyperlink ref="B181" r:id="rId164" display="Mirror of a tree"/>
-    <hyperlink ref="B182" r:id="rId165" display="Inorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B183" r:id="rId166" display="Preorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B184" r:id="rId167" display="Postorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B185" r:id="rId168" display="Left View of a tree"/>
-    <hyperlink ref="B186" r:id="rId169" display="Right View of Tree"/>
-    <hyperlink ref="B187" r:id="rId170" display="Top View of a tree"/>
-    <hyperlink ref="B188" r:id="rId171" display="Bottom View of a tree"/>
-    <hyperlink ref="B189" r:id="rId172" display="Zig-Zag traversal of a binary tree"/>
-    <hyperlink ref="B190" r:id="rId173" display="Check if a tree is balanced or not"/>
-    <hyperlink ref="B191" r:id="rId174" display="Diagnol Traversal of a Binary tree"/>
-    <hyperlink ref="B192" r:id="rId175" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="B193" r:id="rId176" display="Construct Binary Tree from String with Bracket Representation"/>
-    <hyperlink ref="B194" r:id="rId177" display="Convert Binary tree into Doubly Linked List"/>
-    <hyperlink ref="B195" r:id="rId178" display="Convert Binary tree into Sum tree"/>
-    <hyperlink ref="B196" r:id="rId179" display="Construct Binary tree from Inorder and preorder traversal"/>
-    <hyperlink ref="B197" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
-    <hyperlink ref="B198" r:id="rId181" display="Check if Binary tree is Sum tree or not"/>
-    <hyperlink ref="B199" r:id="rId182" display="Check if all leaf nodes are at same level or not"/>
-    <hyperlink ref="B200" r:id="rId183" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
-    <hyperlink ref="B201" r:id="rId184" display="Check if 2 trees are mirror or not"/>
-    <hyperlink ref="B202" r:id="rId185" display="Sum of Nodes on the Longest path from root to leaf node "/>
-    <hyperlink ref="B203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
-    <hyperlink ref="B204" r:id="rId187" display="Find Largest subtree sum in a tree"/>
-    <hyperlink ref="B205" r:id="rId188" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
-    <hyperlink ref="B206" r:id="rId189" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
-    <hyperlink ref="B207" r:id="rId190" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="B208" r:id="rId191" display="Find distance between 2 nodes in a Binary tree"/>
-    <hyperlink ref="B209" r:id="rId192" display="Kth Ancestor of node in a Binary tree"/>
-    <hyperlink ref="B210" r:id="rId193" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
-    <hyperlink ref="B211" r:id="rId194" display="Tree Isomorphism Problem"/>
-    <hyperlink ref="B214" r:id="rId195" display="Fina a value in a BST"/>
-    <hyperlink ref="B215" r:id="rId196" display="Deletion of a node in a BST"/>
-    <hyperlink ref="B216" r:id="rId197" display="Find min and max value in a BST"/>
-    <hyperlink ref="B217" r:id="rId198" display="Find inorder successor and inorder predecessor in a BST"/>
-    <hyperlink ref="B218" r:id="rId199" display="Check if a tree is a BST or not "/>
-    <hyperlink ref="B219" r:id="rId200" display="Populate Inorder successor of all nodes"/>
-    <hyperlink ref="B220" r:id="rId201" display="Find LCA  of 2 nodes in a BST"/>
-    <hyperlink ref="B221" r:id="rId202" display="Construct BST from preorder traversal"/>
-    <hyperlink ref="B222" r:id="rId203" display="Convert Binary tree into BST"/>
-    <hyperlink ref="B223" r:id="rId204" display="Convert a normal BST into a Balanced BST"/>
-    <hyperlink ref="B224" r:id="rId205" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="B225" r:id="rId206" display="Find Kth largest element in a BST"/>
-    <hyperlink ref="B226" r:id="rId207" display="Find Kth smallest element in a BST"/>
-    <hyperlink ref="B227" r:id="rId208" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
-    <hyperlink ref="B228" r:id="rId209" display="Find the median of BST in O(n) time and O(1) space"/>
-    <hyperlink ref="B229" r:id="rId210" display="Count BST ndoes that lie in a given range"/>
-    <hyperlink ref="B230" r:id="rId211" display="Replace every element with the least greater element on its right"/>
-    <hyperlink ref="B231" r:id="rId212" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
-    <hyperlink ref="B232" r:id="rId213" display="Check preorder is valid or not"/>
-    <hyperlink ref="B233" r:id="rId214" display="Check whether BST contains Dead end"/>
-    <hyperlink ref="B234" r:id="rId215" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
-    <hyperlink ref="B235" r:id="rId216" display="Flatten BST to sorted list"/>
-    <hyperlink ref="B238" r:id="rId217" display="Activity Selection Problem"/>
-    <hyperlink ref="B239" r:id="rId218" display="Job SequencingProblem"/>
-    <hyperlink ref="B240" r:id="rId219" display="Huffman Coding"/>
-    <hyperlink ref="B241" r:id="rId220" display="Water Connection Problem"/>
-    <hyperlink ref="B242" r:id="rId221" display="Fractional Knapsack Problem"/>
-    <hyperlink ref="B243" r:id="rId222" display="Greedy Algorithm to find Minimum number of Coins"/>
-    <hyperlink ref="B244" r:id="rId223" display="Maximum trains for which stoppage can be provided"/>
-    <hyperlink ref="B245" r:id="rId224" display="Minimum Platforms Problem"/>
-    <hyperlink ref="B246" r:id="rId225" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
-    <hyperlink ref="B247" r:id="rId226" display="Find the minimum and maximum amount to buy all N candies"/>
-    <hyperlink ref="B248" r:id="rId227" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B249" r:id="rId228" display="Minimum Cost to cut a board into squares"/>
-    <hyperlink ref="B250" r:id="rId229" display="Check if it is possible to survive on Island"/>
-    <hyperlink ref="B251" r:id="rId230" display="Find maximum meetings in one room"/>
-    <hyperlink ref="B252" r:id="rId231" display="Maximum product subset of an array"/>
-    <hyperlink ref="B253" r:id="rId232" display="Maximize array sum after K negations"/>
-    <hyperlink ref="B254" r:id="rId233" display="Maximize the sum of arr[i]*i"/>
-    <hyperlink ref="B255" r:id="rId234" display="Maximum sum of absolute difference of an array"/>
-    <hyperlink ref="B256" r:id="rId235" display="Maximize sum of consecutive differences in a circular array"/>
-    <hyperlink ref="B257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
-    <hyperlink ref="B258" r:id="rId237" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
-    <hyperlink ref="B259" r:id="rId238" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
-    <hyperlink ref="B260" r:id="rId239" display="Smallest subset with sum greater than all other elements"/>
-    <hyperlink ref="B261" r:id="rId240" display="Chocolate Distribution Problem"/>
-    <hyperlink ref="B262" r:id="rId241" display="DEFKIN -Defense of a Kingdom"/>
-    <hyperlink ref="B263" r:id="rId242" display="DIEHARD -DIE HARD"/>
-    <hyperlink ref="B264" r:id="rId243" display="GERGOVIA -Wine trading in Gergovia"/>
-    <hyperlink ref="B265" r:id="rId244" display="Picking Up Chicks"/>
-    <hyperlink ref="B266" r:id="rId245" display="CHOCOLA –Chocolate"/>
-    <hyperlink ref="B267" r:id="rId246" display="ARRANGE -Arranging Amplifiers"/>
-    <hyperlink ref="B268" r:id="rId247" display="K Centers Problem"/>
-    <hyperlink ref="B269" r:id="rId248" display="Minimum Cost of ropes"/>
-    <hyperlink ref="B270" r:id="rId249" display="Find smallest number with given number of digits and sum of digits"/>
-    <hyperlink ref="B271" r:id="rId250" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B272" r:id="rId251" display="Find maximum sum possible equal sum of three stacks"/>
-    <hyperlink ref="B275" r:id="rId252" display="Rat in a maze Problem"/>
-    <hyperlink ref="B276" r:id="rId253" display="Printing all solutions in N-Queen Problem"/>
-    <hyperlink ref="B277" r:id="rId254" display="Word Break Problem using Backtracking"/>
-    <hyperlink ref="B278" r:id="rId255" display="Remove Invalid Parentheses"/>
-    <hyperlink ref="B279" r:id="rId256" display="Sudoku Solver"/>
-    <hyperlink ref="B280" r:id="rId257" display="m Coloring Problem"/>
-    <hyperlink ref="B281" r:id="rId258" display="Print all palindromic partitions of a string"/>
-    <hyperlink ref="B282" r:id="rId259" display="Subset Sum Problem"/>
-    <hyperlink ref="B283" r:id="rId260" display="The Knight’s tour problem"/>
-    <hyperlink ref="B284" r:id="rId261" display="Tug of War"/>
-    <hyperlink ref="B285" r:id="rId262" display="Find shortest safe route in a path with landmines"/>
-    <hyperlink ref="B286" r:id="rId263" display="Combinational Sum"/>
-    <hyperlink ref="B287" r:id="rId264" display="Find Maximum number possible by doing at-most K swaps"/>
-    <hyperlink ref="B288" r:id="rId265" display="Print all permutations of a string "/>
-    <hyperlink ref="B289" r:id="rId266" display="Find if there is a path of more than k length from a source"/>
-    <hyperlink ref="B290" r:id="rId267" display="Longest Possible Route in a Matrix with Hurdles"/>
-    <hyperlink ref="B291" r:id="rId268" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
-    <hyperlink ref="B292" r:id="rId269" display="Partition of a set intoK subsets with equal sum"/>
-    <hyperlink ref="B293" r:id="rId270" display="Find the K-th Permutation Sequence of first N natural numbers"/>
-    <hyperlink ref="B296" r:id="rId271" display=" Implement Stack from Scratch"/>
-    <hyperlink ref="B297" r:id="rId272" display=" Implement Queue from Scratch"/>
-    <hyperlink ref="B298" r:id="rId273" display="Implement 2 stack in an array"/>
-    <hyperlink ref="B299" r:id="rId274" display="find the middle element of a stack"/>
-    <hyperlink ref="B300" r:id="rId275" display="Implement &quot;N&quot; stacks in an Array"/>
-    <hyperlink ref="B301" r:id="rId276" display="Check the expression has valid or Balanced parenthesis or not."/>
-    <hyperlink ref="B302" r:id="rId277" display="Reverse a String using Stack"/>
-    <hyperlink ref="B303" r:id="rId278" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
-    <hyperlink ref="B304" r:id="rId279" display="Find the next Greater element"/>
-    <hyperlink ref="B305" r:id="rId280" display="The celebrity Problem"/>
-    <hyperlink ref="B306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
-    <hyperlink ref="B307" r:id="rId282" display="Evaluation of Postfix expression"/>
-    <hyperlink ref="B308" r:id="rId283" display="Implement a method to insert an element at its bottom without using any other data structure."/>
-    <hyperlink ref="B309" r:id="rId284" display="Reverse a stack using recursion"/>
-    <hyperlink ref="B310" r:id="rId285" display="Sort a Stack using recursion"/>
-    <hyperlink ref="B311" r:id="rId286" display="Merge Overlapping Intervals"/>
-    <hyperlink ref="B312" r:id="rId287" display="Largest rectangular Area in Histogram"/>
-    <hyperlink ref="B313" r:id="rId288" display="Length of the Longest Valid Substring"/>
-    <hyperlink ref="B314" r:id="rId289" display="Expression contains redundant bracket or not"/>
-    <hyperlink ref="B315" r:id="rId290" display="Implement Stack using Queue"/>
-    <hyperlink ref="B316" r:id="rId291" display="Implement Stack using Deque"/>
-    <hyperlink ref="B317" r:id="rId292" display="Stack Permutations (Check if an array is stack permutation of other)"/>
-    <hyperlink ref="B318" r:id="rId293" display="Implement Queue using Stack  "/>
-    <hyperlink ref="B319" r:id="rId294" display="Implement &quot;n&quot; queue in an array"/>
-    <hyperlink ref="B320" r:id="rId295" display="Implement a Circular queue"/>
-    <hyperlink ref="B321" r:id="rId296" display="LRU Cache Implementationa"/>
-    <hyperlink ref="B322" r:id="rId297" display="Reverse a Queue using recursion"/>
-    <hyperlink ref="B323" r:id="rId298" display="Reverse the first “K” elements of a queue"/>
-    <hyperlink ref="B324" r:id="rId299" display="Interleave the first half of the queue with second half"/>
-    <hyperlink ref="B325" r:id="rId300" display="Find the first circular tour that visits all Petrol Pumps"/>
-    <hyperlink ref="B326" r:id="rId301" display="Minimum time required to rot all oranges"/>
-    <hyperlink ref="B327" r:id="rId302" display="Distance of nearest cell having 1 in a binary matrix"/>
-    <hyperlink ref="B328" r:id="rId303" display="First negative integer in every window of size “k”"/>
-    <hyperlink ref="B329" r:id="rId304" display="Check if all levels of two trees are anagrams or not."/>
-    <hyperlink ref="B330" r:id="rId305" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
-    <hyperlink ref="B331" r:id="rId306" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
-    <hyperlink ref="B332" r:id="rId307" display="Queue based approach or first non-repeating character in a stream."/>
-    <hyperlink ref="B333" r:id="rId308" display="Next Smaller Element"/>
-    <hyperlink ref="B336" r:id="rId309" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
-    <hyperlink ref="B337" r:id="rId310" display="Sort an Array using heap. (HeapSort)"/>
-    <hyperlink ref="B338" r:id="rId311" display="Maximum of all subarrays of size k."/>
-    <hyperlink ref="B339" r:id="rId312" display="“k” largest element in an array"/>
-    <hyperlink ref="B340" r:id="rId313" display="Kth smallest and largest element in an unsorted array"/>
-    <hyperlink ref="B341" r:id="rId314" display="Merge “K” sorted arrays. [ IMP ]"/>
-    <hyperlink ref="B342" r:id="rId315" display="Merge 2 Binary Max Heaps"/>
-    <hyperlink ref="B343" r:id="rId316" display="Kth largest sum continuous subarrays"/>
-    <hyperlink ref="B344" r:id="rId317" display="Leetcode- reorganize strings"/>
-    <hyperlink ref="B345" r:id="rId318" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="B346" r:id="rId319" display="Smallest range in “K” Lists"/>
-    <hyperlink ref="B347" r:id="rId320" display="Median in a stream of Integers"/>
-    <hyperlink ref="B348" r:id="rId321" display="Check if a Binary Tree is Heap"/>
-    <hyperlink ref="B349" r:id="rId322" display="Connect “n” ropes with minimum cost"/>
-    <hyperlink ref="B350" r:id="rId323" display="Convert BST to Min Heap"/>
-    <hyperlink ref="B351" r:id="rId324" display="Convert min heap to max heap"/>
-    <hyperlink ref="B352" r:id="rId325" display="Rearrange characters in a string such that no two adjacent are same."/>
-    <hyperlink ref="B353" r:id="rId326" display="Minimum sum of two numbers formed from digits of an array"/>
-    <hyperlink ref="B356" r:id="rId327" display="Create a Graph, print it"/>
-    <hyperlink ref="B357" r:id="rId328" display="Implement BFS algorithm "/>
-    <hyperlink ref="B358" r:id="rId329" display="Implement DFS Algo "/>
-    <hyperlink ref="B359" r:id="rId330" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B360" r:id="rId331" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B361" r:id="rId332" display="Search in a Maze"/>
-    <hyperlink ref="B362" r:id="rId333" display="Minimum Step by Knight"/>
-    <hyperlink ref="B363" r:id="rId334" display="flood fill algo"/>
-    <hyperlink ref="B364" r:id="rId335" display="Clone a graph"/>
-    <hyperlink ref="B365" r:id="rId336" display="Making wired Connections"/>
-    <hyperlink ref="B366" r:id="rId337" display="word Ladder "/>
-    <hyperlink ref="B367" r:id="rId338" display="Dijkstra algo"/>
-    <hyperlink ref="B368" r:id="rId339" display="Implement Topological Sort "/>
-    <hyperlink ref="B369" r:id="rId340" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
-    <hyperlink ref="B370" r:id="rId341" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
-    <hyperlink ref="B371" r:id="rId342" display="Find the no. of Isalnds"/>
-    <hyperlink ref="B372" r:id="rId343" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
-    <hyperlink ref="B373" r:id="rId344" display="Implement Kruksal’sAlgorithm"/>
-    <hyperlink ref="B374" r:id="rId345" display="Implement Prim’s Algorithm"/>
-    <hyperlink ref="B375" r:id="rId346" display="Total no. of Spanning tree in a graph"/>
-    <hyperlink ref="B376" r:id="rId347" display="Implement Bellman Ford Algorithm"/>
-    <hyperlink ref="B377" r:id="rId348" display="Implement Floyd warshallAlgorithm"/>
-    <hyperlink ref="B378" r:id="rId349" display="Travelling Salesman Problem"/>
-    <hyperlink ref="B379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
-    <hyperlink ref="B380" r:id="rId351" display="Snake and Ladders Problem"/>
-    <hyperlink ref="B381" r:id="rId352" display="Find bridge in a graph"/>
-    <hyperlink ref="B382" r:id="rId353" display="Count Strongly connected Components(Kosaraju Algo)"/>
-    <hyperlink ref="B383" r:id="rId354" display="Check whether a graph is Bipartite or Not"/>
-    <hyperlink ref="B384" r:id="rId355" display="Detect Negative cycle in a graph"/>
-    <hyperlink ref="B385" r:id="rId356" display="Longest path in a Directed Acyclic Graph"/>
-    <hyperlink ref="B386" r:id="rId357" display="Journey to the Moon"/>
-    <hyperlink ref="B387" r:id="rId358" display="Cheapest Flights Within K Stops"/>
-    <hyperlink ref="B388" r:id="rId359" display="Oliver and the Game"/>
-    <hyperlink ref="B389" r:id="rId360" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B390" r:id="rId361" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B391" r:id="rId362" display="Find if there is a path of more thank length from a source"/>
-    <hyperlink ref="B392" r:id="rId363" display="M-ColouringProblem"/>
-    <hyperlink ref="B393" r:id="rId364" display="Minimum edges to reverse o make path from source to destination"/>
-    <hyperlink ref="B394" r:id="rId365" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
-    <hyperlink ref="B395" r:id="rId366" display="Vertex Cover Problem"/>
-    <hyperlink ref="B396" r:id="rId367" display="Chinese Postman or Route Inspection"/>
-    <hyperlink ref="B397" r:id="rId368" display="Number of Triangles in a Directed and Undirected Graph"/>
-    <hyperlink ref="B398" r:id="rId369" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B399" r:id="rId370" display="Two Clique Problem"/>
-    <hyperlink ref="B402" r:id="rId371" display="Construct a trie from scratch"/>
-    <hyperlink ref="B403" r:id="rId372" display="Find shortest unique prefix for every word in a given list"/>
-    <hyperlink ref="B404" r:id="rId373" display="Word Break Problem | (Trie solution)"/>
-    <hyperlink ref="B405" r:id="rId374" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B406" r:id="rId375" display="Implement a Phone Directory"/>
-    <hyperlink ref="B407" r:id="rId376" display="Print unique rows in a given boolean matrix"/>
-    <hyperlink ref="B410" r:id="rId377" display="Coin ChangeProblem"/>
-    <hyperlink ref="B411" r:id="rId378" display="Knapsack Problem"/>
-    <hyperlink ref="B412" r:id="rId379" display="Binomial CoefficientProblem"/>
-    <hyperlink ref="B413" r:id="rId380" display="Permutation CoefficientProblem"/>
-    <hyperlink ref="B414" r:id="rId381" display="Program for nth Catalan Number"/>
-    <hyperlink ref="B415" r:id="rId382" display="Matrix Chain Multiplication "/>
-    <hyperlink ref="B416" r:id="rId383" display="Edit Distance"/>
-    <hyperlink ref="B417" r:id="rId384" display="Subset Sum Problem"/>
-    <hyperlink ref="B418" r:id="rId385" display="Friends Pairing Problem"/>
-    <hyperlink ref="B419" r:id="rId386" display="Gold Mine Problem"/>
-    <hyperlink ref="B420" r:id="rId387" display="Assembly Line SchedulingProblem"/>
-    <hyperlink ref="B421" r:id="rId388" display="Painting the Fenceproblem"/>
-    <hyperlink ref="B422" r:id="rId389" display="Maximize The Cut Segments"/>
-    <hyperlink ref="B423" r:id="rId390" display="Longest Common Subsequence"/>
-    <hyperlink ref="B424" r:id="rId391" display="Longest Repeated Subsequence"/>
-    <hyperlink ref="B425" r:id="rId392" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="B426" r:id="rId393" display="Space Optimized Solution of LCS"/>
-    <hyperlink ref="B427" r:id="rId394" display="LCS (Longest Common Subsequence) of three strings"/>
-    <hyperlink ref="B428" r:id="rId395" display="Maximum Sum Increasing Subsequence"/>
-    <hyperlink ref="B429" r:id="rId396" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="B430" r:id="rId397" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="B431" r:id="rId398" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="B432" r:id="rId399" display="Egg Dropping Problem"/>
-    <hyperlink ref="B433" r:id="rId400" display="Maximum Length Chain of Pairs"/>
-    <hyperlink ref="B434" r:id="rId401" display="Maximum size square sub-matrix with all 1s"/>
-    <hyperlink ref="B435" r:id="rId402" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="B436" r:id="rId403" display="Min Cost PathProblem"/>
-    <hyperlink ref="B437" r:id="rId404" display="Maximum difference of zeros and ones in binary string"/>
-    <hyperlink ref="B438" r:id="rId405" display="Minimum number of jumps to reach end"/>
-    <hyperlink ref="B439" r:id="rId406" display="Minimum cost to fill given weight in a bag"/>
-    <hyperlink ref="B440" r:id="rId407" display="Minimum removals from array to make max –min &lt;= K"/>
-    <hyperlink ref="B441" r:id="rId408" display="Longest Common Substring"/>
-    <hyperlink ref="B442" r:id="rId409" display="Count number of ways to reacha given score in a game"/>
-    <hyperlink ref="B443" r:id="rId410" display="Count Balanced Binary Trees of Height h"/>
-    <hyperlink ref="B444" r:id="rId411" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
-    <hyperlink ref="B445" r:id="rId412" display="Smallest sum contiguous subarray"/>
-    <hyperlink ref="B446" r:id="rId413" display="Unbounded Knapsack (Repetition of items allowed)"/>
-    <hyperlink ref="B447" r:id="rId414" display="Word Break Problem"/>
-    <hyperlink ref="B448" r:id="rId415" display="Largest Independent Set Problem"/>
-    <hyperlink ref="B449" r:id="rId416" display="Partition problem"/>
-    <hyperlink ref="B450" r:id="rId417" display="Longest Palindromic Subsequence"/>
-    <hyperlink ref="B451" r:id="rId418" display="Count All Palindromic Subsequence in a given String"/>
-    <hyperlink ref="B452" r:id="rId419" display="Longest Palindromic Substring"/>
-    <hyperlink ref="B453" r:id="rId420" display="Longest alternating subsequence"/>
-    <hyperlink ref="B454" r:id="rId421" display="Weighted Job Scheduling"/>
-    <hyperlink ref="B455" r:id="rId422" display="Coin game winner where every player has three choices"/>
-    <hyperlink ref="B456" r:id="rId423" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
-    <hyperlink ref="B457" r:id="rId424" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
-    <hyperlink ref="B458" r:id="rId425" display="Optimal Strategy for a Game"/>
-    <hyperlink ref="B459" r:id="rId426" display="Optimal Binary Search Tree"/>
-    <hyperlink ref="B460" r:id="rId427" display="Palindrome PartitioningProblem"/>
-    <hyperlink ref="B461" r:id="rId428" display="Word Wrap Problem"/>
-    <hyperlink ref="B462" r:id="rId429" display="Mobile Numeric Keypad Problem [ IMP ]"/>
-    <hyperlink ref="B463" r:id="rId430" display="Boolean Parenthesization Problem"/>
-    <hyperlink ref="B464" r:id="rId431" display="Largest rectangular sub-matrix whose sum is 0"/>
-    <hyperlink ref="B465" r:id="rId432" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
-    <hyperlink ref="B466" r:id="rId433" display="Maximum sum rectangle in a 2D matrix"/>
-    <hyperlink ref="B467" r:id="rId434" display="Maximum profit by buying and selling a share at most k times"/>
-    <hyperlink ref="B468" r:id="rId435" display="Find if a string is interleaved of two other strings"/>
-    <hyperlink ref="B469" r:id="rId436" display="Maximum Length of Pair Chain"/>
-    <hyperlink ref="B472" r:id="rId437" display="Count set bits in an integer"/>
-    <hyperlink ref="B473" r:id="rId438" display="Find the two non-repeating elements in an array of repeating elements"/>
-    <hyperlink ref="B474" r:id="rId439" display="Count number of bits to be flipped to convert A to B"/>
-    <hyperlink ref="B475" r:id="rId440" display="Count total set bits in all numbers from 1 to n"/>
-    <hyperlink ref="B476" r:id="rId441" display="Program to find whether a no is power of two"/>
-    <hyperlink ref="B477" r:id="rId442" display="Find position of the only set bit"/>
-    <hyperlink ref="B478" r:id="rId443" display="Copy set bits in a range"/>
-    <hyperlink ref="B479" r:id="rId444" display="Divide two integers without using multiplication, division and mod operator"/>
-    <hyperlink ref="B480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
-    <hyperlink ref="B481" r:id="rId446" display="Power Set"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B21" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B22" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B23" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B24" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B25" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B26" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B27" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B28" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B29" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B30" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B31" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B32" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B33" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B34" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B35" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B36" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B37" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B38" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B39" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B40" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B41" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B44" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B45" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B46" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B47" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B48" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B49" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B50" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B51" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B52" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B53" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B56" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B57" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B58" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B60" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B61" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B62" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B63" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B64" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B65" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B66" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B67" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B68" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B69" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B70" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B71" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B72" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B73" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B74" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B75" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B76" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B77" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B78" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B79" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B80" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B81" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B82" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B83" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B84" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B85" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B86" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B87" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B88" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B89" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B90" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B91" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B92" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B93" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B94" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B95" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B96" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B97" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B98" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B101" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B102" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B103" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B104" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B105" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B106" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B107" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B108" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B109" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B110" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B111" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B112" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B113" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B114" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B115" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B116" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B117" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B118" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B119" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B120" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B121" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B122" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B123" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B124" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B125" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B126" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B127" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B128" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B129" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B130" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B131" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B132" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B133" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B134" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B135" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B136" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B139" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B140" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B141" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B142" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B143" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B144" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B145" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B146" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="B147" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B148" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="B149" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B150" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B151" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B152" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B153" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B154" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B155" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B156" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B157" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B158" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B159" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B160" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B161" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B162" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B163" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B166" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B167" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B168" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B169" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B170" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B171" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B172" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B173" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B174" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B177" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B178" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B179" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B180" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B181" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B182" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B183" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B184" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B185" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B186" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B187" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B188" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B189" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B190" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B191" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B192" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B193" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B194" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B195" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B196" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B197" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B198" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B199" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B200" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B201" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B202" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B204" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B205" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B206" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B207" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B208" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B209" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B210" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B211" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B214" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B215" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B216" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B217" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B218" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B219" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B220" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B221" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B222" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B223" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="B224" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B225" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B226" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B227" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B228" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B229" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B230" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B231" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B232" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B233" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B234" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B235" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B238" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B239" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B240" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B241" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B242" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B243" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B244" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B245" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B246" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B247" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B248" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B249" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B250" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B251" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B252" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B253" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B254" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B255" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B256" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B258" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B259" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B260" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B261" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B262" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B263" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B264" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="B265" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B266" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B267" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B268" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B269" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B270" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B271" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B272" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="B275" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B276" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B277" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B278" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B279" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B280" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B281" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B282" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B283" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B284" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B285" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B286" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B287" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B288" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B289" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B290" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B291" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B292" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B293" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B296" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B297" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B298" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B299" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B300" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B301" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B302" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B303" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B304" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B305" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B307" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B308" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B309" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B310" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B311" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B312" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B313" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B314" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B315" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B316" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B317" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B318" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B319" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B320" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B321" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B322" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B323" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B324" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B325" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B326" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B327" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B328" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B329" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B330" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B331" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B332" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B333" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B336" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B337" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B338" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B339" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B340" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B341" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B342" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B343" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B344" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B345" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B346" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B347" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B348" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B349" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B350" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B351" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B352" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B353" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="B356" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="B357" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="B358" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="B359" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="B360" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="B361" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="B362" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="B363" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="B364" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="B365" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="B366" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="B367" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="B368" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="B369" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="B370" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="B371" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="B372" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="B373" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="B374" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="B375" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="B376" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="B377" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="B378" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="B379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="B380" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="B381" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="B382" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="B383" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="B384" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="B385" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="B386" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="B387" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="B388" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="B389" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="B390" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="B391" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="B392" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="B393" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="B394" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="B395" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="B396" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="B397" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="B398" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="B399" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="B402" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="B403" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="B404" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="B405" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="B406" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="B407" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="B410" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="B411" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="B412" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="B413" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="B414" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="B415" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="B416" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="B417" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="B418" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="B419" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="B420" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="B421" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="B422" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="B423" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="B424" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="B425" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="B426" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="B427" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="B428" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="B429" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="B430" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="B431" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="B432" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="B433" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="B434" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="B435" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="B436" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="B437" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="B438" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="B439" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="B440" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="B441" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="B442" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="B443" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="B444" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="B445" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="B446" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="B447" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="B448" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="B449" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="B450" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="B451" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="B452" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="B453" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="B454" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="B455" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="B456" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="B457" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="B458" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="B459" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="B460" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="B461" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="B462" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="B463" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="B464" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="B465" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="B466" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="B467" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="B468" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="B469" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="B472" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="B473" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="B474" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="B475" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="B476" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="B477" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="B478" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="B479" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="B480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="B481" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8016E74B-2D3E-469A-A823-6351CA55DE0C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894A7716-40A6-4B7F-AF46-9440F11A57F8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1930,8 +1930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A224" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B233" sqref="B233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
@@ -4355,7 +4355,7 @@
       <c r="A231" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B231" s="7" t="s">
+      <c r="B231" s="12" t="s">
         <v>226</v>
       </c>
       <c r="C231" s="5" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894A7716-40A6-4B7F-AF46-9440F11A57F8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A16135E-5813-4997-A62C-A8D9642AB66B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1482,7 +1482,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1507,6 +1507,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1521,7 +1527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1545,6 +1551,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1930,8 +1937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B233" sqref="B233"/>
+    <sheetView tabSelected="1" topLeftCell="A341" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B350" sqref="B350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
@@ -5454,7 +5461,7 @@
       <c r="A336" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B336" s="7" t="s">
+      <c r="B336" s="13" t="s">
         <v>326</v>
       </c>
       <c r="C336" s="5" t="s">
@@ -5465,7 +5472,7 @@
       <c r="A337" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B337" s="7" t="s">
+      <c r="B337" s="13" t="s">
         <v>327</v>
       </c>
       <c r="C337" s="5" t="s">
@@ -5487,7 +5494,7 @@
       <c r="A339" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B339" s="7" t="s">
+      <c r="B339" s="13" t="s">
         <v>329</v>
       </c>
       <c r="C339" s="5" t="s">
@@ -5520,7 +5527,7 @@
       <c r="A342" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B342" s="7" t="s">
+      <c r="B342" s="13" t="s">
         <v>332</v>
       </c>
       <c r="C342" s="5" t="s">
@@ -5586,7 +5593,7 @@
       <c r="A348" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B348" s="7" t="s">
+      <c r="B348" s="13" t="s">
         <v>338</v>
       </c>
       <c r="C348" s="5" t="s">
@@ -5597,7 +5604,7 @@
       <c r="A349" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B349" s="7" t="s">
+      <c r="B349" s="13" t="s">
         <v>339</v>
       </c>
       <c r="C349" s="5" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\DSA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A16135E-5813-4997-A62C-A8D9642AB66B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,13 +22,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="465">
   <si>
-    <t>Questions by Love Babbar:</t>
+    <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
   <si>
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
   </si>
   <si>
-    <t>Topic:</t>
+    <t xml:space="preserve">Topic:</t>
   </si>
   <si>
     <t xml:space="preserve">Problem: </t>
@@ -42,850 +37,850 @@
     <t xml:space="preserve">Done [yes or no] </t>
   </si>
   <si>
-    <t>&lt;-&gt;</t>
-  </si>
-  <si>
-    <t>Array</t>
-  </si>
-  <si>
-    <t>Reverse the array</t>
-  </si>
-  <si>
-    <t>Find the maximum and minimum element in an array</t>
+    <t xml:space="preserve">&lt;-&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse the array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the maximum and minimum element in an array</t>
   </si>
   <si>
     <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
   </si>
   <si>
-    <t>Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
+    <t xml:space="preserve">Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
   </si>
   <si>
     <t xml:space="preserve">Move all the negative elements to one side of the array </t>
   </si>
   <si>
-    <t>Find the Union and Intersection of the two sorted arrays.</t>
-  </si>
-  <si>
-    <t>Write a program to cyclically rotate an array by one.</t>
-  </si>
-  <si>
-    <t>find Largest sum contiguous Subarray [V. IMP]</t>
-  </si>
-  <si>
-    <t>Minimise the maximum difference between heights [V.IMP]</t>
-  </si>
-  <si>
-    <t>Minimum no. of Jumps to reach end of an array</t>
-  </si>
-  <si>
-    <t>find duplicate in an array of N+1 Integers</t>
-  </si>
-  <si>
-    <t>Merge 2 sorted arrays without using Extra space.</t>
-  </si>
-  <si>
-    <t>Kadane's Algo [V.V.V.V.V IMP]</t>
-  </si>
-  <si>
-    <t>Merge Intervals</t>
-  </si>
-  <si>
-    <t>Next Permutation</t>
-  </si>
-  <si>
-    <t>Count Inversion</t>
-  </si>
-  <si>
-    <t>Best time to buy and Sell stock</t>
-  </si>
-  <si>
-    <t>find all pairs on integer array whose sum is equal to given number</t>
-  </si>
-  <si>
-    <t>find common elements In 3 sorted arrays</t>
-  </si>
-  <si>
-    <t>Rearrange the array in alternating positive and negative items with O(1) extra space</t>
-  </si>
-  <si>
-    <t>Find if there is any subarray with sum equal to 0</t>
-  </si>
-  <si>
-    <t>Find factorial of a large number</t>
+    <t xml:space="preserve">Find the Union and Intersection of the two sorted arrays.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a program to cyclically rotate an array by one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find Largest sum contiguous Subarray [V. IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimise the maximum difference between heights [V.IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum no. of Jumps to reach end of an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find duplicate in an array of N+1 Integers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge 2 sorted arrays without using Extra space.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kadane's Algo [V.V.V.V.V IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next Permutation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count Inversion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best time to buy and Sell stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find all pairs on integer array whose sum is equal to given number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find common elements In 3 sorted arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rearrange the array in alternating positive and negative items with O(1) extra space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find if there is any subarray with sum equal to 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find factorial of a large number</t>
   </si>
   <si>
     <t xml:space="preserve">find maximum product subarray </t>
   </si>
   <si>
-    <t>Find longest coinsecutive subsequence</t>
-  </si>
-  <si>
-    <t>Given an array of size n and a number k, fin all elements that appear more than " n/k " times.</t>
-  </si>
-  <si>
-    <t>Maximum profit by buying and selling a share atmost twice</t>
-  </si>
-  <si>
-    <t>Find whether an array is a subset of another array</t>
-  </si>
-  <si>
-    <t>Find the triplet that sum to a given value</t>
-  </si>
-  <si>
-    <t>Trapping Rain water problem</t>
-  </si>
-  <si>
-    <t>Chocolate Distribution problem</t>
-  </si>
-  <si>
-    <t>Smallest Subarray with sum greater than a given value</t>
-  </si>
-  <si>
-    <t>Three way partitioning of an array around a given value</t>
-  </si>
-  <si>
-    <t>Minimum swaps required bring elements less equal K together</t>
-  </si>
-  <si>
-    <t>Minimum no. of operations required to make an array palindrome</t>
-  </si>
-  <si>
-    <t>Median of 2 sorted arrays of equal size</t>
-  </si>
-  <si>
-    <t>Median of 2 sorted arrays of different size</t>
-  </si>
-  <si>
-    <t>Matrix</t>
-  </si>
-  <si>
-    <t>Spiral traversal on a Matrix</t>
-  </si>
-  <si>
-    <t>Search an element in a matriix</t>
-  </si>
-  <si>
-    <t>Find median in a row wise sorted matrix</t>
-  </si>
-  <si>
-    <t>Find row with maximum no. of 1's</t>
-  </si>
-  <si>
-    <t>Print elements in sorted order using row-column wise sorted matrix</t>
-  </si>
-  <si>
-    <t>Maximum size rectangle</t>
-  </si>
-  <si>
-    <t>Find a specific pair in matrix</t>
-  </si>
-  <si>
-    <t>Rotate matrix by 90 degrees</t>
-  </si>
-  <si>
-    <t>Kth smallest element in a row-cpumn wise sorted matrix</t>
-  </si>
-  <si>
-    <t>Common elements in all rows of a given matrix</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>Reverse a String</t>
-  </si>
-  <si>
-    <t>Check whether a String is Palindrome or not</t>
-  </si>
-  <si>
-    <t>Find Duplicate characters in a string</t>
-  </si>
-  <si>
-    <t>Why strings are immutable in Java?</t>
-  </si>
-  <si>
-    <t>Write a Code to check whether one string is a rotation of another</t>
-  </si>
-  <si>
-    <t>Write a Program to check whether a string is a valid shuffle of two strings or not</t>
-  </si>
-  <si>
-    <t>Count and Say problem</t>
-  </si>
-  <si>
-    <t>Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]</t>
-  </si>
-  <si>
-    <t>Find Longest Recurring Subsequence in String</t>
-  </si>
-  <si>
-    <t>Print all Subsequences of a string.</t>
-  </si>
-  <si>
-    <t>Print all the permutations of the given string</t>
-  </si>
-  <si>
-    <t>Split the Binary string into two substring with equal 0’s and 1’s</t>
-  </si>
-  <si>
-    <t>Word Wrap Problem [VERY IMP].</t>
-  </si>
-  <si>
-    <t>EDIT Distance [Very Imp]</t>
-  </si>
-  <si>
-    <t>Find next greater number with same set of digits. [Very Very IMP]</t>
-  </si>
-  <si>
-    <t>Balanced Parenthesis problem.[Imp]</t>
-  </si>
-  <si>
-    <t>Word break Problem[ Very Imp]</t>
-  </si>
-  <si>
-    <t>Rabin Karp Algo</t>
-  </si>
-  <si>
-    <t>KMP Algo</t>
-  </si>
-  <si>
-    <t>Convert a Sentence into its equivalent mobile numeric keypad sequence.</t>
-  </si>
-  <si>
-    <t>Minimum number of bracket reversals needed to make an expression balanced.</t>
-  </si>
-  <si>
-    <t>Count All Palindromic Subsequence in a given String.</t>
-  </si>
-  <si>
-    <t>Count of number of given string in 2D character array</t>
-  </si>
-  <si>
-    <t>Search a Word in a 2D Grid of characters.</t>
-  </si>
-  <si>
-    <t>Boyer Moore Algorithm for Pattern Searching.</t>
-  </si>
-  <si>
-    <t>Converting Roman Numerals to Decimal</t>
-  </si>
-  <si>
-    <t>Longest Common Prefix</t>
-  </si>
-  <si>
-    <t>Number of flips to make binary string alternate</t>
-  </si>
-  <si>
-    <t>Find the first repeated word in string.</t>
-  </si>
-  <si>
-    <t>Minimum number of swaps for bracket balancing.</t>
-  </si>
-  <si>
-    <t>Find the longest common subsequence between two strings.</t>
-  </si>
-  <si>
-    <t>Program to generate all possible valid IP addresses from given  string.</t>
-  </si>
-  <si>
-    <t>Write a program tofind the smallest window that contains all characters of string itself.</t>
-  </si>
-  <si>
-    <t>Rearrange characters in a string such that no two adjacent are same</t>
-  </si>
-  <si>
-    <t>Minimum characters to be added at front to make string palindrome</t>
-  </si>
-  <si>
-    <t>Given a sequence of words, print all anagrams together</t>
-  </si>
-  <si>
-    <t>Find the smallest window in a string containing all characters of another string</t>
-  </si>
-  <si>
-    <t>Recursively remove all adjacent duplicates</t>
-  </si>
-  <si>
-    <t>String matching where one string contains wildcard characters</t>
-  </si>
-  <si>
-    <t>Function to find Number of customers who could not get a computer</t>
-  </si>
-  <si>
-    <t>Transform One String to Another using Minimum Number of Given Operation</t>
-  </si>
-  <si>
-    <t>Check if two given strings are isomorphic to each other</t>
-  </si>
-  <si>
-    <t>Recursively print all sentences that can be formed from list of word lists</t>
-  </si>
-  <si>
-    <t>Searching &amp; Sorting</t>
-  </si>
-  <si>
-    <t>Find first and last positions of an element in a sorted array</t>
-  </si>
-  <si>
-    <t>Find a Fixed Point (Value equal to index) in a given array</t>
-  </si>
-  <si>
-    <t>Search in a rotated sorted array</t>
-  </si>
-  <si>
-    <t>square root of an integer</t>
-  </si>
-  <si>
-    <t>Maximum and minimum of an array using minimum number of comparisons</t>
-  </si>
-  <si>
-    <t>Optimum location of point to minimize total distance</t>
-  </si>
-  <si>
-    <t>Find the repeating and the missing</t>
-  </si>
-  <si>
-    <t>find majority element</t>
-  </si>
-  <si>
-    <t>Searching in an array where adjacent differ by at most k</t>
-  </si>
-  <si>
-    <t>find a pair with a given difference</t>
-  </si>
-  <si>
-    <t>find four elements that sum to a given value</t>
-  </si>
-  <si>
-    <t>maximum sum such that no 2 elements are adjacent</t>
-  </si>
-  <si>
-    <t>Count triplet with sum smaller than a given value</t>
-  </si>
-  <si>
-    <t>merge 2 sorted arrays</t>
-  </si>
-  <si>
-    <t>print all subarrays with 0 sum</t>
-  </si>
-  <si>
-    <t>Product array Puzzle</t>
-  </si>
-  <si>
-    <t>Sort array according to count of set bits</t>
-  </si>
-  <si>
-    <t>minimum no. of swaps required to sort the array</t>
-  </si>
-  <si>
-    <t>Bishu and Soldiers</t>
-  </si>
-  <si>
-    <t>Rasta and Kheshtak</t>
-  </si>
-  <si>
-    <t>Kth smallest number again</t>
-  </si>
-  <si>
-    <t>Find pivot element in a sorted array</t>
-  </si>
-  <si>
-    <t>K-th Element of Two Sorted Arrays</t>
-  </si>
-  <si>
-    <t>Aggressive cows</t>
-  </si>
-  <si>
-    <t>Book Allocation Problem</t>
-  </si>
-  <si>
-    <t>EKOSPOJ:</t>
-  </si>
-  <si>
-    <t>Job Scheduling Algo</t>
-  </si>
-  <si>
-    <t>Missing Number in AP</t>
-  </si>
-  <si>
-    <t>Smallest number with atleastn trailing zeroes infactorial</t>
-  </si>
-  <si>
-    <t>Painters Partition Problem:</t>
-  </si>
-  <si>
-    <t>ROTI-Prata SPOJ</t>
-  </si>
-  <si>
-    <t>DoubleHelix SPOJ</t>
-  </si>
-  <si>
-    <t>Subset Sums</t>
-  </si>
-  <si>
-    <t>Findthe inversion count</t>
-  </si>
-  <si>
-    <t>Implement Merge-sort in-place</t>
-  </si>
-  <si>
-    <t>Partitioning and Sorting Arrays with Many Repeated Entries</t>
-  </si>
-  <si>
-    <t>LinkedList</t>
-  </si>
-  <si>
-    <t>Write a Program to reverse the Linked List. (Both Iterative and recursive)</t>
-  </si>
-  <si>
-    <t>Reverse a Linked List in group of Given Size. [Very Imp]</t>
-  </si>
-  <si>
-    <t>Write a program to Detect loop in a linked list.</t>
-  </si>
-  <si>
-    <t>Write a program to Delete loop in a linked list.</t>
-  </si>
-  <si>
-    <t>Find the starting point of the loop. </t>
-  </si>
-  <si>
-    <t>Remove Duplicates in a sorted Linked List.</t>
-  </si>
-  <si>
-    <t>Remove Duplicates in a Un-sorted Linked List.</t>
-  </si>
-  <si>
-    <t>Write a Program to Move the last element to Front in a Linked List.</t>
-  </si>
-  <si>
-    <t>Add “1” to a number represented as a Linked List.</t>
-  </si>
-  <si>
-    <t>Add two numbers represented by linked lists.</t>
-  </si>
-  <si>
-    <t>Intersection of two Sorted Linked List.</t>
-  </si>
-  <si>
-    <t>Intersection Point of two Linked Lists.</t>
-  </si>
-  <si>
-    <t>Merge Sort For Linked lists.[Very Important]</t>
-  </si>
-  <si>
-    <t>Quicksort for Linked Lists.[Very Important]</t>
-  </si>
-  <si>
-    <t>Find the middle Element of a linked list.</t>
-  </si>
-  <si>
-    <t>Check if a linked list is a circular linked list.</t>
-  </si>
-  <si>
-    <t>Split a Circular linked list into two halves.</t>
-  </si>
-  <si>
-    <t>Write a Program to check whether the Singly Linked list is a palindrome or not.</t>
-  </si>
-  <si>
-    <t>Deletion from a Circular Linked List.</t>
-  </si>
-  <si>
-    <t>Reverse a Doubly Linked list.</t>
-  </si>
-  <si>
-    <t>Find pairs with a given sum in a DLL.</t>
-  </si>
-  <si>
-    <t>Count triplets in a sorted DLL whose sum is equal to given value “X”.</t>
-  </si>
-  <si>
-    <t>Sort a “k”sorted Doubly Linked list.[Very IMP]</t>
-  </si>
-  <si>
-    <t>Rotate DoublyLinked list by N nodes.</t>
-  </si>
-  <si>
-    <t>Rotate a Doubly Linked list in group of Given Size.[Very IMP]</t>
-  </si>
-  <si>
-    <t>Can we reverse a linked list in less than O(n) ?</t>
-  </si>
-  <si>
-    <t>Why Quicksort is preferred for. Arrays and Merge Sort for LinkedLists ?</t>
-  </si>
-  <si>
-    <t>Flatten a Linked List</t>
-  </si>
-  <si>
-    <t>Sort a LL of 0's, 1's and 2's</t>
-  </si>
-  <si>
-    <t>Clone a linked list with next and random pointer</t>
-  </si>
-  <si>
-    <t>Merge K sorted Linked list</t>
-  </si>
-  <si>
-    <t>Multiply 2 no. represented by LL</t>
-  </si>
-  <si>
-    <t>Delete nodes which have a greater value on right side</t>
-  </si>
-  <si>
-    <t>Segregate even and odd nodes in a Linked List</t>
-  </si>
-  <si>
-    <t>Program for n’th node from the end of a Linked List</t>
-  </si>
-  <si>
-    <t>Find the first non-repeating character from a stream of characters</t>
-  </si>
-  <si>
-    <t>Binary Trees</t>
-  </si>
-  <si>
-    <t>level order traversal</t>
-  </si>
-  <si>
-    <t>Reverse Level Order traversal</t>
-  </si>
-  <si>
-    <t>Height of a tree</t>
-  </si>
-  <si>
-    <t>Diameter of a tree</t>
-  </si>
-  <si>
-    <t>Mirror of a tree</t>
-  </si>
-  <si>
-    <t>Inorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t>Preorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t>Postorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t>Left View of a tree</t>
-  </si>
-  <si>
-    <t>Right View of Tree</t>
-  </si>
-  <si>
-    <t>Top View of a tree</t>
-  </si>
-  <si>
-    <t>Bottom View of a tree</t>
-  </si>
-  <si>
-    <t>Zig-Zag traversal of a binary tree</t>
-  </si>
-  <si>
-    <t>Check if a tree is balanced or not</t>
-  </si>
-  <si>
-    <t>Diagnol Traversal of a Binary tree</t>
-  </si>
-  <si>
-    <t>Boundary traversal of a Binary tree</t>
-  </si>
-  <si>
-    <t>Construct Binary Tree from String with Bracket Representation</t>
-  </si>
-  <si>
-    <t>Convert Binary tree into Doubly Linked List</t>
-  </si>
-  <si>
-    <t>Convert Binary tree into Sum tree</t>
-  </si>
-  <si>
-    <t>Construct Binary tree from Inorder and preorder traversal</t>
-  </si>
-  <si>
-    <t>Find minimum swaps required to convert a Binary tree into BST</t>
-  </si>
-  <si>
-    <t>Check if Binary tree is Sum tree or not</t>
-  </si>
-  <si>
-    <t>Check if all leaf nodes are at same level or not</t>
-  </si>
-  <si>
-    <t>Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]</t>
-  </si>
-  <si>
-    <t>Check if 2 trees are mirror or not</t>
+    <t xml:space="preserve">Find longest coinsecutive subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given an array of size n and a number k, fin all elements that appear more than " n/k " times.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum profit by buying and selling a share atmost twice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find whether an array is a subset of another array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the triplet that sum to a given value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trapping Rain water problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chocolate Distribution problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smallest Subarray with sum greater than a given value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three way partitioning of an array around a given value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum swaps required bring elements less equal K together</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum no. of operations required to make an array palindrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median of 2 sorted arrays of equal size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median of 2 sorted arrays of different size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spiral traversal on a Matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search an element in a matriix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find median in a row wise sorted matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find row with maximum no. of 1's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print elements in sorted order using row-column wise sorted matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum size rectangle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find a specific pair in matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotate matrix by 90 degrees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kth smallest element in a row-cpumn wise sorted matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common elements in all rows of a given matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse a String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check whether a String is Palindrome or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Duplicate characters in a string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why strings are immutable in Java?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a Code to check whether one string is a rotation of another</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a Program to check whether a string is a valid shuffle of two strings or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count and Say problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Longest Recurring Subsequence in String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print all Subsequences of a string.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print all the permutations of the given string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Split the Binary string into two substring with equal 0’s and 1’s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word Wrap Problem [VERY IMP].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDIT Distance [Very Imp]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find next greater number with same set of digits. [Very Very IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balanced Parenthesis problem.[Imp]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word break Problem[ Very Imp]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rabin Karp Algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KMP Algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert a Sentence into its equivalent mobile numeric keypad sequence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum number of bracket reversals needed to make an expression balanced.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count All Palindromic Subsequence in a given String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of number of given string in 2D character array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search a Word in a 2D Grid of characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boyer Moore Algorithm for Pattern Searching.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converting Roman Numerals to Decimal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Common Prefix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of flips to make binary string alternate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the first repeated word in string.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum number of swaps for bracket balancing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the longest common subsequence between two strings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program to generate all possible valid IP addresses from given  string.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a program tofind the smallest window that contains all characters of string itself.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rearrange characters in a string such that no two adjacent are same</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum characters to be added at front to make string palindrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a sequence of words, print all anagrams together</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the smallest window in a string containing all characters of another string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recursively remove all adjacent duplicates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String matching where one string contains wildcard characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Function to find Number of customers who could not get a computer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transform One String to Another using Minimum Number of Given Operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if two given strings are isomorphic to each other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recursively print all sentences that can be formed from list of word lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Searching &amp; Sorting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find first and last positions of an element in a sorted array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find a Fixed Point (Value equal to index) in a given array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search in a rotated sorted array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">square root of an integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum and minimum of an array using minimum number of comparisons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimum location of point to minimize total distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the repeating and the missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find majority element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Searching in an array where adjacent differ by at most k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find a pair with a given difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find four elements that sum to a given value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maximum sum such that no 2 elements are adjacent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count triplet with sum smaller than a given value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merge 2 sorted arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">print all subarrays with 0 sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product array Puzzle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort array according to count of set bits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum no. of swaps required to sort the array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bishu and Soldiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rasta and Kheshtak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kth smallest number again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find pivot element in a sorted array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K-th Element of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggressive cows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Book Allocation Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EKOSPOJ:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job Scheduling Algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing Number in AP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smallest number with atleastn trailing zeroes infactorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Painters Partition Problem:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROTI-Prata SPOJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DoubleHelix SPOJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subset Sums</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Findthe inversion count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Merge-sort in-place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partitioning and Sorting Arrays with Many Repeated Entries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LinkedList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a Program to reverse the Linked List. (Both Iterative and recursive)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse a Linked List in group of Given Size. [Very Imp]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a program to Detect loop in a linked list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a program to Delete loop in a linked list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the starting point of the loop. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove Duplicates in a sorted Linked List.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove Duplicates in a Un-sorted Linked List.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a Program to Move the last element to Front in a Linked List.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add “1” to a number represented as a Linked List.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add two numbers represented by linked lists.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intersection of two Sorted Linked List.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intersection Point of two Linked Lists.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Sort For Linked lists.[Very Important]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quicksort for Linked Lists.[Very Important]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the middle Element of a linked list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if a linked list is a circular linked list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Split a Circular linked list into two halves.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a Program to check whether the Singly Linked list is a palindrome or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deletion from a Circular Linked List.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse a Doubly Linked list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find pairs with a given sum in a DLL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count triplets in a sorted DLL whose sum is equal to given value “X”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort a “k”sorted Doubly Linked list.[Very IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotate DoublyLinked list by N nodes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotate a Doubly Linked list in group of Given Size.[Very IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can we reverse a linked list in less than O(n) ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why Quicksort is preferred for. Arrays and Merge Sort for LinkedLists ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flatten a Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort a LL of 0's, 1's and 2's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clone a linked list with next and random pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge K sorted Linked list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiply 2 no. represented by LL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete nodes which have a greater value on right side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segregate even and odd nodes in a Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program for n’th node from the end of a Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the first non-repeating character from a stream of characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level order traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse Level Order traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Height of a tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter of a tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirror of a tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left View of a tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right View of Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top View of a tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottom View of a tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zig-Zag traversal of a binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if a tree is balanced or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnol Traversal of a Binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boundary traversal of a Binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construct Binary Tree from String with Bracket Representation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert Binary tree into Doubly Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert Binary tree into Sum tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construct Binary tree from Inorder and preorder traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find minimum swaps required to convert a Binary tree into BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if Binary tree is Sum tree or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if all leaf nodes are at same level or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if 2 trees are mirror or not</t>
   </si>
   <si>
     <t xml:space="preserve">Sum of Nodes on the Longest path from root to leaf node </t>
   </si>
   <si>
-    <t>Check if given graph is tree or not.  [ IMP ]</t>
-  </si>
-  <si>
-    <t>Find Largest subtree sum in a tree</t>
+    <t xml:space="preserve">Check if given graph is tree or not.  [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Largest subtree sum in a tree</t>
   </si>
   <si>
     <t xml:space="preserve">Maximum Sum of nodes in Binary tree such that no two are adjacent </t>
   </si>
   <si>
-    <t>Print all "K" Sum paths in a Binary tree</t>
-  </si>
-  <si>
-    <t>Find LCA in a Binary tree</t>
-  </si>
-  <si>
-    <t>Find distance between 2 nodes in a Binary tree</t>
-  </si>
-  <si>
-    <t>Kth Ancestor of node in a Binary tree</t>
-  </si>
-  <si>
-    <t>Find all Duplicate subtrees in a Binary tree [ IMP ]</t>
-  </si>
-  <si>
-    <t>Tree Isomorphism Problem</t>
-  </si>
-  <si>
-    <t>Binary Search Trees</t>
-  </si>
-  <si>
-    <t>Fina a value in a BST</t>
-  </si>
-  <si>
-    <t>Deletion of a node in a BST</t>
-  </si>
-  <si>
-    <t>Find min and max value in a BST</t>
-  </si>
-  <si>
-    <t>Find inorder successor and inorder predecessor in a BST</t>
+    <t xml:space="preserve">Print all "K" Sum paths in a Binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find LCA in a Binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find distance between 2 nodes in a Binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kth Ancestor of node in a Binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find all Duplicate subtrees in a Binary tree [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tree Isomorphism Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Search Trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fina a value in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deletion of a node in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find min and max value in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find inorder successor and inorder predecessor in a BST</t>
   </si>
   <si>
     <t xml:space="preserve">Check if a tree is a BST or not </t>
   </si>
   <si>
-    <t>Populate Inorder successor of all nodes</t>
-  </si>
-  <si>
-    <t>Find LCA  of 2 nodes in a BST</t>
-  </si>
-  <si>
-    <t>Construct BST from preorder traversal</t>
-  </si>
-  <si>
-    <t>Convert Binary tree into BST</t>
-  </si>
-  <si>
-    <t>Convert a normal BST into a Balanced BST</t>
-  </si>
-  <si>
-    <t>Merge two BST [ V.V.V&gt;IMP ]</t>
-  </si>
-  <si>
-    <t>Find Kth largest element in a BST</t>
-  </si>
-  <si>
-    <t>Find Kth smallest element in a BST</t>
-  </si>
-  <si>
-    <t>Count pairs from 2 BST whose sum is equal to given value "X"</t>
-  </si>
-  <si>
-    <t>Find the median of BST in O(n) time and O(1) space</t>
-  </si>
-  <si>
-    <t>Count BST ndoes that lie in a given range</t>
-  </si>
-  <si>
-    <t>Replace every element with the least greater element on its right</t>
-  </si>
-  <si>
-    <t>Given "n" appointments, find the conflicting appointments</t>
-  </si>
-  <si>
-    <t>Check preorder is valid or not</t>
-  </si>
-  <si>
-    <t>Check whether BST contains Dead end</t>
-  </si>
-  <si>
-    <t>Largest BST in a Binary Tree [ V.V.V.V.V IMP ]</t>
-  </si>
-  <si>
-    <t>Flatten BST to sorted list</t>
-  </si>
-  <si>
-    <t>Greedy</t>
-  </si>
-  <si>
-    <t>Activity Selection Problem</t>
-  </si>
-  <si>
-    <t>Job SequencingProblem</t>
-  </si>
-  <si>
-    <t>Huffman Coding</t>
-  </si>
-  <si>
-    <t>Water Connection Problem</t>
-  </si>
-  <si>
-    <t>Fractional Knapsack Problem</t>
-  </si>
-  <si>
-    <t>Greedy Algorithm to find Minimum number of Coins</t>
-  </si>
-  <si>
-    <t>Maximum trains for which stoppage can be provided</t>
-  </si>
-  <si>
-    <t>Minimum Platforms Problem</t>
-  </si>
-  <si>
-    <t>Buy Maximum Stocks if i stocks can be bought on i-th day</t>
-  </si>
-  <si>
-    <t>Find the minimum and maximum amount to buy all N candies</t>
-  </si>
-  <si>
-    <t>Minimize Cash Flow among a given set of friends who have borrowed money from each other</t>
-  </si>
-  <si>
-    <t>Minimum Cost to cut a board into squares</t>
-  </si>
-  <si>
-    <t>Check if it is possible to survive on Island</t>
-  </si>
-  <si>
-    <t>Find maximum meetings in one room</t>
-  </si>
-  <si>
-    <t>Maximum product subset of an array</t>
-  </si>
-  <si>
-    <t>Maximize array sum after K negations</t>
-  </si>
-  <si>
-    <t>Maximize the sum of arr[i]*i</t>
-  </si>
-  <si>
-    <t>Maximum sum of absolute difference of an array</t>
-  </si>
-  <si>
-    <t>Maximize sum of consecutive differences in a circular array</t>
-  </si>
-  <si>
-    <t>Minimum sum of absolute difference of pairs of two arrays</t>
-  </si>
-  <si>
-    <t>Program for Shortest Job First (or SJF) CPU Scheduling</t>
-  </si>
-  <si>
-    <t>Program for Least Recently Used (LRU) Page Replacement algorithm</t>
-  </si>
-  <si>
-    <t>Smallest subset with sum greater than all other elements</t>
-  </si>
-  <si>
-    <t>Chocolate Distribution Problem</t>
-  </si>
-  <si>
-    <t>DEFKIN -Defense of a Kingdom</t>
-  </si>
-  <si>
-    <t>DIEHARD -DIE HARD</t>
-  </si>
-  <si>
-    <t>GERGOVIA -Wine trading in Gergovia</t>
-  </si>
-  <si>
-    <t>Picking Up Chicks</t>
-  </si>
-  <si>
-    <t>CHOCOLA –Chocolate</t>
-  </si>
-  <si>
-    <t>ARRANGE -Arranging Amplifiers</t>
-  </si>
-  <si>
-    <t>K Centers Problem</t>
-  </si>
-  <si>
-    <t>Minimum Cost of ropes</t>
-  </si>
-  <si>
-    <t>Find smallest number with given number of digits and sum of digits</t>
-  </si>
-  <si>
-    <t>Find maximum sum possible equal sum of three stacks</t>
-  </si>
-  <si>
-    <t>BackTracking</t>
-  </si>
-  <si>
-    <t>Rat in a maze Problem</t>
-  </si>
-  <si>
-    <t>Printing all solutions in N-Queen Problem</t>
-  </si>
-  <si>
-    <t>Word Break Problem using Backtracking</t>
-  </si>
-  <si>
-    <t>Remove Invalid Parentheses</t>
-  </si>
-  <si>
-    <t>Sudoku Solver</t>
-  </si>
-  <si>
-    <t>m Coloring Problem</t>
-  </si>
-  <si>
-    <t>Print all palindromic partitions of a string</t>
-  </si>
-  <si>
-    <t>Subset Sum Problem</t>
-  </si>
-  <si>
-    <t>The Knight’s tour problem</t>
-  </si>
-  <si>
-    <t>Tug of War</t>
-  </si>
-  <si>
-    <t>Find shortest safe route in a path with landmines</t>
-  </si>
-  <si>
-    <t>Combinational Sum</t>
-  </si>
-  <si>
-    <t>Find Maximum number possible by doing at-most K swaps</t>
+    <t xml:space="preserve">Populate Inorder successor of all nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find LCA  of 2 nodes in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construct BST from preorder traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert Binary tree into BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert a normal BST into a Balanced BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge two BST [ V.V.V&gt;IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Kth largest element in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Kth smallest element in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count pairs from 2 BST whose sum is equal to given value "X"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the median of BST in O(n) time and O(1) space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count BST ndoes that lie in a given range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replace every element with the least greater element on its right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given "n" appointments, find the conflicting appointments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check preorder is valid or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check whether BST contains Dead end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest BST in a Binary Tree [ V.V.V.V.V IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flatten BST to sorted list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greedy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activity Selection Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job SequencingProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huffman Coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Connection Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fractional Knapsack Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greedy Algorithm to find Minimum number of Coins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum trains for which stoppage can be provided</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Platforms Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy Maximum Stocks if i stocks can be bought on i-th day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the minimum and maximum amount to buy all N candies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimize Cash Flow among a given set of friends who have borrowed money from each other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Cost to cut a board into squares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if it is possible to survive on Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find maximum meetings in one room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum product subset of an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximize array sum after K negations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximize the sum of arr[i]*i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum sum of absolute difference of an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximize sum of consecutive differences in a circular array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum sum of absolute difference of pairs of two arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program for Shortest Job First (or SJF) CPU Scheduling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program for Least Recently Used (LRU) Page Replacement algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smallest subset with sum greater than all other elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chocolate Distribution Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFKIN -Defense of a Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIEHARD -DIE HARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GERGOVIA -Wine trading in Gergovia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Picking Up Chicks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOCOLA –Chocolate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARRANGE -Arranging Amplifiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K Centers Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Cost of ropes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find smallest number with given number of digits and sum of digits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find maximum sum possible equal sum of three stacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackTracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rat in a maze Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printing all solutions in N-Queen Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word Break Problem using Backtracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove Invalid Parentheses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudoku Solver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m Coloring Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print all palindromic partitions of a string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subset Sum Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Knight’s tour problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tug of War</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find shortest safe route in a path with landmines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combinational Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Maximum number possible by doing at-most K swaps</t>
   </si>
   <si>
     <t xml:space="preserve">Print all permutations of a string </t>
   </si>
   <si>
-    <t>Find if there is a path of more than k length from a source</t>
-  </si>
-  <si>
-    <t>Longest Possible Route in a Matrix with Hurdles</t>
-  </si>
-  <si>
-    <t>Print all possible paths from top left to bottom right of a mXn matrix</t>
-  </si>
-  <si>
-    <t>Partition of a set intoK subsets with equal sum</t>
-  </si>
-  <si>
-    <t>Find the K-th Permutation Sequence of first N natural numbers</t>
-  </si>
-  <si>
-    <t>Stacks &amp; Queues</t>
+    <t xml:space="preserve">Find if there is a path of more than k length from a source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Possible Route in a Matrix with Hurdles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print all possible paths from top left to bottom right of a mXn matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partition of a set intoK subsets with equal sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the K-th Permutation Sequence of first N natural numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stacks &amp; Queues</t>
   </si>
   <si>
     <t xml:space="preserve"> Implement Stack from Scratch</t>
@@ -894,175 +889,175 @@
     <t xml:space="preserve"> Implement Queue from Scratch</t>
   </si>
   <si>
-    <t>Implement 2 stack in an array</t>
-  </si>
-  <si>
-    <t>find the middle element of a stack</t>
-  </si>
-  <si>
-    <t>Implement "N" stacks in an Array</t>
-  </si>
-  <si>
-    <t>Check the expression has valid or Balanced parenthesis or not.</t>
-  </si>
-  <si>
-    <t>Reverse a String using Stack</t>
-  </si>
-  <si>
-    <t>Design a Stack that supports getMin() in O(1) time and O(1) extra space.</t>
-  </si>
-  <si>
-    <t>Find the next Greater element</t>
-  </si>
-  <si>
-    <t>The celebrity Problem</t>
-  </si>
-  <si>
-    <t>Arithmetic Expression evaluation</t>
-  </si>
-  <si>
-    <t>Evaluation of Postfix expression</t>
-  </si>
-  <si>
-    <t>Implement a method to insert an element at its bottom without using any other data structure.</t>
-  </si>
-  <si>
-    <t>Reverse a stack using recursion</t>
-  </si>
-  <si>
-    <t>Sort a Stack using recursion</t>
-  </si>
-  <si>
-    <t>Merge Overlapping Intervals</t>
-  </si>
-  <si>
-    <t>Largest rectangular Area in Histogram</t>
-  </si>
-  <si>
-    <t>Length of the Longest Valid Substring</t>
-  </si>
-  <si>
-    <t>Expression contains redundant bracket or not</t>
-  </si>
-  <si>
-    <t>Implement Stack using Queue</t>
-  </si>
-  <si>
-    <t>Implement Stack using Deque</t>
-  </si>
-  <si>
-    <t>Stack Permutations (Check if an array is stack permutation of other)</t>
+    <t xml:space="preserve">Implement 2 stack in an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find the middle element of a stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement "N" stacks in an Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the expression has valid or Balanced parenthesis or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse a String using Stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design a Stack that supports getMin() in O(1) time and O(1) extra space.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the next Greater element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The celebrity Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arithmetic Expression evaluation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluation of Postfix expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement a method to insert an element at its bottom without using any other data structure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse a stack using recursion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort a Stack using recursion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Overlapping Intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest rectangular Area in Histogram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length of the Longest Valid Substring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression contains redundant bracket or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Stack using Queue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Stack using Deque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stack Permutations (Check if an array is stack permutation of other)</t>
   </si>
   <si>
     <t xml:space="preserve">Implement Queue using Stack  </t>
   </si>
   <si>
-    <t>Implement "n" queue in an array</t>
-  </si>
-  <si>
-    <t>Implement a Circular queue</t>
-  </si>
-  <si>
-    <t>LRU Cache Implementationa</t>
-  </si>
-  <si>
-    <t>Reverse a Queue using recursion</t>
-  </si>
-  <si>
-    <t>Reverse the first “K” elements of a queue</t>
-  </si>
-  <si>
-    <t>Interleave the first half of the queue with second half</t>
-  </si>
-  <si>
-    <t>Find the first circular tour that visits all Petrol Pumps</t>
-  </si>
-  <si>
-    <t>Minimum time required to rot all oranges</t>
-  </si>
-  <si>
-    <t>Distance of nearest cell having 1 in a binary matrix</t>
-  </si>
-  <si>
-    <t>First negative integer in every window of size “k”</t>
-  </si>
-  <si>
-    <t>Check if all levels of two trees are anagrams or not.</t>
-  </si>
-  <si>
-    <t>Sum of minimum and maximum elements of all subarrays of size “k”.</t>
-  </si>
-  <si>
-    <t>Minimum sum of squares of character counts in a given string after removing “k” characters.</t>
-  </si>
-  <si>
-    <t>Queue based approach or first non-repeating character in a stream.</t>
-  </si>
-  <si>
-    <t>Next Smaller Element</t>
-  </si>
-  <si>
-    <t>Heap</t>
-  </si>
-  <si>
-    <t>Implement a Maxheap/MinHeap using arrays and recursion.</t>
-  </si>
-  <si>
-    <t>Sort an Array using heap. (HeapSort)</t>
-  </si>
-  <si>
-    <t>Maximum of all subarrays of size k.</t>
-  </si>
-  <si>
-    <t>“k” largest element in an array</t>
-  </si>
-  <si>
-    <t>Kth smallest and largest element in an unsorted array</t>
-  </si>
-  <si>
-    <t>Merge “K” sorted arrays. [ IMP ]</t>
-  </si>
-  <si>
-    <t>Merge 2 Binary Max Heaps</t>
-  </si>
-  <si>
-    <t>Kth largest sum continuous subarrays</t>
-  </si>
-  <si>
-    <t>Leetcode- reorganize strings</t>
-  </si>
-  <si>
-    <t>Merge “K” Sorted Linked Lists [V.IMP]</t>
-  </si>
-  <si>
-    <t>Smallest range in “K” Lists</t>
-  </si>
-  <si>
-    <t>Median in a stream of Integers</t>
-  </si>
-  <si>
-    <t>Check if a Binary Tree is Heap</t>
-  </si>
-  <si>
-    <t>Connect “n” ropes with minimum cost</t>
-  </si>
-  <si>
-    <t>Convert BST to Min Heap</t>
-  </si>
-  <si>
-    <t>Convert min heap to max heap</t>
-  </si>
-  <si>
-    <t>Rearrange characters in a string such that no two adjacent are same.</t>
-  </si>
-  <si>
-    <t>Minimum sum of two numbers formed from digits of an array</t>
-  </si>
-  <si>
-    <t>Graph</t>
-  </si>
-  <si>
-    <t>Create a Graph, print it</t>
+    <t xml:space="preserve">Implement "n" queue in an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement a Circular queue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRU Cache Implementationa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse a Queue using recursion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse the first “K” elements of a queue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interleave the first half of the queue with second half</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the first circular tour that visits all Petrol Pumps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum time required to rot all oranges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance of nearest cell having 1 in a binary matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First negative integer in every window of size “k”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if all levels of two trees are anagrams or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum of minimum and maximum elements of all subarrays of size “k”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum sum of squares of character counts in a given string after removing “k” characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queue based approach or first non-repeating character in a stream.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next Smaller Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement a Maxheap/MinHeap using arrays and recursion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort an Array using heap. (HeapSort)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum of all subarrays of size k.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“k” largest element in an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kth smallest and largest element in an unsorted array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge “K” sorted arrays. [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge 2 Binary Max Heaps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kth largest sum continuous subarrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leetcode- reorganize strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge “K” Sorted Linked Lists [V.IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smallest range in “K” Lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median in a stream of Integers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if a Binary Tree is Heap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connect “n” ropes with minimum cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert BST to Min Heap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert min heap to max heap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rearrange characters in a string such that no two adjacent are same.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum sum of two numbers formed from digits of an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a Graph, print it</t>
   </si>
   <si>
     <t xml:space="preserve">Implement BFS algorithm </t>
@@ -1077,356 +1072,359 @@
     <t xml:space="preserve">Detect Cycle in UnDirected Graph using BFS/DFS Algo </t>
   </si>
   <si>
-    <t>Search in a Maze</t>
-  </si>
-  <si>
-    <t>Minimum Step by Knight</t>
-  </si>
-  <si>
-    <t>flood fill algo</t>
-  </si>
-  <si>
-    <t>Clone a graph</t>
-  </si>
-  <si>
-    <t>Making wired Connections</t>
+    <t xml:space="preserve">Search in a Maze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Step by Knight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flood fill algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clone a graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Making wired Connections</t>
   </si>
   <si>
     <t xml:space="preserve">word Ladder </t>
   </si>
   <si>
-    <t>Dijkstra algo</t>
+    <t xml:space="preserve">Dijkstra algo</t>
   </si>
   <si>
     <t xml:space="preserve">Implement Topological Sort </t>
   </si>
   <si>
-    <t>Minimum time taken by each job to be completed given by a Directed Acyclic Graph</t>
-  </si>
-  <si>
-    <t>Find whether it is possible to finish all tasks or not from given dependencies</t>
-  </si>
-  <si>
-    <t>Find the no. of Isalnds</t>
-  </si>
-  <si>
-    <t>Given a sorted Dictionary of an Alien Language, find order of characters</t>
-  </si>
-  <si>
-    <t>Implement Kruksal’sAlgorithm</t>
-  </si>
-  <si>
-    <t>Implement Prim’s Algorithm</t>
-  </si>
-  <si>
-    <t>Total no. of Spanning tree in a graph</t>
-  </si>
-  <si>
-    <t>Implement Bellman Ford Algorithm</t>
-  </si>
-  <si>
-    <t>Implement Floyd warshallAlgorithm</t>
-  </si>
-  <si>
-    <t>Travelling Salesman Problem</t>
-  </si>
-  <si>
-    <t>Graph ColouringProblem</t>
-  </si>
-  <si>
-    <t>Snake and Ladders Problem</t>
-  </si>
-  <si>
-    <t>Find bridge in a graph</t>
-  </si>
-  <si>
-    <t>Count Strongly connected Components(Kosaraju Algo)</t>
-  </si>
-  <si>
-    <t>Check whether a graph is Bipartite or Not</t>
-  </si>
-  <si>
-    <t>Detect Negative cycle in a graph</t>
-  </si>
-  <si>
-    <t>Longest path in a Directed Acyclic Graph</t>
-  </si>
-  <si>
-    <t>Journey to the Moon</t>
-  </si>
-  <si>
-    <t>Cheapest Flights Within K Stops</t>
-  </si>
-  <si>
-    <t>Oliver and the Game</t>
-  </si>
-  <si>
-    <t>Water Jug problem using BFS</t>
-  </si>
-  <si>
-    <t>Find if there is a path of more thank length from a source</t>
-  </si>
-  <si>
-    <t>M-ColouringProblem</t>
-  </si>
-  <si>
-    <t>Minimum edges to reverse o make path from source to destination</t>
-  </si>
-  <si>
-    <t>Paths to travel each nodes using each edge(Seven Bridges)</t>
-  </si>
-  <si>
-    <t>Vertex Cover Problem</t>
-  </si>
-  <si>
-    <t>Chinese Postman or Route Inspection</t>
-  </si>
-  <si>
-    <t>Number of Triangles in a Directed and Undirected Graph</t>
-  </si>
-  <si>
-    <t>Minimise the cashflow among a given set of friends who have borrowed money from each other</t>
-  </si>
-  <si>
-    <t>Two Clique Problem</t>
-  </si>
-  <si>
-    <t>Trie</t>
-  </si>
-  <si>
-    <t>Construct a trie from scratch</t>
-  </si>
-  <si>
-    <t>Find shortest unique prefix for every word in a given list</t>
-  </si>
-  <si>
-    <t>Word Break Problem | (Trie solution)</t>
-  </si>
-  <si>
-    <t>Implement a Phone Directory</t>
-  </si>
-  <si>
-    <t>Print unique rows in a given boolean matrix</t>
-  </si>
-  <si>
-    <t>Dynamic Programming</t>
-  </si>
-  <si>
-    <t>Coin ChangeProblem</t>
-  </si>
-  <si>
-    <t>Knapsack Problem</t>
-  </si>
-  <si>
-    <t>Binomial CoefficientProblem</t>
-  </si>
-  <si>
-    <t>Permutation CoefficientProblem</t>
-  </si>
-  <si>
-    <t>Program for nth Catalan Number</t>
-  </si>
-  <si>
-    <t>Matrix Chain Multiplication </t>
-  </si>
-  <si>
-    <t>Edit Distance</t>
-  </si>
-  <si>
-    <t>Friends Pairing Problem</t>
-  </si>
-  <si>
-    <t>Gold Mine Problem</t>
-  </si>
-  <si>
-    <t>Assembly Line SchedulingProblem</t>
-  </si>
-  <si>
-    <t>Painting the Fenceproblem</t>
-  </si>
-  <si>
-    <t>Maximize The Cut Segments</t>
-  </si>
-  <si>
-    <t>Longest Common Subsequence</t>
-  </si>
-  <si>
-    <t>Longest Repeated Subsequence</t>
-  </si>
-  <si>
-    <t>Longest Increasing Subsequence</t>
-  </si>
-  <si>
-    <t>Space Optimized Solution of LCS</t>
-  </si>
-  <si>
-    <t>LCS (Longest Common Subsequence) of three strings</t>
-  </si>
-  <si>
-    <t>Maximum Sum Increasing Subsequence</t>
-  </si>
-  <si>
-    <t>Count all subsequences having product less than K</t>
-  </si>
-  <si>
-    <t>Longest subsequence such that difference between adjacent is one</t>
-  </si>
-  <si>
-    <t>Maximum subsequence sum such that no three are consecutive</t>
-  </si>
-  <si>
-    <t>Egg Dropping Problem</t>
-  </si>
-  <si>
-    <t>Maximum Length Chain of Pairs</t>
-  </si>
-  <si>
-    <t>Maximum size square sub-matrix with all 1s</t>
-  </si>
-  <si>
-    <t>Maximum sum of pairs with specific difference</t>
-  </si>
-  <si>
-    <t>Min Cost PathProblem</t>
-  </si>
-  <si>
-    <t>Maximum difference of zeros and ones in binary string</t>
-  </si>
-  <si>
-    <t>Minimum number of jumps to reach end</t>
-  </si>
-  <si>
-    <t>Minimum cost to fill given weight in a bag</t>
-  </si>
-  <si>
-    <t>Minimum removals from array to make max –min &lt;= K</t>
-  </si>
-  <si>
-    <t>Longest Common Substring</t>
-  </si>
-  <si>
-    <t>Count number of ways to reacha given score in a game</t>
-  </si>
-  <si>
-    <t>Count Balanced Binary Trees of Height h</t>
-  </si>
-  <si>
-    <t>LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]</t>
-  </si>
-  <si>
-    <t>Smallest sum contiguous subarray</t>
-  </si>
-  <si>
-    <t>Unbounded Knapsack (Repetition of items allowed)</t>
-  </si>
-  <si>
-    <t>Word Break Problem</t>
-  </si>
-  <si>
-    <t>Largest Independent Set Problem</t>
-  </si>
-  <si>
-    <t>Partition problem</t>
-  </si>
-  <si>
-    <t>Longest Palindromic Subsequence</t>
-  </si>
-  <si>
-    <t>Count All Palindromic Subsequence in a given String</t>
-  </si>
-  <si>
-    <t>Longest Palindromic Substring</t>
-  </si>
-  <si>
-    <t>Longest alternating subsequence</t>
-  </si>
-  <si>
-    <t>Weighted Job Scheduling</t>
-  </si>
-  <si>
-    <t>Coin game winner where every player has three choices</t>
-  </si>
-  <si>
-    <t>Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]</t>
-  </si>
-  <si>
-    <t>Maximum profit by buying and selling a share at most twice [ IMP ]</t>
-  </si>
-  <si>
-    <t>Optimal Strategy for a Game</t>
-  </si>
-  <si>
-    <t>Optimal Binary Search Tree</t>
-  </si>
-  <si>
-    <t>Palindrome PartitioningProblem</t>
-  </si>
-  <si>
-    <t>Word Wrap Problem</t>
-  </si>
-  <si>
-    <t>Mobile Numeric Keypad Problem [ IMP ]</t>
-  </si>
-  <si>
-    <t>Boolean Parenthesization Problem</t>
-  </si>
-  <si>
-    <t>Largest rectangular sub-matrix whose sum is 0</t>
-  </si>
-  <si>
-    <t>Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]</t>
-  </si>
-  <si>
-    <t>Maximum sum rectangle in a 2D matrix</t>
-  </si>
-  <si>
-    <t>Maximum profit by buying and selling a share at most k times</t>
-  </si>
-  <si>
-    <t>Find if a string is interleaved of two other strings</t>
-  </si>
-  <si>
-    <t>Maximum Length of Pair Chain</t>
-  </si>
-  <si>
-    <t>Bit Manipulation</t>
-  </si>
-  <si>
-    <t>Count set bits in an integer</t>
-  </si>
-  <si>
-    <t>Find the two non-repeating elements in an array of repeating elements</t>
-  </si>
-  <si>
-    <t>Count number of bits to be flipped to convert A to B</t>
-  </si>
-  <si>
-    <t>Count total set bits in all numbers from 1 to n</t>
-  </si>
-  <si>
-    <t>Program to find whether a no is power of two</t>
-  </si>
-  <si>
-    <t>Find position of the only set bit</t>
-  </si>
-  <si>
-    <t>Copy set bits in a range</t>
-  </si>
-  <si>
-    <t>Divide two integers without using multiplication, division and mod operator</t>
-  </si>
-  <si>
-    <t>Calculate square of a number without using *, / and pow()</t>
-  </si>
-  <si>
-    <t>Power Set</t>
+    <t xml:space="preserve">Minimum time taken by each job to be completed given by a Directed Acyclic Graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find whether it is possible to finish all tasks or not from given dependencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the no. of Isalnds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a sorted Dictionary of an Alien Language, find order of characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Kruksal’sAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Prim’s Algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total no. of Spanning tree in a graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Bellman Ford Algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Floyd warshallAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travelling Salesman Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph ColouringProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snake and Ladders Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find bridge in a graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count Strongly connected Components(Kosaraju Algo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check whether a graph is Bipartite or Not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detect Negative cycle in a graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest path in a Directed Acyclic Graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journey to the Moon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheapest Flights Within K Stops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oliver and the Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Jug problem using BFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find if there is a path of more thank length from a source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M-ColouringProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum edges to reverse o make path from source to destination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paths to travel each nodes using each edge(Seven Bridges)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertex Cover Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinese Postman or Route Inspection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Triangles in a Directed and Undirected Graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimise the cashflow among a given set of friends who have borrowed money from each other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two Clique Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construct a trie from scratch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find shortest unique prefix for every word in a given list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word Break Problem | (Trie solution)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement a Phone Directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print unique rows in a given boolean matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic Programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coin ChangeProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knapsack Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binomial CoefficientProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permutation CoefficientProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program for nth Catalan Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matrix Chain Multiplication </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit Distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friends Pairing Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Mine Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assembly Line SchedulingProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Painting the Fenceproblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximize The Cut Segments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Repeated Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Space Optimized Solution of LCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCS (Longest Common Subsequence) of three strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Sum Increasing Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count all subsequences having product less than K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest subsequence such that difference between adjacent is one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum subsequence sum such that no three are consecutive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg Dropping Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Length Chain of Pairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum size square sub-matrix with all 1s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum sum of pairs with specific difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min Cost PathProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum difference of zeros and ones in binary string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum number of jumps to reach end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum cost to fill given weight in a bag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum removals from array to make max –min &lt;= K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Common Substring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count number of ways to reacha given score in a game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count Balanced Binary Trees of Height h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smallest sum contiguous subarray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unbounded Knapsack (Repetition of items allowed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word Break Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest Independent Set Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partition problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Palindromic Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count All Palindromic Subsequence in a given String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest alternating subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Job Scheduling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coin game winner where every player has three choices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum profit by buying and selling a share at most twice [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimal Strategy for a Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimal Binary Search Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palindrome PartitioningProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word Wrap Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile Numeric Keypad Problem [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boolean Parenthesization Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest rectangular sub-matrix whose sum is 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum sum rectangle in a 2D matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum profit by buying and selling a share at most k times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find if a string is interleaved of two other strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Length of Pair Chain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bit Manipulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count set bits in an integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the two non-repeating elements in an array of repeating elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count number of bits to be flipped to convert A to B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count total set bits in all numbers from 1 to n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program to find whether a no is power of two</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find position of the only set bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copy set bits in a range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divide two integers without using multiplication, division and mod operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate square of a number without using *, / and pow()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1435,14 +1433,30 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="12"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -1450,8 +1464,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <u/>
+      <b val="true"/>
+      <u val="single"/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1459,7 +1473,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1467,7 +1481,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="16"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -1503,19 +1517,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC5E0B4"/>
+        <bgColor rgb="FFAFD095"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFAFD095"/>
+        <bgColor rgb="FFC5E0B4"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -1523,42 +1537,101 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  <cellStyleXfs count="21">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1575,7 +1648,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -1595,7 +1668,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFC5E0B4"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -1617,348 +1690,40 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A341" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B350" sqref="B350"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A335" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B341" activeCellId="0" sqref="B341"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="123" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25">
+    <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21">
+    <row r="4" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1969,12 +1734,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21">
+    <row r="6" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1985,7 +1750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21">
+    <row r="7" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1996,7 +1761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="21">
+    <row r="8" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2007,7 +1772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21">
+    <row r="9" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -2018,7 +1783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21">
+    <row r="10" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -2029,7 +1794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21">
+    <row r="11" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -2040,7 +1805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21">
+    <row r="12" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -2051,7 +1816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21">
+    <row r="13" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -2062,7 +1827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21">
+    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -2073,7 +1838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21">
+    <row r="15" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -2084,7 +1849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21">
+    <row r="16" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -2095,7 +1860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21">
+    <row r="17" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -2106,7 +1871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21">
+    <row r="18" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -2117,7 +1882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21">
+    <row r="19" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -2128,7 +1893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21">
+    <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -2139,7 +1904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21">
+    <row r="21" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -2150,7 +1915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21">
+    <row r="22" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -2161,7 +1926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21">
+    <row r="23" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -2172,7 +1937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21">
+    <row r="24" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -2183,7 +1948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21">
+    <row r="25" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -2194,7 +1959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21">
+    <row r="26" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
@@ -2205,7 +1970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="21">
+    <row r="27" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -2216,7 +1981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21">
+    <row r="28" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
@@ -2227,7 +1992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="21">
+    <row r="29" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
@@ -2238,7 +2003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="21">
+    <row r="30" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
@@ -2249,7 +2014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21">
+    <row r="31" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
@@ -2260,7 +2025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21">
+    <row r="32" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
@@ -2271,7 +2036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="21">
+    <row r="33" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -2282,7 +2047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="21">
+    <row r="34" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
@@ -2293,7 +2058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="21">
+    <row r="35" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
@@ -2304,7 +2069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="21">
+    <row r="36" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
@@ -2315,7 +2080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="21">
+    <row r="37" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
@@ -2326,7 +2091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="21">
+    <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
@@ -2337,7 +2102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="21">
+    <row r="39" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -2348,7 +2113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="21">
+    <row r="40" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
@@ -2359,7 +2124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="21">
+    <row r="41" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
@@ -2370,20 +2135,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="21">
+    <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="21">
+    <row r="43" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="21">
+    <row r="44" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
@@ -2394,7 +2159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="21">
+    <row r="45" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
         <v>43</v>
       </c>
@@ -2405,7 +2170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="21">
+    <row r="46" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
         <v>43</v>
       </c>
@@ -2416,7 +2181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="21">
+    <row r="47" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
         <v>43</v>
       </c>
@@ -2427,7 +2192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="21">
+    <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
         <v>43</v>
       </c>
@@ -2438,7 +2203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="21">
+    <row r="49" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
         <v>43</v>
       </c>
@@ -2449,7 +2214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="21">
+    <row r="50" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
         <v>43</v>
       </c>
@@ -2460,7 +2225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="21">
+    <row r="51" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
         <v>43</v>
       </c>
@@ -2471,7 +2236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="21">
+    <row r="52" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
         <v>43</v>
       </c>
@@ -2482,7 +2247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="21">
+    <row r="53" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
         <v>43</v>
       </c>
@@ -2493,12 +2258,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="21">
+    <row r="55" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6"/>
       <c r="B55" s="8"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="1:3" ht="21">
+    <row r="56" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
         <v>54</v>
       </c>
@@ -2509,7 +2274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="21">
+    <row r="57" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
         <v>54</v>
       </c>
@@ -2520,7 +2285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="21">
+    <row r="58" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
         <v>54</v>
       </c>
@@ -2531,7 +2296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="21">
+    <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
         <v>54</v>
       </c>
@@ -2542,7 +2307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="21">
+    <row r="60" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
         <v>54</v>
       </c>
@@ -2553,7 +2318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="21">
+    <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
         <v>54</v>
       </c>
@@ -2564,7 +2329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="21">
+    <row r="62" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
         <v>54</v>
       </c>
@@ -2575,7 +2340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="21">
+    <row r="63" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
         <v>54</v>
       </c>
@@ -2586,7 +2351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="21">
+    <row r="64" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
         <v>54</v>
       </c>
@@ -2597,7 +2362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="21">
+    <row r="65" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
         <v>54</v>
       </c>
@@ -2608,7 +2373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="21">
+    <row r="66" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
         <v>54</v>
       </c>
@@ -2619,7 +2384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="21">
+    <row r="67" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
         <v>54</v>
       </c>
@@ -2630,7 +2395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="21">
+    <row r="68" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
         <v>54</v>
       </c>
@@ -2641,7 +2406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="21">
+    <row r="69" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
         <v>54</v>
       </c>
@@ -2652,7 +2417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="21">
+    <row r="70" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
         <v>54</v>
       </c>
@@ -2663,7 +2428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="21">
+    <row r="71" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
         <v>54</v>
       </c>
@@ -2674,7 +2439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="21">
+    <row r="72" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
         <v>54</v>
       </c>
@@ -2685,7 +2450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="21">
+    <row r="73" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
         <v>54</v>
       </c>
@@ -2696,7 +2461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="21">
+    <row r="74" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
         <v>54</v>
       </c>
@@ -2707,7 +2472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="21">
+    <row r="75" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
         <v>54</v>
       </c>
@@ -2718,7 +2483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="21">
+    <row r="76" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
         <v>54</v>
       </c>
@@ -2729,7 +2494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="21">
+    <row r="77" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
         <v>54</v>
       </c>
@@ -2740,7 +2505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="21">
+    <row r="78" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
         <v>54</v>
       </c>
@@ -2751,7 +2516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="21">
+    <row r="79" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
         <v>54</v>
       </c>
@@ -2762,7 +2527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="21">
+    <row r="80" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
         <v>54</v>
       </c>
@@ -2773,7 +2538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="21">
+    <row r="81" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
         <v>54</v>
       </c>
@@ -2784,7 +2549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="21">
+    <row r="82" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
         <v>54</v>
       </c>
@@ -2795,7 +2560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="21">
+    <row r="83" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
         <v>54</v>
       </c>
@@ -2806,7 +2571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="21">
+    <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
         <v>54</v>
       </c>
@@ -2817,7 +2582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="21">
+    <row r="85" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
         <v>54</v>
       </c>
@@ -2828,7 +2593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="21">
+    <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
         <v>54</v>
       </c>
@@ -2839,7 +2604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="21">
+    <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
         <v>54</v>
       </c>
@@ -2850,7 +2615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="21">
+    <row r="88" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
         <v>54</v>
       </c>
@@ -2861,7 +2626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="21">
+    <row r="89" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
         <v>54</v>
       </c>
@@ -2872,7 +2637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="21">
+    <row r="90" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
         <v>54</v>
       </c>
@@ -2883,7 +2648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="21">
+    <row r="91" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
         <v>54</v>
       </c>
@@ -2894,7 +2659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="21">
+    <row r="92" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
         <v>54</v>
       </c>
@@ -2905,7 +2670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="21">
+    <row r="93" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
         <v>54</v>
       </c>
@@ -2916,7 +2681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="21">
+    <row r="94" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
         <v>54</v>
       </c>
@@ -2927,7 +2692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="21">
+    <row r="95" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
         <v>54</v>
       </c>
@@ -2938,7 +2703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="21">
+    <row r="96" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
         <v>54</v>
       </c>
@@ -2949,7 +2714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="21">
+    <row r="97" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
         <v>54</v>
       </c>
@@ -2960,7 +2725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="21">
+    <row r="98" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
         <v>54</v>
       </c>
@@ -2971,12 +2736,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="21">
+    <row r="100" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6"/>
       <c r="B100" s="8"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="1:3" ht="21">
+    <row r="101" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
         <v>98</v>
       </c>
@@ -2987,7 +2752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="21">
+    <row r="102" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
         <v>98</v>
       </c>
@@ -2998,7 +2763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="21">
+    <row r="103" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
         <v>98</v>
       </c>
@@ -3009,7 +2774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="21">
+    <row r="104" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
         <v>98</v>
       </c>
@@ -3020,7 +2785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="21">
+    <row r="105" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
         <v>98</v>
       </c>
@@ -3031,7 +2796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="21">
+    <row r="106" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
         <v>98</v>
       </c>
@@ -3042,7 +2807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="21">
+    <row r="107" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
         <v>98</v>
       </c>
@@ -3053,7 +2818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="21">
+    <row r="108" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
         <v>98</v>
       </c>
@@ -3064,7 +2829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="21">
+    <row r="109" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
         <v>98</v>
       </c>
@@ -3075,7 +2840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="21">
+    <row r="110" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
         <v>98</v>
       </c>
@@ -3086,7 +2851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="21">
+    <row r="111" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
         <v>98</v>
       </c>
@@ -3097,7 +2862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="21">
+    <row r="112" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
         <v>98</v>
       </c>
@@ -3108,7 +2873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="21">
+    <row r="113" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
         <v>98</v>
       </c>
@@ -3119,7 +2884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="21">
+    <row r="114" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
         <v>98</v>
       </c>
@@ -3130,7 +2895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="21">
+    <row r="115" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
         <v>98</v>
       </c>
@@ -3141,7 +2906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="21">
+    <row r="116" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
         <v>98</v>
       </c>
@@ -3152,7 +2917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="21">
+    <row r="117" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
         <v>98</v>
       </c>
@@ -3163,7 +2928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="21">
+    <row r="118" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
         <v>98</v>
       </c>
@@ -3174,7 +2939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="21">
+    <row r="119" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
         <v>98</v>
       </c>
@@ -3185,7 +2950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="21">
+    <row r="120" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
         <v>98</v>
       </c>
@@ -3196,7 +2961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="21">
+    <row r="121" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
         <v>98</v>
       </c>
@@ -3207,7 +2972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="21">
+    <row r="122" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
         <v>98</v>
       </c>
@@ -3218,7 +2983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="21">
+    <row r="123" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
         <v>98</v>
       </c>
@@ -3229,7 +2994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="21">
+    <row r="124" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
         <v>98</v>
       </c>
@@ -3240,7 +3005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="21">
+    <row r="125" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
         <v>98</v>
       </c>
@@ -3251,7 +3016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="21">
+    <row r="126" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
         <v>98</v>
       </c>
@@ -3262,7 +3027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="21">
+    <row r="127" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
         <v>98</v>
       </c>
@@ -3273,7 +3038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="21">
+    <row r="128" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
         <v>98</v>
       </c>
@@ -3284,7 +3049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="21">
+    <row r="129" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
         <v>98</v>
       </c>
@@ -3295,7 +3060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="21">
+    <row r="130" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
         <v>98</v>
       </c>
@@ -3306,7 +3071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="21">
+    <row r="131" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
         <v>98</v>
       </c>
@@ -3317,7 +3082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="21">
+    <row r="132" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
         <v>98</v>
       </c>
@@ -3328,7 +3093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="21">
+    <row r="133" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
         <v>98</v>
       </c>
@@ -3339,7 +3104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="21">
+    <row r="134" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
         <v>98</v>
       </c>
@@ -3350,7 +3115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="21">
+    <row r="135" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
         <v>98</v>
       </c>
@@ -3361,7 +3126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="21">
+    <row r="136" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
         <v>98</v>
       </c>
@@ -3372,11 +3137,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="21">
+    <row r="138" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="8"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="1:3" ht="21">
+    <row r="139" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
         <v>135</v>
       </c>
@@ -3387,7 +3152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="21">
+    <row r="140" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="s">
         <v>135</v>
       </c>
@@ -3398,7 +3163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="21">
+    <row r="141" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="s">
         <v>135</v>
       </c>
@@ -3409,7 +3174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="21">
+    <row r="142" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
         <v>135</v>
       </c>
@@ -3420,7 +3185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="21">
+    <row r="143" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
         <v>135</v>
       </c>
@@ -3431,7 +3196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="21">
+    <row r="144" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
         <v>135</v>
       </c>
@@ -3442,7 +3207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="21">
+    <row r="145" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
         <v>135</v>
       </c>
@@ -3453,7 +3218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="21">
+    <row r="146" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="s">
         <v>135</v>
       </c>
@@ -3464,7 +3229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="21">
+    <row r="147" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="s">
         <v>135</v>
       </c>
@@ -3475,7 +3240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="21">
+    <row r="148" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="s">
         <v>135</v>
       </c>
@@ -3486,7 +3251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="21">
+    <row r="149" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="s">
         <v>135</v>
       </c>
@@ -3497,7 +3262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="21">
+    <row r="150" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="s">
         <v>135</v>
       </c>
@@ -3508,7 +3273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="21">
+    <row r="151" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="s">
         <v>135</v>
       </c>
@@ -3519,7 +3284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="21">
+    <row r="152" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="s">
         <v>135</v>
       </c>
@@ -3530,7 +3295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="21">
+    <row r="153" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="s">
         <v>135</v>
       </c>
@@ -3541,7 +3306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="21">
+    <row r="154" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="s">
         <v>135</v>
       </c>
@@ -3552,7 +3317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="21">
+    <row r="155" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="s">
         <v>135</v>
       </c>
@@ -3563,7 +3328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="21">
+    <row r="156" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
         <v>135</v>
       </c>
@@ -3574,7 +3339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="21">
+    <row r="157" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="s">
         <v>135</v>
       </c>
@@ -3585,7 +3350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="21">
+    <row r="158" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="s">
         <v>135</v>
       </c>
@@ -3596,7 +3361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="21">
+    <row r="159" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="s">
         <v>135</v>
       </c>
@@ -3607,7 +3372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="21">
+    <row r="160" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="s">
         <v>135</v>
       </c>
@@ -3618,7 +3383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="21">
+    <row r="161" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="s">
         <v>135</v>
       </c>
@@ -3629,7 +3394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="21">
+    <row r="162" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="s">
         <v>135</v>
       </c>
@@ -3640,7 +3405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="21">
+    <row r="163" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="s">
         <v>135</v>
       </c>
@@ -3651,7 +3416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="21">
+    <row r="164" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="s">
         <v>135</v>
       </c>
@@ -3662,7 +3427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="21">
+    <row r="165" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="s">
         <v>135</v>
       </c>
@@ -3673,7 +3438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="21">
+    <row r="166" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="s">
         <v>135</v>
       </c>
@@ -3684,7 +3449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="21">
+    <row r="167" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="s">
         <v>135</v>
       </c>
@@ -3695,7 +3460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="21">
+    <row r="168" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="s">
         <v>135</v>
       </c>
@@ -3706,7 +3471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="21">
+    <row r="169" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="s">
         <v>135</v>
       </c>
@@ -3717,7 +3482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="21">
+    <row r="170" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="s">
         <v>135</v>
       </c>
@@ -3728,7 +3493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="21">
+    <row r="171" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="s">
         <v>135</v>
       </c>
@@ -3739,7 +3504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="21">
+    <row r="172" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="s">
         <v>135</v>
       </c>
@@ -3750,7 +3515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="21">
+    <row r="173" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="s">
         <v>135</v>
       </c>
@@ -3761,7 +3526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="21">
+    <row r="174" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="s">
         <v>135</v>
       </c>
@@ -3772,11 +3537,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="21">
+    <row r="176" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="8"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177" spans="1:3" ht="21">
+    <row r="177" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="s">
         <v>172</v>
       </c>
@@ -3787,7 +3552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="21">
+    <row r="178" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="s">
         <v>172</v>
       </c>
@@ -3798,7 +3563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="21">
+    <row r="179" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="s">
         <v>172</v>
       </c>
@@ -3809,7 +3574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="21">
+    <row r="180" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="6" t="s">
         <v>172</v>
       </c>
@@ -3820,7 +3585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="21">
+    <row r="181" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="6" t="s">
         <v>172</v>
       </c>
@@ -3831,7 +3596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="21">
+    <row r="182" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="s">
         <v>172</v>
       </c>
@@ -3842,7 +3607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="21">
+    <row r="183" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="s">
         <v>172</v>
       </c>
@@ -3853,7 +3618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="21">
+    <row r="184" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="s">
         <v>172</v>
       </c>
@@ -3864,7 +3629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="21">
+    <row r="185" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="s">
         <v>172</v>
       </c>
@@ -3875,7 +3640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="21">
+    <row r="186" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="6" t="s">
         <v>172</v>
       </c>
@@ -3886,7 +3651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="21">
+    <row r="187" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="s">
         <v>172</v>
       </c>
@@ -3897,7 +3662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="21">
+    <row r="188" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="s">
         <v>172</v>
       </c>
@@ -3908,7 +3673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="21">
+    <row r="189" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="6" t="s">
         <v>172</v>
       </c>
@@ -3919,7 +3684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="21">
+    <row r="190" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="6" t="s">
         <v>172</v>
       </c>
@@ -3930,7 +3695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="21">
+    <row r="191" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="6" t="s">
         <v>172</v>
       </c>
@@ -3941,7 +3706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="21">
+    <row r="192" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="6" t="s">
         <v>172</v>
       </c>
@@ -3952,7 +3717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="21">
+    <row r="193" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="s">
         <v>172</v>
       </c>
@@ -3963,7 +3728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="21">
+    <row r="194" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="s">
         <v>172</v>
       </c>
@@ -3974,7 +3739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="21">
+    <row r="195" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="s">
         <v>172</v>
       </c>
@@ -3985,7 +3750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="21">
+    <row r="196" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="s">
         <v>172</v>
       </c>
@@ -3996,7 +3761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="21">
+    <row r="197" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="6" t="s">
         <v>172</v>
       </c>
@@ -4007,7 +3772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="21">
+    <row r="198" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
         <v>172</v>
       </c>
@@ -4018,7 +3783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="21">
+    <row r="199" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="s">
         <v>172</v>
       </c>
@@ -4029,7 +3794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="21">
+    <row r="200" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="s">
         <v>172</v>
       </c>
@@ -4040,7 +3805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="21">
+    <row r="201" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="s">
         <v>172</v>
       </c>
@@ -4051,7 +3816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="21">
+    <row r="202" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="s">
         <v>172</v>
       </c>
@@ -4062,7 +3827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="21">
+    <row r="203" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="6" t="s">
         <v>172</v>
       </c>
@@ -4073,7 +3838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="21">
+    <row r="204" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="s">
         <v>172</v>
       </c>
@@ -4084,7 +3849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="21">
+    <row r="205" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="6" t="s">
         <v>172</v>
       </c>
@@ -4095,7 +3860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="21">
+    <row r="206" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="6" t="s">
         <v>172</v>
       </c>
@@ -4106,7 +3871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="21">
+    <row r="207" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="s">
         <v>172</v>
       </c>
@@ -4117,7 +3882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="21">
+    <row r="208" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="6" t="s">
         <v>172</v>
       </c>
@@ -4128,7 +3893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="21">
+    <row r="209" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="s">
         <v>172</v>
       </c>
@@ -4139,18 +3904,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="21">
+    <row r="210" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B210" s="12" t="s">
+      <c r="B210" s="9" t="s">
         <v>206</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="21">
+    <row r="211" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="s">
         <v>172</v>
       </c>
@@ -4161,17 +3926,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="21">
+    <row r="212" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="6"/>
       <c r="B212" s="8"/>
       <c r="C212" s="5"/>
     </row>
-    <row r="213" spans="1:3" ht="21">
+    <row r="213" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="6"/>
       <c r="B213" s="8"/>
       <c r="C213" s="5"/>
     </row>
-    <row r="214" spans="1:3" ht="21">
+    <row r="214" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="s">
         <v>208</v>
       </c>
@@ -4182,7 +3947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="21">
+    <row r="215" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="s">
         <v>208</v>
       </c>
@@ -4193,7 +3958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="21">
+    <row r="216" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="s">
         <v>208</v>
       </c>
@@ -4204,7 +3969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="21">
+    <row r="217" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="s">
         <v>208</v>
       </c>
@@ -4215,7 +3980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="21">
+    <row r="218" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="s">
         <v>208</v>
       </c>
@@ -4226,7 +3991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="21">
+    <row r="219" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="s">
         <v>208</v>
       </c>
@@ -4237,7 +4002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="21">
+    <row r="220" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="s">
         <v>208</v>
       </c>
@@ -4248,7 +4013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="21">
+    <row r="221" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="s">
         <v>208</v>
       </c>
@@ -4259,7 +4024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="21">
+    <row r="222" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="s">
         <v>208</v>
       </c>
@@ -4270,7 +4035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="21">
+    <row r="223" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="s">
         <v>208</v>
       </c>
@@ -4281,7 +4046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="21">
+    <row r="224" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="s">
         <v>208</v>
       </c>
@@ -4292,7 +4057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="21">
+    <row r="225" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="s">
         <v>208</v>
       </c>
@@ -4303,7 +4068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="21">
+    <row r="226" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="s">
         <v>208</v>
       </c>
@@ -4314,7 +4079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="21">
+    <row r="227" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="s">
         <v>208</v>
       </c>
@@ -4325,7 +4090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="21">
+    <row r="228" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="s">
         <v>208</v>
       </c>
@@ -4336,7 +4101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="21">
+    <row r="229" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="s">
         <v>208</v>
       </c>
@@ -4347,7 +4112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="21">
+    <row r="230" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="s">
         <v>208</v>
       </c>
@@ -4358,18 +4123,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="21">
+    <row r="231" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B231" s="12" t="s">
+      <c r="B231" s="9" t="s">
         <v>226</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="21">
+    <row r="232" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="s">
         <v>208</v>
       </c>
@@ -4380,7 +4145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="21">
+    <row r="233" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="s">
         <v>208</v>
       </c>
@@ -4391,7 +4156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="21">
+    <row r="234" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="s">
         <v>208</v>
       </c>
@@ -4402,7 +4167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="21">
+    <row r="235" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="s">
         <v>208</v>
       </c>
@@ -4413,15 +4178,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="21">
+    <row r="236" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="8"/>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" spans="1:3" ht="21">
+    <row r="237" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="8"/>
       <c r="C237" s="5"/>
     </row>
-    <row r="238" spans="1:3" ht="21">
+    <row r="238" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="s">
         <v>231</v>
       </c>
@@ -4432,7 +4197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="21">
+    <row r="239" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="s">
         <v>231</v>
       </c>
@@ -4443,7 +4208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="21">
+    <row r="240" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="s">
         <v>231</v>
       </c>
@@ -4454,7 +4219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="21">
+    <row r="241" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="s">
         <v>231</v>
       </c>
@@ -4465,7 +4230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="21">
+    <row r="242" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="s">
         <v>231</v>
       </c>
@@ -4476,7 +4241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="21">
+    <row r="243" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="s">
         <v>231</v>
       </c>
@@ -4487,7 +4252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="21">
+    <row r="244" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="s">
         <v>231</v>
       </c>
@@ -4498,7 +4263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="21">
+    <row r="245" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="s">
         <v>231</v>
       </c>
@@ -4509,7 +4274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="21">
+    <row r="246" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="6" t="s">
         <v>231</v>
       </c>
@@ -4520,7 +4285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="21">
+    <row r="247" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="6" t="s">
         <v>231</v>
       </c>
@@ -4531,7 +4296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="21">
+    <row r="248" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="6" t="s">
         <v>231</v>
       </c>
@@ -4542,7 +4307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="21">
+    <row r="249" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="6" t="s">
         <v>231</v>
       </c>
@@ -4553,7 +4318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="21">
+    <row r="250" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="6" t="s">
         <v>231</v>
       </c>
@@ -4564,7 +4329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="21">
+    <row r="251" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="6" t="s">
         <v>231</v>
       </c>
@@ -4575,7 +4340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="21">
+    <row r="252" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="s">
         <v>231</v>
       </c>
@@ -4586,7 +4351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="21">
+    <row r="253" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="6" t="s">
         <v>231</v>
       </c>
@@ -4597,7 +4362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="21">
+    <row r="254" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6" t="s">
         <v>231</v>
       </c>
@@ -4608,7 +4373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="21">
+    <row r="255" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="s">
         <v>231</v>
       </c>
@@ -4619,7 +4384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="21">
+    <row r="256" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
         <v>231</v>
       </c>
@@ -4630,7 +4395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="21">
+    <row r="257" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6" t="s">
         <v>231</v>
       </c>
@@ -4641,7 +4406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="21">
+    <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6" t="s">
         <v>231</v>
       </c>
@@ -4652,7 +4417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="21">
+    <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="6" t="s">
         <v>231</v>
       </c>
@@ -4663,7 +4428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="21">
+    <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6" t="s">
         <v>231</v>
       </c>
@@ -4674,7 +4439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="21">
+    <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="6" t="s">
         <v>231</v>
       </c>
@@ -4685,7 +4450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="21">
+    <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6" t="s">
         <v>231</v>
       </c>
@@ -4696,7 +4461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="21">
+    <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6" t="s">
         <v>231</v>
       </c>
@@ -4707,7 +4472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="21">
+    <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="6" t="s">
         <v>231</v>
       </c>
@@ -4718,7 +4483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="21">
+    <row r="265" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="6" t="s">
         <v>231</v>
       </c>
@@ -4729,7 +4494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="21">
+    <row r="266" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6" t="s">
         <v>231</v>
       </c>
@@ -4740,7 +4505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="21">
+    <row r="267" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6" t="s">
         <v>231</v>
       </c>
@@ -4751,7 +4516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="21">
+    <row r="268" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6" t="s">
         <v>231</v>
       </c>
@@ -4762,7 +4527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="21">
+    <row r="269" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="6" t="s">
         <v>231</v>
       </c>
@@ -4773,7 +4538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="21">
+    <row r="270" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6" t="s">
         <v>231</v>
       </c>
@@ -4784,7 +4549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="21">
+    <row r="271" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="6" t="s">
         <v>231</v>
       </c>
@@ -4795,7 +4560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="21">
+    <row r="272" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="6" t="s">
         <v>231</v>
       </c>
@@ -4806,15 +4571,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="21">
+    <row r="273" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B273" s="8"/>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" spans="1:3" ht="21">
+    <row r="274" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="8"/>
       <c r="C274" s="5"/>
     </row>
-    <row r="275" spans="1:3" ht="21">
+    <row r="275" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="6" t="s">
         <v>266</v>
       </c>
@@ -4825,7 +4590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="21">
+    <row r="276" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="6" t="s">
         <v>266</v>
       </c>
@@ -4836,7 +4601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="21">
+    <row r="277" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="6" t="s">
         <v>266</v>
       </c>
@@ -4847,7 +4612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="21">
+    <row r="278" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="6" t="s">
         <v>266</v>
       </c>
@@ -4858,7 +4623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="21">
+    <row r="279" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="6" t="s">
         <v>266</v>
       </c>
@@ -4869,7 +4634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="21">
+    <row r="280" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="6" t="s">
         <v>266</v>
       </c>
@@ -4880,7 +4645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="21">
+    <row r="281" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
         <v>266</v>
       </c>
@@ -4891,7 +4656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="21">
+    <row r="282" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="6" t="s">
         <v>266</v>
       </c>
@@ -4902,7 +4667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="21">
+    <row r="283" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="6" t="s">
         <v>266</v>
       </c>
@@ -4913,7 +4678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="21">
+    <row r="284" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6" t="s">
         <v>266</v>
       </c>
@@ -4924,7 +4689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="21">
+    <row r="285" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6" t="s">
         <v>266</v>
       </c>
@@ -4935,7 +4700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="21">
+    <row r="286" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="6" t="s">
         <v>266</v>
       </c>
@@ -4946,7 +4711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="21">
+    <row r="287" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="6" t="s">
         <v>266</v>
       </c>
@@ -4957,7 +4722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="21">
+    <row r="288" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="6" t="s">
         <v>266</v>
       </c>
@@ -4968,7 +4733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="21">
+    <row r="289" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="6" t="s">
         <v>266</v>
       </c>
@@ -4979,7 +4744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="21">
+    <row r="290" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="6" t="s">
         <v>266</v>
       </c>
@@ -4990,7 +4755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="21">
+    <row r="291" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="6" t="s">
         <v>266</v>
       </c>
@@ -5001,7 +4766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="21">
+    <row r="292" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="6" t="s">
         <v>266</v>
       </c>
@@ -5012,7 +4777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="21">
+    <row r="293" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="6" t="s">
         <v>266</v>
       </c>
@@ -5023,15 +4788,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="21">
+    <row r="294" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="8"/>
       <c r="C294" s="5"/>
     </row>
-    <row r="295" spans="1:3" ht="21">
+    <row r="295" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B295" s="8"/>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" spans="1:3" ht="21">
+    <row r="296" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="6" t="s">
         <v>286</v>
       </c>
@@ -5042,7 +4807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="21">
+    <row r="297" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="6" t="s">
         <v>286</v>
       </c>
@@ -5053,7 +4818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="21">
+    <row r="298" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="6" t="s">
         <v>286</v>
       </c>
@@ -5064,7 +4829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="21">
+    <row r="299" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="6" t="s">
         <v>286</v>
       </c>
@@ -5075,7 +4840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="21">
+    <row r="300" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="6" t="s">
         <v>286</v>
       </c>
@@ -5086,7 +4851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="21">
+    <row r="301" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="6" t="s">
         <v>286</v>
       </c>
@@ -5097,7 +4862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="21">
+    <row r="302" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="6" t="s">
         <v>286</v>
       </c>
@@ -5108,7 +4873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="21">
+    <row r="303" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="6" t="s">
         <v>286</v>
       </c>
@@ -5119,7 +4884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="21">
+    <row r="304" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="6" t="s">
         <v>286</v>
       </c>
@@ -5130,7 +4895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="21">
+    <row r="305" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="6" t="s">
         <v>286</v>
       </c>
@@ -5141,7 +4906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="21">
+    <row r="306" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="6" t="s">
         <v>286</v>
       </c>
@@ -5152,7 +4917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="21">
+    <row r="307" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="6" t="s">
         <v>286</v>
       </c>
@@ -5163,7 +4928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="21">
+    <row r="308" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="6" t="s">
         <v>286</v>
       </c>
@@ -5174,7 +4939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="21">
+    <row r="309" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="6" t="s">
         <v>286</v>
       </c>
@@ -5185,7 +4950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="21">
+    <row r="310" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="6" t="s">
         <v>286</v>
       </c>
@@ -5196,7 +4961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="21">
+    <row r="311" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="6" t="s">
         <v>286</v>
       </c>
@@ -5207,7 +4972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="21">
+    <row r="312" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="6" t="s">
         <v>286</v>
       </c>
@@ -5218,7 +4983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="21">
+    <row r="313" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="6" t="s">
         <v>286</v>
       </c>
@@ -5229,7 +4994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="21">
+    <row r="314" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="6" t="s">
         <v>286</v>
       </c>
@@ -5240,7 +5005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="21">
+    <row r="315" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="6" t="s">
         <v>286</v>
       </c>
@@ -5251,7 +5016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="21">
+    <row r="316" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="6" t="s">
         <v>286</v>
       </c>
@@ -5262,7 +5027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="21">
+    <row r="317" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="6" t="s">
         <v>286</v>
       </c>
@@ -5273,7 +5038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="21">
+    <row r="318" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="6" t="s">
         <v>286</v>
       </c>
@@ -5284,7 +5049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="21">
+    <row r="319" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="6" t="s">
         <v>286</v>
       </c>
@@ -5295,7 +5060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="21">
+    <row r="320" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="6" t="s">
         <v>286</v>
       </c>
@@ -5306,7 +5071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="21">
+    <row r="321" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="6" t="s">
         <v>286</v>
       </c>
@@ -5317,7 +5082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="21">
+    <row r="322" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="6" t="s">
         <v>286</v>
       </c>
@@ -5328,7 +5093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="21">
+    <row r="323" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="6" t="s">
         <v>286</v>
       </c>
@@ -5339,7 +5104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="21">
+    <row r="324" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="6" t="s">
         <v>286</v>
       </c>
@@ -5350,7 +5115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="21">
+    <row r="325" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="6" t="s">
         <v>286</v>
       </c>
@@ -5361,7 +5126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="21">
+    <row r="326" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="6" t="s">
         <v>286</v>
       </c>
@@ -5372,7 +5137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="21">
+    <row r="327" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="6" t="s">
         <v>286</v>
       </c>
@@ -5383,7 +5148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="21">
+    <row r="328" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="6" t="s">
         <v>286</v>
       </c>
@@ -5394,7 +5159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="21">
+    <row r="329" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="6" t="s">
         <v>286</v>
       </c>
@@ -5405,7 +5170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="21">
+    <row r="330" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="6" t="s">
         <v>286</v>
       </c>
@@ -5416,7 +5181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="21">
+    <row r="331" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="6" t="s">
         <v>286</v>
       </c>
@@ -5427,7 +5192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="21">
+    <row r="332" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="6" t="s">
         <v>286</v>
       </c>
@@ -5438,7 +5203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="21">
+    <row r="333" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="6" t="s">
         <v>286</v>
       </c>
@@ -5449,37 +5214,37 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="21">
+    <row r="334" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B334" s="8"/>
       <c r="C334" s="5"/>
     </row>
-    <row r="335" spans="1:3" ht="21">
+    <row r="335" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B335" s="8"/>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" spans="1:3" ht="21">
+    <row r="336" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B336" s="13" t="s">
+      <c r="B336" s="12" t="s">
         <v>326</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="21">
+    <row r="337" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B337" s="13" t="s">
+      <c r="B337" s="12" t="s">
         <v>327</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="21">
+    <row r="338" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="6" t="s">
         <v>325</v>
       </c>
@@ -5490,51 +5255,51 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="21">
+    <row r="339" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B339" s="13" t="s">
+      <c r="B339" s="12" t="s">
         <v>329</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="21">
+    <row r="340" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B340" s="7" t="s">
+      <c r="B340" s="13" t="s">
         <v>330</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="21">
+    <row r="341" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B341" s="7" t="s">
+      <c r="B341" s="13" t="s">
         <v>331</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="21">
+    <row r="342" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B342" s="13" t="s">
+      <c r="B342" s="12" t="s">
         <v>332</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="21">
+    <row r="343" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="6" t="s">
         <v>325</v>
       </c>
@@ -5545,7 +5310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="21">
+    <row r="344" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="6" t="s">
         <v>325</v>
       </c>
@@ -5556,7 +5321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="21">
+    <row r="345" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="6" t="s">
         <v>325</v>
       </c>
@@ -5567,7 +5332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="21">
+    <row r="346" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="6" t="s">
         <v>325</v>
       </c>
@@ -5578,7 +5343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="21">
+    <row r="347" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="6" t="s">
         <v>325</v>
       </c>
@@ -5589,29 +5354,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="21">
+    <row r="348" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B348" s="13" t="s">
+      <c r="B348" s="12" t="s">
         <v>338</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="21">
+    <row r="349" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B349" s="13" t="s">
+      <c r="B349" s="12" t="s">
         <v>339</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="21">
+    <row r="350" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="6" t="s">
         <v>325</v>
       </c>
@@ -5622,7 +5387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="21">
+    <row r="351" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="6" t="s">
         <v>325</v>
       </c>
@@ -5633,7 +5398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="21">
+    <row r="352" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="6" t="s">
         <v>325</v>
       </c>
@@ -5644,7 +5409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="21">
+    <row r="353" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="6" t="s">
         <v>325</v>
       </c>
@@ -5655,15 +5420,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="21">
+    <row r="354" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B354" s="8"/>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" spans="1:3" ht="21">
+    <row r="355" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B355" s="8"/>
       <c r="C355" s="5"/>
     </row>
-    <row r="356" spans="1:3" ht="21">
+    <row r="356" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="6" t="s">
         <v>344</v>
       </c>
@@ -5674,7 +5439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="21">
+    <row r="357" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="6" t="s">
         <v>344</v>
       </c>
@@ -5685,7 +5450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="21">
+    <row r="358" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="6" t="s">
         <v>344</v>
       </c>
@@ -5696,7 +5461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="21">
+    <row r="359" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="6" t="s">
         <v>344</v>
       </c>
@@ -5707,7 +5472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="21">
+    <row r="360" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="6" t="s">
         <v>344</v>
       </c>
@@ -5718,7 +5483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="21">
+    <row r="361" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="6" t="s">
         <v>344</v>
       </c>
@@ -5729,7 +5494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="21">
+    <row r="362" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="6" t="s">
         <v>344</v>
       </c>
@@ -5740,7 +5505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="21">
+    <row r="363" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="6" t="s">
         <v>344</v>
       </c>
@@ -5751,7 +5516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="21">
+    <row r="364" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="6" t="s">
         <v>344</v>
       </c>
@@ -5762,7 +5527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="21">
+    <row r="365" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="6" t="s">
         <v>344</v>
       </c>
@@ -5773,7 +5538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="21">
+    <row r="366" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="6" t="s">
         <v>344</v>
       </c>
@@ -5784,7 +5549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="21">
+    <row r="367" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="6" t="s">
         <v>344</v>
       </c>
@@ -5795,7 +5560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="21">
+    <row r="368" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="6" t="s">
         <v>344</v>
       </c>
@@ -5806,7 +5571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="21">
+    <row r="369" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="6" t="s">
         <v>344</v>
       </c>
@@ -5817,7 +5582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="21">
+    <row r="370" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="6" t="s">
         <v>344</v>
       </c>
@@ -5828,7 +5593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="21">
+    <row r="371" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="6" t="s">
         <v>344</v>
       </c>
@@ -5839,7 +5604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="21">
+    <row r="372" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="6" t="s">
         <v>344</v>
       </c>
@@ -5850,7 +5615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="21">
+    <row r="373" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="6" t="s">
         <v>344</v>
       </c>
@@ -5861,7 +5626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="21">
+    <row r="374" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="6" t="s">
         <v>344</v>
       </c>
@@ -5872,7 +5637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="21">
+    <row r="375" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="6" t="s">
         <v>344</v>
       </c>
@@ -5883,7 +5648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="21">
+    <row r="376" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="6" t="s">
         <v>344</v>
       </c>
@@ -5894,7 +5659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="21">
+    <row r="377" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="6" t="s">
         <v>344</v>
       </c>
@@ -5905,7 +5670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="21">
+    <row r="378" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="6" t="s">
         <v>344</v>
       </c>
@@ -5916,7 +5681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="21">
+    <row r="379" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="6" t="s">
         <v>344</v>
       </c>
@@ -5927,7 +5692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="21">
+    <row r="380" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="6" t="s">
         <v>344</v>
       </c>
@@ -5938,7 +5703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="21">
+    <row r="381" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="6" t="s">
         <v>344</v>
       </c>
@@ -5949,7 +5714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="21">
+    <row r="382" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="6" t="s">
         <v>344</v>
       </c>
@@ -5960,7 +5725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="21">
+    <row r="383" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="6" t="s">
         <v>344</v>
       </c>
@@ -5971,7 +5736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="21">
+    <row r="384" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="6" t="s">
         <v>344</v>
       </c>
@@ -5982,7 +5747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="21">
+    <row r="385" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="6" t="s">
         <v>344</v>
       </c>
@@ -5993,7 +5758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="21">
+    <row r="386" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="6" t="s">
         <v>344</v>
       </c>
@@ -6004,7 +5769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="21">
+    <row r="387" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="6" t="s">
         <v>344</v>
       </c>
@@ -6015,7 +5780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="21">
+    <row r="388" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="6" t="s">
         <v>344</v>
       </c>
@@ -6026,7 +5791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="21">
+    <row r="389" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="6" t="s">
         <v>344</v>
       </c>
@@ -6037,7 +5802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="21">
+    <row r="390" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="6" t="s">
         <v>344</v>
       </c>
@@ -6048,7 +5813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="21">
+    <row r="391" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="6" t="s">
         <v>344</v>
       </c>
@@ -6059,7 +5824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="21">
+    <row r="392" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="6" t="s">
         <v>344</v>
       </c>
@@ -6070,7 +5835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="21">
+    <row r="393" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="6" t="s">
         <v>344</v>
       </c>
@@ -6081,7 +5846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="21">
+    <row r="394" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="6" t="s">
         <v>344</v>
       </c>
@@ -6092,7 +5857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="21">
+    <row r="395" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="6" t="s">
         <v>344</v>
       </c>
@@ -6103,7 +5868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="21">
+    <row r="396" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="6" t="s">
         <v>344</v>
       </c>
@@ -6114,7 +5879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="21">
+    <row r="397" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="6" t="s">
         <v>344</v>
       </c>
@@ -6125,7 +5890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="21">
+    <row r="398" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="6" t="s">
         <v>344</v>
       </c>
@@ -6136,7 +5901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="21">
+    <row r="399" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="6" t="s">
         <v>344</v>
       </c>
@@ -6147,15 +5912,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="21">
+    <row r="400" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B400" s="8"/>
       <c r="C400" s="5"/>
     </row>
-    <row r="401" spans="1:3" ht="21">
+    <row r="401" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B401" s="8"/>
       <c r="C401" s="5"/>
     </row>
-    <row r="402" spans="1:3" ht="21">
+    <row r="402" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="6" t="s">
         <v>388</v>
       </c>
@@ -6166,7 +5931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="21">
+    <row r="403" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="6" t="s">
         <v>388</v>
       </c>
@@ -6177,7 +5942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="21">
+    <row r="404" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="6" t="s">
         <v>388</v>
       </c>
@@ -6188,7 +5953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="21">
+    <row r="405" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="6" t="s">
         <v>388</v>
       </c>
@@ -6199,7 +5964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="21">
+    <row r="406" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="6" t="s">
         <v>388</v>
       </c>
@@ -6210,7 +5975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="21">
+    <row r="407" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="6" t="s">
         <v>388</v>
       </c>
@@ -6221,15 +5986,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="21">
+    <row r="408" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B408" s="8"/>
       <c r="C408" s="5"/>
     </row>
-    <row r="409" spans="1:3" ht="21">
+    <row r="409" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B409" s="8"/>
       <c r="C409" s="5"/>
     </row>
-    <row r="410" spans="1:3" ht="21">
+    <row r="410" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="6" t="s">
         <v>394</v>
       </c>
@@ -6240,7 +6005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="21">
+    <row r="411" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="6" t="s">
         <v>394</v>
       </c>
@@ -6251,7 +6016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="21">
+    <row r="412" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="6" t="s">
         <v>394</v>
       </c>
@@ -6262,7 +6027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="21">
+    <row r="413" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="6" t="s">
         <v>394</v>
       </c>
@@ -6273,7 +6038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="21">
+    <row r="414" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="6" t="s">
         <v>394</v>
       </c>
@@ -6284,7 +6049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="21">
+    <row r="415" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="6" t="s">
         <v>394</v>
       </c>
@@ -6295,7 +6060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="21">
+    <row r="416" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="6" t="s">
         <v>394</v>
       </c>
@@ -6306,7 +6071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="21">
+    <row r="417" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="6" t="s">
         <v>394</v>
       </c>
@@ -6317,7 +6082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="21">
+    <row r="418" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="6" t="s">
         <v>394</v>
       </c>
@@ -6328,7 +6093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="21">
+    <row r="419" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="6" t="s">
         <v>394</v>
       </c>
@@ -6339,7 +6104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="21">
+    <row r="420" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="6" t="s">
         <v>394</v>
       </c>
@@ -6350,7 +6115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="21">
+    <row r="421" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="6" t="s">
         <v>394</v>
       </c>
@@ -6361,7 +6126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="21">
+    <row r="422" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="6" t="s">
         <v>394</v>
       </c>
@@ -6372,7 +6137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="21">
+    <row r="423" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="6" t="s">
         <v>394</v>
       </c>
@@ -6383,7 +6148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="21">
+    <row r="424" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="6" t="s">
         <v>394</v>
       </c>
@@ -6394,7 +6159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="21">
+    <row r="425" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="6" t="s">
         <v>394</v>
       </c>
@@ -6405,7 +6170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="21">
+    <row r="426" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="6" t="s">
         <v>394</v>
       </c>
@@ -6416,7 +6181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="21">
+    <row r="427" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="6" t="s">
         <v>394</v>
       </c>
@@ -6427,7 +6192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="21">
+    <row r="428" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="6" t="s">
         <v>394</v>
       </c>
@@ -6438,7 +6203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="21">
+    <row r="429" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="6" t="s">
         <v>394</v>
       </c>
@@ -6449,7 +6214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="21">
+    <row r="430" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="6" t="s">
         <v>394</v>
       </c>
@@ -6460,7 +6225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="21">
+    <row r="431" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="6" t="s">
         <v>394</v>
       </c>
@@ -6471,7 +6236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="21">
+    <row r="432" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="6" t="s">
         <v>394</v>
       </c>
@@ -6482,7 +6247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="21">
+    <row r="433" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="6" t="s">
         <v>394</v>
       </c>
@@ -6493,7 +6258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="21">
+    <row r="434" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="6" t="s">
         <v>394</v>
       </c>
@@ -6504,7 +6269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="21">
+    <row r="435" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="6" t="s">
         <v>394</v>
       </c>
@@ -6515,7 +6280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="21">
+    <row r="436" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="6" t="s">
         <v>394</v>
       </c>
@@ -6526,7 +6291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="21">
+    <row r="437" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="6" t="s">
         <v>394</v>
       </c>
@@ -6537,7 +6302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="21">
+    <row r="438" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="6" t="s">
         <v>394</v>
       </c>
@@ -6548,7 +6313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="21">
+    <row r="439" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="6" t="s">
         <v>394</v>
       </c>
@@ -6559,7 +6324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="21">
+    <row r="440" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="6" t="s">
         <v>394</v>
       </c>
@@ -6570,7 +6335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="21">
+    <row r="441" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="6" t="s">
         <v>394</v>
       </c>
@@ -6581,7 +6346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="21">
+    <row r="442" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="6" t="s">
         <v>394</v>
       </c>
@@ -6592,7 +6357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="21">
+    <row r="443" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="6" t="s">
         <v>394</v>
       </c>
@@ -6603,7 +6368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="21">
+    <row r="444" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="6" t="s">
         <v>394</v>
       </c>
@@ -6614,7 +6379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="21">
+    <row r="445" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="6" t="s">
         <v>394</v>
       </c>
@@ -6625,7 +6390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="21">
+    <row r="446" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="6" t="s">
         <v>394</v>
       </c>
@@ -6636,7 +6401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="21">
+    <row r="447" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="6" t="s">
         <v>394</v>
       </c>
@@ -6647,7 +6412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="21">
+    <row r="448" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="6" t="s">
         <v>394</v>
       </c>
@@ -6658,7 +6423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="21">
+    <row r="449" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="6" t="s">
         <v>394</v>
       </c>
@@ -6669,7 +6434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="21">
+    <row r="450" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="6" t="s">
         <v>394</v>
       </c>
@@ -6680,7 +6445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="21">
+    <row r="451" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="6" t="s">
         <v>394</v>
       </c>
@@ -6691,7 +6456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="21">
+    <row r="452" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="6" t="s">
         <v>394</v>
       </c>
@@ -6702,7 +6467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="21">
+    <row r="453" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="6" t="s">
         <v>394</v>
       </c>
@@ -6713,7 +6478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="21">
+    <row r="454" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="6" t="s">
         <v>394</v>
       </c>
@@ -6724,7 +6489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="21">
+    <row r="455" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="6" t="s">
         <v>394</v>
       </c>
@@ -6735,7 +6500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="21">
+    <row r="456" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="6" t="s">
         <v>394</v>
       </c>
@@ -6746,7 +6511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="21">
+    <row r="457" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="6" t="s">
         <v>394</v>
       </c>
@@ -6757,7 +6522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="21">
+    <row r="458" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="6" t="s">
         <v>394</v>
       </c>
@@ -6768,7 +6533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="21">
+    <row r="459" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="6" t="s">
         <v>394</v>
       </c>
@@ -6779,7 +6544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="21">
+    <row r="460" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="6" t="s">
         <v>394</v>
       </c>
@@ -6790,7 +6555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="21">
+    <row r="461" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="6" t="s">
         <v>394</v>
       </c>
@@ -6801,7 +6566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="21">
+    <row r="462" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="6" t="s">
         <v>394</v>
       </c>
@@ -6812,7 +6577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="21">
+    <row r="463" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="6" t="s">
         <v>394</v>
       </c>
@@ -6823,7 +6588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="21">
+    <row r="464" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="6" t="s">
         <v>394</v>
       </c>
@@ -6834,7 +6599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="21">
+    <row r="465" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="6" t="s">
         <v>394</v>
       </c>
@@ -6845,7 +6610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="21">
+    <row r="466" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="6" t="s">
         <v>394</v>
       </c>
@@ -6856,7 +6621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="21">
+    <row r="467" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="6" t="s">
         <v>394</v>
       </c>
@@ -6867,7 +6632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="21">
+    <row r="468" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="6" t="s">
         <v>394</v>
       </c>
@@ -6878,7 +6643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="21">
+    <row r="469" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="6" t="s">
         <v>394</v>
       </c>
@@ -6889,16 +6654,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="21">
+    <row r="470" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B470" s="8"/>
       <c r="C470" s="5"/>
     </row>
-    <row r="471" spans="1:3" ht="21">
+    <row r="471" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="6"/>
       <c r="B471" s="8"/>
       <c r="C471" s="5"/>
     </row>
-    <row r="472" spans="1:3" ht="21">
+    <row r="472" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="6" t="s">
         <v>454</v>
       </c>
@@ -6909,7 +6674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="21">
+    <row r="473" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="6" t="s">
         <v>454</v>
       </c>
@@ -6920,7 +6685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="21">
+    <row r="474" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="6" t="s">
         <v>454</v>
       </c>
@@ -6931,7 +6696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="21">
+    <row r="475" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="6" t="s">
         <v>454</v>
       </c>
@@ -6942,7 +6707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="21">
+    <row r="476" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="6" t="s">
         <v>454</v>
       </c>
@@ -6953,7 +6718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="21">
+    <row r="477" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="6" t="s">
         <v>454</v>
       </c>
@@ -6964,7 +6729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="21">
+    <row r="478" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="6" t="s">
         <v>454</v>
       </c>
@@ -6975,7 +6740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="21">
+    <row r="479" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="6" t="s">
         <v>454</v>
       </c>
@@ -6986,7 +6751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="21">
+    <row r="480" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="6" t="s">
         <v>454</v>
       </c>
@@ -6997,7 +6762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="21">
+    <row r="481" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="6" t="s">
         <v>454</v>
       </c>
@@ -7010,454 +6775,459 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B21" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B22" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B23" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B24" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B25" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B26" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B27" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B28" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B29" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B30" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B31" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B32" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B33" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B34" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B35" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B36" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B37" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B38" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B39" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B40" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B41" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B44" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B45" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B46" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B47" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B48" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B49" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B50" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B51" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B52" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B53" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B56" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B57" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B58" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B60" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B61" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B62" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B63" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B64" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B65" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B66" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B67" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B68" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B69" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B70" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B71" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B72" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B73" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B74" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B75" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B76" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B77" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B78" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B79" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B80" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B81" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B82" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B83" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B84" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B85" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B86" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B87" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B88" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B89" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B90" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B91" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B92" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B93" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B94" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B95" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B96" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B97" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B98" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B101" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B102" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B103" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B104" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B105" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B106" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B107" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B108" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B109" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B110" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="B111" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="B112" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="B113" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="B114" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="B115" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="B116" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="B117" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="B118" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="B119" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B120" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="B121" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="B122" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="B123" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="B124" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="B125" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="B126" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="B127" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="B128" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="B129" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="B130" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="B131" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="B132" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="B133" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="B134" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="B135" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="B136" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="B139" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="B140" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="B141" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="B142" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="B143" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="B144" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="B145" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="B146" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="B147" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="B148" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="B149" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="B150" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="B151" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="B152" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="B153" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="B154" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="B155" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="B156" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="B157" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="B158" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="B159" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="B160" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="B161" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="B162" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="B163" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="B166" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="B167" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="B168" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="B169" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="B170" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="B171" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="B172" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="B173" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="B174" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="B177" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="B178" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="B179" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="B180" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="B181" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="B182" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="B183" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="B184" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="B185" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B186" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="B187" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="B188" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="B189" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="B190" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="B191" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B192" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="B193" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B194" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="B195" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="B196" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="B197" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B198" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="B199" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B200" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="B201" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="B202" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="B203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="B204" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="B205" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="B206" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="B207" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="B208" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="B209" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="B210" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="B211" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="B214" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="B215" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="B216" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="B217" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="B218" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="B219" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="B220" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="B221" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="B222" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="B223" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="B224" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B225" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="B226" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="B227" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="B228" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="B229" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B230" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B231" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="B232" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B233" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="B234" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="B235" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B238" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="B239" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B240" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B241" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="B242" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B243" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="B244" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B245" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="B246" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="B247" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B248" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="B249" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="B250" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="B251" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="B252" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B253" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B254" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B255" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B256" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B258" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B259" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B260" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B261" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="B262" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B263" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B264" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="B265" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B266" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B267" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B268" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B269" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B270" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B271" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B272" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="B275" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B276" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B277" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B278" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B279" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B280" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B281" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B282" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B283" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B284" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B285" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B286" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B287" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B288" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B289" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B290" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B291" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B292" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B293" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B296" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B297" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B298" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B299" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B300" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B301" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B302" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B303" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B304" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B305" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B307" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B308" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B309" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B310" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B311" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B312" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B313" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B314" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B315" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B316" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B317" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B318" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B319" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B320" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B321" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B322" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B323" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B324" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B325" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B326" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B327" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B328" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B329" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B330" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B331" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B332" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B333" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B336" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B337" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B338" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B339" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B340" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B341" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B342" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B343" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B344" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B345" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B346" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B347" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B348" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B349" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B350" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B351" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B352" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B353" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="B356" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="B357" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="B358" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="B359" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="B360" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="B361" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="B362" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="B363" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="B364" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="B365" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="B366" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="B367" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="B368" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="B369" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="B370" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="B371" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="B372" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="B373" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="B374" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="B375" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="B376" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="B377" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="B378" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
-    <hyperlink ref="B379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
-    <hyperlink ref="B380" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
-    <hyperlink ref="B381" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
-    <hyperlink ref="B382" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
-    <hyperlink ref="B383" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
-    <hyperlink ref="B384" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
-    <hyperlink ref="B385" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
-    <hyperlink ref="B386" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
-    <hyperlink ref="B387" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
-    <hyperlink ref="B388" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
-    <hyperlink ref="B389" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
-    <hyperlink ref="B390" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
-    <hyperlink ref="B391" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
-    <hyperlink ref="B392" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
-    <hyperlink ref="B393" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
-    <hyperlink ref="B394" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
-    <hyperlink ref="B395" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
-    <hyperlink ref="B396" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
-    <hyperlink ref="B397" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
-    <hyperlink ref="B398" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
-    <hyperlink ref="B399" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
-    <hyperlink ref="B402" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
-    <hyperlink ref="B403" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
-    <hyperlink ref="B404" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
-    <hyperlink ref="B405" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
-    <hyperlink ref="B406" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
-    <hyperlink ref="B407" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
-    <hyperlink ref="B410" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
-    <hyperlink ref="B411" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
-    <hyperlink ref="B412" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
-    <hyperlink ref="B413" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
-    <hyperlink ref="B414" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
-    <hyperlink ref="B415" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
-    <hyperlink ref="B416" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
-    <hyperlink ref="B417" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
-    <hyperlink ref="B418" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
-    <hyperlink ref="B419" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
-    <hyperlink ref="B420" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
-    <hyperlink ref="B421" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
-    <hyperlink ref="B422" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
-    <hyperlink ref="B423" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
-    <hyperlink ref="B424" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
-    <hyperlink ref="B425" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
-    <hyperlink ref="B426" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
-    <hyperlink ref="B427" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
-    <hyperlink ref="B428" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
-    <hyperlink ref="B429" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
-    <hyperlink ref="B430" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
-    <hyperlink ref="B431" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
-    <hyperlink ref="B432" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
-    <hyperlink ref="B433" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
-    <hyperlink ref="B434" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
-    <hyperlink ref="B435" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
-    <hyperlink ref="B436" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
-    <hyperlink ref="B437" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
-    <hyperlink ref="B438" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
-    <hyperlink ref="B439" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
-    <hyperlink ref="B440" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
-    <hyperlink ref="B441" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
-    <hyperlink ref="B442" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
-    <hyperlink ref="B443" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
-    <hyperlink ref="B444" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
-    <hyperlink ref="B445" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
-    <hyperlink ref="B446" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
-    <hyperlink ref="B447" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
-    <hyperlink ref="B448" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
-    <hyperlink ref="B449" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
-    <hyperlink ref="B450" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
-    <hyperlink ref="B451" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
-    <hyperlink ref="B452" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
-    <hyperlink ref="B453" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
-    <hyperlink ref="B454" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
-    <hyperlink ref="B455" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
-    <hyperlink ref="B456" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
-    <hyperlink ref="B457" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
-    <hyperlink ref="B458" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
-    <hyperlink ref="B459" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
-    <hyperlink ref="B460" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
-    <hyperlink ref="B461" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
-    <hyperlink ref="B462" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
-    <hyperlink ref="B463" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
-    <hyperlink ref="B464" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
-    <hyperlink ref="B465" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
-    <hyperlink ref="B466" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
-    <hyperlink ref="B467" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
-    <hyperlink ref="B468" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
-    <hyperlink ref="B469" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
-    <hyperlink ref="B472" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
-    <hyperlink ref="B473" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
-    <hyperlink ref="B474" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
-    <hyperlink ref="B475" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
-    <hyperlink ref="B476" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
-    <hyperlink ref="B477" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
-    <hyperlink ref="B478" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
-    <hyperlink ref="B479" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
-    <hyperlink ref="B480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
-    <hyperlink ref="B481" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw "/>
+    <hyperlink ref="B6" r:id="rId2" display="Reverse the array"/>
+    <hyperlink ref="B7" r:id="rId3" display="Find the maximum and minimum element in an array"/>
+    <hyperlink ref="B8" r:id="rId4" display="Find the &quot;Kth&quot; max and min element of an array "/>
+    <hyperlink ref="B9" r:id="rId5" display="Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo"/>
+    <hyperlink ref="B10" r:id="rId6" display="Move all the negative elements to one side of the array "/>
+    <hyperlink ref="B11" r:id="rId7" display="Find the Union and Intersection of the two sorted arrays."/>
+    <hyperlink ref="B12" r:id="rId8" display="Write a program to cyclically rotate an array by one."/>
+    <hyperlink ref="B13" r:id="rId9" display="find Largest sum contiguous Subarray [V. IMP]"/>
+    <hyperlink ref="B14" r:id="rId10" display="Minimise the maximum difference between heights [V.IMP]"/>
+    <hyperlink ref="B15" r:id="rId11" display="Minimum no. of Jumps to reach end of an array"/>
+    <hyperlink ref="B16" r:id="rId12" display="find duplicate in an array of N+1 Integers"/>
+    <hyperlink ref="B17" r:id="rId13" display="Merge 2 sorted arrays without using Extra space."/>
+    <hyperlink ref="B18" r:id="rId14" display="Kadane's Algo [V.V.V.V.V IMP]"/>
+    <hyperlink ref="B19" r:id="rId15" display="Merge Intervals"/>
+    <hyperlink ref="B20" r:id="rId16" display="Next Permutation"/>
+    <hyperlink ref="B21" r:id="rId17" display="Count Inversion"/>
+    <hyperlink ref="B22" r:id="rId18" display="Best time to buy and Sell stock"/>
+    <hyperlink ref="B23" r:id="rId19" display="find all pairs on integer array whose sum is equal to given number"/>
+    <hyperlink ref="B24" r:id="rId20" display="find common elements In 3 sorted arrays"/>
+    <hyperlink ref="B25" r:id="rId21" display="Rearrange the array in alternating positive and negative items with O(1) extra space"/>
+    <hyperlink ref="B26" r:id="rId22" display="Find if there is any subarray with sum equal to 0"/>
+    <hyperlink ref="B27" r:id="rId23" display="Find factorial of a large number"/>
+    <hyperlink ref="B28" r:id="rId24" display="find maximum product subarray "/>
+    <hyperlink ref="B29" r:id="rId25" display="Find longest coinsecutive subsequence"/>
+    <hyperlink ref="B30" r:id="rId26" display="Given an array of size n and a number k, fin all elements that appear more than &quot; n/k &quot; times."/>
+    <hyperlink ref="B31" r:id="rId27" display="Maximum profit by buying and selling a share atmost twice"/>
+    <hyperlink ref="B32" r:id="rId28" display="Find whether an array is a subset of another array"/>
+    <hyperlink ref="B33" r:id="rId29" display="Find the triplet that sum to a given value"/>
+    <hyperlink ref="B34" r:id="rId30" display="Trapping Rain water problem"/>
+    <hyperlink ref="B35" r:id="rId31" display="Chocolate Distribution problem"/>
+    <hyperlink ref="B36" r:id="rId32" display="Smallest Subarray with sum greater than a given value"/>
+    <hyperlink ref="B37" r:id="rId33" display="Three way partitioning of an array around a given value"/>
+    <hyperlink ref="B38" r:id="rId34" display="Minimum swaps required bring elements less equal K together"/>
+    <hyperlink ref="B39" r:id="rId35" display="Minimum no. of operations required to make an array palindrome"/>
+    <hyperlink ref="B40" r:id="rId36" display="Median of 2 sorted arrays of equal size"/>
+    <hyperlink ref="B41" r:id="rId37" display="Median of 2 sorted arrays of different size"/>
+    <hyperlink ref="B44" r:id="rId38" display="Spiral traversal on a Matrix"/>
+    <hyperlink ref="B45" r:id="rId39" display="Search an element in a matriix"/>
+    <hyperlink ref="B46" r:id="rId40" display="Find median in a row wise sorted matrix"/>
+    <hyperlink ref="B47" r:id="rId41" display="Find row with maximum no. of 1's"/>
+    <hyperlink ref="B48" r:id="rId42" display="Print elements in sorted order using row-column wise sorted matrix"/>
+    <hyperlink ref="B49" r:id="rId43" display="Maximum size rectangle"/>
+    <hyperlink ref="B50" r:id="rId44" display="Find a specific pair in matrix"/>
+    <hyperlink ref="B51" r:id="rId45" display="Rotate matrix by 90 degrees"/>
+    <hyperlink ref="B52" r:id="rId46" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
+    <hyperlink ref="B53" r:id="rId47" display="Common elements in all rows of a given matrix"/>
+    <hyperlink ref="B56" r:id="rId48" display="Reverse a String"/>
+    <hyperlink ref="B57" r:id="rId49" display="Check whether a String is Palindrome or not"/>
+    <hyperlink ref="B58" r:id="rId50" display="Find Duplicate characters in a string"/>
+    <hyperlink ref="B60" r:id="rId51" display="Write a Code to check whether one string is a rotation of another"/>
+    <hyperlink ref="B61" r:id="rId52" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
+    <hyperlink ref="B62" r:id="rId53" display="Count and Say problem"/>
+    <hyperlink ref="B63" r:id="rId54" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
+    <hyperlink ref="B64" r:id="rId55" display="Find Longest Recurring Subsequence in String"/>
+    <hyperlink ref="B65" r:id="rId56" display="Print all Subsequences of a string."/>
+    <hyperlink ref="B66" r:id="rId57" display="Print all the permutations of the given string"/>
+    <hyperlink ref="B67" r:id="rId58" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
+    <hyperlink ref="B68" r:id="rId59" display="Word Wrap Problem [VERY IMP]."/>
+    <hyperlink ref="B69" r:id="rId60" display="EDIT Distance [Very Imp]"/>
+    <hyperlink ref="B70" r:id="rId61" display="Find next greater number with same set of digits. [Very Very IMP]"/>
+    <hyperlink ref="B71" r:id="rId62" display="Balanced Parenthesis problem.[Imp]"/>
+    <hyperlink ref="B72" r:id="rId63" display="Word break Problem[ Very Imp]"/>
+    <hyperlink ref="B73" r:id="rId64" display="Rabin Karp Algo"/>
+    <hyperlink ref="B74" r:id="rId65" display="KMP Algo"/>
+    <hyperlink ref="B75" r:id="rId66" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
+    <hyperlink ref="B76" r:id="rId67" display="Minimum number of bracket reversals needed to make an expression balanced."/>
+    <hyperlink ref="B77" r:id="rId68" display="Count All Palindromic Subsequence in a given String."/>
+    <hyperlink ref="B78" r:id="rId69" display="Count of number of given string in 2D character array"/>
+    <hyperlink ref="B79" r:id="rId70" display="Search a Word in a 2D Grid of characters."/>
+    <hyperlink ref="B80" r:id="rId71" display="Boyer Moore Algorithm for Pattern Searching."/>
+    <hyperlink ref="B81" r:id="rId72" display="Converting Roman Numerals to Decimal"/>
+    <hyperlink ref="B82" r:id="rId73" display="Longest Common Prefix"/>
+    <hyperlink ref="B83" r:id="rId74" display="Number of flips to make binary string alternate"/>
+    <hyperlink ref="B84" r:id="rId75" display="Find the first repeated word in string."/>
+    <hyperlink ref="B85" r:id="rId76" display="Minimum number of swaps for bracket balancing."/>
+    <hyperlink ref="B86" r:id="rId77" display="Find the longest common subsequence between two strings."/>
+    <hyperlink ref="B87" r:id="rId78" display="Program to generate all possible valid IP addresses from given  string."/>
+    <hyperlink ref="B88" r:id="rId79" display="Write a program tofind the smallest window that contains all characters of string itself."/>
+    <hyperlink ref="B89" r:id="rId80" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="B90" r:id="rId81" display="Minimum characters to be added at front to make string palindrome"/>
+    <hyperlink ref="B91" r:id="rId82" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="B92" r:id="rId83" display="Find the smallest window in a string containing all characters of another string"/>
+    <hyperlink ref="B93" r:id="rId84" display="Recursively remove all adjacent duplicates"/>
+    <hyperlink ref="B94" r:id="rId85" display="String matching where one string contains wildcard characters"/>
+    <hyperlink ref="B95" r:id="rId86" display="Function to find Number of customers who could not get a computer"/>
+    <hyperlink ref="B96" r:id="rId87" display="Transform One String to Another using Minimum Number of Given Operation"/>
+    <hyperlink ref="B97" r:id="rId88" display="Check if two given strings are isomorphic to each other"/>
+    <hyperlink ref="B98" r:id="rId89" display="Recursively print all sentences that can be formed from list of word lists"/>
+    <hyperlink ref="B101" r:id="rId90" display="Find first and last positions of an element in a sorted array"/>
+    <hyperlink ref="B102" r:id="rId91" display="Find a Fixed Point (Value equal to index) in a given array"/>
+    <hyperlink ref="B103" r:id="rId92" display="Search in a rotated sorted array"/>
+    <hyperlink ref="B104" r:id="rId93" display="square root of an integer"/>
+    <hyperlink ref="B105" r:id="rId94" display="Maximum and minimum of an array using minimum number of comparisons"/>
+    <hyperlink ref="B106" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
+    <hyperlink ref="B107" r:id="rId96" display="Find the repeating and the missing"/>
+    <hyperlink ref="B108" r:id="rId97" display="find majority element"/>
+    <hyperlink ref="B109" r:id="rId98" display="Searching in an array where adjacent differ by at most k"/>
+    <hyperlink ref="B110" r:id="rId99" display="find a pair with a given difference"/>
+    <hyperlink ref="B111" r:id="rId100" display="find four elements that sum to a given value"/>
+    <hyperlink ref="B112" r:id="rId101" display="maximum sum such that no 2 elements are adjacent"/>
+    <hyperlink ref="B113" r:id="rId102" display="Count triplet with sum smaller than a given value"/>
+    <hyperlink ref="B114" r:id="rId103" display="merge 2 sorted arrays"/>
+    <hyperlink ref="B115" r:id="rId104" display="print all subarrays with 0 sum"/>
+    <hyperlink ref="B116" r:id="rId105" display="Product array Puzzle"/>
+    <hyperlink ref="B117" r:id="rId106" display="Sort array according to count of set bits"/>
+    <hyperlink ref="B118" r:id="rId107" display="minimum no. of swaps required to sort the array"/>
+    <hyperlink ref="B119" r:id="rId108" display="Bishu and Soldiers"/>
+    <hyperlink ref="B120" r:id="rId109" display="Rasta and Kheshtak"/>
+    <hyperlink ref="B121" r:id="rId110" display="Kth smallest number again"/>
+    <hyperlink ref="B122" r:id="rId111" display="Find pivot element in a sorted array"/>
+    <hyperlink ref="B123" r:id="rId112" display="K-th Element of Two Sorted Arrays"/>
+    <hyperlink ref="B124" r:id="rId113" display="Aggressive cows"/>
+    <hyperlink ref="B125" r:id="rId114" display="Book Allocation Problem"/>
+    <hyperlink ref="B126" r:id="rId115" display="EKOSPOJ:"/>
+    <hyperlink ref="B127" r:id="rId116" display="Job Scheduling Algo"/>
+    <hyperlink ref="B128" r:id="rId117" display="Missing Number in AP"/>
+    <hyperlink ref="B129" r:id="rId118" display="Smallest number with atleastn trailing zeroes infactorial"/>
+    <hyperlink ref="B130" r:id="rId119" display="Painters Partition Problem:"/>
+    <hyperlink ref="B131" r:id="rId120" display="ROTI-Prata SPOJ"/>
+    <hyperlink ref="B132" r:id="rId121" display="DoubleHelix SPOJ"/>
+    <hyperlink ref="B133" r:id="rId122" display="Subset Sums"/>
+    <hyperlink ref="B134" r:id="rId123" display="Findthe inversion count"/>
+    <hyperlink ref="B135" r:id="rId124" display="Implement Merge-sort in-place"/>
+    <hyperlink ref="B136" r:id="rId125" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
+    <hyperlink ref="B139" r:id="rId126" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
+    <hyperlink ref="B140" r:id="rId127" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
+    <hyperlink ref="B141" r:id="rId128" display="Write a program to Detect loop in a linked list."/>
+    <hyperlink ref="B142" r:id="rId129" display="Write a program to Delete loop in a linked list."/>
+    <hyperlink ref="B143" r:id="rId130" display="Find the starting point of the loop. "/>
+    <hyperlink ref="B144" r:id="rId131" display="Remove Duplicates in a sorted Linked List."/>
+    <hyperlink ref="B145" r:id="rId132" display="Remove Duplicates in a Un-sorted Linked List."/>
+    <hyperlink ref="B146" r:id="rId133" display="Write a Program to Move the last element to Front in a Linked List."/>
+    <hyperlink ref="B147" r:id="rId134" display="Add “1” to a number represented as a Linked List."/>
+    <hyperlink ref="B148" r:id="rId135" display="Add two numbers represented by linked lists."/>
+    <hyperlink ref="B149" r:id="rId136" display="Intersection of two Sorted Linked List."/>
+    <hyperlink ref="B150" r:id="rId137" display="Intersection Point of two Linked Lists."/>
+    <hyperlink ref="B151" r:id="rId138" display="Merge Sort For Linked lists.[Very Important]"/>
+    <hyperlink ref="B152" r:id="rId139" display="Quicksort for Linked Lists.[Very Important]"/>
+    <hyperlink ref="B153" r:id="rId140" display="Find the middle Element of a linked list."/>
+    <hyperlink ref="B154" r:id="rId141" display="Check if a linked list is a circular linked list."/>
+    <hyperlink ref="B155" r:id="rId142" display="Split a Circular linked list into two halves."/>
+    <hyperlink ref="B156" r:id="rId143" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
+    <hyperlink ref="B157" r:id="rId144" display="Deletion from a Circular Linked List."/>
+    <hyperlink ref="B158" r:id="rId145" display="Reverse a Doubly Linked list."/>
+    <hyperlink ref="B159" r:id="rId146" display="Find pairs with a given sum in a DLL."/>
+    <hyperlink ref="B160" r:id="rId147" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
+    <hyperlink ref="B161" r:id="rId148" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
+    <hyperlink ref="B162" r:id="rId149" display="Rotate DoublyLinked list by N nodes."/>
+    <hyperlink ref="B163" r:id="rId150" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
+    <hyperlink ref="B166" r:id="rId151" display="Flatten a Linked List"/>
+    <hyperlink ref="B167" r:id="rId152" display="Sort a LL of 0's, 1's and 2's"/>
+    <hyperlink ref="B168" r:id="rId153" display="Clone a linked list with next and random pointer"/>
+    <hyperlink ref="B169" r:id="rId154" display="Merge K sorted Linked list"/>
+    <hyperlink ref="B170" r:id="rId155" display="Multiply 2 no. represented by LL"/>
+    <hyperlink ref="B171" r:id="rId156" display="Delete nodes which have a greater value on right side"/>
+    <hyperlink ref="B172" r:id="rId157" display="Segregate even and odd nodes in a Linked List"/>
+    <hyperlink ref="B173" r:id="rId158" display="Program for n’th node from the end of a Linked List"/>
+    <hyperlink ref="B174" r:id="rId159" display="Find the first non-repeating character from a stream of characters"/>
+    <hyperlink ref="B177" r:id="rId160" display="level order traversal"/>
+    <hyperlink ref="B178" r:id="rId161" display="Reverse Level Order traversal"/>
+    <hyperlink ref="B179" r:id="rId162" display="Height of a tree"/>
+    <hyperlink ref="B180" r:id="rId163" display="Diameter of a tree"/>
+    <hyperlink ref="B181" r:id="rId164" display="Mirror of a tree"/>
+    <hyperlink ref="B182" r:id="rId165" display="Inorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B183" r:id="rId166" display="Preorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B184" r:id="rId167" display="Postorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B185" r:id="rId168" display="Left View of a tree"/>
+    <hyperlink ref="B186" r:id="rId169" display="Right View of Tree"/>
+    <hyperlink ref="B187" r:id="rId170" display="Top View of a tree"/>
+    <hyperlink ref="B188" r:id="rId171" display="Bottom View of a tree"/>
+    <hyperlink ref="B189" r:id="rId172" display="Zig-Zag traversal of a binary tree"/>
+    <hyperlink ref="B190" r:id="rId173" display="Check if a tree is balanced or not"/>
+    <hyperlink ref="B191" r:id="rId174" display="Diagnol Traversal of a Binary tree"/>
+    <hyperlink ref="B192" r:id="rId175" display="Boundary traversal of a Binary tree"/>
+    <hyperlink ref="B193" r:id="rId176" display="Construct Binary Tree from String with Bracket Representation"/>
+    <hyperlink ref="B194" r:id="rId177" display="Convert Binary tree into Doubly Linked List"/>
+    <hyperlink ref="B195" r:id="rId178" display="Convert Binary tree into Sum tree"/>
+    <hyperlink ref="B196" r:id="rId179" display="Construct Binary tree from Inorder and preorder traversal"/>
+    <hyperlink ref="B197" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
+    <hyperlink ref="B198" r:id="rId181" display="Check if Binary tree is Sum tree or not"/>
+    <hyperlink ref="B199" r:id="rId182" display="Check if all leaf nodes are at same level or not"/>
+    <hyperlink ref="B200" r:id="rId183" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
+    <hyperlink ref="B201" r:id="rId184" display="Check if 2 trees are mirror or not"/>
+    <hyperlink ref="B202" r:id="rId185" display="Sum of Nodes on the Longest path from root to leaf node "/>
+    <hyperlink ref="B203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
+    <hyperlink ref="B204" r:id="rId187" display="Find Largest subtree sum in a tree"/>
+    <hyperlink ref="B205" r:id="rId188" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
+    <hyperlink ref="B206" r:id="rId189" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
+    <hyperlink ref="B207" r:id="rId190" display="Find LCA in a Binary tree"/>
+    <hyperlink ref="B208" r:id="rId191" display="Find distance between 2 nodes in a Binary tree"/>
+    <hyperlink ref="B209" r:id="rId192" display="Kth Ancestor of node in a Binary tree"/>
+    <hyperlink ref="B210" r:id="rId193" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
+    <hyperlink ref="B211" r:id="rId194" display="Tree Isomorphism Problem"/>
+    <hyperlink ref="B214" r:id="rId195" display="Fina a value in a BST"/>
+    <hyperlink ref="B215" r:id="rId196" display="Deletion of a node in a BST"/>
+    <hyperlink ref="B216" r:id="rId197" display="Find min and max value in a BST"/>
+    <hyperlink ref="B217" r:id="rId198" display="Find inorder successor and inorder predecessor in a BST"/>
+    <hyperlink ref="B218" r:id="rId199" display="Check if a tree is a BST or not "/>
+    <hyperlink ref="B219" r:id="rId200" display="Populate Inorder successor of all nodes"/>
+    <hyperlink ref="B220" r:id="rId201" display="Find LCA  of 2 nodes in a BST"/>
+    <hyperlink ref="B221" r:id="rId202" display="Construct BST from preorder traversal"/>
+    <hyperlink ref="B222" r:id="rId203" display="Convert Binary tree into BST"/>
+    <hyperlink ref="B223" r:id="rId204" display="Convert a normal BST into a Balanced BST"/>
+    <hyperlink ref="B224" r:id="rId205" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="B225" r:id="rId206" display="Find Kth largest element in a BST"/>
+    <hyperlink ref="B226" r:id="rId207" display="Find Kth smallest element in a BST"/>
+    <hyperlink ref="B227" r:id="rId208" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
+    <hyperlink ref="B228" r:id="rId209" display="Find the median of BST in O(n) time and O(1) space"/>
+    <hyperlink ref="B229" r:id="rId210" display="Count BST ndoes that lie in a given range"/>
+    <hyperlink ref="B230" r:id="rId211" display="Replace every element with the least greater element on its right"/>
+    <hyperlink ref="B231" r:id="rId212" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
+    <hyperlink ref="B232" r:id="rId213" display="Check preorder is valid or not"/>
+    <hyperlink ref="B233" r:id="rId214" display="Check whether BST contains Dead end"/>
+    <hyperlink ref="B234" r:id="rId215" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
+    <hyperlink ref="B235" r:id="rId216" display="Flatten BST to sorted list"/>
+    <hyperlink ref="B238" r:id="rId217" display="Activity Selection Problem"/>
+    <hyperlink ref="B239" r:id="rId218" display="Job SequencingProblem"/>
+    <hyperlink ref="B240" r:id="rId219" display="Huffman Coding"/>
+    <hyperlink ref="B241" r:id="rId220" display="Water Connection Problem"/>
+    <hyperlink ref="B242" r:id="rId221" display="Fractional Knapsack Problem"/>
+    <hyperlink ref="B243" r:id="rId222" display="Greedy Algorithm to find Minimum number of Coins"/>
+    <hyperlink ref="B244" r:id="rId223" display="Maximum trains for which stoppage can be provided"/>
+    <hyperlink ref="B245" r:id="rId224" display="Minimum Platforms Problem"/>
+    <hyperlink ref="B246" r:id="rId225" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
+    <hyperlink ref="B247" r:id="rId226" display="Find the minimum and maximum amount to buy all N candies"/>
+    <hyperlink ref="B248" r:id="rId227" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B249" r:id="rId228" display="Minimum Cost to cut a board into squares"/>
+    <hyperlink ref="B250" r:id="rId229" display="Check if it is possible to survive on Island"/>
+    <hyperlink ref="B251" r:id="rId230" display="Find maximum meetings in one room"/>
+    <hyperlink ref="B252" r:id="rId231" display="Maximum product subset of an array"/>
+    <hyperlink ref="B253" r:id="rId232" display="Maximize array sum after K negations"/>
+    <hyperlink ref="B254" r:id="rId233" display="Maximize the sum of arr[i]*i"/>
+    <hyperlink ref="B255" r:id="rId234" display="Maximum sum of absolute difference of an array"/>
+    <hyperlink ref="B256" r:id="rId235" display="Maximize sum of consecutive differences in a circular array"/>
+    <hyperlink ref="B257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
+    <hyperlink ref="B258" r:id="rId237" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
+    <hyperlink ref="B259" r:id="rId238" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
+    <hyperlink ref="B260" r:id="rId239" display="Smallest subset with sum greater than all other elements"/>
+    <hyperlink ref="B261" r:id="rId240" display="Chocolate Distribution Problem"/>
+    <hyperlink ref="B262" r:id="rId241" display="DEFKIN -Defense of a Kingdom"/>
+    <hyperlink ref="B263" r:id="rId242" display="DIEHARD -DIE HARD"/>
+    <hyperlink ref="B264" r:id="rId243" display="GERGOVIA -Wine trading in Gergovia"/>
+    <hyperlink ref="B265" r:id="rId244" display="Picking Up Chicks"/>
+    <hyperlink ref="B266" r:id="rId245" display="CHOCOLA –Chocolate"/>
+    <hyperlink ref="B267" r:id="rId246" display="ARRANGE -Arranging Amplifiers"/>
+    <hyperlink ref="B268" r:id="rId247" display="K Centers Problem"/>
+    <hyperlink ref="B269" r:id="rId248" display="Minimum Cost of ropes"/>
+    <hyperlink ref="B270" r:id="rId249" display="Find smallest number with given number of digits and sum of digits"/>
+    <hyperlink ref="B271" r:id="rId250" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="B272" r:id="rId251" display="Find maximum sum possible equal sum of three stacks"/>
+    <hyperlink ref="B275" r:id="rId252" display="Rat in a maze Problem"/>
+    <hyperlink ref="B276" r:id="rId253" display="Printing all solutions in N-Queen Problem"/>
+    <hyperlink ref="B277" r:id="rId254" display="Word Break Problem using Backtracking"/>
+    <hyperlink ref="B278" r:id="rId255" display="Remove Invalid Parentheses"/>
+    <hyperlink ref="B279" r:id="rId256" display="Sudoku Solver"/>
+    <hyperlink ref="B280" r:id="rId257" display="m Coloring Problem"/>
+    <hyperlink ref="B281" r:id="rId258" display="Print all palindromic partitions of a string"/>
+    <hyperlink ref="B282" r:id="rId259" display="Subset Sum Problem"/>
+    <hyperlink ref="B283" r:id="rId260" display="The Knight’s tour problem"/>
+    <hyperlink ref="B284" r:id="rId261" display="Tug of War"/>
+    <hyperlink ref="B285" r:id="rId262" display="Find shortest safe route in a path with landmines"/>
+    <hyperlink ref="B286" r:id="rId263" display="Combinational Sum"/>
+    <hyperlink ref="B287" r:id="rId264" display="Find Maximum number possible by doing at-most K swaps"/>
+    <hyperlink ref="B288" r:id="rId265" display="Print all permutations of a string "/>
+    <hyperlink ref="B289" r:id="rId266" display="Find if there is a path of more than k length from a source"/>
+    <hyperlink ref="B290" r:id="rId267" display="Longest Possible Route in a Matrix with Hurdles"/>
+    <hyperlink ref="B291" r:id="rId268" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
+    <hyperlink ref="B292" r:id="rId269" display="Partition of a set intoK subsets with equal sum"/>
+    <hyperlink ref="B293" r:id="rId270" display="Find the K-th Permutation Sequence of first N natural numbers"/>
+    <hyperlink ref="B296" r:id="rId271" display=" Implement Stack from Scratch"/>
+    <hyperlink ref="B297" r:id="rId272" display=" Implement Queue from Scratch"/>
+    <hyperlink ref="B298" r:id="rId273" display="Implement 2 stack in an array"/>
+    <hyperlink ref="B299" r:id="rId274" display="find the middle element of a stack"/>
+    <hyperlink ref="B300" r:id="rId275" display="Implement &quot;N&quot; stacks in an Array"/>
+    <hyperlink ref="B301" r:id="rId276" display="Check the expression has valid or Balanced parenthesis or not."/>
+    <hyperlink ref="B302" r:id="rId277" display="Reverse a String using Stack"/>
+    <hyperlink ref="B303" r:id="rId278" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
+    <hyperlink ref="B304" r:id="rId279" display="Find the next Greater element"/>
+    <hyperlink ref="B305" r:id="rId280" display="The celebrity Problem"/>
+    <hyperlink ref="B306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
+    <hyperlink ref="B307" r:id="rId282" display="Evaluation of Postfix expression"/>
+    <hyperlink ref="B308" r:id="rId283" display="Implement a method to insert an element at its bottom without using any other data structure."/>
+    <hyperlink ref="B309" r:id="rId284" display="Reverse a stack using recursion"/>
+    <hyperlink ref="B310" r:id="rId285" display="Sort a Stack using recursion"/>
+    <hyperlink ref="B311" r:id="rId286" display="Merge Overlapping Intervals"/>
+    <hyperlink ref="B312" r:id="rId287" display="Largest rectangular Area in Histogram"/>
+    <hyperlink ref="B313" r:id="rId288" display="Length of the Longest Valid Substring"/>
+    <hyperlink ref="B314" r:id="rId289" display="Expression contains redundant bracket or not"/>
+    <hyperlink ref="B315" r:id="rId290" display="Implement Stack using Queue"/>
+    <hyperlink ref="B316" r:id="rId291" display="Implement Stack using Deque"/>
+    <hyperlink ref="B317" r:id="rId292" display="Stack Permutations (Check if an array is stack permutation of other)"/>
+    <hyperlink ref="B318" r:id="rId293" display="Implement Queue using Stack  "/>
+    <hyperlink ref="B319" r:id="rId294" display="Implement &quot;n&quot; queue in an array"/>
+    <hyperlink ref="B320" r:id="rId295" display="Implement a Circular queue"/>
+    <hyperlink ref="B321" r:id="rId296" display="LRU Cache Implementationa"/>
+    <hyperlink ref="B322" r:id="rId297" display="Reverse a Queue using recursion"/>
+    <hyperlink ref="B323" r:id="rId298" display="Reverse the first “K” elements of a queue"/>
+    <hyperlink ref="B324" r:id="rId299" display="Interleave the first half of the queue with second half"/>
+    <hyperlink ref="B325" r:id="rId300" display="Find the first circular tour that visits all Petrol Pumps"/>
+    <hyperlink ref="B326" r:id="rId301" display="Minimum time required to rot all oranges"/>
+    <hyperlink ref="B327" r:id="rId302" display="Distance of nearest cell having 1 in a binary matrix"/>
+    <hyperlink ref="B328" r:id="rId303" display="First negative integer in every window of size “k”"/>
+    <hyperlink ref="B329" r:id="rId304" display="Check if all levels of two trees are anagrams or not."/>
+    <hyperlink ref="B330" r:id="rId305" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
+    <hyperlink ref="B331" r:id="rId306" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
+    <hyperlink ref="B332" r:id="rId307" display="Queue based approach or first non-repeating character in a stream."/>
+    <hyperlink ref="B333" r:id="rId308" display="Next Smaller Element"/>
+    <hyperlink ref="B336" r:id="rId309" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
+    <hyperlink ref="B337" r:id="rId310" display="Sort an Array using heap. (HeapSort)"/>
+    <hyperlink ref="B338" r:id="rId311" display="Maximum of all subarrays of size k."/>
+    <hyperlink ref="B339" r:id="rId312" display="“k” largest element in an array"/>
+    <hyperlink ref="B340" r:id="rId313" display="Kth smallest and largest element in an unsorted array"/>
+    <hyperlink ref="B341" r:id="rId314" display="Merge “K” sorted arrays. [ IMP ]"/>
+    <hyperlink ref="B342" r:id="rId315" display="Merge 2 Binary Max Heaps"/>
+    <hyperlink ref="B343" r:id="rId316" display="Kth largest sum continuous subarrays"/>
+    <hyperlink ref="B344" r:id="rId317" display="Leetcode- reorganize strings"/>
+    <hyperlink ref="B345" r:id="rId318" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
+    <hyperlink ref="B346" r:id="rId319" display="Smallest range in “K” Lists"/>
+    <hyperlink ref="B347" r:id="rId320" display="Median in a stream of Integers"/>
+    <hyperlink ref="B348" r:id="rId321" display="Check if a Binary Tree is Heap"/>
+    <hyperlink ref="B349" r:id="rId322" display="Connect “n” ropes with minimum cost"/>
+    <hyperlink ref="B350" r:id="rId323" display="Convert BST to Min Heap"/>
+    <hyperlink ref="B351" r:id="rId324" display="Convert min heap to max heap"/>
+    <hyperlink ref="B352" r:id="rId325" display="Rearrange characters in a string such that no two adjacent are same."/>
+    <hyperlink ref="B353" r:id="rId326" display="Minimum sum of two numbers formed from digits of an array"/>
+    <hyperlink ref="B356" r:id="rId327" display="Create a Graph, print it"/>
+    <hyperlink ref="B357" r:id="rId328" display="Implement BFS algorithm "/>
+    <hyperlink ref="B358" r:id="rId329" display="Implement DFS Algo "/>
+    <hyperlink ref="B359" r:id="rId330" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B360" r:id="rId331" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B361" r:id="rId332" display="Search in a Maze"/>
+    <hyperlink ref="B362" r:id="rId333" display="Minimum Step by Knight"/>
+    <hyperlink ref="B363" r:id="rId334" display="flood fill algo"/>
+    <hyperlink ref="B364" r:id="rId335" display="Clone a graph"/>
+    <hyperlink ref="B365" r:id="rId336" display="Making wired Connections"/>
+    <hyperlink ref="B366" r:id="rId337" display="word Ladder "/>
+    <hyperlink ref="B367" r:id="rId338" display="Dijkstra algo"/>
+    <hyperlink ref="B368" r:id="rId339" display="Implement Topological Sort "/>
+    <hyperlink ref="B369" r:id="rId340" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
+    <hyperlink ref="B370" r:id="rId341" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
+    <hyperlink ref="B371" r:id="rId342" display="Find the no. of Isalnds"/>
+    <hyperlink ref="B372" r:id="rId343" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
+    <hyperlink ref="B373" r:id="rId344" display="Implement Kruksal’sAlgorithm"/>
+    <hyperlink ref="B374" r:id="rId345" display="Implement Prim’s Algorithm"/>
+    <hyperlink ref="B375" r:id="rId346" display="Total no. of Spanning tree in a graph"/>
+    <hyperlink ref="B376" r:id="rId347" display="Implement Bellman Ford Algorithm"/>
+    <hyperlink ref="B377" r:id="rId348" display="Implement Floyd warshallAlgorithm"/>
+    <hyperlink ref="B378" r:id="rId349" display="Travelling Salesman Problem"/>
+    <hyperlink ref="B379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
+    <hyperlink ref="B380" r:id="rId351" display="Snake and Ladders Problem"/>
+    <hyperlink ref="B381" r:id="rId352" display="Find bridge in a graph"/>
+    <hyperlink ref="B382" r:id="rId353" display="Count Strongly connected Components(Kosaraju Algo)"/>
+    <hyperlink ref="B383" r:id="rId354" display="Check whether a graph is Bipartite or Not"/>
+    <hyperlink ref="B384" r:id="rId355" display="Detect Negative cycle in a graph"/>
+    <hyperlink ref="B385" r:id="rId356" display="Longest path in a Directed Acyclic Graph"/>
+    <hyperlink ref="B386" r:id="rId357" display="Journey to the Moon"/>
+    <hyperlink ref="B387" r:id="rId358" display="Cheapest Flights Within K Stops"/>
+    <hyperlink ref="B388" r:id="rId359" display="Oliver and the Game"/>
+    <hyperlink ref="B389" r:id="rId360" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B390" r:id="rId361" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B391" r:id="rId362" display="Find if there is a path of more thank length from a source"/>
+    <hyperlink ref="B392" r:id="rId363" display="M-ColouringProblem"/>
+    <hyperlink ref="B393" r:id="rId364" display="Minimum edges to reverse o make path from source to destination"/>
+    <hyperlink ref="B394" r:id="rId365" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
+    <hyperlink ref="B395" r:id="rId366" display="Vertex Cover Problem"/>
+    <hyperlink ref="B396" r:id="rId367" display="Chinese Postman or Route Inspection"/>
+    <hyperlink ref="B397" r:id="rId368" display="Number of Triangles in a Directed and Undirected Graph"/>
+    <hyperlink ref="B398" r:id="rId369" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B399" r:id="rId370" display="Two Clique Problem"/>
+    <hyperlink ref="B402" r:id="rId371" display="Construct a trie from scratch"/>
+    <hyperlink ref="B403" r:id="rId372" display="Find shortest unique prefix for every word in a given list"/>
+    <hyperlink ref="B404" r:id="rId373" display="Word Break Problem | (Trie solution)"/>
+    <hyperlink ref="B405" r:id="rId374" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="B406" r:id="rId375" display="Implement a Phone Directory"/>
+    <hyperlink ref="B407" r:id="rId376" display="Print unique rows in a given boolean matrix"/>
+    <hyperlink ref="B410" r:id="rId377" display="Coin ChangeProblem"/>
+    <hyperlink ref="B411" r:id="rId378" display="Knapsack Problem"/>
+    <hyperlink ref="B412" r:id="rId379" display="Binomial CoefficientProblem"/>
+    <hyperlink ref="B413" r:id="rId380" display="Permutation CoefficientProblem"/>
+    <hyperlink ref="B414" r:id="rId381" display="Program for nth Catalan Number"/>
+    <hyperlink ref="B415" r:id="rId382" display="Matrix Chain Multiplication "/>
+    <hyperlink ref="B416" r:id="rId383" display="Edit Distance"/>
+    <hyperlink ref="B417" r:id="rId384" display="Subset Sum Problem"/>
+    <hyperlink ref="B418" r:id="rId385" display="Friends Pairing Problem"/>
+    <hyperlink ref="B419" r:id="rId386" display="Gold Mine Problem"/>
+    <hyperlink ref="B420" r:id="rId387" display="Assembly Line SchedulingProblem"/>
+    <hyperlink ref="B421" r:id="rId388" display="Painting the Fenceproblem"/>
+    <hyperlink ref="B422" r:id="rId389" display="Maximize The Cut Segments"/>
+    <hyperlink ref="B423" r:id="rId390" display="Longest Common Subsequence"/>
+    <hyperlink ref="B424" r:id="rId391" display="Longest Repeated Subsequence"/>
+    <hyperlink ref="B425" r:id="rId392" display="Longest Increasing Subsequence"/>
+    <hyperlink ref="B426" r:id="rId393" display="Space Optimized Solution of LCS"/>
+    <hyperlink ref="B427" r:id="rId394" display="LCS (Longest Common Subsequence) of three strings"/>
+    <hyperlink ref="B428" r:id="rId395" display="Maximum Sum Increasing Subsequence"/>
+    <hyperlink ref="B429" r:id="rId396" display="Count all subsequences having product less than K"/>
+    <hyperlink ref="B430" r:id="rId397" display="Longest subsequence such that difference between adjacent is one"/>
+    <hyperlink ref="B431" r:id="rId398" display="Maximum subsequence sum such that no three are consecutive"/>
+    <hyperlink ref="B432" r:id="rId399" display="Egg Dropping Problem"/>
+    <hyperlink ref="B433" r:id="rId400" display="Maximum Length Chain of Pairs"/>
+    <hyperlink ref="B434" r:id="rId401" display="Maximum size square sub-matrix with all 1s"/>
+    <hyperlink ref="B435" r:id="rId402" display="Maximum sum of pairs with specific difference"/>
+    <hyperlink ref="B436" r:id="rId403" display="Min Cost PathProblem"/>
+    <hyperlink ref="B437" r:id="rId404" display="Maximum difference of zeros and ones in binary string"/>
+    <hyperlink ref="B438" r:id="rId405" display="Minimum number of jumps to reach end"/>
+    <hyperlink ref="B439" r:id="rId406" display="Minimum cost to fill given weight in a bag"/>
+    <hyperlink ref="B440" r:id="rId407" display="Minimum removals from array to make max –min &lt;= K"/>
+    <hyperlink ref="B441" r:id="rId408" display="Longest Common Substring"/>
+    <hyperlink ref="B442" r:id="rId409" display="Count number of ways to reacha given score in a game"/>
+    <hyperlink ref="B443" r:id="rId410" display="Count Balanced Binary Trees of Height h"/>
+    <hyperlink ref="B444" r:id="rId411" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
+    <hyperlink ref="B445" r:id="rId412" display="Smallest sum contiguous subarray"/>
+    <hyperlink ref="B446" r:id="rId413" display="Unbounded Knapsack (Repetition of items allowed)"/>
+    <hyperlink ref="B447" r:id="rId414" display="Word Break Problem"/>
+    <hyperlink ref="B448" r:id="rId415" display="Largest Independent Set Problem"/>
+    <hyperlink ref="B449" r:id="rId416" display="Partition problem"/>
+    <hyperlink ref="B450" r:id="rId417" display="Longest Palindromic Subsequence"/>
+    <hyperlink ref="B451" r:id="rId418" display="Count All Palindromic Subsequence in a given String"/>
+    <hyperlink ref="B452" r:id="rId419" display="Longest Palindromic Substring"/>
+    <hyperlink ref="B453" r:id="rId420" display="Longest alternating subsequence"/>
+    <hyperlink ref="B454" r:id="rId421" display="Weighted Job Scheduling"/>
+    <hyperlink ref="B455" r:id="rId422" display="Coin game winner where every player has three choices"/>
+    <hyperlink ref="B456" r:id="rId423" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
+    <hyperlink ref="B457" r:id="rId424" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
+    <hyperlink ref="B458" r:id="rId425" display="Optimal Strategy for a Game"/>
+    <hyperlink ref="B459" r:id="rId426" display="Optimal Binary Search Tree"/>
+    <hyperlink ref="B460" r:id="rId427" display="Palindrome PartitioningProblem"/>
+    <hyperlink ref="B461" r:id="rId428" display="Word Wrap Problem"/>
+    <hyperlink ref="B462" r:id="rId429" display="Mobile Numeric Keypad Problem [ IMP ]"/>
+    <hyperlink ref="B463" r:id="rId430" display="Boolean Parenthesization Problem"/>
+    <hyperlink ref="B464" r:id="rId431" display="Largest rectangular sub-matrix whose sum is 0"/>
+    <hyperlink ref="B465" r:id="rId432" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
+    <hyperlink ref="B466" r:id="rId433" display="Maximum sum rectangle in a 2D matrix"/>
+    <hyperlink ref="B467" r:id="rId434" display="Maximum profit by buying and selling a share at most k times"/>
+    <hyperlink ref="B468" r:id="rId435" display="Find if a string is interleaved of two other strings"/>
+    <hyperlink ref="B469" r:id="rId436" display="Maximum Length of Pair Chain"/>
+    <hyperlink ref="B472" r:id="rId437" display="Count set bits in an integer"/>
+    <hyperlink ref="B473" r:id="rId438" display="Find the two non-repeating elements in an array of repeating elements"/>
+    <hyperlink ref="B474" r:id="rId439" display="Count number of bits to be flipped to convert A to B"/>
+    <hyperlink ref="B475" r:id="rId440" display="Count total set bits in all numbers from 1 to n"/>
+    <hyperlink ref="B476" r:id="rId441" display="Program to find whether a no is power of two"/>
+    <hyperlink ref="B477" r:id="rId442" display="Find position of the only set bit"/>
+    <hyperlink ref="B478" r:id="rId443" display="Copy set bits in a range"/>
+    <hyperlink ref="B479" r:id="rId444" display="Divide two integers without using multiplication, division and mod operator"/>
+    <hyperlink ref="B480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
+    <hyperlink ref="B481" r:id="rId446" display="Power Set"/>
   </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1703,10 +1703,10 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A335" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B341" activeCellId="0" sqref="B341"/>
+      <selection pane="topLeft" activeCell="B345" activeCellId="0" sqref="B345"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -5303,7 +5303,7 @@
       <c r="A343" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B343" s="7" t="s">
+      <c r="B343" s="13" t="s">
         <v>333</v>
       </c>
       <c r="C343" s="5" t="s">
@@ -5325,7 +5325,7 @@
       <c r="A345" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B345" s="7" t="s">
+      <c r="B345" s="13" t="s">
         <v>335</v>
       </c>
       <c r="C345" s="5" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\DSA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F586E1E1-F85E-4F9E-AC2A-382CA84F3073}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,13 +27,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="465">
   <si>
-    <t xml:space="preserve">Questions by Love Babbar:</t>
+    <t>Questions by Love Babbar:</t>
   </si>
   <si>
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
   </si>
   <si>
-    <t xml:space="preserve">Topic:</t>
+    <t>Topic:</t>
   </si>
   <si>
     <t xml:space="preserve">Problem: </t>
@@ -37,850 +42,850 @@
     <t xml:space="preserve">Done [yes or no] </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;-&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse the array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the maximum and minimum element in an array</t>
+    <t>&lt;-&gt;</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Reverse the array</t>
+  </si>
+  <si>
+    <t>Find the maximum and minimum element in an array</t>
   </si>
   <si>
     <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
   </si>
   <si>
-    <t xml:space="preserve">Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
+    <t>Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
   </si>
   <si>
     <t xml:space="preserve">Move all the negative elements to one side of the array </t>
   </si>
   <si>
-    <t xml:space="preserve">Find the Union and Intersection of the two sorted arrays.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program to cyclically rotate an array by one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find Largest sum contiguous Subarray [V. IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimise the maximum difference between heights [V.IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum no. of Jumps to reach end of an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find duplicate in an array of N+1 Integers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge 2 sorted arrays without using Extra space.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kadane's Algo [V.V.V.V.V IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge Intervals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Next Permutation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count Inversion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best time to buy and Sell stock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find all pairs on integer array whose sum is equal to given number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find common elements In 3 sorted arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rearrange the array in alternating positive and negative items with O(1) extra space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find if there is any subarray with sum equal to 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find factorial of a large number</t>
+    <t>Find the Union and Intersection of the two sorted arrays.</t>
+  </si>
+  <si>
+    <t>Write a program to cyclically rotate an array by one.</t>
+  </si>
+  <si>
+    <t>find Largest sum contiguous Subarray [V. IMP]</t>
+  </si>
+  <si>
+    <t>Minimise the maximum difference between heights [V.IMP]</t>
+  </si>
+  <si>
+    <t>Minimum no. of Jumps to reach end of an array</t>
+  </si>
+  <si>
+    <t>find duplicate in an array of N+1 Integers</t>
+  </si>
+  <si>
+    <t>Merge 2 sorted arrays without using Extra space.</t>
+  </si>
+  <si>
+    <t>Kadane's Algo [V.V.V.V.V IMP]</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>Count Inversion</t>
+  </si>
+  <si>
+    <t>Best time to buy and Sell stock</t>
+  </si>
+  <si>
+    <t>find all pairs on integer array whose sum is equal to given number</t>
+  </si>
+  <si>
+    <t>find common elements In 3 sorted arrays</t>
+  </si>
+  <si>
+    <t>Rearrange the array in alternating positive and negative items with O(1) extra space</t>
+  </si>
+  <si>
+    <t>Find if there is any subarray with sum equal to 0</t>
+  </si>
+  <si>
+    <t>Find factorial of a large number</t>
   </si>
   <si>
     <t xml:space="preserve">find maximum product subarray </t>
   </si>
   <si>
-    <t xml:space="preserve">Find longest coinsecutive subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given an array of size n and a number k, fin all elements that appear more than " n/k " times.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum profit by buying and selling a share atmost twice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find whether an array is a subset of another array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the triplet that sum to a given value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trapping Rain water problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chocolate Distribution problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smallest Subarray with sum greater than a given value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Three way partitioning of an array around a given value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum swaps required bring elements less equal K together</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum no. of operations required to make an array palindrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median of 2 sorted arrays of equal size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median of 2 sorted arrays of different size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spiral traversal on a Matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search an element in a matriix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find median in a row wise sorted matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find row with maximum no. of 1's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print elements in sorted order using row-column wise sorted matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum size rectangle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a specific pair in matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotate matrix by 90 degrees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth smallest element in a row-cpumn wise sorted matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Common elements in all rows of a given matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check whether a String is Palindrome or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Duplicate characters in a string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why strings are immutable in Java?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a Code to check whether one string is a rotation of another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a Program to check whether a string is a valid shuffle of two strings or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count and Say problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Longest Recurring Subsequence in String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print all Subsequences of a string.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print all the permutations of the given string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Split the Binary string into two substring with equal 0’s and 1’s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word Wrap Problem [VERY IMP].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDIT Distance [Very Imp]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find next greater number with same set of digits. [Very Very IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balanced Parenthesis problem.[Imp]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word break Problem[ Very Imp]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rabin Karp Algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KMP Algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert a Sentence into its equivalent mobile numeric keypad sequence.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum number of bracket reversals needed to make an expression balanced.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count All Palindromic Subsequence in a given String.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count of number of given string in 2D character array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search a Word in a 2D Grid of characters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boyer Moore Algorithm for Pattern Searching.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Converting Roman Numerals to Decimal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Common Prefix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of flips to make binary string alternate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the first repeated word in string.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum number of swaps for bracket balancing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the longest common subsequence between two strings.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program to generate all possible valid IP addresses from given  string.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program tofind the smallest window that contains all characters of string itself.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rearrange characters in a string such that no two adjacent are same</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum characters to be added at front to make string palindrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a sequence of words, print all anagrams together</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the smallest window in a string containing all characters of another string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recursively remove all adjacent duplicates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String matching where one string contains wildcard characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Function to find Number of customers who could not get a computer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transform One String to Another using Minimum Number of Given Operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if two given strings are isomorphic to each other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recursively print all sentences that can be formed from list of word lists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Searching &amp; Sorting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find first and last positions of an element in a sorted array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find a Fixed Point (Value equal to index) in a given array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search in a rotated sorted array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">square root of an integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum and minimum of an array using minimum number of comparisons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimum location of point to minimize total distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the repeating and the missing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find majority element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Searching in an array where adjacent differ by at most k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find a pair with a given difference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find four elements that sum to a given value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maximum sum such that no 2 elements are adjacent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count triplet with sum smaller than a given value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merge 2 sorted arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">print all subarrays with 0 sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product array Puzzle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort array according to count of set bits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minimum no. of swaps required to sort the array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bishu and Soldiers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rasta and Kheshtak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth smallest number again</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find pivot element in a sorted array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K-th Element of Two Sorted Arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aggressive cows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Book Allocation Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKOSPOJ:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job Scheduling Algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missing Number in AP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smallest number with atleastn trailing zeroes infactorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Painters Partition Problem:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROTI-Prata SPOJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DoubleHelix SPOJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subset Sums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Findthe inversion count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Merge-sort in-place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partitioning and Sorting Arrays with Many Repeated Entries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LinkedList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a Program to reverse the Linked List. (Both Iterative and recursive)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a Linked List in group of Given Size. [Very Imp]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program to Detect loop in a linked list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a program to Delete loop in a linked list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the starting point of the loop. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Duplicates in a sorted Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Duplicates in a Un-sorted Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a Program to Move the last element to Front in a Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add “1” to a number represented as a Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add two numbers represented by linked lists.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intersection of two Sorted Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intersection Point of two Linked Lists.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge Sort For Linked lists.[Very Important]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quicksort for Linked Lists.[Very Important]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the middle Element of a linked list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if a linked list is a circular linked list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Split a Circular linked list into two halves.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write a Program to check whether the Singly Linked list is a palindrome or not.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deletion from a Circular Linked List.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a Doubly Linked list.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find pairs with a given sum in a DLL.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count triplets in a sorted DLL whose sum is equal to given value “X”.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort a “k”sorted Doubly Linked list.[Very IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotate DoublyLinked list by N nodes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotate a Doubly Linked list in group of Given Size.[Very IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can we reverse a linked list in less than O(n) ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Why Quicksort is preferred for. Arrays and Merge Sort for LinkedLists ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flatten a Linked List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort a LL of 0's, 1's and 2's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clone a linked list with next and random pointer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge K sorted Linked list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiply 2 no. represented by LL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete nodes which have a greater value on right side</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segregate even and odd nodes in a Linked List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program for n’th node from the end of a Linked List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the first non-repeating character from a stream of characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binary Trees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">level order traversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse Level Order traversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Height of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diameter of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mirror of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Left View of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Right View of Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Top View of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bottom View of a tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zig-Zag traversal of a binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if a tree is balanced or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diagnol Traversal of a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boundary traversal of a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct Binary Tree from String with Bracket Representation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert Binary tree into Doubly Linked List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert Binary tree into Sum tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct Binary tree from Inorder and preorder traversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find minimum swaps required to convert a Binary tree into BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if Binary tree is Sum tree or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if all leaf nodes are at same level or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if 2 trees are mirror or not</t>
+    <t>Find longest coinsecutive subsequence</t>
+  </si>
+  <si>
+    <t>Given an array of size n and a number k, fin all elements that appear more than " n/k " times.</t>
+  </si>
+  <si>
+    <t>Maximum profit by buying and selling a share atmost twice</t>
+  </si>
+  <si>
+    <t>Find whether an array is a subset of another array</t>
+  </si>
+  <si>
+    <t>Find the triplet that sum to a given value</t>
+  </si>
+  <si>
+    <t>Trapping Rain water problem</t>
+  </si>
+  <si>
+    <t>Chocolate Distribution problem</t>
+  </si>
+  <si>
+    <t>Smallest Subarray with sum greater than a given value</t>
+  </si>
+  <si>
+    <t>Three way partitioning of an array around a given value</t>
+  </si>
+  <si>
+    <t>Minimum swaps required bring elements less equal K together</t>
+  </si>
+  <si>
+    <t>Minimum no. of operations required to make an array palindrome</t>
+  </si>
+  <si>
+    <t>Median of 2 sorted arrays of equal size</t>
+  </si>
+  <si>
+    <t>Median of 2 sorted arrays of different size</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>Spiral traversal on a Matrix</t>
+  </si>
+  <si>
+    <t>Search an element in a matriix</t>
+  </si>
+  <si>
+    <t>Find median in a row wise sorted matrix</t>
+  </si>
+  <si>
+    <t>Find row with maximum no. of 1's</t>
+  </si>
+  <si>
+    <t>Print elements in sorted order using row-column wise sorted matrix</t>
+  </si>
+  <si>
+    <t>Maximum size rectangle</t>
+  </si>
+  <si>
+    <t>Find a specific pair in matrix</t>
+  </si>
+  <si>
+    <t>Rotate matrix by 90 degrees</t>
+  </si>
+  <si>
+    <t>Kth smallest element in a row-cpumn wise sorted matrix</t>
+  </si>
+  <si>
+    <t>Common elements in all rows of a given matrix</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Reverse a String</t>
+  </si>
+  <si>
+    <t>Check whether a String is Palindrome or not</t>
+  </si>
+  <si>
+    <t>Find Duplicate characters in a string</t>
+  </si>
+  <si>
+    <t>Why strings are immutable in Java?</t>
+  </si>
+  <si>
+    <t>Write a Code to check whether one string is a rotation of another</t>
+  </si>
+  <si>
+    <t>Write a Program to check whether a string is a valid shuffle of two strings or not</t>
+  </si>
+  <si>
+    <t>Count and Say problem</t>
+  </si>
+  <si>
+    <t>Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]</t>
+  </si>
+  <si>
+    <t>Find Longest Recurring Subsequence in String</t>
+  </si>
+  <si>
+    <t>Print all Subsequences of a string.</t>
+  </si>
+  <si>
+    <t>Print all the permutations of the given string</t>
+  </si>
+  <si>
+    <t>Split the Binary string into two substring with equal 0’s and 1’s</t>
+  </si>
+  <si>
+    <t>Word Wrap Problem [VERY IMP].</t>
+  </si>
+  <si>
+    <t>EDIT Distance [Very Imp]</t>
+  </si>
+  <si>
+    <t>Find next greater number with same set of digits. [Very Very IMP]</t>
+  </si>
+  <si>
+    <t>Balanced Parenthesis problem.[Imp]</t>
+  </si>
+  <si>
+    <t>Word break Problem[ Very Imp]</t>
+  </si>
+  <si>
+    <t>Rabin Karp Algo</t>
+  </si>
+  <si>
+    <t>KMP Algo</t>
+  </si>
+  <si>
+    <t>Convert a Sentence into its equivalent mobile numeric keypad sequence.</t>
+  </si>
+  <si>
+    <t>Minimum number of bracket reversals needed to make an expression balanced.</t>
+  </si>
+  <si>
+    <t>Count All Palindromic Subsequence in a given String.</t>
+  </si>
+  <si>
+    <t>Count of number of given string in 2D character array</t>
+  </si>
+  <si>
+    <t>Search a Word in a 2D Grid of characters.</t>
+  </si>
+  <si>
+    <t>Boyer Moore Algorithm for Pattern Searching.</t>
+  </si>
+  <si>
+    <t>Converting Roman Numerals to Decimal</t>
+  </si>
+  <si>
+    <t>Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>Number of flips to make binary string alternate</t>
+  </si>
+  <si>
+    <t>Find the first repeated word in string.</t>
+  </si>
+  <si>
+    <t>Minimum number of swaps for bracket balancing.</t>
+  </si>
+  <si>
+    <t>Find the longest common subsequence between two strings.</t>
+  </si>
+  <si>
+    <t>Program to generate all possible valid IP addresses from given  string.</t>
+  </si>
+  <si>
+    <t>Write a program tofind the smallest window that contains all characters of string itself.</t>
+  </si>
+  <si>
+    <t>Rearrange characters in a string such that no two adjacent are same</t>
+  </si>
+  <si>
+    <t>Minimum characters to be added at front to make string palindrome</t>
+  </si>
+  <si>
+    <t>Given a sequence of words, print all anagrams together</t>
+  </si>
+  <si>
+    <t>Find the smallest window in a string containing all characters of another string</t>
+  </si>
+  <si>
+    <t>Recursively remove all adjacent duplicates</t>
+  </si>
+  <si>
+    <t>String matching where one string contains wildcard characters</t>
+  </si>
+  <si>
+    <t>Function to find Number of customers who could not get a computer</t>
+  </si>
+  <si>
+    <t>Transform One String to Another using Minimum Number of Given Operation</t>
+  </si>
+  <si>
+    <t>Check if two given strings are isomorphic to each other</t>
+  </si>
+  <si>
+    <t>Recursively print all sentences that can be formed from list of word lists</t>
+  </si>
+  <si>
+    <t>Searching &amp; Sorting</t>
+  </si>
+  <si>
+    <t>Find first and last positions of an element in a sorted array</t>
+  </si>
+  <si>
+    <t>Find a Fixed Point (Value equal to index) in a given array</t>
+  </si>
+  <si>
+    <t>Search in a rotated sorted array</t>
+  </si>
+  <si>
+    <t>square root of an integer</t>
+  </si>
+  <si>
+    <t>Maximum and minimum of an array using minimum number of comparisons</t>
+  </si>
+  <si>
+    <t>Optimum location of point to minimize total distance</t>
+  </si>
+  <si>
+    <t>Find the repeating and the missing</t>
+  </si>
+  <si>
+    <t>find majority element</t>
+  </si>
+  <si>
+    <t>Searching in an array where adjacent differ by at most k</t>
+  </si>
+  <si>
+    <t>find a pair with a given difference</t>
+  </si>
+  <si>
+    <t>find four elements that sum to a given value</t>
+  </si>
+  <si>
+    <t>maximum sum such that no 2 elements are adjacent</t>
+  </si>
+  <si>
+    <t>Count triplet with sum smaller than a given value</t>
+  </si>
+  <si>
+    <t>merge 2 sorted arrays</t>
+  </si>
+  <si>
+    <t>print all subarrays with 0 sum</t>
+  </si>
+  <si>
+    <t>Product array Puzzle</t>
+  </si>
+  <si>
+    <t>Sort array according to count of set bits</t>
+  </si>
+  <si>
+    <t>minimum no. of swaps required to sort the array</t>
+  </si>
+  <si>
+    <t>Bishu and Soldiers</t>
+  </si>
+  <si>
+    <t>Rasta and Kheshtak</t>
+  </si>
+  <si>
+    <t>Kth smallest number again</t>
+  </si>
+  <si>
+    <t>Find pivot element in a sorted array</t>
+  </si>
+  <si>
+    <t>K-th Element of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Aggressive cows</t>
+  </si>
+  <si>
+    <t>Book Allocation Problem</t>
+  </si>
+  <si>
+    <t>EKOSPOJ:</t>
+  </si>
+  <si>
+    <t>Job Scheduling Algo</t>
+  </si>
+  <si>
+    <t>Missing Number in AP</t>
+  </si>
+  <si>
+    <t>Smallest number with atleastn trailing zeroes infactorial</t>
+  </si>
+  <si>
+    <t>Painters Partition Problem:</t>
+  </si>
+  <si>
+    <t>ROTI-Prata SPOJ</t>
+  </si>
+  <si>
+    <t>DoubleHelix SPOJ</t>
+  </si>
+  <si>
+    <t>Subset Sums</t>
+  </si>
+  <si>
+    <t>Findthe inversion count</t>
+  </si>
+  <si>
+    <t>Implement Merge-sort in-place</t>
+  </si>
+  <si>
+    <t>Partitioning and Sorting Arrays with Many Repeated Entries</t>
+  </si>
+  <si>
+    <t>LinkedList</t>
+  </si>
+  <si>
+    <t>Write a Program to reverse the Linked List. (Both Iterative and recursive)</t>
+  </si>
+  <si>
+    <t>Reverse a Linked List in group of Given Size. [Very Imp]</t>
+  </si>
+  <si>
+    <t>Write a program to Detect loop in a linked list.</t>
+  </si>
+  <si>
+    <t>Write a program to Delete loop in a linked list.</t>
+  </si>
+  <si>
+    <t>Find the starting point of the loop. </t>
+  </si>
+  <si>
+    <t>Remove Duplicates in a sorted Linked List.</t>
+  </si>
+  <si>
+    <t>Remove Duplicates in a Un-sorted Linked List.</t>
+  </si>
+  <si>
+    <t>Write a Program to Move the last element to Front in a Linked List.</t>
+  </si>
+  <si>
+    <t>Add “1” to a number represented as a Linked List.</t>
+  </si>
+  <si>
+    <t>Add two numbers represented by linked lists.</t>
+  </si>
+  <si>
+    <t>Intersection of two Sorted Linked List.</t>
+  </si>
+  <si>
+    <t>Intersection Point of two Linked Lists.</t>
+  </si>
+  <si>
+    <t>Merge Sort For Linked lists.[Very Important]</t>
+  </si>
+  <si>
+    <t>Quicksort for Linked Lists.[Very Important]</t>
+  </si>
+  <si>
+    <t>Find the middle Element of a linked list.</t>
+  </si>
+  <si>
+    <t>Check if a linked list is a circular linked list.</t>
+  </si>
+  <si>
+    <t>Split a Circular linked list into two halves.</t>
+  </si>
+  <si>
+    <t>Write a Program to check whether the Singly Linked list is a palindrome or not.</t>
+  </si>
+  <si>
+    <t>Deletion from a Circular Linked List.</t>
+  </si>
+  <si>
+    <t>Reverse a Doubly Linked list.</t>
+  </si>
+  <si>
+    <t>Find pairs with a given sum in a DLL.</t>
+  </si>
+  <si>
+    <t>Count triplets in a sorted DLL whose sum is equal to given value “X”.</t>
+  </si>
+  <si>
+    <t>Sort a “k”sorted Doubly Linked list.[Very IMP]</t>
+  </si>
+  <si>
+    <t>Rotate DoublyLinked list by N nodes.</t>
+  </si>
+  <si>
+    <t>Rotate a Doubly Linked list in group of Given Size.[Very IMP]</t>
+  </si>
+  <si>
+    <t>Can we reverse a linked list in less than O(n) ?</t>
+  </si>
+  <si>
+    <t>Why Quicksort is preferred for. Arrays and Merge Sort for LinkedLists ?</t>
+  </si>
+  <si>
+    <t>Flatten a Linked List</t>
+  </si>
+  <si>
+    <t>Sort a LL of 0's, 1's and 2's</t>
+  </si>
+  <si>
+    <t>Clone a linked list with next and random pointer</t>
+  </si>
+  <si>
+    <t>Merge K sorted Linked list</t>
+  </si>
+  <si>
+    <t>Multiply 2 no. represented by LL</t>
+  </si>
+  <si>
+    <t>Delete nodes which have a greater value on right side</t>
+  </si>
+  <si>
+    <t>Segregate even and odd nodes in a Linked List</t>
+  </si>
+  <si>
+    <t>Program for n’th node from the end of a Linked List</t>
+  </si>
+  <si>
+    <t>Find the first non-repeating character from a stream of characters</t>
+  </si>
+  <si>
+    <t>Binary Trees</t>
+  </si>
+  <si>
+    <t>level order traversal</t>
+  </si>
+  <si>
+    <t>Reverse Level Order traversal</t>
+  </si>
+  <si>
+    <t>Height of a tree</t>
+  </si>
+  <si>
+    <t>Diameter of a tree</t>
+  </si>
+  <si>
+    <t>Mirror of a tree</t>
+  </si>
+  <si>
+    <t>Inorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t>Preorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t>Postorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t>Left View of a tree</t>
+  </si>
+  <si>
+    <t>Right View of Tree</t>
+  </si>
+  <si>
+    <t>Top View of a tree</t>
+  </si>
+  <si>
+    <t>Bottom View of a tree</t>
+  </si>
+  <si>
+    <t>Zig-Zag traversal of a binary tree</t>
+  </si>
+  <si>
+    <t>Check if a tree is balanced or not</t>
+  </si>
+  <si>
+    <t>Diagnol Traversal of a Binary tree</t>
+  </si>
+  <si>
+    <t>Boundary traversal of a Binary tree</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from String with Bracket Representation</t>
+  </si>
+  <si>
+    <t>Convert Binary tree into Doubly Linked List</t>
+  </si>
+  <si>
+    <t>Convert Binary tree into Sum tree</t>
+  </si>
+  <si>
+    <t>Construct Binary tree from Inorder and preorder traversal</t>
+  </si>
+  <si>
+    <t>Find minimum swaps required to convert a Binary tree into BST</t>
+  </si>
+  <si>
+    <t>Check if Binary tree is Sum tree or not</t>
+  </si>
+  <si>
+    <t>Check if all leaf nodes are at same level or not</t>
+  </si>
+  <si>
+    <t>Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]</t>
+  </si>
+  <si>
+    <t>Check if 2 trees are mirror or not</t>
   </si>
   <si>
     <t xml:space="preserve">Sum of Nodes on the Longest path from root to leaf node </t>
   </si>
   <si>
-    <t xml:space="preserve">Check if given graph is tree or not.  [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Largest subtree sum in a tree</t>
+    <t>Check if given graph is tree or not.  [ IMP ]</t>
+  </si>
+  <si>
+    <t>Find Largest subtree sum in a tree</t>
   </si>
   <si>
     <t xml:space="preserve">Maximum Sum of nodes in Binary tree such that no two are adjacent </t>
   </si>
   <si>
-    <t xml:space="preserve">Print all "K" Sum paths in a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find LCA in a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find distance between 2 nodes in a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth Ancestor of node in a Binary tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find all Duplicate subtrees in a Binary tree [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tree Isomorphism Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binary Search Trees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fina a value in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deletion of a node in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find min and max value in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find inorder successor and inorder predecessor in a BST</t>
+    <t>Print all "K" Sum paths in a Binary tree</t>
+  </si>
+  <si>
+    <t>Find LCA in a Binary tree</t>
+  </si>
+  <si>
+    <t>Find distance between 2 nodes in a Binary tree</t>
+  </si>
+  <si>
+    <t>Kth Ancestor of node in a Binary tree</t>
+  </si>
+  <si>
+    <t>Find all Duplicate subtrees in a Binary tree [ IMP ]</t>
+  </si>
+  <si>
+    <t>Tree Isomorphism Problem</t>
+  </si>
+  <si>
+    <t>Binary Search Trees</t>
+  </si>
+  <si>
+    <t>Fina a value in a BST</t>
+  </si>
+  <si>
+    <t>Deletion of a node in a BST</t>
+  </si>
+  <si>
+    <t>Find min and max value in a BST</t>
+  </si>
+  <si>
+    <t>Find inorder successor and inorder predecessor in a BST</t>
   </si>
   <si>
     <t xml:space="preserve">Check if a tree is a BST or not </t>
   </si>
   <si>
-    <t xml:space="preserve">Populate Inorder successor of all nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find LCA  of 2 nodes in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct BST from preorder traversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert Binary tree into BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert a normal BST into a Balanced BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge two BST [ V.V.V&gt;IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Kth largest element in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Kth smallest element in a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count pairs from 2 BST whose sum is equal to given value "X"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the median of BST in O(n) time and O(1) space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count BST ndoes that lie in a given range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Replace every element with the least greater element on its right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given "n" appointments, find the conflicting appointments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check preorder is valid or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check whether BST contains Dead end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largest BST in a Binary Tree [ V.V.V.V.V IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flatten BST to sorted list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greedy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activity Selection Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job SequencingProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huffman Coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Connection Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fractional Knapsack Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greedy Algorithm to find Minimum number of Coins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum trains for which stoppage can be provided</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Platforms Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buy Maximum Stocks if i stocks can be bought on i-th day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the minimum and maximum amount to buy all N candies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimize Cash Flow among a given set of friends who have borrowed money from each other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Cost to cut a board into squares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if it is possible to survive on Island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find maximum meetings in one room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum product subset of an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximize array sum after K negations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximize the sum of arr[i]*i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum sum of absolute difference of an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximize sum of consecutive differences in a circular array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum sum of absolute difference of pairs of two arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program for Shortest Job First (or SJF) CPU Scheduling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program for Least Recently Used (LRU) Page Replacement algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smallest subset with sum greater than all other elements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chocolate Distribution Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFKIN -Defense of a Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIEHARD -DIE HARD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GERGOVIA -Wine trading in Gergovia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Picking Up Chicks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHOCOLA –Chocolate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARRANGE -Arranging Amplifiers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K Centers Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Cost of ropes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find smallest number with given number of digits and sum of digits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find maximum sum possible equal sum of three stacks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackTracking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rat in a maze Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Printing all solutions in N-Queen Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word Break Problem using Backtracking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Invalid Parentheses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudoku Solver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m Coloring Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print all palindromic partitions of a string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subset Sum Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Knight’s tour problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tug of War</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find shortest safe route in a path with landmines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combinational Sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find Maximum number possible by doing at-most K swaps</t>
+    <t>Populate Inorder successor of all nodes</t>
+  </si>
+  <si>
+    <t>Find LCA  of 2 nodes in a BST</t>
+  </si>
+  <si>
+    <t>Construct BST from preorder traversal</t>
+  </si>
+  <si>
+    <t>Convert Binary tree into BST</t>
+  </si>
+  <si>
+    <t>Convert a normal BST into a Balanced BST</t>
+  </si>
+  <si>
+    <t>Merge two BST [ V.V.V&gt;IMP ]</t>
+  </si>
+  <si>
+    <t>Find Kth largest element in a BST</t>
+  </si>
+  <si>
+    <t>Find Kth smallest element in a BST</t>
+  </si>
+  <si>
+    <t>Count pairs from 2 BST whose sum is equal to given value "X"</t>
+  </si>
+  <si>
+    <t>Find the median of BST in O(n) time and O(1) space</t>
+  </si>
+  <si>
+    <t>Count BST ndoes that lie in a given range</t>
+  </si>
+  <si>
+    <t>Replace every element with the least greater element on its right</t>
+  </si>
+  <si>
+    <t>Given "n" appointments, find the conflicting appointments</t>
+  </si>
+  <si>
+    <t>Check preorder is valid or not</t>
+  </si>
+  <si>
+    <t>Check whether BST contains Dead end</t>
+  </si>
+  <si>
+    <t>Largest BST in a Binary Tree [ V.V.V.V.V IMP ]</t>
+  </si>
+  <si>
+    <t>Flatten BST to sorted list</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>Activity Selection Problem</t>
+  </si>
+  <si>
+    <t>Job SequencingProblem</t>
+  </si>
+  <si>
+    <t>Huffman Coding</t>
+  </si>
+  <si>
+    <t>Water Connection Problem</t>
+  </si>
+  <si>
+    <t>Fractional Knapsack Problem</t>
+  </si>
+  <si>
+    <t>Greedy Algorithm to find Minimum number of Coins</t>
+  </si>
+  <si>
+    <t>Maximum trains for which stoppage can be provided</t>
+  </si>
+  <si>
+    <t>Minimum Platforms Problem</t>
+  </si>
+  <si>
+    <t>Buy Maximum Stocks if i stocks can be bought on i-th day</t>
+  </si>
+  <si>
+    <t>Find the minimum and maximum amount to buy all N candies</t>
+  </si>
+  <si>
+    <t>Minimize Cash Flow among a given set of friends who have borrowed money from each other</t>
+  </si>
+  <si>
+    <t>Minimum Cost to cut a board into squares</t>
+  </si>
+  <si>
+    <t>Check if it is possible to survive on Island</t>
+  </si>
+  <si>
+    <t>Find maximum meetings in one room</t>
+  </si>
+  <si>
+    <t>Maximum product subset of an array</t>
+  </si>
+  <si>
+    <t>Maximize array sum after K negations</t>
+  </si>
+  <si>
+    <t>Maximize the sum of arr[i]*i</t>
+  </si>
+  <si>
+    <t>Maximum sum of absolute difference of an array</t>
+  </si>
+  <si>
+    <t>Maximize sum of consecutive differences in a circular array</t>
+  </si>
+  <si>
+    <t>Minimum sum of absolute difference of pairs of two arrays</t>
+  </si>
+  <si>
+    <t>Program for Shortest Job First (or SJF) CPU Scheduling</t>
+  </si>
+  <si>
+    <t>Program for Least Recently Used (LRU) Page Replacement algorithm</t>
+  </si>
+  <si>
+    <t>Smallest subset with sum greater than all other elements</t>
+  </si>
+  <si>
+    <t>Chocolate Distribution Problem</t>
+  </si>
+  <si>
+    <t>DEFKIN -Defense of a Kingdom</t>
+  </si>
+  <si>
+    <t>DIEHARD -DIE HARD</t>
+  </si>
+  <si>
+    <t>GERGOVIA -Wine trading in Gergovia</t>
+  </si>
+  <si>
+    <t>Picking Up Chicks</t>
+  </si>
+  <si>
+    <t>CHOCOLA –Chocolate</t>
+  </si>
+  <si>
+    <t>ARRANGE -Arranging Amplifiers</t>
+  </si>
+  <si>
+    <t>K Centers Problem</t>
+  </si>
+  <si>
+    <t>Minimum Cost of ropes</t>
+  </si>
+  <si>
+    <t>Find smallest number with given number of digits and sum of digits</t>
+  </si>
+  <si>
+    <t>Find maximum sum possible equal sum of three stacks</t>
+  </si>
+  <si>
+    <t>BackTracking</t>
+  </si>
+  <si>
+    <t>Rat in a maze Problem</t>
+  </si>
+  <si>
+    <t>Printing all solutions in N-Queen Problem</t>
+  </si>
+  <si>
+    <t>Word Break Problem using Backtracking</t>
+  </si>
+  <si>
+    <t>Remove Invalid Parentheses</t>
+  </si>
+  <si>
+    <t>Sudoku Solver</t>
+  </si>
+  <si>
+    <t>m Coloring Problem</t>
+  </si>
+  <si>
+    <t>Print all palindromic partitions of a string</t>
+  </si>
+  <si>
+    <t>Subset Sum Problem</t>
+  </si>
+  <si>
+    <t>The Knight’s tour problem</t>
+  </si>
+  <si>
+    <t>Tug of War</t>
+  </si>
+  <si>
+    <t>Find shortest safe route in a path with landmines</t>
+  </si>
+  <si>
+    <t>Combinational Sum</t>
+  </si>
+  <si>
+    <t>Find Maximum number possible by doing at-most K swaps</t>
   </si>
   <si>
     <t xml:space="preserve">Print all permutations of a string </t>
   </si>
   <si>
-    <t xml:space="preserve">Find if there is a path of more than k length from a source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Possible Route in a Matrix with Hurdles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print all possible paths from top left to bottom right of a mXn matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partition of a set intoK subsets with equal sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the K-th Permutation Sequence of first N natural numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stacks &amp; Queues</t>
+    <t>Find if there is a path of more than k length from a source</t>
+  </si>
+  <si>
+    <t>Longest Possible Route in a Matrix with Hurdles</t>
+  </si>
+  <si>
+    <t>Print all possible paths from top left to bottom right of a mXn matrix</t>
+  </si>
+  <si>
+    <t>Partition of a set intoK subsets with equal sum</t>
+  </si>
+  <si>
+    <t>Find the K-th Permutation Sequence of first N natural numbers</t>
+  </si>
+  <si>
+    <t>Stacks &amp; Queues</t>
   </si>
   <si>
     <t xml:space="preserve"> Implement Stack from Scratch</t>
@@ -889,175 +894,175 @@
     <t xml:space="preserve"> Implement Queue from Scratch</t>
   </si>
   <si>
-    <t xml:space="preserve">Implement 2 stack in an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find the middle element of a stack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement "N" stacks in an Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check the expression has valid or Balanced parenthesis or not.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a String using Stack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design a Stack that supports getMin() in O(1) time and O(1) extra space.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the next Greater element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The celebrity Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arithmetic Expression evaluation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluation of Postfix expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement a method to insert an element at its bottom without using any other data structure.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a stack using recursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort a Stack using recursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge Overlapping Intervals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largest rectangular Area in Histogram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length of the Longest Valid Substring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression contains redundant bracket or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Stack using Queue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Stack using Deque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stack Permutations (Check if an array is stack permutation of other)</t>
+    <t>Implement 2 stack in an array</t>
+  </si>
+  <si>
+    <t>find the middle element of a stack</t>
+  </si>
+  <si>
+    <t>Implement "N" stacks in an Array</t>
+  </si>
+  <si>
+    <t>Check the expression has valid or Balanced parenthesis or not.</t>
+  </si>
+  <si>
+    <t>Reverse a String using Stack</t>
+  </si>
+  <si>
+    <t>Design a Stack that supports getMin() in O(1) time and O(1) extra space.</t>
+  </si>
+  <si>
+    <t>Find the next Greater element</t>
+  </si>
+  <si>
+    <t>The celebrity Problem</t>
+  </si>
+  <si>
+    <t>Arithmetic Expression evaluation</t>
+  </si>
+  <si>
+    <t>Evaluation of Postfix expression</t>
+  </si>
+  <si>
+    <t>Implement a method to insert an element at its bottom without using any other data structure.</t>
+  </si>
+  <si>
+    <t>Reverse a stack using recursion</t>
+  </si>
+  <si>
+    <t>Sort a Stack using recursion</t>
+  </si>
+  <si>
+    <t>Merge Overlapping Intervals</t>
+  </si>
+  <si>
+    <t>Largest rectangular Area in Histogram</t>
+  </si>
+  <si>
+    <t>Length of the Longest Valid Substring</t>
+  </si>
+  <si>
+    <t>Expression contains redundant bracket or not</t>
+  </si>
+  <si>
+    <t>Implement Stack using Queue</t>
+  </si>
+  <si>
+    <t>Implement Stack using Deque</t>
+  </si>
+  <si>
+    <t>Stack Permutations (Check if an array is stack permutation of other)</t>
   </si>
   <si>
     <t xml:space="preserve">Implement Queue using Stack  </t>
   </si>
   <si>
-    <t xml:space="preserve">Implement "n" queue in an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement a Circular queue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LRU Cache Implementationa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse a Queue using recursion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reverse the first “K” elements of a queue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interleave the first half of the queue with second half</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the first circular tour that visits all Petrol Pumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum time required to rot all oranges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distance of nearest cell having 1 in a binary matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First negative integer in every window of size “k”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if all levels of two trees are anagrams or not.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sum of minimum and maximum elements of all subarrays of size “k”.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum sum of squares of character counts in a given string after removing “k” characters.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queue based approach or first non-repeating character in a stream.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Next Smaller Element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement a Maxheap/MinHeap using arrays and recursion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sort an Array using heap. (HeapSort)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum of all subarrays of size k.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“k” largest element in an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth smallest and largest element in an unsorted array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge “K” sorted arrays. [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge 2 Binary Max Heaps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kth largest sum continuous subarrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leetcode- reorganize strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merge “K” Sorted Linked Lists [V.IMP]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smallest range in “K” Lists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Median in a stream of Integers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if a Binary Tree is Heap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connect “n” ropes with minimum cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert BST to Min Heap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convert min heap to max heap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rearrange characters in a string such that no two adjacent are same.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum sum of two numbers formed from digits of an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a Graph, print it</t>
+    <t>Implement "n" queue in an array</t>
+  </si>
+  <si>
+    <t>Implement a Circular queue</t>
+  </si>
+  <si>
+    <t>LRU Cache Implementationa</t>
+  </si>
+  <si>
+    <t>Reverse a Queue using recursion</t>
+  </si>
+  <si>
+    <t>Reverse the first “K” elements of a queue</t>
+  </si>
+  <si>
+    <t>Interleave the first half of the queue with second half</t>
+  </si>
+  <si>
+    <t>Find the first circular tour that visits all Petrol Pumps</t>
+  </si>
+  <si>
+    <t>Minimum time required to rot all oranges</t>
+  </si>
+  <si>
+    <t>Distance of nearest cell having 1 in a binary matrix</t>
+  </si>
+  <si>
+    <t>First negative integer in every window of size “k”</t>
+  </si>
+  <si>
+    <t>Check if all levels of two trees are anagrams or not.</t>
+  </si>
+  <si>
+    <t>Sum of minimum and maximum elements of all subarrays of size “k”.</t>
+  </si>
+  <si>
+    <t>Minimum sum of squares of character counts in a given string after removing “k” characters.</t>
+  </si>
+  <si>
+    <t>Queue based approach or first non-repeating character in a stream.</t>
+  </si>
+  <si>
+    <t>Next Smaller Element</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>Implement a Maxheap/MinHeap using arrays and recursion.</t>
+  </si>
+  <si>
+    <t>Sort an Array using heap. (HeapSort)</t>
+  </si>
+  <si>
+    <t>Maximum of all subarrays of size k.</t>
+  </si>
+  <si>
+    <t>“k” largest element in an array</t>
+  </si>
+  <si>
+    <t>Kth smallest and largest element in an unsorted array</t>
+  </si>
+  <si>
+    <t>Merge “K” sorted arrays. [ IMP ]</t>
+  </si>
+  <si>
+    <t>Merge 2 Binary Max Heaps</t>
+  </si>
+  <si>
+    <t>Kth largest sum continuous subarrays</t>
+  </si>
+  <si>
+    <t>Leetcode- reorganize strings</t>
+  </si>
+  <si>
+    <t>Merge “K” Sorted Linked Lists [V.IMP]</t>
+  </si>
+  <si>
+    <t>Smallest range in “K” Lists</t>
+  </si>
+  <si>
+    <t>Median in a stream of Integers</t>
+  </si>
+  <si>
+    <t>Check if a Binary Tree is Heap</t>
+  </si>
+  <si>
+    <t>Connect “n” ropes with minimum cost</t>
+  </si>
+  <si>
+    <t>Convert BST to Min Heap</t>
+  </si>
+  <si>
+    <t>Convert min heap to max heap</t>
+  </si>
+  <si>
+    <t>Rearrange characters in a string such that no two adjacent are same.</t>
+  </si>
+  <si>
+    <t>Minimum sum of two numbers formed from digits of an array</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Create a Graph, print it</t>
   </si>
   <si>
     <t xml:space="preserve">Implement BFS algorithm </t>
@@ -1072,359 +1077,356 @@
     <t xml:space="preserve">Detect Cycle in UnDirected Graph using BFS/DFS Algo </t>
   </si>
   <si>
-    <t xml:space="preserve">Search in a Maze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum Step by Knight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flood fill algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clone a graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Making wired Connections</t>
+    <t>Search in a Maze</t>
+  </si>
+  <si>
+    <t>Minimum Step by Knight</t>
+  </si>
+  <si>
+    <t>flood fill algo</t>
+  </si>
+  <si>
+    <t>Clone a graph</t>
+  </si>
+  <si>
+    <t>Making wired Connections</t>
   </si>
   <si>
     <t xml:space="preserve">word Ladder </t>
   </si>
   <si>
-    <t xml:space="preserve">Dijkstra algo</t>
+    <t>Dijkstra algo</t>
   </si>
   <si>
     <t xml:space="preserve">Implement Topological Sort </t>
   </si>
   <si>
-    <t xml:space="preserve">Minimum time taken by each job to be completed given by a Directed Acyclic Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find whether it is possible to finish all tasks or not from given dependencies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the no. of Isalnds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a sorted Dictionary of an Alien Language, find order of characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Kruksal’sAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Prim’s Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total no. of Spanning tree in a graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Bellman Ford Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement Floyd warshallAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Travelling Salesman Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graph ColouringProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Snake and Ladders Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find bridge in a graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count Strongly connected Components(Kosaraju Algo)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check whether a graph is Bipartite or Not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detect Negative cycle in a graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest path in a Directed Acyclic Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Journey to the Moon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheapest Flights Within K Stops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oliver and the Game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Jug problem using BFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find if there is a path of more thank length from a source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M-ColouringProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum edges to reverse o make path from source to destination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paths to travel each nodes using each edge(Seven Bridges)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vertex Cover Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chinese Postman or Route Inspection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Triangles in a Directed and Undirected Graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimise the cashflow among a given set of friends who have borrowed money from each other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two Clique Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construct a trie from scratch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find shortest unique prefix for every word in a given list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word Break Problem | (Trie solution)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement a Phone Directory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Print unique rows in a given boolean matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dynamic Programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coin ChangeProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knapsack Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binomial CoefficientProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permutation CoefficientProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program for nth Catalan Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matrix Chain Multiplication </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit Distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friends Pairing Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gold Mine Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assembly Line SchedulingProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Painting the Fenceproblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximize The Cut Segments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Common Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Repeated Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Increasing Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Space Optimized Solution of LCS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCS (Longest Common Subsequence) of three strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum Sum Increasing Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count all subsequences having product less than K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest subsequence such that difference between adjacent is one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum subsequence sum such that no three are consecutive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egg Dropping Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum Length Chain of Pairs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum size square sub-matrix with all 1s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum sum of pairs with specific difference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min Cost PathProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum difference of zeros and ones in binary string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum number of jumps to reach end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum cost to fill given weight in a bag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum removals from array to make max –min &lt;= K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Common Substring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count number of ways to reacha given score in a game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count Balanced Binary Trees of Height h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smallest sum contiguous subarray</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unbounded Knapsack (Repetition of items allowed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word Break Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largest Independent Set Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partition problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Palindromic Subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count All Palindromic Subsequence in a given String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Palindromic Substring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest alternating subsequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weighted Job Scheduling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coin game winner where every player has three choices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum profit by buying and selling a share at most twice [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimal Strategy for a Game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimal Binary Search Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palindrome PartitioningProblem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word Wrap Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile Numeric Keypad Problem [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boolean Parenthesization Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largest rectangular sub-matrix whose sum is 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum sum rectangle in a 2D matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum profit by buying and selling a share at most k times</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find if a string is interleaved of two other strings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum Length of Pair Chain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bit Manipulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count set bits in an integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the two non-repeating elements in an array of repeating elements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count number of bits to be flipped to convert A to B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count total set bits in all numbers from 1 to n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Program to find whether a no is power of two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find position of the only set bit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copy set bits in a range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divide two integers without using multiplication, division and mod operator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate square of a number without using *, / and pow()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Set</t>
+    <t>Minimum time taken by each job to be completed given by a Directed Acyclic Graph</t>
+  </si>
+  <si>
+    <t>Find whether it is possible to finish all tasks or not from given dependencies</t>
+  </si>
+  <si>
+    <t>Find the no. of Isalnds</t>
+  </si>
+  <si>
+    <t>Given a sorted Dictionary of an Alien Language, find order of characters</t>
+  </si>
+  <si>
+    <t>Implement Kruksal’sAlgorithm</t>
+  </si>
+  <si>
+    <t>Implement Prim’s Algorithm</t>
+  </si>
+  <si>
+    <t>Total no. of Spanning tree in a graph</t>
+  </si>
+  <si>
+    <t>Implement Bellman Ford Algorithm</t>
+  </si>
+  <si>
+    <t>Implement Floyd warshallAlgorithm</t>
+  </si>
+  <si>
+    <t>Travelling Salesman Problem</t>
+  </si>
+  <si>
+    <t>Graph ColouringProblem</t>
+  </si>
+  <si>
+    <t>Snake and Ladders Problem</t>
+  </si>
+  <si>
+    <t>Find bridge in a graph</t>
+  </si>
+  <si>
+    <t>Count Strongly connected Components(Kosaraju Algo)</t>
+  </si>
+  <si>
+    <t>Check whether a graph is Bipartite or Not</t>
+  </si>
+  <si>
+    <t>Detect Negative cycle in a graph</t>
+  </si>
+  <si>
+    <t>Longest path in a Directed Acyclic Graph</t>
+  </si>
+  <si>
+    <t>Journey to the Moon</t>
+  </si>
+  <si>
+    <t>Cheapest Flights Within K Stops</t>
+  </si>
+  <si>
+    <t>Oliver and the Game</t>
+  </si>
+  <si>
+    <t>Water Jug problem using BFS</t>
+  </si>
+  <si>
+    <t>Find if there is a path of more thank length from a source</t>
+  </si>
+  <si>
+    <t>M-ColouringProblem</t>
+  </si>
+  <si>
+    <t>Minimum edges to reverse o make path from source to destination</t>
+  </si>
+  <si>
+    <t>Paths to travel each nodes using each edge(Seven Bridges)</t>
+  </si>
+  <si>
+    <t>Vertex Cover Problem</t>
+  </si>
+  <si>
+    <t>Chinese Postman or Route Inspection</t>
+  </si>
+  <si>
+    <t>Number of Triangles in a Directed and Undirected Graph</t>
+  </si>
+  <si>
+    <t>Minimise the cashflow among a given set of friends who have borrowed money from each other</t>
+  </si>
+  <si>
+    <t>Two Clique Problem</t>
+  </si>
+  <si>
+    <t>Trie</t>
+  </si>
+  <si>
+    <t>Construct a trie from scratch</t>
+  </si>
+  <si>
+    <t>Find shortest unique prefix for every word in a given list</t>
+  </si>
+  <si>
+    <t>Word Break Problem | (Trie solution)</t>
+  </si>
+  <si>
+    <t>Implement a Phone Directory</t>
+  </si>
+  <si>
+    <t>Print unique rows in a given boolean matrix</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>Coin ChangeProblem</t>
+  </si>
+  <si>
+    <t>Knapsack Problem</t>
+  </si>
+  <si>
+    <t>Binomial CoefficientProblem</t>
+  </si>
+  <si>
+    <t>Permutation CoefficientProblem</t>
+  </si>
+  <si>
+    <t>Program for nth Catalan Number</t>
+  </si>
+  <si>
+    <t>Matrix Chain Multiplication </t>
+  </si>
+  <si>
+    <t>Edit Distance</t>
+  </si>
+  <si>
+    <t>Friends Pairing Problem</t>
+  </si>
+  <si>
+    <t>Gold Mine Problem</t>
+  </si>
+  <si>
+    <t>Assembly Line SchedulingProblem</t>
+  </si>
+  <si>
+    <t>Painting the Fenceproblem</t>
+  </si>
+  <si>
+    <t>Maximize The Cut Segments</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>Longest Repeated Subsequence</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>Space Optimized Solution of LCS</t>
+  </si>
+  <si>
+    <t>LCS (Longest Common Subsequence) of three strings</t>
+  </si>
+  <si>
+    <t>Maximum Sum Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>Count all subsequences having product less than K</t>
+  </si>
+  <si>
+    <t>Longest subsequence such that difference between adjacent is one</t>
+  </si>
+  <si>
+    <t>Maximum subsequence sum such that no three are consecutive</t>
+  </si>
+  <si>
+    <t>Egg Dropping Problem</t>
+  </si>
+  <si>
+    <t>Maximum Length Chain of Pairs</t>
+  </si>
+  <si>
+    <t>Maximum size square sub-matrix with all 1s</t>
+  </si>
+  <si>
+    <t>Maximum sum of pairs with specific difference</t>
+  </si>
+  <si>
+    <t>Min Cost PathProblem</t>
+  </si>
+  <si>
+    <t>Maximum difference of zeros and ones in binary string</t>
+  </si>
+  <si>
+    <t>Minimum number of jumps to reach end</t>
+  </si>
+  <si>
+    <t>Minimum cost to fill given weight in a bag</t>
+  </si>
+  <si>
+    <t>Minimum removals from array to make max –min &lt;= K</t>
+  </si>
+  <si>
+    <t>Longest Common Substring</t>
+  </si>
+  <si>
+    <t>Count number of ways to reacha given score in a game</t>
+  </si>
+  <si>
+    <t>Count Balanced Binary Trees of Height h</t>
+  </si>
+  <si>
+    <t>LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]</t>
+  </si>
+  <si>
+    <t>Smallest sum contiguous subarray</t>
+  </si>
+  <si>
+    <t>Unbounded Knapsack (Repetition of items allowed)</t>
+  </si>
+  <si>
+    <t>Word Break Problem</t>
+  </si>
+  <si>
+    <t>Largest Independent Set Problem</t>
+  </si>
+  <si>
+    <t>Partition problem</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Subsequence</t>
+  </si>
+  <si>
+    <t>Count All Palindromic Subsequence in a given String</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>Longest alternating subsequence</t>
+  </si>
+  <si>
+    <t>Weighted Job Scheduling</t>
+  </si>
+  <si>
+    <t>Coin game winner where every player has three choices</t>
+  </si>
+  <si>
+    <t>Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]</t>
+  </si>
+  <si>
+    <t>Maximum profit by buying and selling a share at most twice [ IMP ]</t>
+  </si>
+  <si>
+    <t>Optimal Strategy for a Game</t>
+  </si>
+  <si>
+    <t>Optimal Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Palindrome PartitioningProblem</t>
+  </si>
+  <si>
+    <t>Word Wrap Problem</t>
+  </si>
+  <si>
+    <t>Mobile Numeric Keypad Problem [ IMP ]</t>
+  </si>
+  <si>
+    <t>Boolean Parenthesization Problem</t>
+  </si>
+  <si>
+    <t>Largest rectangular sub-matrix whose sum is 0</t>
+  </si>
+  <si>
+    <t>Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]</t>
+  </si>
+  <si>
+    <t>Maximum sum rectangle in a 2D matrix</t>
+  </si>
+  <si>
+    <t>Maximum profit by buying and selling a share at most k times</t>
+  </si>
+  <si>
+    <t>Find if a string is interleaved of two other strings</t>
+  </si>
+  <si>
+    <t>Maximum Length of Pair Chain</t>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
+  </si>
+  <si>
+    <t>Count set bits in an integer</t>
+  </si>
+  <si>
+    <t>Find the two non-repeating elements in an array of repeating elements</t>
+  </si>
+  <si>
+    <t>Count number of bits to be flipped to convert A to B</t>
+  </si>
+  <si>
+    <t>Count total set bits in all numbers from 1 to n</t>
+  </si>
+  <si>
+    <t>Program to find whether a no is power of two</t>
+  </si>
+  <si>
+    <t>Find position of the only set bit</t>
+  </si>
+  <si>
+    <t>Copy set bits in a range</t>
+  </si>
+  <si>
+    <t>Divide two integers without using multiplication, division and mod operator</t>
+  </si>
+  <si>
+    <t>Calculate square of a number without using *, / and pow()</t>
+  </si>
+  <si>
+    <t>Power Set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1433,30 +1435,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -1464,8 +1450,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1473,7 +1459,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1481,7 +1467,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="16"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -1523,13 +1509,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAFD095"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor rgb="FFC5E0B4"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1537,101 +1523,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1690,40 +1617,348 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A335" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B345" activeCellId="0" sqref="B345"/>
+    <sheetView tabSelected="1" topLeftCell="A342" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B346" sqref="B346"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.5"/>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="2" max="2" width="123" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="26.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" ht="21">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1734,12 +1969,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3">
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" ht="21">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1750,7 +1985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" ht="21">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1761,7 +1996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" ht="21">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1772,7 +2007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" ht="21">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1783,7 +2018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" ht="21">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1794,7 +2029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" ht="21">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -1805,7 +2040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" ht="21">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -1816,7 +2051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3" ht="21">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -1827,7 +2062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:3" ht="21">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -1838,7 +2073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:3" ht="21">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -1849,7 +2084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:3" ht="21">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -1860,7 +2095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:3" ht="21">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -1871,7 +2106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:3" ht="21">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -1882,7 +2117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:3" ht="21">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -1893,7 +2128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:3" ht="21">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -1904,7 +2139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:3" ht="21">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -1915,7 +2150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:3" ht="21">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -1926,7 +2161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:3" ht="21">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -1937,7 +2172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:3" ht="21">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -1948,7 +2183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:3" ht="21">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -1959,7 +2194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:3" ht="21">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
@@ -1970,7 +2205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:3" ht="21">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -1981,7 +2216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:3" ht="21">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
@@ -1992,7 +2227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:3" ht="21">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
@@ -2003,7 +2238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:3" ht="21">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
@@ -2014,7 +2249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:3" ht="21">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
@@ -2025,7 +2260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:3" ht="21">
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
@@ -2036,7 +2271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:3" ht="21">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -2047,7 +2282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:3" ht="21">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
@@ -2058,7 +2293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:3" ht="21">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
@@ -2069,7 +2304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:3" ht="21">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
@@ -2080,7 +2315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:3" ht="21">
       <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
@@ -2091,7 +2326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:3" ht="21">
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
@@ -2102,7 +2337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:3" ht="21">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -2113,7 +2348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:3" ht="21">
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
@@ -2124,7 +2359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:3" ht="21">
       <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
@@ -2135,20 +2370,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:3" ht="21">
       <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:3" ht="21">
       <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:3" ht="21">
       <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
@@ -2159,7 +2394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:3" ht="21">
       <c r="A45" s="6" t="s">
         <v>43</v>
       </c>
@@ -2170,7 +2405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:3" ht="21">
       <c r="A46" s="6" t="s">
         <v>43</v>
       </c>
@@ -2181,7 +2416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:3" ht="21">
       <c r="A47" s="6" t="s">
         <v>43</v>
       </c>
@@ -2192,7 +2427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:3" ht="21">
       <c r="A48" s="6" t="s">
         <v>43</v>
       </c>
@@ -2203,7 +2438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:3" ht="21">
       <c r="A49" s="6" t="s">
         <v>43</v>
       </c>
@@ -2214,7 +2449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:3" ht="21">
       <c r="A50" s="6" t="s">
         <v>43</v>
       </c>
@@ -2225,7 +2460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:3" ht="21">
       <c r="A51" s="6" t="s">
         <v>43</v>
       </c>
@@ -2236,7 +2471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:3" ht="21">
       <c r="A52" s="6" t="s">
         <v>43</v>
       </c>
@@ -2247,7 +2482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:3" ht="21">
       <c r="A53" s="6" t="s">
         <v>43</v>
       </c>
@@ -2258,12 +2493,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:3" ht="21">
       <c r="A55" s="6"/>
       <c r="B55" s="8"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:3" ht="21">
       <c r="A56" s="6" t="s">
         <v>54</v>
       </c>
@@ -2274,7 +2509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:3" ht="21">
       <c r="A57" s="6" t="s">
         <v>54</v>
       </c>
@@ -2285,7 +2520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:3" ht="21">
       <c r="A58" s="6" t="s">
         <v>54</v>
       </c>
@@ -2296,7 +2531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:3" ht="21">
       <c r="A59" s="6" t="s">
         <v>54</v>
       </c>
@@ -2307,7 +2542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:3" ht="21">
       <c r="A60" s="6" t="s">
         <v>54</v>
       </c>
@@ -2318,7 +2553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:3" ht="21">
       <c r="A61" s="6" t="s">
         <v>54</v>
       </c>
@@ -2329,7 +2564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:3" ht="21">
       <c r="A62" s="6" t="s">
         <v>54</v>
       </c>
@@ -2340,7 +2575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:3" ht="21">
       <c r="A63" s="6" t="s">
         <v>54</v>
       </c>
@@ -2351,7 +2586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:3" ht="21">
       <c r="A64" s="6" t="s">
         <v>54</v>
       </c>
@@ -2362,7 +2597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:3" ht="21">
       <c r="A65" s="6" t="s">
         <v>54</v>
       </c>
@@ -2373,7 +2608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:3" ht="21">
       <c r="A66" s="6" t="s">
         <v>54</v>
       </c>
@@ -2384,7 +2619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:3" ht="21">
       <c r="A67" s="6" t="s">
         <v>54</v>
       </c>
@@ -2395,7 +2630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:3" ht="21">
       <c r="A68" s="6" t="s">
         <v>54</v>
       </c>
@@ -2406,7 +2641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:3" ht="21">
       <c r="A69" s="6" t="s">
         <v>54</v>
       </c>
@@ -2417,7 +2652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:3" ht="21">
       <c r="A70" s="6" t="s">
         <v>54</v>
       </c>
@@ -2428,7 +2663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:3" ht="21">
       <c r="A71" s="6" t="s">
         <v>54</v>
       </c>
@@ -2439,7 +2674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:3" ht="21">
       <c r="A72" s="6" t="s">
         <v>54</v>
       </c>
@@ -2450,7 +2685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:3" ht="21">
       <c r="A73" s="6" t="s">
         <v>54</v>
       </c>
@@ -2461,7 +2696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:3" ht="21">
       <c r="A74" s="6" t="s">
         <v>54</v>
       </c>
@@ -2472,7 +2707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:3" ht="21">
       <c r="A75" s="6" t="s">
         <v>54</v>
       </c>
@@ -2483,7 +2718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:3" ht="21">
       <c r="A76" s="6" t="s">
         <v>54</v>
       </c>
@@ -2494,7 +2729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:3" ht="21">
       <c r="A77" s="6" t="s">
         <v>54</v>
       </c>
@@ -2505,7 +2740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:3" ht="21">
       <c r="A78" s="6" t="s">
         <v>54</v>
       </c>
@@ -2516,7 +2751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:3" ht="21">
       <c r="A79" s="6" t="s">
         <v>54</v>
       </c>
@@ -2527,7 +2762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:3" ht="21">
       <c r="A80" s="6" t="s">
         <v>54</v>
       </c>
@@ -2538,7 +2773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:3" ht="21">
       <c r="A81" s="6" t="s">
         <v>54</v>
       </c>
@@ -2549,7 +2784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:3" ht="21">
       <c r="A82" s="6" t="s">
         <v>54</v>
       </c>
@@ -2560,7 +2795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:3" ht="21">
       <c r="A83" s="6" t="s">
         <v>54</v>
       </c>
@@ -2571,7 +2806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:3" ht="21">
       <c r="A84" s="6" t="s">
         <v>54</v>
       </c>
@@ -2582,7 +2817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:3" ht="21">
       <c r="A85" s="6" t="s">
         <v>54</v>
       </c>
@@ -2593,7 +2828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:3" ht="21">
       <c r="A86" s="6" t="s">
         <v>54</v>
       </c>
@@ -2604,7 +2839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:3" ht="21">
       <c r="A87" s="6" t="s">
         <v>54</v>
       </c>
@@ -2615,7 +2850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:3" ht="21">
       <c r="A88" s="6" t="s">
         <v>54</v>
       </c>
@@ -2626,7 +2861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:3" ht="21">
       <c r="A89" s="6" t="s">
         <v>54</v>
       </c>
@@ -2637,7 +2872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:3" ht="21">
       <c r="A90" s="6" t="s">
         <v>54</v>
       </c>
@@ -2648,7 +2883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:3" ht="21">
       <c r="A91" s="6" t="s">
         <v>54</v>
       </c>
@@ -2659,7 +2894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:3" ht="21">
       <c r="A92" s="6" t="s">
         <v>54</v>
       </c>
@@ -2670,7 +2905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:3" ht="21">
       <c r="A93" s="6" t="s">
         <v>54</v>
       </c>
@@ -2681,7 +2916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:3" ht="21">
       <c r="A94" s="6" t="s">
         <v>54</v>
       </c>
@@ -2692,7 +2927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:3" ht="21">
       <c r="A95" s="6" t="s">
         <v>54</v>
       </c>
@@ -2703,7 +2938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:3" ht="21">
       <c r="A96" s="6" t="s">
         <v>54</v>
       </c>
@@ -2714,7 +2949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:3" ht="21">
       <c r="A97" s="6" t="s">
         <v>54</v>
       </c>
@@ -2725,7 +2960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:3" ht="21">
       <c r="A98" s="6" t="s">
         <v>54</v>
       </c>
@@ -2736,12 +2971,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:3" ht="21">
       <c r="A100" s="6"/>
       <c r="B100" s="8"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:3" ht="21">
       <c r="A101" s="6" t="s">
         <v>98</v>
       </c>
@@ -2752,7 +2987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:3" ht="21">
       <c r="A102" s="6" t="s">
         <v>98</v>
       </c>
@@ -2763,7 +2998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:3" ht="21">
       <c r="A103" s="6" t="s">
         <v>98</v>
       </c>
@@ -2774,7 +3009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:3" ht="21">
       <c r="A104" s="6" t="s">
         <v>98</v>
       </c>
@@ -2785,7 +3020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:3" ht="21">
       <c r="A105" s="6" t="s">
         <v>98</v>
       </c>
@@ -2796,7 +3031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:3" ht="21">
       <c r="A106" s="6" t="s">
         <v>98</v>
       </c>
@@ -2807,7 +3042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:3" ht="21">
       <c r="A107" s="6" t="s">
         <v>98</v>
       </c>
@@ -2818,7 +3053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:3" ht="21">
       <c r="A108" s="6" t="s">
         <v>98</v>
       </c>
@@ -2829,7 +3064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:3" ht="21">
       <c r="A109" s="6" t="s">
         <v>98</v>
       </c>
@@ -2840,7 +3075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:3" ht="21">
       <c r="A110" s="6" t="s">
         <v>98</v>
       </c>
@@ -2851,7 +3086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:3" ht="21">
       <c r="A111" s="6" t="s">
         <v>98</v>
       </c>
@@ -2862,7 +3097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:3" ht="21">
       <c r="A112" s="6" t="s">
         <v>98</v>
       </c>
@@ -2873,7 +3108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:3" ht="21">
       <c r="A113" s="6" t="s">
         <v>98</v>
       </c>
@@ -2884,7 +3119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:3" ht="21">
       <c r="A114" s="6" t="s">
         <v>98</v>
       </c>
@@ -2895,7 +3130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:3" ht="21">
       <c r="A115" s="6" t="s">
         <v>98</v>
       </c>
@@ -2906,7 +3141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:3" ht="21">
       <c r="A116" s="6" t="s">
         <v>98</v>
       </c>
@@ -2917,7 +3152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:3" ht="21">
       <c r="A117" s="6" t="s">
         <v>98</v>
       </c>
@@ -2928,7 +3163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:3" ht="21">
       <c r="A118" s="6" t="s">
         <v>98</v>
       </c>
@@ -2939,7 +3174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:3" ht="21">
       <c r="A119" s="6" t="s">
         <v>98</v>
       </c>
@@ -2950,7 +3185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:3" ht="21">
       <c r="A120" s="6" t="s">
         <v>98</v>
       </c>
@@ -2961,7 +3196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:3" ht="21">
       <c r="A121" s="6" t="s">
         <v>98</v>
       </c>
@@ -2972,7 +3207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:3" ht="21">
       <c r="A122" s="6" t="s">
         <v>98</v>
       </c>
@@ -2983,7 +3218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:3" ht="21">
       <c r="A123" s="6" t="s">
         <v>98</v>
       </c>
@@ -2994,7 +3229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:3" ht="21">
       <c r="A124" s="6" t="s">
         <v>98</v>
       </c>
@@ -3005,7 +3240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:3" ht="21">
       <c r="A125" s="6" t="s">
         <v>98</v>
       </c>
@@ -3016,7 +3251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:3" ht="21">
       <c r="A126" s="6" t="s">
         <v>98</v>
       </c>
@@ -3027,7 +3262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:3" ht="21">
       <c r="A127" s="6" t="s">
         <v>98</v>
       </c>
@@ -3038,7 +3273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:3" ht="21">
       <c r="A128" s="6" t="s">
         <v>98</v>
       </c>
@@ -3049,7 +3284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:3" ht="21">
       <c r="A129" s="6" t="s">
         <v>98</v>
       </c>
@@ -3060,7 +3295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:3" ht="21">
       <c r="A130" s="6" t="s">
         <v>98</v>
       </c>
@@ -3071,7 +3306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:3" ht="21">
       <c r="A131" s="6" t="s">
         <v>98</v>
       </c>
@@ -3082,7 +3317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:3" ht="21">
       <c r="A132" s="6" t="s">
         <v>98</v>
       </c>
@@ -3093,7 +3328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:3" ht="21">
       <c r="A133" s="6" t="s">
         <v>98</v>
       </c>
@@ -3104,7 +3339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:3" ht="21">
       <c r="A134" s="6" t="s">
         <v>98</v>
       </c>
@@ -3115,7 +3350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:3" ht="21">
       <c r="A135" s="6" t="s">
         <v>98</v>
       </c>
@@ -3126,7 +3361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:3" ht="21">
       <c r="A136" s="6" t="s">
         <v>98</v>
       </c>
@@ -3137,11 +3372,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:3" ht="21">
       <c r="B138" s="8"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:3" ht="21">
       <c r="A139" s="6" t="s">
         <v>135</v>
       </c>
@@ -3152,7 +3387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:3" ht="21">
       <c r="A140" s="6" t="s">
         <v>135</v>
       </c>
@@ -3163,7 +3398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:3" ht="21">
       <c r="A141" s="6" t="s">
         <v>135</v>
       </c>
@@ -3174,7 +3409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:3" ht="21">
       <c r="A142" s="6" t="s">
         <v>135</v>
       </c>
@@ -3185,7 +3420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:3" ht="21">
       <c r="A143" s="6" t="s">
         <v>135</v>
       </c>
@@ -3196,7 +3431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:3" ht="21">
       <c r="A144" s="6" t="s">
         <v>135</v>
       </c>
@@ -3207,7 +3442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:3" ht="21">
       <c r="A145" s="6" t="s">
         <v>135</v>
       </c>
@@ -3218,7 +3453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:3" ht="21">
       <c r="A146" s="6" t="s">
         <v>135</v>
       </c>
@@ -3229,7 +3464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:3" ht="21">
       <c r="A147" s="6" t="s">
         <v>135</v>
       </c>
@@ -3240,7 +3475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:3" ht="21">
       <c r="A148" s="6" t="s">
         <v>135</v>
       </c>
@@ -3251,7 +3486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:3" ht="21">
       <c r="A149" s="6" t="s">
         <v>135</v>
       </c>
@@ -3262,7 +3497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:3" ht="21">
       <c r="A150" s="6" t="s">
         <v>135</v>
       </c>
@@ -3273,7 +3508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:3" ht="21">
       <c r="A151" s="6" t="s">
         <v>135</v>
       </c>
@@ -3284,7 +3519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:3" ht="21">
       <c r="A152" s="6" t="s">
         <v>135</v>
       </c>
@@ -3295,7 +3530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:3" ht="21">
       <c r="A153" s="6" t="s">
         <v>135</v>
       </c>
@@ -3306,7 +3541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:3" ht="21">
       <c r="A154" s="6" t="s">
         <v>135</v>
       </c>
@@ -3317,7 +3552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:3" ht="21">
       <c r="A155" s="6" t="s">
         <v>135</v>
       </c>
@@ -3328,7 +3563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:3" ht="21">
       <c r="A156" s="6" t="s">
         <v>135</v>
       </c>
@@ -3339,7 +3574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:3" ht="21">
       <c r="A157" s="6" t="s">
         <v>135</v>
       </c>
@@ -3350,7 +3585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:3" ht="21">
       <c r="A158" s="6" t="s">
         <v>135</v>
       </c>
@@ -3361,7 +3596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:3" ht="21">
       <c r="A159" s="6" t="s">
         <v>135</v>
       </c>
@@ -3372,7 +3607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:3" ht="21">
       <c r="A160" s="6" t="s">
         <v>135</v>
       </c>
@@ -3383,7 +3618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:3" ht="21">
       <c r="A161" s="6" t="s">
         <v>135</v>
       </c>
@@ -3394,7 +3629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:3" ht="21">
       <c r="A162" s="6" t="s">
         <v>135</v>
       </c>
@@ -3405,7 +3640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:3" ht="21">
       <c r="A163" s="6" t="s">
         <v>135</v>
       </c>
@@ -3416,7 +3651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:3" ht="21">
       <c r="A164" s="6" t="s">
         <v>135</v>
       </c>
@@ -3427,7 +3662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:3" ht="21">
       <c r="A165" s="6" t="s">
         <v>135</v>
       </c>
@@ -3438,7 +3673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:3" ht="21">
       <c r="A166" s="6" t="s">
         <v>135</v>
       </c>
@@ -3449,7 +3684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:3" ht="21">
       <c r="A167" s="6" t="s">
         <v>135</v>
       </c>
@@ -3460,7 +3695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:3" ht="21">
       <c r="A168" s="6" t="s">
         <v>135</v>
       </c>
@@ -3471,7 +3706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:3" ht="21">
       <c r="A169" s="6" t="s">
         <v>135</v>
       </c>
@@ -3482,7 +3717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:3" ht="21">
       <c r="A170" s="6" t="s">
         <v>135</v>
       </c>
@@ -3493,7 +3728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:3" ht="21">
       <c r="A171" s="6" t="s">
         <v>135</v>
       </c>
@@ -3504,7 +3739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:3" ht="21">
       <c r="A172" s="6" t="s">
         <v>135</v>
       </c>
@@ -3515,7 +3750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:3" ht="21">
       <c r="A173" s="6" t="s">
         <v>135</v>
       </c>
@@ -3526,7 +3761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:3" ht="21">
       <c r="A174" s="6" t="s">
         <v>135</v>
       </c>
@@ -3537,11 +3772,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:3" ht="21">
       <c r="B176" s="8"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:3" ht="21">
       <c r="A177" s="6" t="s">
         <v>172</v>
       </c>
@@ -3552,7 +3787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:3" ht="21">
       <c r="A178" s="6" t="s">
         <v>172</v>
       </c>
@@ -3563,7 +3798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:3" ht="21">
       <c r="A179" s="6" t="s">
         <v>172</v>
       </c>
@@ -3574,7 +3809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:3" ht="21">
       <c r="A180" s="6" t="s">
         <v>172</v>
       </c>
@@ -3585,7 +3820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:3" ht="21">
       <c r="A181" s="6" t="s">
         <v>172</v>
       </c>
@@ -3596,7 +3831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:3" ht="21">
       <c r="A182" s="6" t="s">
         <v>172</v>
       </c>
@@ -3607,7 +3842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:3" ht="21">
       <c r="A183" s="6" t="s">
         <v>172</v>
       </c>
@@ -3618,7 +3853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:3" ht="21">
       <c r="A184" s="6" t="s">
         <v>172</v>
       </c>
@@ -3629,7 +3864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:3" ht="21">
       <c r="A185" s="6" t="s">
         <v>172</v>
       </c>
@@ -3640,7 +3875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:3" ht="21">
       <c r="A186" s="6" t="s">
         <v>172</v>
       </c>
@@ -3651,7 +3886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:3" ht="21">
       <c r="A187" s="6" t="s">
         <v>172</v>
       </c>
@@ -3662,7 +3897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:3" ht="21">
       <c r="A188" s="6" t="s">
         <v>172</v>
       </c>
@@ -3673,7 +3908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:3" ht="21">
       <c r="A189" s="6" t="s">
         <v>172</v>
       </c>
@@ -3684,7 +3919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:3" ht="21">
       <c r="A190" s="6" t="s">
         <v>172</v>
       </c>
@@ -3695,7 +3930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:3" ht="21">
       <c r="A191" s="6" t="s">
         <v>172</v>
       </c>
@@ -3706,7 +3941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:3" ht="21">
       <c r="A192" s="6" t="s">
         <v>172</v>
       </c>
@@ -3717,7 +3952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:3" ht="21">
       <c r="A193" s="6" t="s">
         <v>172</v>
       </c>
@@ -3728,7 +3963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:3" ht="21">
       <c r="A194" s="6" t="s">
         <v>172</v>
       </c>
@@ -3739,7 +3974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:3" ht="21">
       <c r="A195" s="6" t="s">
         <v>172</v>
       </c>
@@ -3750,7 +3985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:3" ht="21">
       <c r="A196" s="6" t="s">
         <v>172</v>
       </c>
@@ -3761,7 +3996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:3" ht="21">
       <c r="A197" s="6" t="s">
         <v>172</v>
       </c>
@@ -3772,7 +4007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:3" ht="21">
       <c r="A198" s="6" t="s">
         <v>172</v>
       </c>
@@ -3783,7 +4018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:3" ht="21">
       <c r="A199" s="6" t="s">
         <v>172</v>
       </c>
@@ -3794,7 +4029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:3" ht="21">
       <c r="A200" s="6" t="s">
         <v>172</v>
       </c>
@@ -3805,7 +4040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:3" ht="21">
       <c r="A201" s="6" t="s">
         <v>172</v>
       </c>
@@ -3816,7 +4051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" spans="1:3" ht="21">
       <c r="A202" s="6" t="s">
         <v>172</v>
       </c>
@@ -3827,7 +4062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:3" ht="21">
       <c r="A203" s="6" t="s">
         <v>172</v>
       </c>
@@ -3838,7 +4073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" spans="1:3" ht="21">
       <c r="A204" s="6" t="s">
         <v>172</v>
       </c>
@@ -3849,7 +4084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:3" ht="21">
       <c r="A205" s="6" t="s">
         <v>172</v>
       </c>
@@ -3860,7 +4095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" spans="1:3" ht="21">
       <c r="A206" s="6" t="s">
         <v>172</v>
       </c>
@@ -3871,7 +4106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:3" ht="21">
       <c r="A207" s="6" t="s">
         <v>172</v>
       </c>
@@ -3882,7 +4117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" spans="1:3" ht="21">
       <c r="A208" s="6" t="s">
         <v>172</v>
       </c>
@@ -3893,7 +4128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" spans="1:3" ht="21">
       <c r="A209" s="6" t="s">
         <v>172</v>
       </c>
@@ -3904,7 +4139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" spans="1:3" ht="21">
       <c r="A210" s="6" t="s">
         <v>172</v>
       </c>
@@ -3915,7 +4150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" spans="1:3" ht="21">
       <c r="A211" s="6" t="s">
         <v>172</v>
       </c>
@@ -3926,17 +4161,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" spans="1:3" ht="21">
       <c r="A212" s="6"/>
       <c r="B212" s="8"/>
       <c r="C212" s="5"/>
     </row>
-    <row r="213" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" spans="1:3" ht="21">
       <c r="A213" s="6"/>
       <c r="B213" s="8"/>
       <c r="C213" s="5"/>
     </row>
-    <row r="214" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" spans="1:3" ht="21">
       <c r="A214" s="6" t="s">
         <v>208</v>
       </c>
@@ -3947,7 +4182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" spans="1:3" ht="21">
       <c r="A215" s="6" t="s">
         <v>208</v>
       </c>
@@ -3958,7 +4193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" spans="1:3" ht="21">
       <c r="A216" s="6" t="s">
         <v>208</v>
       </c>
@@ -3969,7 +4204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" spans="1:3" ht="21">
       <c r="A217" s="6" t="s">
         <v>208</v>
       </c>
@@ -3980,7 +4215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" spans="1:3" ht="21">
       <c r="A218" s="6" t="s">
         <v>208</v>
       </c>
@@ -3991,7 +4226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:3" ht="21">
       <c r="A219" s="6" t="s">
         <v>208</v>
       </c>
@@ -4002,7 +4237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:3" ht="21">
       <c r="A220" s="6" t="s">
         <v>208</v>
       </c>
@@ -4013,7 +4248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:3" ht="21">
       <c r="A221" s="6" t="s">
         <v>208</v>
       </c>
@@ -4024,7 +4259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:3" ht="21">
       <c r="A222" s="6" t="s">
         <v>208</v>
       </c>
@@ -4035,7 +4270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" spans="1:3" ht="21">
       <c r="A223" s="6" t="s">
         <v>208</v>
       </c>
@@ -4046,7 +4281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" spans="1:3" ht="21">
       <c r="A224" s="6" t="s">
         <v>208</v>
       </c>
@@ -4057,7 +4292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" spans="1:3" ht="21">
       <c r="A225" s="6" t="s">
         <v>208</v>
       </c>
@@ -4068,7 +4303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" spans="1:3" ht="21">
       <c r="A226" s="6" t="s">
         <v>208</v>
       </c>
@@ -4079,7 +4314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" spans="1:3" ht="21">
       <c r="A227" s="6" t="s">
         <v>208</v>
       </c>
@@ -4090,7 +4325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" spans="1:3" ht="21">
       <c r="A228" s="6" t="s">
         <v>208</v>
       </c>
@@ -4101,7 +4336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" spans="1:3" ht="21">
       <c r="A229" s="6" t="s">
         <v>208</v>
       </c>
@@ -4112,7 +4347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" spans="1:3" ht="21">
       <c r="A230" s="6" t="s">
         <v>208</v>
       </c>
@@ -4123,7 +4358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" spans="1:3" ht="21">
       <c r="A231" s="6" t="s">
         <v>208</v>
       </c>
@@ -4134,7 +4369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" spans="1:3" ht="21">
       <c r="A232" s="6" t="s">
         <v>208</v>
       </c>
@@ -4145,7 +4380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:3" ht="21">
       <c r="A233" s="6" t="s">
         <v>208</v>
       </c>
@@ -4156,7 +4391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" spans="1:3" ht="21">
       <c r="A234" s="6" t="s">
         <v>208</v>
       </c>
@@ -4167,7 +4402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" spans="1:3" ht="21">
       <c r="A235" s="6" t="s">
         <v>208</v>
       </c>
@@ -4178,15 +4413,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" spans="1:3" ht="21">
       <c r="B236" s="8"/>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" spans="1:3" ht="21">
       <c r="B237" s="8"/>
       <c r="C237" s="5"/>
     </row>
-    <row r="238" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" spans="1:3" ht="21">
       <c r="A238" s="6" t="s">
         <v>231</v>
       </c>
@@ -4197,7 +4432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" spans="1:3" ht="21">
       <c r="A239" s="6" t="s">
         <v>231</v>
       </c>
@@ -4208,7 +4443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" spans="1:3" ht="21">
       <c r="A240" s="6" t="s">
         <v>231</v>
       </c>
@@ -4219,7 +4454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" spans="1:3" ht="21">
       <c r="A241" s="6" t="s">
         <v>231</v>
       </c>
@@ -4230,7 +4465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" spans="1:3" ht="21">
       <c r="A242" s="6" t="s">
         <v>231</v>
       </c>
@@ -4241,7 +4476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" spans="1:3" ht="21">
       <c r="A243" s="6" t="s">
         <v>231</v>
       </c>
@@ -4252,7 +4487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" spans="1:3" ht="21">
       <c r="A244" s="6" t="s">
         <v>231</v>
       </c>
@@ -4263,7 +4498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" spans="1:3" ht="21">
       <c r="A245" s="6" t="s">
         <v>231</v>
       </c>
@@ -4274,7 +4509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" spans="1:3" ht="21">
       <c r="A246" s="6" t="s">
         <v>231</v>
       </c>
@@ -4285,7 +4520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" spans="1:3" ht="21">
       <c r="A247" s="6" t="s">
         <v>231</v>
       </c>
@@ -4296,7 +4531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" spans="1:3" ht="21">
       <c r="A248" s="6" t="s">
         <v>231</v>
       </c>
@@ -4307,7 +4542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" spans="1:3" ht="21">
       <c r="A249" s="6" t="s">
         <v>231</v>
       </c>
@@ -4318,7 +4553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" spans="1:3" ht="21">
       <c r="A250" s="6" t="s">
         <v>231</v>
       </c>
@@ -4329,7 +4564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" spans="1:3" ht="21">
       <c r="A251" s="6" t="s">
         <v>231</v>
       </c>
@@ -4340,7 +4575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" spans="1:3" ht="21">
       <c r="A252" s="6" t="s">
         <v>231</v>
       </c>
@@ -4351,7 +4586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" spans="1:3" ht="21">
       <c r="A253" s="6" t="s">
         <v>231</v>
       </c>
@@ -4362,7 +4597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" spans="1:3" ht="21">
       <c r="A254" s="6" t="s">
         <v>231</v>
       </c>
@@ -4373,7 +4608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" spans="1:3" ht="21">
       <c r="A255" s="6" t="s">
         <v>231</v>
       </c>
@@ -4384,7 +4619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" spans="1:3" ht="21">
       <c r="A256" s="6" t="s">
         <v>231</v>
       </c>
@@ -4395,7 +4630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" spans="1:3" ht="21">
       <c r="A257" s="6" t="s">
         <v>231</v>
       </c>
@@ -4406,7 +4641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" spans="1:3" ht="21">
       <c r="A258" s="6" t="s">
         <v>231</v>
       </c>
@@ -4417,7 +4652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" spans="1:3" ht="21">
       <c r="A259" s="6" t="s">
         <v>231</v>
       </c>
@@ -4428,7 +4663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" spans="1:3" ht="21">
       <c r="A260" s="6" t="s">
         <v>231</v>
       </c>
@@ -4439,7 +4674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" spans="1:3" ht="21">
       <c r="A261" s="6" t="s">
         <v>231</v>
       </c>
@@ -4450,7 +4685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" spans="1:3" ht="21">
       <c r="A262" s="6" t="s">
         <v>231</v>
       </c>
@@ -4461,7 +4696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" spans="1:3" ht="21">
       <c r="A263" s="6" t="s">
         <v>231</v>
       </c>
@@ -4472,7 +4707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" spans="1:3" ht="21">
       <c r="A264" s="6" t="s">
         <v>231</v>
       </c>
@@ -4483,7 +4718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" spans="1:3" ht="21">
       <c r="A265" s="6" t="s">
         <v>231</v>
       </c>
@@ -4494,7 +4729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" spans="1:3" ht="21">
       <c r="A266" s="6" t="s">
         <v>231</v>
       </c>
@@ -4505,7 +4740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" spans="1:3" ht="21">
       <c r="A267" s="6" t="s">
         <v>231</v>
       </c>
@@ -4516,7 +4751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" spans="1:3" ht="21">
       <c r="A268" s="6" t="s">
         <v>231</v>
       </c>
@@ -4527,7 +4762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" spans="1:3" ht="21">
       <c r="A269" s="6" t="s">
         <v>231</v>
       </c>
@@ -4538,7 +4773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" spans="1:3" ht="21">
       <c r="A270" s="6" t="s">
         <v>231</v>
       </c>
@@ -4549,7 +4784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" spans="1:3" ht="21">
       <c r="A271" s="6" t="s">
         <v>231</v>
       </c>
@@ -4560,7 +4795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" spans="1:3" ht="21">
       <c r="A272" s="6" t="s">
         <v>231</v>
       </c>
@@ -4571,15 +4806,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" spans="1:3" ht="21">
       <c r="B273" s="8"/>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" spans="1:3" ht="21">
       <c r="B274" s="8"/>
       <c r="C274" s="5"/>
     </row>
-    <row r="275" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" spans="1:3" ht="21">
       <c r="A275" s="6" t="s">
         <v>266</v>
       </c>
@@ -4590,7 +4825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" spans="1:3" ht="21">
       <c r="A276" s="6" t="s">
         <v>266</v>
       </c>
@@ -4601,7 +4836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" spans="1:3" ht="21">
       <c r="A277" s="6" t="s">
         <v>266</v>
       </c>
@@ -4612,7 +4847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" spans="1:3" ht="21">
       <c r="A278" s="6" t="s">
         <v>266</v>
       </c>
@@ -4623,7 +4858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" spans="1:3" ht="21">
       <c r="A279" s="6" t="s">
         <v>266</v>
       </c>
@@ -4634,7 +4869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" spans="1:3" ht="21">
       <c r="A280" s="6" t="s">
         <v>266</v>
       </c>
@@ -4645,7 +4880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" spans="1:3" ht="21">
       <c r="A281" s="6" t="s">
         <v>266</v>
       </c>
@@ -4656,7 +4891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" spans="1:3" ht="21">
       <c r="A282" s="6" t="s">
         <v>266</v>
       </c>
@@ -4667,7 +4902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" spans="1:3" ht="21">
       <c r="A283" s="6" t="s">
         <v>266</v>
       </c>
@@ -4678,7 +4913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" spans="1:3" ht="21">
       <c r="A284" s="6" t="s">
         <v>266</v>
       </c>
@@ -4689,7 +4924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" spans="1:3" ht="21">
       <c r="A285" s="6" t="s">
         <v>266</v>
       </c>
@@ -4700,7 +4935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" spans="1:3" ht="21">
       <c r="A286" s="6" t="s">
         <v>266</v>
       </c>
@@ -4711,7 +4946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" spans="1:3" ht="21">
       <c r="A287" s="6" t="s">
         <v>266</v>
       </c>
@@ -4722,7 +4957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" spans="1:3" ht="21">
       <c r="A288" s="6" t="s">
         <v>266</v>
       </c>
@@ -4733,7 +4968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" spans="1:3" ht="21">
       <c r="A289" s="6" t="s">
         <v>266</v>
       </c>
@@ -4744,7 +4979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" spans="1:3" ht="21">
       <c r="A290" s="6" t="s">
         <v>266</v>
       </c>
@@ -4755,7 +4990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" spans="1:3" ht="21">
       <c r="A291" s="6" t="s">
         <v>266</v>
       </c>
@@ -4766,7 +5001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" spans="1:3" ht="21">
       <c r="A292" s="6" t="s">
         <v>266</v>
       </c>
@@ -4777,7 +5012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" spans="1:3" ht="21">
       <c r="A293" s="6" t="s">
         <v>266</v>
       </c>
@@ -4788,15 +5023,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" spans="1:3" ht="21">
       <c r="B294" s="8"/>
       <c r="C294" s="5"/>
     </row>
-    <row r="295" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" spans="1:3" ht="21">
       <c r="B295" s="8"/>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" spans="1:3" ht="21">
       <c r="A296" s="6" t="s">
         <v>286</v>
       </c>
@@ -4807,7 +5042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" spans="1:3" ht="21">
       <c r="A297" s="6" t="s">
         <v>286</v>
       </c>
@@ -4818,7 +5053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" spans="1:3" ht="21">
       <c r="A298" s="6" t="s">
         <v>286</v>
       </c>
@@ -4829,7 +5064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" spans="1:3" ht="21">
       <c r="A299" s="6" t="s">
         <v>286</v>
       </c>
@@ -4840,7 +5075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" spans="1:3" ht="21">
       <c r="A300" s="6" t="s">
         <v>286</v>
       </c>
@@ -4851,7 +5086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" spans="1:3" ht="21">
       <c r="A301" s="6" t="s">
         <v>286</v>
       </c>
@@ -4862,7 +5097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" spans="1:3" ht="21">
       <c r="A302" s="6" t="s">
         <v>286</v>
       </c>
@@ -4873,7 +5108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" spans="1:3" ht="21">
       <c r="A303" s="6" t="s">
         <v>286</v>
       </c>
@@ -4884,7 +5119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" spans="1:3" ht="21">
       <c r="A304" s="6" t="s">
         <v>286</v>
       </c>
@@ -4895,7 +5130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" spans="1:3" ht="21">
       <c r="A305" s="6" t="s">
         <v>286</v>
       </c>
@@ -4906,7 +5141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" spans="1:3" ht="21">
       <c r="A306" s="6" t="s">
         <v>286</v>
       </c>
@@ -4917,7 +5152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" spans="1:3" ht="21">
       <c r="A307" s="6" t="s">
         <v>286</v>
       </c>
@@ -4928,7 +5163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" spans="1:3" ht="21">
       <c r="A308" s="6" t="s">
         <v>286</v>
       </c>
@@ -4939,7 +5174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" spans="1:3" ht="21">
       <c r="A309" s="6" t="s">
         <v>286</v>
       </c>
@@ -4950,7 +5185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" spans="1:3" ht="21">
       <c r="A310" s="6" t="s">
         <v>286</v>
       </c>
@@ -4961,7 +5196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" spans="1:3" ht="21">
       <c r="A311" s="6" t="s">
         <v>286</v>
       </c>
@@ -4972,7 +5207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" spans="1:3" ht="21">
       <c r="A312" s="6" t="s">
         <v>286</v>
       </c>
@@ -4983,7 +5218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" spans="1:3" ht="21">
       <c r="A313" s="6" t="s">
         <v>286</v>
       </c>
@@ -4994,7 +5229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" spans="1:3" ht="21">
       <c r="A314" s="6" t="s">
         <v>286</v>
       </c>
@@ -5005,7 +5240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" spans="1:3" ht="21">
       <c r="A315" s="6" t="s">
         <v>286</v>
       </c>
@@ -5016,7 +5251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" spans="1:3" ht="21">
       <c r="A316" s="6" t="s">
         <v>286</v>
       </c>
@@ -5027,7 +5262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" spans="1:3" ht="21">
       <c r="A317" s="6" t="s">
         <v>286</v>
       </c>
@@ -5038,7 +5273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" spans="1:3" ht="21">
       <c r="A318" s="6" t="s">
         <v>286</v>
       </c>
@@ -5049,7 +5284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" spans="1:3" ht="21">
       <c r="A319" s="6" t="s">
         <v>286</v>
       </c>
@@ -5060,7 +5295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" spans="1:3" ht="21">
       <c r="A320" s="6" t="s">
         <v>286</v>
       </c>
@@ -5071,7 +5306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" spans="1:3" ht="21">
       <c r="A321" s="6" t="s">
         <v>286</v>
       </c>
@@ -5082,7 +5317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" spans="1:3" ht="21">
       <c r="A322" s="6" t="s">
         <v>286</v>
       </c>
@@ -5093,7 +5328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" spans="1:3" ht="21">
       <c r="A323" s="6" t="s">
         <v>286</v>
       </c>
@@ -5104,7 +5339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" spans="1:3" ht="21">
       <c r="A324" s="6" t="s">
         <v>286</v>
       </c>
@@ -5115,7 +5350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" spans="1:3" ht="21">
       <c r="A325" s="6" t="s">
         <v>286</v>
       </c>
@@ -5126,7 +5361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" spans="1:3" ht="21">
       <c r="A326" s="6" t="s">
         <v>286</v>
       </c>
@@ -5137,7 +5372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" spans="1:3" ht="21">
       <c r="A327" s="6" t="s">
         <v>286</v>
       </c>
@@ -5148,7 +5383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" spans="1:3" ht="21">
       <c r="A328" s="6" t="s">
         <v>286</v>
       </c>
@@ -5159,7 +5394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" spans="1:3" ht="21">
       <c r="A329" s="6" t="s">
         <v>286</v>
       </c>
@@ -5170,7 +5405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" spans="1:3" ht="21">
       <c r="A330" s="6" t="s">
         <v>286</v>
       </c>
@@ -5181,7 +5416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" spans="1:3" ht="21">
       <c r="A331" s="6" t="s">
         <v>286</v>
       </c>
@@ -5192,7 +5427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" spans="1:3" ht="21">
       <c r="A332" s="6" t="s">
         <v>286</v>
       </c>
@@ -5203,7 +5438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" spans="1:3" ht="21">
       <c r="A333" s="6" t="s">
         <v>286</v>
       </c>
@@ -5214,15 +5449,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" spans="1:3" ht="21">
       <c r="B334" s="8"/>
       <c r="C334" s="5"/>
     </row>
-    <row r="335" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" spans="1:3" ht="21">
       <c r="B335" s="8"/>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" spans="1:3" ht="21">
       <c r="A336" s="6" t="s">
         <v>325</v>
       </c>
@@ -5233,7 +5468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" spans="1:3" ht="21">
       <c r="A337" s="6" t="s">
         <v>325</v>
       </c>
@@ -5244,7 +5479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" spans="1:3" ht="21">
       <c r="A338" s="6" t="s">
         <v>325</v>
       </c>
@@ -5255,7 +5490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" spans="1:3" ht="21">
       <c r="A339" s="6" t="s">
         <v>325</v>
       </c>
@@ -5266,7 +5501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" spans="1:3" ht="21">
       <c r="A340" s="6" t="s">
         <v>325</v>
       </c>
@@ -5277,7 +5512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" spans="1:3" ht="21">
       <c r="A341" s="6" t="s">
         <v>325</v>
       </c>
@@ -5288,7 +5523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" spans="1:3" ht="21">
       <c r="A342" s="6" t="s">
         <v>325</v>
       </c>
@@ -5299,7 +5534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" spans="1:3" ht="21">
       <c r="A343" s="6" t="s">
         <v>325</v>
       </c>
@@ -5310,7 +5545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" spans="1:3" ht="21">
       <c r="A344" s="6" t="s">
         <v>325</v>
       </c>
@@ -5321,7 +5556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" spans="1:3" ht="21">
       <c r="A345" s="6" t="s">
         <v>325</v>
       </c>
@@ -5332,7 +5567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" spans="1:3" ht="21">
       <c r="A346" s="6" t="s">
         <v>325</v>
       </c>
@@ -5343,7 +5578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" spans="1:3" ht="21">
       <c r="A347" s="6" t="s">
         <v>325</v>
       </c>
@@ -5354,7 +5589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" spans="1:3" ht="21">
       <c r="A348" s="6" t="s">
         <v>325</v>
       </c>
@@ -5365,7 +5600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" spans="1:3" ht="21">
       <c r="A349" s="6" t="s">
         <v>325</v>
       </c>
@@ -5376,7 +5611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" spans="1:3" ht="21">
       <c r="A350" s="6" t="s">
         <v>325</v>
       </c>
@@ -5387,7 +5622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" spans="1:3" ht="21">
       <c r="A351" s="6" t="s">
         <v>325</v>
       </c>
@@ -5398,7 +5633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" spans="1:3" ht="21">
       <c r="A352" s="6" t="s">
         <v>325</v>
       </c>
@@ -5409,7 +5644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" spans="1:3" ht="21">
       <c r="A353" s="6" t="s">
         <v>325</v>
       </c>
@@ -5420,15 +5655,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" spans="1:3" ht="21">
       <c r="B354" s="8"/>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" spans="1:3" ht="21">
       <c r="B355" s="8"/>
       <c r="C355" s="5"/>
     </row>
-    <row r="356" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" spans="1:3" ht="21">
       <c r="A356" s="6" t="s">
         <v>344</v>
       </c>
@@ -5439,7 +5674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" spans="1:3" ht="21">
       <c r="A357" s="6" t="s">
         <v>344</v>
       </c>
@@ -5450,7 +5685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" spans="1:3" ht="21">
       <c r="A358" s="6" t="s">
         <v>344</v>
       </c>
@@ -5461,7 +5696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" spans="1:3" ht="21">
       <c r="A359" s="6" t="s">
         <v>344</v>
       </c>
@@ -5472,7 +5707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" spans="1:3" ht="21">
       <c r="A360" s="6" t="s">
         <v>344</v>
       </c>
@@ -5483,7 +5718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" spans="1:3" ht="21">
       <c r="A361" s="6" t="s">
         <v>344</v>
       </c>
@@ -5494,7 +5729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" spans="1:3" ht="21">
       <c r="A362" s="6" t="s">
         <v>344</v>
       </c>
@@ -5505,7 +5740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" spans="1:3" ht="21">
       <c r="A363" s="6" t="s">
         <v>344</v>
       </c>
@@ -5516,7 +5751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" spans="1:3" ht="21">
       <c r="A364" s="6" t="s">
         <v>344</v>
       </c>
@@ -5527,7 +5762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" spans="1:3" ht="21">
       <c r="A365" s="6" t="s">
         <v>344</v>
       </c>
@@ -5538,7 +5773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" spans="1:3" ht="21">
       <c r="A366" s="6" t="s">
         <v>344</v>
       </c>
@@ -5549,7 +5784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" spans="1:3" ht="21">
       <c r="A367" s="6" t="s">
         <v>344</v>
       </c>
@@ -5560,7 +5795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" spans="1:3" ht="21">
       <c r="A368" s="6" t="s">
         <v>344</v>
       </c>
@@ -5571,7 +5806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" spans="1:3" ht="21">
       <c r="A369" s="6" t="s">
         <v>344</v>
       </c>
@@ -5582,7 +5817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" spans="1:3" ht="21">
       <c r="A370" s="6" t="s">
         <v>344</v>
       </c>
@@ -5593,7 +5828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" spans="1:3" ht="21">
       <c r="A371" s="6" t="s">
         <v>344</v>
       </c>
@@ -5604,7 +5839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" spans="1:3" ht="21">
       <c r="A372" s="6" t="s">
         <v>344</v>
       </c>
@@ -5615,7 +5850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" spans="1:3" ht="21">
       <c r="A373" s="6" t="s">
         <v>344</v>
       </c>
@@ -5626,7 +5861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" spans="1:3" ht="21">
       <c r="A374" s="6" t="s">
         <v>344</v>
       </c>
@@ -5637,7 +5872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" spans="1:3" ht="21">
       <c r="A375" s="6" t="s">
         <v>344</v>
       </c>
@@ -5648,7 +5883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" spans="1:3" ht="21">
       <c r="A376" s="6" t="s">
         <v>344</v>
       </c>
@@ -5659,7 +5894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" spans="1:3" ht="21">
       <c r="A377" s="6" t="s">
         <v>344</v>
       </c>
@@ -5670,7 +5905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" spans="1:3" ht="21">
       <c r="A378" s="6" t="s">
         <v>344</v>
       </c>
@@ -5681,7 +5916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" spans="1:3" ht="21">
       <c r="A379" s="6" t="s">
         <v>344</v>
       </c>
@@ -5692,7 +5927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" spans="1:3" ht="21">
       <c r="A380" s="6" t="s">
         <v>344</v>
       </c>
@@ -5703,7 +5938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" spans="1:3" ht="21">
       <c r="A381" s="6" t="s">
         <v>344</v>
       </c>
@@ -5714,7 +5949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" spans="1:3" ht="21">
       <c r="A382" s="6" t="s">
         <v>344</v>
       </c>
@@ -5725,7 +5960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" spans="1:3" ht="21">
       <c r="A383" s="6" t="s">
         <v>344</v>
       </c>
@@ -5736,7 +5971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" spans="1:3" ht="21">
       <c r="A384" s="6" t="s">
         <v>344</v>
       </c>
@@ -5747,7 +5982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" spans="1:3" ht="21">
       <c r="A385" s="6" t="s">
         <v>344</v>
       </c>
@@ -5758,7 +5993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" spans="1:3" ht="21">
       <c r="A386" s="6" t="s">
         <v>344</v>
       </c>
@@ -5769,7 +6004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" spans="1:3" ht="21">
       <c r="A387" s="6" t="s">
         <v>344</v>
       </c>
@@ -5780,7 +6015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" spans="1:3" ht="21">
       <c r="A388" s="6" t="s">
         <v>344</v>
       </c>
@@ -5791,7 +6026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" spans="1:3" ht="21">
       <c r="A389" s="6" t="s">
         <v>344</v>
       </c>
@@ -5802,7 +6037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" spans="1:3" ht="21">
       <c r="A390" s="6" t="s">
         <v>344</v>
       </c>
@@ -5813,7 +6048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" spans="1:3" ht="21">
       <c r="A391" s="6" t="s">
         <v>344</v>
       </c>
@@ -5824,7 +6059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" spans="1:3" ht="21">
       <c r="A392" s="6" t="s">
         <v>344</v>
       </c>
@@ -5835,7 +6070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" spans="1:3" ht="21">
       <c r="A393" s="6" t="s">
         <v>344</v>
       </c>
@@ -5846,7 +6081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" spans="1:3" ht="21">
       <c r="A394" s="6" t="s">
         <v>344</v>
       </c>
@@ -5857,7 +6092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" spans="1:3" ht="21">
       <c r="A395" s="6" t="s">
         <v>344</v>
       </c>
@@ -5868,7 +6103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" spans="1:3" ht="21">
       <c r="A396" s="6" t="s">
         <v>344</v>
       </c>
@@ -5879,7 +6114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" spans="1:3" ht="21">
       <c r="A397" s="6" t="s">
         <v>344</v>
       </c>
@@ -5890,7 +6125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" spans="1:3" ht="21">
       <c r="A398" s="6" t="s">
         <v>344</v>
       </c>
@@ -5901,7 +6136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" spans="1:3" ht="21">
       <c r="A399" s="6" t="s">
         <v>344</v>
       </c>
@@ -5912,15 +6147,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" spans="1:3" ht="21">
       <c r="B400" s="8"/>
       <c r="C400" s="5"/>
     </row>
-    <row r="401" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" spans="1:3" ht="21">
       <c r="B401" s="8"/>
       <c r="C401" s="5"/>
     </row>
-    <row r="402" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" spans="1:3" ht="21">
       <c r="A402" s="6" t="s">
         <v>388</v>
       </c>
@@ -5931,7 +6166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" spans="1:3" ht="21">
       <c r="A403" s="6" t="s">
         <v>388</v>
       </c>
@@ -5942,7 +6177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" spans="1:3" ht="21">
       <c r="A404" s="6" t="s">
         <v>388</v>
       </c>
@@ -5953,7 +6188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" spans="1:3" ht="21">
       <c r="A405" s="6" t="s">
         <v>388</v>
       </c>
@@ -5964,7 +6199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" spans="1:3" ht="21">
       <c r="A406" s="6" t="s">
         <v>388</v>
       </c>
@@ -5975,7 +6210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" spans="1:3" ht="21">
       <c r="A407" s="6" t="s">
         <v>388</v>
       </c>
@@ -5986,15 +6221,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" spans="1:3" ht="21">
       <c r="B408" s="8"/>
       <c r="C408" s="5"/>
     </row>
-    <row r="409" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" spans="1:3" ht="21">
       <c r="B409" s="8"/>
       <c r="C409" s="5"/>
     </row>
-    <row r="410" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" spans="1:3" ht="21">
       <c r="A410" s="6" t="s">
         <v>394</v>
       </c>
@@ -6005,7 +6240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" spans="1:3" ht="21">
       <c r="A411" s="6" t="s">
         <v>394</v>
       </c>
@@ -6016,7 +6251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" spans="1:3" ht="21">
       <c r="A412" s="6" t="s">
         <v>394</v>
       </c>
@@ -6027,7 +6262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" spans="1:3" ht="21">
       <c r="A413" s="6" t="s">
         <v>394</v>
       </c>
@@ -6038,7 +6273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" spans="1:3" ht="21">
       <c r="A414" s="6" t="s">
         <v>394</v>
       </c>
@@ -6049,7 +6284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" spans="1:3" ht="21">
       <c r="A415" s="6" t="s">
         <v>394</v>
       </c>
@@ -6060,7 +6295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" spans="1:3" ht="21">
       <c r="A416" s="6" t="s">
         <v>394</v>
       </c>
@@ -6071,7 +6306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" spans="1:3" ht="21">
       <c r="A417" s="6" t="s">
         <v>394</v>
       </c>
@@ -6082,7 +6317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" spans="1:3" ht="21">
       <c r="A418" s="6" t="s">
         <v>394</v>
       </c>
@@ -6093,7 +6328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" spans="1:3" ht="21">
       <c r="A419" s="6" t="s">
         <v>394</v>
       </c>
@@ -6104,7 +6339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" spans="1:3" ht="21">
       <c r="A420" s="6" t="s">
         <v>394</v>
       </c>
@@ -6115,7 +6350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" spans="1:3" ht="21">
       <c r="A421" s="6" t="s">
         <v>394</v>
       </c>
@@ -6126,7 +6361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" spans="1:3" ht="21">
       <c r="A422" s="6" t="s">
         <v>394</v>
       </c>
@@ -6137,7 +6372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" spans="1:3" ht="21">
       <c r="A423" s="6" t="s">
         <v>394</v>
       </c>
@@ -6148,7 +6383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" spans="1:3" ht="21">
       <c r="A424" s="6" t="s">
         <v>394</v>
       </c>
@@ -6159,7 +6394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" spans="1:3" ht="21">
       <c r="A425" s="6" t="s">
         <v>394</v>
       </c>
@@ -6170,7 +6405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" spans="1:3" ht="21">
       <c r="A426" s="6" t="s">
         <v>394</v>
       </c>
@@ -6181,7 +6416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" spans="1:3" ht="21">
       <c r="A427" s="6" t="s">
         <v>394</v>
       </c>
@@ -6192,7 +6427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" spans="1:3" ht="21">
       <c r="A428" s="6" t="s">
         <v>394</v>
       </c>
@@ -6203,7 +6438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" spans="1:3" ht="21">
       <c r="A429" s="6" t="s">
         <v>394</v>
       </c>
@@ -6214,7 +6449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" spans="1:3" ht="21">
       <c r="A430" s="6" t="s">
         <v>394</v>
       </c>
@@ -6225,7 +6460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" spans="1:3" ht="21">
       <c r="A431" s="6" t="s">
         <v>394</v>
       </c>
@@ -6236,7 +6471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" spans="1:3" ht="21">
       <c r="A432" s="6" t="s">
         <v>394</v>
       </c>
@@ -6247,7 +6482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" spans="1:3" ht="21">
       <c r="A433" s="6" t="s">
         <v>394</v>
       </c>
@@ -6258,7 +6493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" spans="1:3" ht="21">
       <c r="A434" s="6" t="s">
         <v>394</v>
       </c>
@@ -6269,7 +6504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" spans="1:3" ht="21">
       <c r="A435" s="6" t="s">
         <v>394</v>
       </c>
@@ -6280,7 +6515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" spans="1:3" ht="21">
       <c r="A436" s="6" t="s">
         <v>394</v>
       </c>
@@ -6291,7 +6526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" spans="1:3" ht="21">
       <c r="A437" s="6" t="s">
         <v>394</v>
       </c>
@@ -6302,7 +6537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" spans="1:3" ht="21">
       <c r="A438" s="6" t="s">
         <v>394</v>
       </c>
@@ -6313,7 +6548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" spans="1:3" ht="21">
       <c r="A439" s="6" t="s">
         <v>394</v>
       </c>
@@ -6324,7 +6559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" spans="1:3" ht="21">
       <c r="A440" s="6" t="s">
         <v>394</v>
       </c>
@@ -6335,7 +6570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" spans="1:3" ht="21">
       <c r="A441" s="6" t="s">
         <v>394</v>
       </c>
@@ -6346,7 +6581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" spans="1:3" ht="21">
       <c r="A442" s="6" t="s">
         <v>394</v>
       </c>
@@ -6357,7 +6592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" spans="1:3" ht="21">
       <c r="A443" s="6" t="s">
         <v>394</v>
       </c>
@@ -6368,7 +6603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" spans="1:3" ht="21">
       <c r="A444" s="6" t="s">
         <v>394</v>
       </c>
@@ -6379,7 +6614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" spans="1:3" ht="21">
       <c r="A445" s="6" t="s">
         <v>394</v>
       </c>
@@ -6390,7 +6625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" spans="1:3" ht="21">
       <c r="A446" s="6" t="s">
         <v>394</v>
       </c>
@@ -6401,7 +6636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" spans="1:3" ht="21">
       <c r="A447" s="6" t="s">
         <v>394</v>
       </c>
@@ -6412,7 +6647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" spans="1:3" ht="21">
       <c r="A448" s="6" t="s">
         <v>394</v>
       </c>
@@ -6423,7 +6658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" spans="1:3" ht="21">
       <c r="A449" s="6" t="s">
         <v>394</v>
       </c>
@@ -6434,7 +6669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" spans="1:3" ht="21">
       <c r="A450" s="6" t="s">
         <v>394</v>
       </c>
@@ -6445,7 +6680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" spans="1:3" ht="21">
       <c r="A451" s="6" t="s">
         <v>394</v>
       </c>
@@ -6456,7 +6691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" spans="1:3" ht="21">
       <c r="A452" s="6" t="s">
         <v>394</v>
       </c>
@@ -6467,7 +6702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" spans="1:3" ht="21">
       <c r="A453" s="6" t="s">
         <v>394</v>
       </c>
@@ -6478,7 +6713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" spans="1:3" ht="21">
       <c r="A454" s="6" t="s">
         <v>394</v>
       </c>
@@ -6489,7 +6724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" spans="1:3" ht="21">
       <c r="A455" s="6" t="s">
         <v>394</v>
       </c>
@@ -6500,7 +6735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" spans="1:3" ht="21">
       <c r="A456" s="6" t="s">
         <v>394</v>
       </c>
@@ -6511,7 +6746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" spans="1:3" ht="21">
       <c r="A457" s="6" t="s">
         <v>394</v>
       </c>
@@ -6522,7 +6757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" spans="1:3" ht="21">
       <c r="A458" s="6" t="s">
         <v>394</v>
       </c>
@@ -6533,7 +6768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" spans="1:3" ht="21">
       <c r="A459" s="6" t="s">
         <v>394</v>
       </c>
@@ -6544,7 +6779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" spans="1:3" ht="21">
       <c r="A460" s="6" t="s">
         <v>394</v>
       </c>
@@ -6555,7 +6790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" spans="1:3" ht="21">
       <c r="A461" s="6" t="s">
         <v>394</v>
       </c>
@@ -6566,7 +6801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" spans="1:3" ht="21">
       <c r="A462" s="6" t="s">
         <v>394</v>
       </c>
@@ -6577,7 +6812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" spans="1:3" ht="21">
       <c r="A463" s="6" t="s">
         <v>394</v>
       </c>
@@ -6588,7 +6823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" spans="1:3" ht="21">
       <c r="A464" s="6" t="s">
         <v>394</v>
       </c>
@@ -6599,7 +6834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" spans="1:3" ht="21">
       <c r="A465" s="6" t="s">
         <v>394</v>
       </c>
@@ -6610,7 +6845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" spans="1:3" ht="21">
       <c r="A466" s="6" t="s">
         <v>394</v>
       </c>
@@ -6621,7 +6856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" spans="1:3" ht="21">
       <c r="A467" s="6" t="s">
         <v>394</v>
       </c>
@@ -6632,7 +6867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" spans="1:3" ht="21">
       <c r="A468" s="6" t="s">
         <v>394</v>
       </c>
@@ -6643,7 +6878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" spans="1:3" ht="21">
       <c r="A469" s="6" t="s">
         <v>394</v>
       </c>
@@ -6654,16 +6889,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" spans="1:3" ht="21">
       <c r="B470" s="8"/>
       <c r="C470" s="5"/>
     </row>
-    <row r="471" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" spans="1:3" ht="21">
       <c r="A471" s="6"/>
       <c r="B471" s="8"/>
       <c r="C471" s="5"/>
     </row>
-    <row r="472" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" spans="1:3" ht="21">
       <c r="A472" s="6" t="s">
         <v>454</v>
       </c>
@@ -6674,7 +6909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" spans="1:3" ht="21">
       <c r="A473" s="6" t="s">
         <v>454</v>
       </c>
@@ -6685,7 +6920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" spans="1:3" ht="21">
       <c r="A474" s="6" t="s">
         <v>454</v>
       </c>
@@ -6696,7 +6931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" spans="1:3" ht="21">
       <c r="A475" s="6" t="s">
         <v>454</v>
       </c>
@@ -6707,7 +6942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="476" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" spans="1:3" ht="21">
       <c r="A476" s="6" t="s">
         <v>454</v>
       </c>
@@ -6718,7 +6953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" spans="1:3" ht="21">
       <c r="A477" s="6" t="s">
         <v>454</v>
       </c>
@@ -6729,7 +6964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" spans="1:3" ht="21">
       <c r="A478" s="6" t="s">
         <v>454</v>
       </c>
@@ -6740,7 +6975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" spans="1:3" ht="21">
       <c r="A479" s="6" t="s">
         <v>454</v>
       </c>
@@ -6751,7 +6986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" spans="1:3" ht="21">
       <c r="A480" s="6" t="s">
         <v>454</v>
       </c>
@@ -6762,7 +6997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" spans="1:3" ht="21">
       <c r="A481" s="6" t="s">
         <v>454</v>
       </c>
@@ -6775,459 +7010,454 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw "/>
-    <hyperlink ref="B6" r:id="rId2" display="Reverse the array"/>
-    <hyperlink ref="B7" r:id="rId3" display="Find the maximum and minimum element in an array"/>
-    <hyperlink ref="B8" r:id="rId4" display="Find the &quot;Kth&quot; max and min element of an array "/>
-    <hyperlink ref="B9" r:id="rId5" display="Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo"/>
-    <hyperlink ref="B10" r:id="rId6" display="Move all the negative elements to one side of the array "/>
-    <hyperlink ref="B11" r:id="rId7" display="Find the Union and Intersection of the two sorted arrays."/>
-    <hyperlink ref="B12" r:id="rId8" display="Write a program to cyclically rotate an array by one."/>
-    <hyperlink ref="B13" r:id="rId9" display="find Largest sum contiguous Subarray [V. IMP]"/>
-    <hyperlink ref="B14" r:id="rId10" display="Minimise the maximum difference between heights [V.IMP]"/>
-    <hyperlink ref="B15" r:id="rId11" display="Minimum no. of Jumps to reach end of an array"/>
-    <hyperlink ref="B16" r:id="rId12" display="find duplicate in an array of N+1 Integers"/>
-    <hyperlink ref="B17" r:id="rId13" display="Merge 2 sorted arrays without using Extra space."/>
-    <hyperlink ref="B18" r:id="rId14" display="Kadane's Algo [V.V.V.V.V IMP]"/>
-    <hyperlink ref="B19" r:id="rId15" display="Merge Intervals"/>
-    <hyperlink ref="B20" r:id="rId16" display="Next Permutation"/>
-    <hyperlink ref="B21" r:id="rId17" display="Count Inversion"/>
-    <hyperlink ref="B22" r:id="rId18" display="Best time to buy and Sell stock"/>
-    <hyperlink ref="B23" r:id="rId19" display="find all pairs on integer array whose sum is equal to given number"/>
-    <hyperlink ref="B24" r:id="rId20" display="find common elements In 3 sorted arrays"/>
-    <hyperlink ref="B25" r:id="rId21" display="Rearrange the array in alternating positive and negative items with O(1) extra space"/>
-    <hyperlink ref="B26" r:id="rId22" display="Find if there is any subarray with sum equal to 0"/>
-    <hyperlink ref="B27" r:id="rId23" display="Find factorial of a large number"/>
-    <hyperlink ref="B28" r:id="rId24" display="find maximum product subarray "/>
-    <hyperlink ref="B29" r:id="rId25" display="Find longest coinsecutive subsequence"/>
-    <hyperlink ref="B30" r:id="rId26" display="Given an array of size n and a number k, fin all elements that appear more than &quot; n/k &quot; times."/>
-    <hyperlink ref="B31" r:id="rId27" display="Maximum profit by buying and selling a share atmost twice"/>
-    <hyperlink ref="B32" r:id="rId28" display="Find whether an array is a subset of another array"/>
-    <hyperlink ref="B33" r:id="rId29" display="Find the triplet that sum to a given value"/>
-    <hyperlink ref="B34" r:id="rId30" display="Trapping Rain water problem"/>
-    <hyperlink ref="B35" r:id="rId31" display="Chocolate Distribution problem"/>
-    <hyperlink ref="B36" r:id="rId32" display="Smallest Subarray with sum greater than a given value"/>
-    <hyperlink ref="B37" r:id="rId33" display="Three way partitioning of an array around a given value"/>
-    <hyperlink ref="B38" r:id="rId34" display="Minimum swaps required bring elements less equal K together"/>
-    <hyperlink ref="B39" r:id="rId35" display="Minimum no. of operations required to make an array palindrome"/>
-    <hyperlink ref="B40" r:id="rId36" display="Median of 2 sorted arrays of equal size"/>
-    <hyperlink ref="B41" r:id="rId37" display="Median of 2 sorted arrays of different size"/>
-    <hyperlink ref="B44" r:id="rId38" display="Spiral traversal on a Matrix"/>
-    <hyperlink ref="B45" r:id="rId39" display="Search an element in a matriix"/>
-    <hyperlink ref="B46" r:id="rId40" display="Find median in a row wise sorted matrix"/>
-    <hyperlink ref="B47" r:id="rId41" display="Find row with maximum no. of 1's"/>
-    <hyperlink ref="B48" r:id="rId42" display="Print elements in sorted order using row-column wise sorted matrix"/>
-    <hyperlink ref="B49" r:id="rId43" display="Maximum size rectangle"/>
-    <hyperlink ref="B50" r:id="rId44" display="Find a specific pair in matrix"/>
-    <hyperlink ref="B51" r:id="rId45" display="Rotate matrix by 90 degrees"/>
-    <hyperlink ref="B52" r:id="rId46" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
-    <hyperlink ref="B53" r:id="rId47" display="Common elements in all rows of a given matrix"/>
-    <hyperlink ref="B56" r:id="rId48" display="Reverse a String"/>
-    <hyperlink ref="B57" r:id="rId49" display="Check whether a String is Palindrome or not"/>
-    <hyperlink ref="B58" r:id="rId50" display="Find Duplicate characters in a string"/>
-    <hyperlink ref="B60" r:id="rId51" display="Write a Code to check whether one string is a rotation of another"/>
-    <hyperlink ref="B61" r:id="rId52" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
-    <hyperlink ref="B62" r:id="rId53" display="Count and Say problem"/>
-    <hyperlink ref="B63" r:id="rId54" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
-    <hyperlink ref="B64" r:id="rId55" display="Find Longest Recurring Subsequence in String"/>
-    <hyperlink ref="B65" r:id="rId56" display="Print all Subsequences of a string."/>
-    <hyperlink ref="B66" r:id="rId57" display="Print all the permutations of the given string"/>
-    <hyperlink ref="B67" r:id="rId58" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
-    <hyperlink ref="B68" r:id="rId59" display="Word Wrap Problem [VERY IMP]."/>
-    <hyperlink ref="B69" r:id="rId60" display="EDIT Distance [Very Imp]"/>
-    <hyperlink ref="B70" r:id="rId61" display="Find next greater number with same set of digits. [Very Very IMP]"/>
-    <hyperlink ref="B71" r:id="rId62" display="Balanced Parenthesis problem.[Imp]"/>
-    <hyperlink ref="B72" r:id="rId63" display="Word break Problem[ Very Imp]"/>
-    <hyperlink ref="B73" r:id="rId64" display="Rabin Karp Algo"/>
-    <hyperlink ref="B74" r:id="rId65" display="KMP Algo"/>
-    <hyperlink ref="B75" r:id="rId66" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
-    <hyperlink ref="B76" r:id="rId67" display="Minimum number of bracket reversals needed to make an expression balanced."/>
-    <hyperlink ref="B77" r:id="rId68" display="Count All Palindromic Subsequence in a given String."/>
-    <hyperlink ref="B78" r:id="rId69" display="Count of number of given string in 2D character array"/>
-    <hyperlink ref="B79" r:id="rId70" display="Search a Word in a 2D Grid of characters."/>
-    <hyperlink ref="B80" r:id="rId71" display="Boyer Moore Algorithm for Pattern Searching."/>
-    <hyperlink ref="B81" r:id="rId72" display="Converting Roman Numerals to Decimal"/>
-    <hyperlink ref="B82" r:id="rId73" display="Longest Common Prefix"/>
-    <hyperlink ref="B83" r:id="rId74" display="Number of flips to make binary string alternate"/>
-    <hyperlink ref="B84" r:id="rId75" display="Find the first repeated word in string."/>
-    <hyperlink ref="B85" r:id="rId76" display="Minimum number of swaps for bracket balancing."/>
-    <hyperlink ref="B86" r:id="rId77" display="Find the longest common subsequence between two strings."/>
-    <hyperlink ref="B87" r:id="rId78" display="Program to generate all possible valid IP addresses from given  string."/>
-    <hyperlink ref="B88" r:id="rId79" display="Write a program tofind the smallest window that contains all characters of string itself."/>
-    <hyperlink ref="B89" r:id="rId80" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B90" r:id="rId81" display="Minimum characters to be added at front to make string palindrome"/>
-    <hyperlink ref="B91" r:id="rId82" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B92" r:id="rId83" display="Find the smallest window in a string containing all characters of another string"/>
-    <hyperlink ref="B93" r:id="rId84" display="Recursively remove all adjacent duplicates"/>
-    <hyperlink ref="B94" r:id="rId85" display="String matching where one string contains wildcard characters"/>
-    <hyperlink ref="B95" r:id="rId86" display="Function to find Number of customers who could not get a computer"/>
-    <hyperlink ref="B96" r:id="rId87" display="Transform One String to Another using Minimum Number of Given Operation"/>
-    <hyperlink ref="B97" r:id="rId88" display="Check if two given strings are isomorphic to each other"/>
-    <hyperlink ref="B98" r:id="rId89" display="Recursively print all sentences that can be formed from list of word lists"/>
-    <hyperlink ref="B101" r:id="rId90" display="Find first and last positions of an element in a sorted array"/>
-    <hyperlink ref="B102" r:id="rId91" display="Find a Fixed Point (Value equal to index) in a given array"/>
-    <hyperlink ref="B103" r:id="rId92" display="Search in a rotated sorted array"/>
-    <hyperlink ref="B104" r:id="rId93" display="square root of an integer"/>
-    <hyperlink ref="B105" r:id="rId94" display="Maximum and minimum of an array using minimum number of comparisons"/>
-    <hyperlink ref="B106" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
-    <hyperlink ref="B107" r:id="rId96" display="Find the repeating and the missing"/>
-    <hyperlink ref="B108" r:id="rId97" display="find majority element"/>
-    <hyperlink ref="B109" r:id="rId98" display="Searching in an array where adjacent differ by at most k"/>
-    <hyperlink ref="B110" r:id="rId99" display="find a pair with a given difference"/>
-    <hyperlink ref="B111" r:id="rId100" display="find four elements that sum to a given value"/>
-    <hyperlink ref="B112" r:id="rId101" display="maximum sum such that no 2 elements are adjacent"/>
-    <hyperlink ref="B113" r:id="rId102" display="Count triplet with sum smaller than a given value"/>
-    <hyperlink ref="B114" r:id="rId103" display="merge 2 sorted arrays"/>
-    <hyperlink ref="B115" r:id="rId104" display="print all subarrays with 0 sum"/>
-    <hyperlink ref="B116" r:id="rId105" display="Product array Puzzle"/>
-    <hyperlink ref="B117" r:id="rId106" display="Sort array according to count of set bits"/>
-    <hyperlink ref="B118" r:id="rId107" display="minimum no. of swaps required to sort the array"/>
-    <hyperlink ref="B119" r:id="rId108" display="Bishu and Soldiers"/>
-    <hyperlink ref="B120" r:id="rId109" display="Rasta and Kheshtak"/>
-    <hyperlink ref="B121" r:id="rId110" display="Kth smallest number again"/>
-    <hyperlink ref="B122" r:id="rId111" display="Find pivot element in a sorted array"/>
-    <hyperlink ref="B123" r:id="rId112" display="K-th Element of Two Sorted Arrays"/>
-    <hyperlink ref="B124" r:id="rId113" display="Aggressive cows"/>
-    <hyperlink ref="B125" r:id="rId114" display="Book Allocation Problem"/>
-    <hyperlink ref="B126" r:id="rId115" display="EKOSPOJ:"/>
-    <hyperlink ref="B127" r:id="rId116" display="Job Scheduling Algo"/>
-    <hyperlink ref="B128" r:id="rId117" display="Missing Number in AP"/>
-    <hyperlink ref="B129" r:id="rId118" display="Smallest number with atleastn trailing zeroes infactorial"/>
-    <hyperlink ref="B130" r:id="rId119" display="Painters Partition Problem:"/>
-    <hyperlink ref="B131" r:id="rId120" display="ROTI-Prata SPOJ"/>
-    <hyperlink ref="B132" r:id="rId121" display="DoubleHelix SPOJ"/>
-    <hyperlink ref="B133" r:id="rId122" display="Subset Sums"/>
-    <hyperlink ref="B134" r:id="rId123" display="Findthe inversion count"/>
-    <hyperlink ref="B135" r:id="rId124" display="Implement Merge-sort in-place"/>
-    <hyperlink ref="B136" r:id="rId125" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
-    <hyperlink ref="B139" r:id="rId126" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
-    <hyperlink ref="B140" r:id="rId127" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
-    <hyperlink ref="B141" r:id="rId128" display="Write a program to Detect loop in a linked list."/>
-    <hyperlink ref="B142" r:id="rId129" display="Write a program to Delete loop in a linked list."/>
-    <hyperlink ref="B143" r:id="rId130" display="Find the starting point of the loop. "/>
-    <hyperlink ref="B144" r:id="rId131" display="Remove Duplicates in a sorted Linked List."/>
-    <hyperlink ref="B145" r:id="rId132" display="Remove Duplicates in a Un-sorted Linked List."/>
-    <hyperlink ref="B146" r:id="rId133" display="Write a Program to Move the last element to Front in a Linked List."/>
-    <hyperlink ref="B147" r:id="rId134" display="Add “1” to a number represented as a Linked List."/>
-    <hyperlink ref="B148" r:id="rId135" display="Add two numbers represented by linked lists."/>
-    <hyperlink ref="B149" r:id="rId136" display="Intersection of two Sorted Linked List."/>
-    <hyperlink ref="B150" r:id="rId137" display="Intersection Point of two Linked Lists."/>
-    <hyperlink ref="B151" r:id="rId138" display="Merge Sort For Linked lists.[Very Important]"/>
-    <hyperlink ref="B152" r:id="rId139" display="Quicksort for Linked Lists.[Very Important]"/>
-    <hyperlink ref="B153" r:id="rId140" display="Find the middle Element of a linked list."/>
-    <hyperlink ref="B154" r:id="rId141" display="Check if a linked list is a circular linked list."/>
-    <hyperlink ref="B155" r:id="rId142" display="Split a Circular linked list into two halves."/>
-    <hyperlink ref="B156" r:id="rId143" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
-    <hyperlink ref="B157" r:id="rId144" display="Deletion from a Circular Linked List."/>
-    <hyperlink ref="B158" r:id="rId145" display="Reverse a Doubly Linked list."/>
-    <hyperlink ref="B159" r:id="rId146" display="Find pairs with a given sum in a DLL."/>
-    <hyperlink ref="B160" r:id="rId147" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
-    <hyperlink ref="B161" r:id="rId148" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
-    <hyperlink ref="B162" r:id="rId149" display="Rotate DoublyLinked list by N nodes."/>
-    <hyperlink ref="B163" r:id="rId150" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
-    <hyperlink ref="B166" r:id="rId151" display="Flatten a Linked List"/>
-    <hyperlink ref="B167" r:id="rId152" display="Sort a LL of 0's, 1's and 2's"/>
-    <hyperlink ref="B168" r:id="rId153" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="B169" r:id="rId154" display="Merge K sorted Linked list"/>
-    <hyperlink ref="B170" r:id="rId155" display="Multiply 2 no. represented by LL"/>
-    <hyperlink ref="B171" r:id="rId156" display="Delete nodes which have a greater value on right side"/>
-    <hyperlink ref="B172" r:id="rId157" display="Segregate even and odd nodes in a Linked List"/>
-    <hyperlink ref="B173" r:id="rId158" display="Program for n’th node from the end of a Linked List"/>
-    <hyperlink ref="B174" r:id="rId159" display="Find the first non-repeating character from a stream of characters"/>
-    <hyperlink ref="B177" r:id="rId160" display="level order traversal"/>
-    <hyperlink ref="B178" r:id="rId161" display="Reverse Level Order traversal"/>
-    <hyperlink ref="B179" r:id="rId162" display="Height of a tree"/>
-    <hyperlink ref="B180" r:id="rId163" display="Diameter of a tree"/>
-    <hyperlink ref="B181" r:id="rId164" display="Mirror of a tree"/>
-    <hyperlink ref="B182" r:id="rId165" display="Inorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B183" r:id="rId166" display="Preorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B184" r:id="rId167" display="Postorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B185" r:id="rId168" display="Left View of a tree"/>
-    <hyperlink ref="B186" r:id="rId169" display="Right View of Tree"/>
-    <hyperlink ref="B187" r:id="rId170" display="Top View of a tree"/>
-    <hyperlink ref="B188" r:id="rId171" display="Bottom View of a tree"/>
-    <hyperlink ref="B189" r:id="rId172" display="Zig-Zag traversal of a binary tree"/>
-    <hyperlink ref="B190" r:id="rId173" display="Check if a tree is balanced or not"/>
-    <hyperlink ref="B191" r:id="rId174" display="Diagnol Traversal of a Binary tree"/>
-    <hyperlink ref="B192" r:id="rId175" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="B193" r:id="rId176" display="Construct Binary Tree from String with Bracket Representation"/>
-    <hyperlink ref="B194" r:id="rId177" display="Convert Binary tree into Doubly Linked List"/>
-    <hyperlink ref="B195" r:id="rId178" display="Convert Binary tree into Sum tree"/>
-    <hyperlink ref="B196" r:id="rId179" display="Construct Binary tree from Inorder and preorder traversal"/>
-    <hyperlink ref="B197" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
-    <hyperlink ref="B198" r:id="rId181" display="Check if Binary tree is Sum tree or not"/>
-    <hyperlink ref="B199" r:id="rId182" display="Check if all leaf nodes are at same level or not"/>
-    <hyperlink ref="B200" r:id="rId183" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
-    <hyperlink ref="B201" r:id="rId184" display="Check if 2 trees are mirror or not"/>
-    <hyperlink ref="B202" r:id="rId185" display="Sum of Nodes on the Longest path from root to leaf node "/>
-    <hyperlink ref="B203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
-    <hyperlink ref="B204" r:id="rId187" display="Find Largest subtree sum in a tree"/>
-    <hyperlink ref="B205" r:id="rId188" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
-    <hyperlink ref="B206" r:id="rId189" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
-    <hyperlink ref="B207" r:id="rId190" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="B208" r:id="rId191" display="Find distance between 2 nodes in a Binary tree"/>
-    <hyperlink ref="B209" r:id="rId192" display="Kth Ancestor of node in a Binary tree"/>
-    <hyperlink ref="B210" r:id="rId193" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
-    <hyperlink ref="B211" r:id="rId194" display="Tree Isomorphism Problem"/>
-    <hyperlink ref="B214" r:id="rId195" display="Fina a value in a BST"/>
-    <hyperlink ref="B215" r:id="rId196" display="Deletion of a node in a BST"/>
-    <hyperlink ref="B216" r:id="rId197" display="Find min and max value in a BST"/>
-    <hyperlink ref="B217" r:id="rId198" display="Find inorder successor and inorder predecessor in a BST"/>
-    <hyperlink ref="B218" r:id="rId199" display="Check if a tree is a BST or not "/>
-    <hyperlink ref="B219" r:id="rId200" display="Populate Inorder successor of all nodes"/>
-    <hyperlink ref="B220" r:id="rId201" display="Find LCA  of 2 nodes in a BST"/>
-    <hyperlink ref="B221" r:id="rId202" display="Construct BST from preorder traversal"/>
-    <hyperlink ref="B222" r:id="rId203" display="Convert Binary tree into BST"/>
-    <hyperlink ref="B223" r:id="rId204" display="Convert a normal BST into a Balanced BST"/>
-    <hyperlink ref="B224" r:id="rId205" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="B225" r:id="rId206" display="Find Kth largest element in a BST"/>
-    <hyperlink ref="B226" r:id="rId207" display="Find Kth smallest element in a BST"/>
-    <hyperlink ref="B227" r:id="rId208" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
-    <hyperlink ref="B228" r:id="rId209" display="Find the median of BST in O(n) time and O(1) space"/>
-    <hyperlink ref="B229" r:id="rId210" display="Count BST ndoes that lie in a given range"/>
-    <hyperlink ref="B230" r:id="rId211" display="Replace every element with the least greater element on its right"/>
-    <hyperlink ref="B231" r:id="rId212" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
-    <hyperlink ref="B232" r:id="rId213" display="Check preorder is valid or not"/>
-    <hyperlink ref="B233" r:id="rId214" display="Check whether BST contains Dead end"/>
-    <hyperlink ref="B234" r:id="rId215" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
-    <hyperlink ref="B235" r:id="rId216" display="Flatten BST to sorted list"/>
-    <hyperlink ref="B238" r:id="rId217" display="Activity Selection Problem"/>
-    <hyperlink ref="B239" r:id="rId218" display="Job SequencingProblem"/>
-    <hyperlink ref="B240" r:id="rId219" display="Huffman Coding"/>
-    <hyperlink ref="B241" r:id="rId220" display="Water Connection Problem"/>
-    <hyperlink ref="B242" r:id="rId221" display="Fractional Knapsack Problem"/>
-    <hyperlink ref="B243" r:id="rId222" display="Greedy Algorithm to find Minimum number of Coins"/>
-    <hyperlink ref="B244" r:id="rId223" display="Maximum trains for which stoppage can be provided"/>
-    <hyperlink ref="B245" r:id="rId224" display="Minimum Platforms Problem"/>
-    <hyperlink ref="B246" r:id="rId225" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
-    <hyperlink ref="B247" r:id="rId226" display="Find the minimum and maximum amount to buy all N candies"/>
-    <hyperlink ref="B248" r:id="rId227" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B249" r:id="rId228" display="Minimum Cost to cut a board into squares"/>
-    <hyperlink ref="B250" r:id="rId229" display="Check if it is possible to survive on Island"/>
-    <hyperlink ref="B251" r:id="rId230" display="Find maximum meetings in one room"/>
-    <hyperlink ref="B252" r:id="rId231" display="Maximum product subset of an array"/>
-    <hyperlink ref="B253" r:id="rId232" display="Maximize array sum after K negations"/>
-    <hyperlink ref="B254" r:id="rId233" display="Maximize the sum of arr[i]*i"/>
-    <hyperlink ref="B255" r:id="rId234" display="Maximum sum of absolute difference of an array"/>
-    <hyperlink ref="B256" r:id="rId235" display="Maximize sum of consecutive differences in a circular array"/>
-    <hyperlink ref="B257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
-    <hyperlink ref="B258" r:id="rId237" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
-    <hyperlink ref="B259" r:id="rId238" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
-    <hyperlink ref="B260" r:id="rId239" display="Smallest subset with sum greater than all other elements"/>
-    <hyperlink ref="B261" r:id="rId240" display="Chocolate Distribution Problem"/>
-    <hyperlink ref="B262" r:id="rId241" display="DEFKIN -Defense of a Kingdom"/>
-    <hyperlink ref="B263" r:id="rId242" display="DIEHARD -DIE HARD"/>
-    <hyperlink ref="B264" r:id="rId243" display="GERGOVIA -Wine trading in Gergovia"/>
-    <hyperlink ref="B265" r:id="rId244" display="Picking Up Chicks"/>
-    <hyperlink ref="B266" r:id="rId245" display="CHOCOLA –Chocolate"/>
-    <hyperlink ref="B267" r:id="rId246" display="ARRANGE -Arranging Amplifiers"/>
-    <hyperlink ref="B268" r:id="rId247" display="K Centers Problem"/>
-    <hyperlink ref="B269" r:id="rId248" display="Minimum Cost of ropes"/>
-    <hyperlink ref="B270" r:id="rId249" display="Find smallest number with given number of digits and sum of digits"/>
-    <hyperlink ref="B271" r:id="rId250" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B272" r:id="rId251" display="Find maximum sum possible equal sum of three stacks"/>
-    <hyperlink ref="B275" r:id="rId252" display="Rat in a maze Problem"/>
-    <hyperlink ref="B276" r:id="rId253" display="Printing all solutions in N-Queen Problem"/>
-    <hyperlink ref="B277" r:id="rId254" display="Word Break Problem using Backtracking"/>
-    <hyperlink ref="B278" r:id="rId255" display="Remove Invalid Parentheses"/>
-    <hyperlink ref="B279" r:id="rId256" display="Sudoku Solver"/>
-    <hyperlink ref="B280" r:id="rId257" display="m Coloring Problem"/>
-    <hyperlink ref="B281" r:id="rId258" display="Print all palindromic partitions of a string"/>
-    <hyperlink ref="B282" r:id="rId259" display="Subset Sum Problem"/>
-    <hyperlink ref="B283" r:id="rId260" display="The Knight’s tour problem"/>
-    <hyperlink ref="B284" r:id="rId261" display="Tug of War"/>
-    <hyperlink ref="B285" r:id="rId262" display="Find shortest safe route in a path with landmines"/>
-    <hyperlink ref="B286" r:id="rId263" display="Combinational Sum"/>
-    <hyperlink ref="B287" r:id="rId264" display="Find Maximum number possible by doing at-most K swaps"/>
-    <hyperlink ref="B288" r:id="rId265" display="Print all permutations of a string "/>
-    <hyperlink ref="B289" r:id="rId266" display="Find if there is a path of more than k length from a source"/>
-    <hyperlink ref="B290" r:id="rId267" display="Longest Possible Route in a Matrix with Hurdles"/>
-    <hyperlink ref="B291" r:id="rId268" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
-    <hyperlink ref="B292" r:id="rId269" display="Partition of a set intoK subsets with equal sum"/>
-    <hyperlink ref="B293" r:id="rId270" display="Find the K-th Permutation Sequence of first N natural numbers"/>
-    <hyperlink ref="B296" r:id="rId271" display=" Implement Stack from Scratch"/>
-    <hyperlink ref="B297" r:id="rId272" display=" Implement Queue from Scratch"/>
-    <hyperlink ref="B298" r:id="rId273" display="Implement 2 stack in an array"/>
-    <hyperlink ref="B299" r:id="rId274" display="find the middle element of a stack"/>
-    <hyperlink ref="B300" r:id="rId275" display="Implement &quot;N&quot; stacks in an Array"/>
-    <hyperlink ref="B301" r:id="rId276" display="Check the expression has valid or Balanced parenthesis or not."/>
-    <hyperlink ref="B302" r:id="rId277" display="Reverse a String using Stack"/>
-    <hyperlink ref="B303" r:id="rId278" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
-    <hyperlink ref="B304" r:id="rId279" display="Find the next Greater element"/>
-    <hyperlink ref="B305" r:id="rId280" display="The celebrity Problem"/>
-    <hyperlink ref="B306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
-    <hyperlink ref="B307" r:id="rId282" display="Evaluation of Postfix expression"/>
-    <hyperlink ref="B308" r:id="rId283" display="Implement a method to insert an element at its bottom without using any other data structure."/>
-    <hyperlink ref="B309" r:id="rId284" display="Reverse a stack using recursion"/>
-    <hyperlink ref="B310" r:id="rId285" display="Sort a Stack using recursion"/>
-    <hyperlink ref="B311" r:id="rId286" display="Merge Overlapping Intervals"/>
-    <hyperlink ref="B312" r:id="rId287" display="Largest rectangular Area in Histogram"/>
-    <hyperlink ref="B313" r:id="rId288" display="Length of the Longest Valid Substring"/>
-    <hyperlink ref="B314" r:id="rId289" display="Expression contains redundant bracket or not"/>
-    <hyperlink ref="B315" r:id="rId290" display="Implement Stack using Queue"/>
-    <hyperlink ref="B316" r:id="rId291" display="Implement Stack using Deque"/>
-    <hyperlink ref="B317" r:id="rId292" display="Stack Permutations (Check if an array is stack permutation of other)"/>
-    <hyperlink ref="B318" r:id="rId293" display="Implement Queue using Stack  "/>
-    <hyperlink ref="B319" r:id="rId294" display="Implement &quot;n&quot; queue in an array"/>
-    <hyperlink ref="B320" r:id="rId295" display="Implement a Circular queue"/>
-    <hyperlink ref="B321" r:id="rId296" display="LRU Cache Implementationa"/>
-    <hyperlink ref="B322" r:id="rId297" display="Reverse a Queue using recursion"/>
-    <hyperlink ref="B323" r:id="rId298" display="Reverse the first “K” elements of a queue"/>
-    <hyperlink ref="B324" r:id="rId299" display="Interleave the first half of the queue with second half"/>
-    <hyperlink ref="B325" r:id="rId300" display="Find the first circular tour that visits all Petrol Pumps"/>
-    <hyperlink ref="B326" r:id="rId301" display="Minimum time required to rot all oranges"/>
-    <hyperlink ref="B327" r:id="rId302" display="Distance of nearest cell having 1 in a binary matrix"/>
-    <hyperlink ref="B328" r:id="rId303" display="First negative integer in every window of size “k”"/>
-    <hyperlink ref="B329" r:id="rId304" display="Check if all levels of two trees are anagrams or not."/>
-    <hyperlink ref="B330" r:id="rId305" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
-    <hyperlink ref="B331" r:id="rId306" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
-    <hyperlink ref="B332" r:id="rId307" display="Queue based approach or first non-repeating character in a stream."/>
-    <hyperlink ref="B333" r:id="rId308" display="Next Smaller Element"/>
-    <hyperlink ref="B336" r:id="rId309" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
-    <hyperlink ref="B337" r:id="rId310" display="Sort an Array using heap. (HeapSort)"/>
-    <hyperlink ref="B338" r:id="rId311" display="Maximum of all subarrays of size k."/>
-    <hyperlink ref="B339" r:id="rId312" display="“k” largest element in an array"/>
-    <hyperlink ref="B340" r:id="rId313" display="Kth smallest and largest element in an unsorted array"/>
-    <hyperlink ref="B341" r:id="rId314" display="Merge “K” sorted arrays. [ IMP ]"/>
-    <hyperlink ref="B342" r:id="rId315" display="Merge 2 Binary Max Heaps"/>
-    <hyperlink ref="B343" r:id="rId316" display="Kth largest sum continuous subarrays"/>
-    <hyperlink ref="B344" r:id="rId317" display="Leetcode- reorganize strings"/>
-    <hyperlink ref="B345" r:id="rId318" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="B346" r:id="rId319" display="Smallest range in “K” Lists"/>
-    <hyperlink ref="B347" r:id="rId320" display="Median in a stream of Integers"/>
-    <hyperlink ref="B348" r:id="rId321" display="Check if a Binary Tree is Heap"/>
-    <hyperlink ref="B349" r:id="rId322" display="Connect “n” ropes with minimum cost"/>
-    <hyperlink ref="B350" r:id="rId323" display="Convert BST to Min Heap"/>
-    <hyperlink ref="B351" r:id="rId324" display="Convert min heap to max heap"/>
-    <hyperlink ref="B352" r:id="rId325" display="Rearrange characters in a string such that no two adjacent are same."/>
-    <hyperlink ref="B353" r:id="rId326" display="Minimum sum of two numbers formed from digits of an array"/>
-    <hyperlink ref="B356" r:id="rId327" display="Create a Graph, print it"/>
-    <hyperlink ref="B357" r:id="rId328" display="Implement BFS algorithm "/>
-    <hyperlink ref="B358" r:id="rId329" display="Implement DFS Algo "/>
-    <hyperlink ref="B359" r:id="rId330" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B360" r:id="rId331" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B361" r:id="rId332" display="Search in a Maze"/>
-    <hyperlink ref="B362" r:id="rId333" display="Minimum Step by Knight"/>
-    <hyperlink ref="B363" r:id="rId334" display="flood fill algo"/>
-    <hyperlink ref="B364" r:id="rId335" display="Clone a graph"/>
-    <hyperlink ref="B365" r:id="rId336" display="Making wired Connections"/>
-    <hyperlink ref="B366" r:id="rId337" display="word Ladder "/>
-    <hyperlink ref="B367" r:id="rId338" display="Dijkstra algo"/>
-    <hyperlink ref="B368" r:id="rId339" display="Implement Topological Sort "/>
-    <hyperlink ref="B369" r:id="rId340" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
-    <hyperlink ref="B370" r:id="rId341" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
-    <hyperlink ref="B371" r:id="rId342" display="Find the no. of Isalnds"/>
-    <hyperlink ref="B372" r:id="rId343" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
-    <hyperlink ref="B373" r:id="rId344" display="Implement Kruksal’sAlgorithm"/>
-    <hyperlink ref="B374" r:id="rId345" display="Implement Prim’s Algorithm"/>
-    <hyperlink ref="B375" r:id="rId346" display="Total no. of Spanning tree in a graph"/>
-    <hyperlink ref="B376" r:id="rId347" display="Implement Bellman Ford Algorithm"/>
-    <hyperlink ref="B377" r:id="rId348" display="Implement Floyd warshallAlgorithm"/>
-    <hyperlink ref="B378" r:id="rId349" display="Travelling Salesman Problem"/>
-    <hyperlink ref="B379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
-    <hyperlink ref="B380" r:id="rId351" display="Snake and Ladders Problem"/>
-    <hyperlink ref="B381" r:id="rId352" display="Find bridge in a graph"/>
-    <hyperlink ref="B382" r:id="rId353" display="Count Strongly connected Components(Kosaraju Algo)"/>
-    <hyperlink ref="B383" r:id="rId354" display="Check whether a graph is Bipartite or Not"/>
-    <hyperlink ref="B384" r:id="rId355" display="Detect Negative cycle in a graph"/>
-    <hyperlink ref="B385" r:id="rId356" display="Longest path in a Directed Acyclic Graph"/>
-    <hyperlink ref="B386" r:id="rId357" display="Journey to the Moon"/>
-    <hyperlink ref="B387" r:id="rId358" display="Cheapest Flights Within K Stops"/>
-    <hyperlink ref="B388" r:id="rId359" display="Oliver and the Game"/>
-    <hyperlink ref="B389" r:id="rId360" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B390" r:id="rId361" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B391" r:id="rId362" display="Find if there is a path of more thank length from a source"/>
-    <hyperlink ref="B392" r:id="rId363" display="M-ColouringProblem"/>
-    <hyperlink ref="B393" r:id="rId364" display="Minimum edges to reverse o make path from source to destination"/>
-    <hyperlink ref="B394" r:id="rId365" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
-    <hyperlink ref="B395" r:id="rId366" display="Vertex Cover Problem"/>
-    <hyperlink ref="B396" r:id="rId367" display="Chinese Postman or Route Inspection"/>
-    <hyperlink ref="B397" r:id="rId368" display="Number of Triangles in a Directed and Undirected Graph"/>
-    <hyperlink ref="B398" r:id="rId369" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B399" r:id="rId370" display="Two Clique Problem"/>
-    <hyperlink ref="B402" r:id="rId371" display="Construct a trie from scratch"/>
-    <hyperlink ref="B403" r:id="rId372" display="Find shortest unique prefix for every word in a given list"/>
-    <hyperlink ref="B404" r:id="rId373" display="Word Break Problem | (Trie solution)"/>
-    <hyperlink ref="B405" r:id="rId374" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B406" r:id="rId375" display="Implement a Phone Directory"/>
-    <hyperlink ref="B407" r:id="rId376" display="Print unique rows in a given boolean matrix"/>
-    <hyperlink ref="B410" r:id="rId377" display="Coin ChangeProblem"/>
-    <hyperlink ref="B411" r:id="rId378" display="Knapsack Problem"/>
-    <hyperlink ref="B412" r:id="rId379" display="Binomial CoefficientProblem"/>
-    <hyperlink ref="B413" r:id="rId380" display="Permutation CoefficientProblem"/>
-    <hyperlink ref="B414" r:id="rId381" display="Program for nth Catalan Number"/>
-    <hyperlink ref="B415" r:id="rId382" display="Matrix Chain Multiplication "/>
-    <hyperlink ref="B416" r:id="rId383" display="Edit Distance"/>
-    <hyperlink ref="B417" r:id="rId384" display="Subset Sum Problem"/>
-    <hyperlink ref="B418" r:id="rId385" display="Friends Pairing Problem"/>
-    <hyperlink ref="B419" r:id="rId386" display="Gold Mine Problem"/>
-    <hyperlink ref="B420" r:id="rId387" display="Assembly Line SchedulingProblem"/>
-    <hyperlink ref="B421" r:id="rId388" display="Painting the Fenceproblem"/>
-    <hyperlink ref="B422" r:id="rId389" display="Maximize The Cut Segments"/>
-    <hyperlink ref="B423" r:id="rId390" display="Longest Common Subsequence"/>
-    <hyperlink ref="B424" r:id="rId391" display="Longest Repeated Subsequence"/>
-    <hyperlink ref="B425" r:id="rId392" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="B426" r:id="rId393" display="Space Optimized Solution of LCS"/>
-    <hyperlink ref="B427" r:id="rId394" display="LCS (Longest Common Subsequence) of three strings"/>
-    <hyperlink ref="B428" r:id="rId395" display="Maximum Sum Increasing Subsequence"/>
-    <hyperlink ref="B429" r:id="rId396" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="B430" r:id="rId397" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="B431" r:id="rId398" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="B432" r:id="rId399" display="Egg Dropping Problem"/>
-    <hyperlink ref="B433" r:id="rId400" display="Maximum Length Chain of Pairs"/>
-    <hyperlink ref="B434" r:id="rId401" display="Maximum size square sub-matrix with all 1s"/>
-    <hyperlink ref="B435" r:id="rId402" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="B436" r:id="rId403" display="Min Cost PathProblem"/>
-    <hyperlink ref="B437" r:id="rId404" display="Maximum difference of zeros and ones in binary string"/>
-    <hyperlink ref="B438" r:id="rId405" display="Minimum number of jumps to reach end"/>
-    <hyperlink ref="B439" r:id="rId406" display="Minimum cost to fill given weight in a bag"/>
-    <hyperlink ref="B440" r:id="rId407" display="Minimum removals from array to make max –min &lt;= K"/>
-    <hyperlink ref="B441" r:id="rId408" display="Longest Common Substring"/>
-    <hyperlink ref="B442" r:id="rId409" display="Count number of ways to reacha given score in a game"/>
-    <hyperlink ref="B443" r:id="rId410" display="Count Balanced Binary Trees of Height h"/>
-    <hyperlink ref="B444" r:id="rId411" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
-    <hyperlink ref="B445" r:id="rId412" display="Smallest sum contiguous subarray"/>
-    <hyperlink ref="B446" r:id="rId413" display="Unbounded Knapsack (Repetition of items allowed)"/>
-    <hyperlink ref="B447" r:id="rId414" display="Word Break Problem"/>
-    <hyperlink ref="B448" r:id="rId415" display="Largest Independent Set Problem"/>
-    <hyperlink ref="B449" r:id="rId416" display="Partition problem"/>
-    <hyperlink ref="B450" r:id="rId417" display="Longest Palindromic Subsequence"/>
-    <hyperlink ref="B451" r:id="rId418" display="Count All Palindromic Subsequence in a given String"/>
-    <hyperlink ref="B452" r:id="rId419" display="Longest Palindromic Substring"/>
-    <hyperlink ref="B453" r:id="rId420" display="Longest alternating subsequence"/>
-    <hyperlink ref="B454" r:id="rId421" display="Weighted Job Scheduling"/>
-    <hyperlink ref="B455" r:id="rId422" display="Coin game winner where every player has three choices"/>
-    <hyperlink ref="B456" r:id="rId423" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
-    <hyperlink ref="B457" r:id="rId424" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
-    <hyperlink ref="B458" r:id="rId425" display="Optimal Strategy for a Game"/>
-    <hyperlink ref="B459" r:id="rId426" display="Optimal Binary Search Tree"/>
-    <hyperlink ref="B460" r:id="rId427" display="Palindrome PartitioningProblem"/>
-    <hyperlink ref="B461" r:id="rId428" display="Word Wrap Problem"/>
-    <hyperlink ref="B462" r:id="rId429" display="Mobile Numeric Keypad Problem [ IMP ]"/>
-    <hyperlink ref="B463" r:id="rId430" display="Boolean Parenthesization Problem"/>
-    <hyperlink ref="B464" r:id="rId431" display="Largest rectangular sub-matrix whose sum is 0"/>
-    <hyperlink ref="B465" r:id="rId432" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
-    <hyperlink ref="B466" r:id="rId433" display="Maximum sum rectangle in a 2D matrix"/>
-    <hyperlink ref="B467" r:id="rId434" display="Maximum profit by buying and selling a share at most k times"/>
-    <hyperlink ref="B468" r:id="rId435" display="Find if a string is interleaved of two other strings"/>
-    <hyperlink ref="B469" r:id="rId436" display="Maximum Length of Pair Chain"/>
-    <hyperlink ref="B472" r:id="rId437" display="Count set bits in an integer"/>
-    <hyperlink ref="B473" r:id="rId438" display="Find the two non-repeating elements in an array of repeating elements"/>
-    <hyperlink ref="B474" r:id="rId439" display="Count number of bits to be flipped to convert A to B"/>
-    <hyperlink ref="B475" r:id="rId440" display="Count total set bits in all numbers from 1 to n"/>
-    <hyperlink ref="B476" r:id="rId441" display="Program to find whether a no is power of two"/>
-    <hyperlink ref="B477" r:id="rId442" display="Find position of the only set bit"/>
-    <hyperlink ref="B478" r:id="rId443" display="Copy set bits in a range"/>
-    <hyperlink ref="B479" r:id="rId444" display="Divide two integers without using multiplication, division and mod operator"/>
-    <hyperlink ref="B480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
-    <hyperlink ref="B481" r:id="rId446" display="Power Set"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B21" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B22" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B23" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B24" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B25" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B26" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B27" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B28" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B29" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B30" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B31" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B32" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B33" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B34" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B35" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B36" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B37" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B38" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B39" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B40" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B41" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B44" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B45" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B46" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B47" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B48" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B49" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B50" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B51" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B52" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B53" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B56" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B57" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B58" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B60" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B61" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B62" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B63" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B64" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B65" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B66" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B67" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B68" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B69" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B70" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B71" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B72" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B73" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B74" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B75" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B76" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B77" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B78" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B79" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B80" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B81" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B82" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B83" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B84" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B85" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B86" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B87" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B88" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B89" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B90" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B91" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B92" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B93" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B94" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B95" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B96" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B97" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B98" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B101" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B102" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B103" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B104" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B105" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B106" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B107" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B108" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B109" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B110" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B111" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B112" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B113" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B114" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B115" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B116" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B117" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B118" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B119" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B120" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B121" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B122" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B123" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B124" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B125" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B126" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B127" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B128" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B129" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B130" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B131" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B132" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B133" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B134" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B135" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B136" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B139" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B140" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B141" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B142" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B143" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B144" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B145" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B146" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="B147" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B148" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="B149" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B150" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B151" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B152" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B153" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B154" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B155" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B156" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B157" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B158" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B159" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B160" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B161" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B162" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B163" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B166" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B167" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B168" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B169" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B170" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B171" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B172" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B173" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B174" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B177" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B178" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B179" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B180" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B181" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B182" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B183" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B184" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B185" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B186" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B187" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B188" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B189" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B190" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B191" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B192" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B193" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B194" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B195" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B196" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B197" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B198" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B199" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B200" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B201" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B202" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B204" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B205" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B206" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B207" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B208" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B209" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B210" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B211" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B214" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B215" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B216" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B217" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B218" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B219" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B220" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B221" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B222" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B223" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="B224" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B225" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B226" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B227" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B228" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B229" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B230" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B231" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B232" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B233" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B234" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B235" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B238" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B239" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B240" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B241" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B242" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B243" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B244" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B245" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B246" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B247" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B248" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B249" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B250" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B251" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B252" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B253" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B254" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B255" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B256" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B258" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B259" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B260" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B261" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B262" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B263" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B264" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="B265" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B266" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B267" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B268" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B269" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B270" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B271" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B272" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="B275" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B276" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B277" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B278" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B279" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B280" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B281" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B282" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B283" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B284" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B285" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B286" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B287" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B288" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B289" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B290" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B291" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B292" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B293" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B296" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B297" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B298" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B299" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B300" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B301" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B302" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B303" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B304" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B305" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B307" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B308" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B309" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B310" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B311" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B312" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B313" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B314" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B315" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B316" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B317" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B318" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B319" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B320" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B321" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B322" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B323" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B324" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B325" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B326" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B327" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B328" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B329" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B330" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B331" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B332" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B333" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B336" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B337" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B338" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B339" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B340" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B341" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B342" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B343" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B344" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B345" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B346" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B347" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B348" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B349" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B350" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B351" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B352" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B353" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="B356" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="B357" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="B358" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="B359" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="B360" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="B361" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="B362" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="B363" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="B364" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="B365" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="B366" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="B367" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="B368" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="B369" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="B370" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="B371" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="B372" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="B373" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="B374" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="B375" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="B376" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="B377" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="B378" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="B379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="B380" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="B381" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="B382" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="B383" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="B384" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="B385" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="B386" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="B387" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="B388" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="B389" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="B390" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="B391" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="B392" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="B393" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="B394" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="B395" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="B396" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="B397" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="B398" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="B399" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="B402" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="B403" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="B404" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="B405" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="B406" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="B407" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="B410" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="B411" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="B412" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="B413" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="B414" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="B415" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="B416" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="B417" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="B418" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="B419" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="B420" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="B421" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="B422" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="B423" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="B424" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="B425" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="B426" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="B427" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="B428" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="B429" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="B430" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="B431" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="B432" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="B433" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="B434" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="B435" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="B436" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="B437" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="B438" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="B439" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="B440" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="B441" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="B442" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="B443" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="B444" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="B445" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="B446" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="B447" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="B448" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="B449" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="B450" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="B451" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="B452" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="B453" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="B454" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="B455" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="B456" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="B457" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="B458" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="B459" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="B460" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="B461" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="B462" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="B463" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="B464" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="B465" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="B466" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="B467" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="B468" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="B469" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="B472" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="B473" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="B474" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="B475" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="B476" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="B477" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="B478" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="B479" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="B480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="B481" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\DSA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F586E1E1-F85E-4F9E-AC2A-382CA84F3073}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,13 +22,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="465">
   <si>
-    <t>Questions by Love Babbar:</t>
+    <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
   <si>
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
   </si>
   <si>
-    <t>Topic:</t>
+    <t xml:space="preserve">Topic:</t>
   </si>
   <si>
     <t xml:space="preserve">Problem: </t>
@@ -42,850 +37,850 @@
     <t xml:space="preserve">Done [yes or no] </t>
   </si>
   <si>
-    <t>&lt;-&gt;</t>
-  </si>
-  <si>
-    <t>Array</t>
-  </si>
-  <si>
-    <t>Reverse the array</t>
-  </si>
-  <si>
-    <t>Find the maximum and minimum element in an array</t>
+    <t xml:space="preserve">&lt;-&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse the array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the maximum and minimum element in an array</t>
   </si>
   <si>
     <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
   </si>
   <si>
-    <t>Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
+    <t xml:space="preserve">Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
   </si>
   <si>
     <t xml:space="preserve">Move all the negative elements to one side of the array </t>
   </si>
   <si>
-    <t>Find the Union and Intersection of the two sorted arrays.</t>
-  </si>
-  <si>
-    <t>Write a program to cyclically rotate an array by one.</t>
-  </si>
-  <si>
-    <t>find Largest sum contiguous Subarray [V. IMP]</t>
-  </si>
-  <si>
-    <t>Minimise the maximum difference between heights [V.IMP]</t>
-  </si>
-  <si>
-    <t>Minimum no. of Jumps to reach end of an array</t>
-  </si>
-  <si>
-    <t>find duplicate in an array of N+1 Integers</t>
-  </si>
-  <si>
-    <t>Merge 2 sorted arrays without using Extra space.</t>
-  </si>
-  <si>
-    <t>Kadane's Algo [V.V.V.V.V IMP]</t>
-  </si>
-  <si>
-    <t>Merge Intervals</t>
-  </si>
-  <si>
-    <t>Next Permutation</t>
-  </si>
-  <si>
-    <t>Count Inversion</t>
-  </si>
-  <si>
-    <t>Best time to buy and Sell stock</t>
-  </si>
-  <si>
-    <t>find all pairs on integer array whose sum is equal to given number</t>
-  </si>
-  <si>
-    <t>find common elements In 3 sorted arrays</t>
-  </si>
-  <si>
-    <t>Rearrange the array in alternating positive and negative items with O(1) extra space</t>
-  </si>
-  <si>
-    <t>Find if there is any subarray with sum equal to 0</t>
-  </si>
-  <si>
-    <t>Find factorial of a large number</t>
+    <t xml:space="preserve">Find the Union and Intersection of the two sorted arrays.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a program to cyclically rotate an array by one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find Largest sum contiguous Subarray [V. IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimise the maximum difference between heights [V.IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum no. of Jumps to reach end of an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find duplicate in an array of N+1 Integers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge 2 sorted arrays without using Extra space.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kadane's Algo [V.V.V.V.V IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next Permutation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count Inversion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best time to buy and Sell stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find all pairs on integer array whose sum is equal to given number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find common elements In 3 sorted arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rearrange the array in alternating positive and negative items with O(1) extra space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find if there is any subarray with sum equal to 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find factorial of a large number</t>
   </si>
   <si>
     <t xml:space="preserve">find maximum product subarray </t>
   </si>
   <si>
-    <t>Find longest coinsecutive subsequence</t>
-  </si>
-  <si>
-    <t>Given an array of size n and a number k, fin all elements that appear more than " n/k " times.</t>
-  </si>
-  <si>
-    <t>Maximum profit by buying and selling a share atmost twice</t>
-  </si>
-  <si>
-    <t>Find whether an array is a subset of another array</t>
-  </si>
-  <si>
-    <t>Find the triplet that sum to a given value</t>
-  </si>
-  <si>
-    <t>Trapping Rain water problem</t>
-  </si>
-  <si>
-    <t>Chocolate Distribution problem</t>
-  </si>
-  <si>
-    <t>Smallest Subarray with sum greater than a given value</t>
-  </si>
-  <si>
-    <t>Three way partitioning of an array around a given value</t>
-  </si>
-  <si>
-    <t>Minimum swaps required bring elements less equal K together</t>
-  </si>
-  <si>
-    <t>Minimum no. of operations required to make an array palindrome</t>
-  </si>
-  <si>
-    <t>Median of 2 sorted arrays of equal size</t>
-  </si>
-  <si>
-    <t>Median of 2 sorted arrays of different size</t>
-  </si>
-  <si>
-    <t>Matrix</t>
-  </si>
-  <si>
-    <t>Spiral traversal on a Matrix</t>
-  </si>
-  <si>
-    <t>Search an element in a matriix</t>
-  </si>
-  <si>
-    <t>Find median in a row wise sorted matrix</t>
-  </si>
-  <si>
-    <t>Find row with maximum no. of 1's</t>
-  </si>
-  <si>
-    <t>Print elements in sorted order using row-column wise sorted matrix</t>
-  </si>
-  <si>
-    <t>Maximum size rectangle</t>
-  </si>
-  <si>
-    <t>Find a specific pair in matrix</t>
-  </si>
-  <si>
-    <t>Rotate matrix by 90 degrees</t>
-  </si>
-  <si>
-    <t>Kth smallest element in a row-cpumn wise sorted matrix</t>
-  </si>
-  <si>
-    <t>Common elements in all rows of a given matrix</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>Reverse a String</t>
-  </si>
-  <si>
-    <t>Check whether a String is Palindrome or not</t>
-  </si>
-  <si>
-    <t>Find Duplicate characters in a string</t>
-  </si>
-  <si>
-    <t>Why strings are immutable in Java?</t>
-  </si>
-  <si>
-    <t>Write a Code to check whether one string is a rotation of another</t>
-  </si>
-  <si>
-    <t>Write a Program to check whether a string is a valid shuffle of two strings or not</t>
-  </si>
-  <si>
-    <t>Count and Say problem</t>
-  </si>
-  <si>
-    <t>Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]</t>
-  </si>
-  <si>
-    <t>Find Longest Recurring Subsequence in String</t>
-  </si>
-  <si>
-    <t>Print all Subsequences of a string.</t>
-  </si>
-  <si>
-    <t>Print all the permutations of the given string</t>
-  </si>
-  <si>
-    <t>Split the Binary string into two substring with equal 0’s and 1’s</t>
-  </si>
-  <si>
-    <t>Word Wrap Problem [VERY IMP].</t>
-  </si>
-  <si>
-    <t>EDIT Distance [Very Imp]</t>
-  </si>
-  <si>
-    <t>Find next greater number with same set of digits. [Very Very IMP]</t>
-  </si>
-  <si>
-    <t>Balanced Parenthesis problem.[Imp]</t>
-  </si>
-  <si>
-    <t>Word break Problem[ Very Imp]</t>
-  </si>
-  <si>
-    <t>Rabin Karp Algo</t>
-  </si>
-  <si>
-    <t>KMP Algo</t>
-  </si>
-  <si>
-    <t>Convert a Sentence into its equivalent mobile numeric keypad sequence.</t>
-  </si>
-  <si>
-    <t>Minimum number of bracket reversals needed to make an expression balanced.</t>
-  </si>
-  <si>
-    <t>Count All Palindromic Subsequence in a given String.</t>
-  </si>
-  <si>
-    <t>Count of number of given string in 2D character array</t>
-  </si>
-  <si>
-    <t>Search a Word in a 2D Grid of characters.</t>
-  </si>
-  <si>
-    <t>Boyer Moore Algorithm for Pattern Searching.</t>
-  </si>
-  <si>
-    <t>Converting Roman Numerals to Decimal</t>
-  </si>
-  <si>
-    <t>Longest Common Prefix</t>
-  </si>
-  <si>
-    <t>Number of flips to make binary string alternate</t>
-  </si>
-  <si>
-    <t>Find the first repeated word in string.</t>
-  </si>
-  <si>
-    <t>Minimum number of swaps for bracket balancing.</t>
-  </si>
-  <si>
-    <t>Find the longest common subsequence between two strings.</t>
-  </si>
-  <si>
-    <t>Program to generate all possible valid IP addresses from given  string.</t>
-  </si>
-  <si>
-    <t>Write a program tofind the smallest window that contains all characters of string itself.</t>
-  </si>
-  <si>
-    <t>Rearrange characters in a string such that no two adjacent are same</t>
-  </si>
-  <si>
-    <t>Minimum characters to be added at front to make string palindrome</t>
-  </si>
-  <si>
-    <t>Given a sequence of words, print all anagrams together</t>
-  </si>
-  <si>
-    <t>Find the smallest window in a string containing all characters of another string</t>
-  </si>
-  <si>
-    <t>Recursively remove all adjacent duplicates</t>
-  </si>
-  <si>
-    <t>String matching where one string contains wildcard characters</t>
-  </si>
-  <si>
-    <t>Function to find Number of customers who could not get a computer</t>
-  </si>
-  <si>
-    <t>Transform One String to Another using Minimum Number of Given Operation</t>
-  </si>
-  <si>
-    <t>Check if two given strings are isomorphic to each other</t>
-  </si>
-  <si>
-    <t>Recursively print all sentences that can be formed from list of word lists</t>
-  </si>
-  <si>
-    <t>Searching &amp; Sorting</t>
-  </si>
-  <si>
-    <t>Find first and last positions of an element in a sorted array</t>
-  </si>
-  <si>
-    <t>Find a Fixed Point (Value equal to index) in a given array</t>
-  </si>
-  <si>
-    <t>Search in a rotated sorted array</t>
-  </si>
-  <si>
-    <t>square root of an integer</t>
-  </si>
-  <si>
-    <t>Maximum and minimum of an array using minimum number of comparisons</t>
-  </si>
-  <si>
-    <t>Optimum location of point to minimize total distance</t>
-  </si>
-  <si>
-    <t>Find the repeating and the missing</t>
-  </si>
-  <si>
-    <t>find majority element</t>
-  </si>
-  <si>
-    <t>Searching in an array where adjacent differ by at most k</t>
-  </si>
-  <si>
-    <t>find a pair with a given difference</t>
-  </si>
-  <si>
-    <t>find four elements that sum to a given value</t>
-  </si>
-  <si>
-    <t>maximum sum such that no 2 elements are adjacent</t>
-  </si>
-  <si>
-    <t>Count triplet with sum smaller than a given value</t>
-  </si>
-  <si>
-    <t>merge 2 sorted arrays</t>
-  </si>
-  <si>
-    <t>print all subarrays with 0 sum</t>
-  </si>
-  <si>
-    <t>Product array Puzzle</t>
-  </si>
-  <si>
-    <t>Sort array according to count of set bits</t>
-  </si>
-  <si>
-    <t>minimum no. of swaps required to sort the array</t>
-  </si>
-  <si>
-    <t>Bishu and Soldiers</t>
-  </si>
-  <si>
-    <t>Rasta and Kheshtak</t>
-  </si>
-  <si>
-    <t>Kth smallest number again</t>
-  </si>
-  <si>
-    <t>Find pivot element in a sorted array</t>
-  </si>
-  <si>
-    <t>K-th Element of Two Sorted Arrays</t>
-  </si>
-  <si>
-    <t>Aggressive cows</t>
-  </si>
-  <si>
-    <t>Book Allocation Problem</t>
-  </si>
-  <si>
-    <t>EKOSPOJ:</t>
-  </si>
-  <si>
-    <t>Job Scheduling Algo</t>
-  </si>
-  <si>
-    <t>Missing Number in AP</t>
-  </si>
-  <si>
-    <t>Smallest number with atleastn trailing zeroes infactorial</t>
-  </si>
-  <si>
-    <t>Painters Partition Problem:</t>
-  </si>
-  <si>
-    <t>ROTI-Prata SPOJ</t>
-  </si>
-  <si>
-    <t>DoubleHelix SPOJ</t>
-  </si>
-  <si>
-    <t>Subset Sums</t>
-  </si>
-  <si>
-    <t>Findthe inversion count</t>
-  </si>
-  <si>
-    <t>Implement Merge-sort in-place</t>
-  </si>
-  <si>
-    <t>Partitioning and Sorting Arrays with Many Repeated Entries</t>
-  </si>
-  <si>
-    <t>LinkedList</t>
-  </si>
-  <si>
-    <t>Write a Program to reverse the Linked List. (Both Iterative and recursive)</t>
-  </si>
-  <si>
-    <t>Reverse a Linked List in group of Given Size. [Very Imp]</t>
-  </si>
-  <si>
-    <t>Write a program to Detect loop in a linked list.</t>
-  </si>
-  <si>
-    <t>Write a program to Delete loop in a linked list.</t>
-  </si>
-  <si>
-    <t>Find the starting point of the loop. </t>
-  </si>
-  <si>
-    <t>Remove Duplicates in a sorted Linked List.</t>
-  </si>
-  <si>
-    <t>Remove Duplicates in a Un-sorted Linked List.</t>
-  </si>
-  <si>
-    <t>Write a Program to Move the last element to Front in a Linked List.</t>
-  </si>
-  <si>
-    <t>Add “1” to a number represented as a Linked List.</t>
-  </si>
-  <si>
-    <t>Add two numbers represented by linked lists.</t>
-  </si>
-  <si>
-    <t>Intersection of two Sorted Linked List.</t>
-  </si>
-  <si>
-    <t>Intersection Point of two Linked Lists.</t>
-  </si>
-  <si>
-    <t>Merge Sort For Linked lists.[Very Important]</t>
-  </si>
-  <si>
-    <t>Quicksort for Linked Lists.[Very Important]</t>
-  </si>
-  <si>
-    <t>Find the middle Element of a linked list.</t>
-  </si>
-  <si>
-    <t>Check if a linked list is a circular linked list.</t>
-  </si>
-  <si>
-    <t>Split a Circular linked list into two halves.</t>
-  </si>
-  <si>
-    <t>Write a Program to check whether the Singly Linked list is a palindrome or not.</t>
-  </si>
-  <si>
-    <t>Deletion from a Circular Linked List.</t>
-  </si>
-  <si>
-    <t>Reverse a Doubly Linked list.</t>
-  </si>
-  <si>
-    <t>Find pairs with a given sum in a DLL.</t>
-  </si>
-  <si>
-    <t>Count triplets in a sorted DLL whose sum is equal to given value “X”.</t>
-  </si>
-  <si>
-    <t>Sort a “k”sorted Doubly Linked list.[Very IMP]</t>
-  </si>
-  <si>
-    <t>Rotate DoublyLinked list by N nodes.</t>
-  </si>
-  <si>
-    <t>Rotate a Doubly Linked list in group of Given Size.[Very IMP]</t>
-  </si>
-  <si>
-    <t>Can we reverse a linked list in less than O(n) ?</t>
-  </si>
-  <si>
-    <t>Why Quicksort is preferred for. Arrays and Merge Sort for LinkedLists ?</t>
-  </si>
-  <si>
-    <t>Flatten a Linked List</t>
-  </si>
-  <si>
-    <t>Sort a LL of 0's, 1's and 2's</t>
-  </si>
-  <si>
-    <t>Clone a linked list with next and random pointer</t>
-  </si>
-  <si>
-    <t>Merge K sorted Linked list</t>
-  </si>
-  <si>
-    <t>Multiply 2 no. represented by LL</t>
-  </si>
-  <si>
-    <t>Delete nodes which have a greater value on right side</t>
-  </si>
-  <si>
-    <t>Segregate even and odd nodes in a Linked List</t>
-  </si>
-  <si>
-    <t>Program for n’th node from the end of a Linked List</t>
-  </si>
-  <si>
-    <t>Find the first non-repeating character from a stream of characters</t>
-  </si>
-  <si>
-    <t>Binary Trees</t>
-  </si>
-  <si>
-    <t>level order traversal</t>
-  </si>
-  <si>
-    <t>Reverse Level Order traversal</t>
-  </si>
-  <si>
-    <t>Height of a tree</t>
-  </si>
-  <si>
-    <t>Diameter of a tree</t>
-  </si>
-  <si>
-    <t>Mirror of a tree</t>
-  </si>
-  <si>
-    <t>Inorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t>Preorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t>Postorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t>Left View of a tree</t>
-  </si>
-  <si>
-    <t>Right View of Tree</t>
-  </si>
-  <si>
-    <t>Top View of a tree</t>
-  </si>
-  <si>
-    <t>Bottom View of a tree</t>
-  </si>
-  <si>
-    <t>Zig-Zag traversal of a binary tree</t>
-  </si>
-  <si>
-    <t>Check if a tree is balanced or not</t>
-  </si>
-  <si>
-    <t>Diagnol Traversal of a Binary tree</t>
-  </si>
-  <si>
-    <t>Boundary traversal of a Binary tree</t>
-  </si>
-  <si>
-    <t>Construct Binary Tree from String with Bracket Representation</t>
-  </si>
-  <si>
-    <t>Convert Binary tree into Doubly Linked List</t>
-  </si>
-  <si>
-    <t>Convert Binary tree into Sum tree</t>
-  </si>
-  <si>
-    <t>Construct Binary tree from Inorder and preorder traversal</t>
-  </si>
-  <si>
-    <t>Find minimum swaps required to convert a Binary tree into BST</t>
-  </si>
-  <si>
-    <t>Check if Binary tree is Sum tree or not</t>
-  </si>
-  <si>
-    <t>Check if all leaf nodes are at same level or not</t>
-  </si>
-  <si>
-    <t>Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]</t>
-  </si>
-  <si>
-    <t>Check if 2 trees are mirror or not</t>
+    <t xml:space="preserve">Find longest coinsecutive subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given an array of size n and a number k, fin all elements that appear more than " n/k " times.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum profit by buying and selling a share atmost twice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find whether an array is a subset of another array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the triplet that sum to a given value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trapping Rain water problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chocolate Distribution problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smallest Subarray with sum greater than a given value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three way partitioning of an array around a given value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum swaps required bring elements less equal K together</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum no. of operations required to make an array palindrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median of 2 sorted arrays of equal size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median of 2 sorted arrays of different size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spiral traversal on a Matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search an element in a matriix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find median in a row wise sorted matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find row with maximum no. of 1's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print elements in sorted order using row-column wise sorted matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum size rectangle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find a specific pair in matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotate matrix by 90 degrees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kth smallest element in a row-cpumn wise sorted matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common elements in all rows of a given matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse a String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check whether a String is Palindrome or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Duplicate characters in a string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why strings are immutable in Java?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a Code to check whether one string is a rotation of another</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a Program to check whether a string is a valid shuffle of two strings or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count and Say problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Longest Recurring Subsequence in String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print all Subsequences of a string.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print all the permutations of the given string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Split the Binary string into two substring with equal 0’s and 1’s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word Wrap Problem [VERY IMP].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDIT Distance [Very Imp]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find next greater number with same set of digits. [Very Very IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balanced Parenthesis problem.[Imp]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word break Problem[ Very Imp]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rabin Karp Algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KMP Algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert a Sentence into its equivalent mobile numeric keypad sequence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum number of bracket reversals needed to make an expression balanced.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count All Palindromic Subsequence in a given String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of number of given string in 2D character array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search a Word in a 2D Grid of characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boyer Moore Algorithm for Pattern Searching.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converting Roman Numerals to Decimal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Common Prefix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of flips to make binary string alternate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the first repeated word in string.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum number of swaps for bracket balancing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the longest common subsequence between two strings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program to generate all possible valid IP addresses from given  string.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a program tofind the smallest window that contains all characters of string itself.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rearrange characters in a string such that no two adjacent are same</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum characters to be added at front to make string palindrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a sequence of words, print all anagrams together</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the smallest window in a string containing all characters of another string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recursively remove all adjacent duplicates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String matching where one string contains wildcard characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Function to find Number of customers who could not get a computer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transform One String to Another using Minimum Number of Given Operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if two given strings are isomorphic to each other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recursively print all sentences that can be formed from list of word lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Searching &amp; Sorting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find first and last positions of an element in a sorted array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find a Fixed Point (Value equal to index) in a given array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search in a rotated sorted array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">square root of an integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum and minimum of an array using minimum number of comparisons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimum location of point to minimize total distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the repeating and the missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find majority element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Searching in an array where adjacent differ by at most k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find a pair with a given difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find four elements that sum to a given value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maximum sum such that no 2 elements are adjacent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count triplet with sum smaller than a given value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merge 2 sorted arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">print all subarrays with 0 sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product array Puzzle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort array according to count of set bits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum no. of swaps required to sort the array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bishu and Soldiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rasta and Kheshtak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kth smallest number again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find pivot element in a sorted array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K-th Element of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggressive cows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Book Allocation Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EKOSPOJ:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job Scheduling Algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing Number in AP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smallest number with atleastn trailing zeroes infactorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Painters Partition Problem:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROTI-Prata SPOJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DoubleHelix SPOJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subset Sums</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Findthe inversion count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Merge-sort in-place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partitioning and Sorting Arrays with Many Repeated Entries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LinkedList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a Program to reverse the Linked List. (Both Iterative and recursive)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse a Linked List in group of Given Size. [Very Imp]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a program to Detect loop in a linked list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a program to Delete loop in a linked list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the starting point of the loop. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove Duplicates in a sorted Linked List.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove Duplicates in a Un-sorted Linked List.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a Program to Move the last element to Front in a Linked List.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add “1” to a number represented as a Linked List.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add two numbers represented by linked lists.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intersection of two Sorted Linked List.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intersection Point of two Linked Lists.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Sort For Linked lists.[Very Important]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quicksort for Linked Lists.[Very Important]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the middle Element of a linked list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if a linked list is a circular linked list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Split a Circular linked list into two halves.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a Program to check whether the Singly Linked list is a palindrome or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deletion from a Circular Linked List.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse a Doubly Linked list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find pairs with a given sum in a DLL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count triplets in a sorted DLL whose sum is equal to given value “X”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort a “k”sorted Doubly Linked list.[Very IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotate DoublyLinked list by N nodes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotate a Doubly Linked list in group of Given Size.[Very IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can we reverse a linked list in less than O(n) ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why Quicksort is preferred for. Arrays and Merge Sort for LinkedLists ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flatten a Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort a LL of 0's, 1's and 2's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clone a linked list with next and random pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge K sorted Linked list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiply 2 no. represented by LL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete nodes which have a greater value on right side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segregate even and odd nodes in a Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program for n’th node from the end of a Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the first non-repeating character from a stream of characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level order traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse Level Order traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Height of a tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter of a tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirror of a tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left View of a tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right View of Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top View of a tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottom View of a tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zig-Zag traversal of a binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if a tree is balanced or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnol Traversal of a Binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boundary traversal of a Binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construct Binary Tree from String with Bracket Representation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert Binary tree into Doubly Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert Binary tree into Sum tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construct Binary tree from Inorder and preorder traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find minimum swaps required to convert a Binary tree into BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if Binary tree is Sum tree or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if all leaf nodes are at same level or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if 2 trees are mirror or not</t>
   </si>
   <si>
     <t xml:space="preserve">Sum of Nodes on the Longest path from root to leaf node </t>
   </si>
   <si>
-    <t>Check if given graph is tree or not.  [ IMP ]</t>
-  </si>
-  <si>
-    <t>Find Largest subtree sum in a tree</t>
+    <t xml:space="preserve">Check if given graph is tree or not.  [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Largest subtree sum in a tree</t>
   </si>
   <si>
     <t xml:space="preserve">Maximum Sum of nodes in Binary tree such that no two are adjacent </t>
   </si>
   <si>
-    <t>Print all "K" Sum paths in a Binary tree</t>
-  </si>
-  <si>
-    <t>Find LCA in a Binary tree</t>
-  </si>
-  <si>
-    <t>Find distance between 2 nodes in a Binary tree</t>
-  </si>
-  <si>
-    <t>Kth Ancestor of node in a Binary tree</t>
-  </si>
-  <si>
-    <t>Find all Duplicate subtrees in a Binary tree [ IMP ]</t>
-  </si>
-  <si>
-    <t>Tree Isomorphism Problem</t>
-  </si>
-  <si>
-    <t>Binary Search Trees</t>
-  </si>
-  <si>
-    <t>Fina a value in a BST</t>
-  </si>
-  <si>
-    <t>Deletion of a node in a BST</t>
-  </si>
-  <si>
-    <t>Find min and max value in a BST</t>
-  </si>
-  <si>
-    <t>Find inorder successor and inorder predecessor in a BST</t>
+    <t xml:space="preserve">Print all "K" Sum paths in a Binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find LCA in a Binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find distance between 2 nodes in a Binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kth Ancestor of node in a Binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find all Duplicate subtrees in a Binary tree [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tree Isomorphism Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Search Trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fina a value in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deletion of a node in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find min and max value in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find inorder successor and inorder predecessor in a BST</t>
   </si>
   <si>
     <t xml:space="preserve">Check if a tree is a BST or not </t>
   </si>
   <si>
-    <t>Populate Inorder successor of all nodes</t>
-  </si>
-  <si>
-    <t>Find LCA  of 2 nodes in a BST</t>
-  </si>
-  <si>
-    <t>Construct BST from preorder traversal</t>
-  </si>
-  <si>
-    <t>Convert Binary tree into BST</t>
-  </si>
-  <si>
-    <t>Convert a normal BST into a Balanced BST</t>
-  </si>
-  <si>
-    <t>Merge two BST [ V.V.V&gt;IMP ]</t>
-  </si>
-  <si>
-    <t>Find Kth largest element in a BST</t>
-  </si>
-  <si>
-    <t>Find Kth smallest element in a BST</t>
-  </si>
-  <si>
-    <t>Count pairs from 2 BST whose sum is equal to given value "X"</t>
-  </si>
-  <si>
-    <t>Find the median of BST in O(n) time and O(1) space</t>
-  </si>
-  <si>
-    <t>Count BST ndoes that lie in a given range</t>
-  </si>
-  <si>
-    <t>Replace every element with the least greater element on its right</t>
-  </si>
-  <si>
-    <t>Given "n" appointments, find the conflicting appointments</t>
-  </si>
-  <si>
-    <t>Check preorder is valid or not</t>
-  </si>
-  <si>
-    <t>Check whether BST contains Dead end</t>
-  </si>
-  <si>
-    <t>Largest BST in a Binary Tree [ V.V.V.V.V IMP ]</t>
-  </si>
-  <si>
-    <t>Flatten BST to sorted list</t>
-  </si>
-  <si>
-    <t>Greedy</t>
-  </si>
-  <si>
-    <t>Activity Selection Problem</t>
-  </si>
-  <si>
-    <t>Job SequencingProblem</t>
-  </si>
-  <si>
-    <t>Huffman Coding</t>
-  </si>
-  <si>
-    <t>Water Connection Problem</t>
-  </si>
-  <si>
-    <t>Fractional Knapsack Problem</t>
-  </si>
-  <si>
-    <t>Greedy Algorithm to find Minimum number of Coins</t>
-  </si>
-  <si>
-    <t>Maximum trains for which stoppage can be provided</t>
-  </si>
-  <si>
-    <t>Minimum Platforms Problem</t>
-  </si>
-  <si>
-    <t>Buy Maximum Stocks if i stocks can be bought on i-th day</t>
-  </si>
-  <si>
-    <t>Find the minimum and maximum amount to buy all N candies</t>
-  </si>
-  <si>
-    <t>Minimize Cash Flow among a given set of friends who have borrowed money from each other</t>
-  </si>
-  <si>
-    <t>Minimum Cost to cut a board into squares</t>
-  </si>
-  <si>
-    <t>Check if it is possible to survive on Island</t>
-  </si>
-  <si>
-    <t>Find maximum meetings in one room</t>
-  </si>
-  <si>
-    <t>Maximum product subset of an array</t>
-  </si>
-  <si>
-    <t>Maximize array sum after K negations</t>
-  </si>
-  <si>
-    <t>Maximize the sum of arr[i]*i</t>
-  </si>
-  <si>
-    <t>Maximum sum of absolute difference of an array</t>
-  </si>
-  <si>
-    <t>Maximize sum of consecutive differences in a circular array</t>
-  </si>
-  <si>
-    <t>Minimum sum of absolute difference of pairs of two arrays</t>
-  </si>
-  <si>
-    <t>Program for Shortest Job First (or SJF) CPU Scheduling</t>
-  </si>
-  <si>
-    <t>Program for Least Recently Used (LRU) Page Replacement algorithm</t>
-  </si>
-  <si>
-    <t>Smallest subset with sum greater than all other elements</t>
-  </si>
-  <si>
-    <t>Chocolate Distribution Problem</t>
-  </si>
-  <si>
-    <t>DEFKIN -Defense of a Kingdom</t>
-  </si>
-  <si>
-    <t>DIEHARD -DIE HARD</t>
-  </si>
-  <si>
-    <t>GERGOVIA -Wine trading in Gergovia</t>
-  </si>
-  <si>
-    <t>Picking Up Chicks</t>
-  </si>
-  <si>
-    <t>CHOCOLA –Chocolate</t>
-  </si>
-  <si>
-    <t>ARRANGE -Arranging Amplifiers</t>
-  </si>
-  <si>
-    <t>K Centers Problem</t>
-  </si>
-  <si>
-    <t>Minimum Cost of ropes</t>
-  </si>
-  <si>
-    <t>Find smallest number with given number of digits and sum of digits</t>
-  </si>
-  <si>
-    <t>Find maximum sum possible equal sum of three stacks</t>
-  </si>
-  <si>
-    <t>BackTracking</t>
-  </si>
-  <si>
-    <t>Rat in a maze Problem</t>
-  </si>
-  <si>
-    <t>Printing all solutions in N-Queen Problem</t>
-  </si>
-  <si>
-    <t>Word Break Problem using Backtracking</t>
-  </si>
-  <si>
-    <t>Remove Invalid Parentheses</t>
-  </si>
-  <si>
-    <t>Sudoku Solver</t>
-  </si>
-  <si>
-    <t>m Coloring Problem</t>
-  </si>
-  <si>
-    <t>Print all palindromic partitions of a string</t>
-  </si>
-  <si>
-    <t>Subset Sum Problem</t>
-  </si>
-  <si>
-    <t>The Knight’s tour problem</t>
-  </si>
-  <si>
-    <t>Tug of War</t>
-  </si>
-  <si>
-    <t>Find shortest safe route in a path with landmines</t>
-  </si>
-  <si>
-    <t>Combinational Sum</t>
-  </si>
-  <si>
-    <t>Find Maximum number possible by doing at-most K swaps</t>
+    <t xml:space="preserve">Populate Inorder successor of all nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find LCA  of 2 nodes in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construct BST from preorder traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert Binary tree into BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert a normal BST into a Balanced BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge two BST [ V.V.V&gt;IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Kth largest element in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Kth smallest element in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count pairs from 2 BST whose sum is equal to given value "X"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the median of BST in O(n) time and O(1) space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count BST ndoes that lie in a given range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replace every element with the least greater element on its right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given "n" appointments, find the conflicting appointments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check preorder is valid or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check whether BST contains Dead end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest BST in a Binary Tree [ V.V.V.V.V IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flatten BST to sorted list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greedy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activity Selection Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job SequencingProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huffman Coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Connection Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fractional Knapsack Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greedy Algorithm to find Minimum number of Coins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum trains for which stoppage can be provided</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Platforms Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy Maximum Stocks if i stocks can be bought on i-th day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the minimum and maximum amount to buy all N candies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimize Cash Flow among a given set of friends who have borrowed money from each other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Cost to cut a board into squares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if it is possible to survive on Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find maximum meetings in one room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum product subset of an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximize array sum after K negations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximize the sum of arr[i]*i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum sum of absolute difference of an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximize sum of consecutive differences in a circular array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum sum of absolute difference of pairs of two arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program for Shortest Job First (or SJF) CPU Scheduling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program for Least Recently Used (LRU) Page Replacement algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smallest subset with sum greater than all other elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chocolate Distribution Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFKIN -Defense of a Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIEHARD -DIE HARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GERGOVIA -Wine trading in Gergovia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Picking Up Chicks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOCOLA –Chocolate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARRANGE -Arranging Amplifiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K Centers Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Cost of ropes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find smallest number with given number of digits and sum of digits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find maximum sum possible equal sum of three stacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackTracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rat in a maze Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printing all solutions in N-Queen Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word Break Problem using Backtracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove Invalid Parentheses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudoku Solver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m Coloring Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print all palindromic partitions of a string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subset Sum Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Knight’s tour problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tug of War</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find shortest safe route in a path with landmines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combinational Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Maximum number possible by doing at-most K swaps</t>
   </si>
   <si>
     <t xml:space="preserve">Print all permutations of a string </t>
   </si>
   <si>
-    <t>Find if there is a path of more than k length from a source</t>
-  </si>
-  <si>
-    <t>Longest Possible Route in a Matrix with Hurdles</t>
-  </si>
-  <si>
-    <t>Print all possible paths from top left to bottom right of a mXn matrix</t>
-  </si>
-  <si>
-    <t>Partition of a set intoK subsets with equal sum</t>
-  </si>
-  <si>
-    <t>Find the K-th Permutation Sequence of first N natural numbers</t>
-  </si>
-  <si>
-    <t>Stacks &amp; Queues</t>
+    <t xml:space="preserve">Find if there is a path of more than k length from a source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Possible Route in a Matrix with Hurdles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print all possible paths from top left to bottom right of a mXn matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partition of a set intoK subsets with equal sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the K-th Permutation Sequence of first N natural numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stacks &amp; Queues</t>
   </si>
   <si>
     <t xml:space="preserve"> Implement Stack from Scratch</t>
@@ -894,175 +889,175 @@
     <t xml:space="preserve"> Implement Queue from Scratch</t>
   </si>
   <si>
-    <t>Implement 2 stack in an array</t>
-  </si>
-  <si>
-    <t>find the middle element of a stack</t>
-  </si>
-  <si>
-    <t>Implement "N" stacks in an Array</t>
-  </si>
-  <si>
-    <t>Check the expression has valid or Balanced parenthesis or not.</t>
-  </si>
-  <si>
-    <t>Reverse a String using Stack</t>
-  </si>
-  <si>
-    <t>Design a Stack that supports getMin() in O(1) time and O(1) extra space.</t>
-  </si>
-  <si>
-    <t>Find the next Greater element</t>
-  </si>
-  <si>
-    <t>The celebrity Problem</t>
-  </si>
-  <si>
-    <t>Arithmetic Expression evaluation</t>
-  </si>
-  <si>
-    <t>Evaluation of Postfix expression</t>
-  </si>
-  <si>
-    <t>Implement a method to insert an element at its bottom without using any other data structure.</t>
-  </si>
-  <si>
-    <t>Reverse a stack using recursion</t>
-  </si>
-  <si>
-    <t>Sort a Stack using recursion</t>
-  </si>
-  <si>
-    <t>Merge Overlapping Intervals</t>
-  </si>
-  <si>
-    <t>Largest rectangular Area in Histogram</t>
-  </si>
-  <si>
-    <t>Length of the Longest Valid Substring</t>
-  </si>
-  <si>
-    <t>Expression contains redundant bracket or not</t>
-  </si>
-  <si>
-    <t>Implement Stack using Queue</t>
-  </si>
-  <si>
-    <t>Implement Stack using Deque</t>
-  </si>
-  <si>
-    <t>Stack Permutations (Check if an array is stack permutation of other)</t>
+    <t xml:space="preserve">Implement 2 stack in an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find the middle element of a stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement "N" stacks in an Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the expression has valid or Balanced parenthesis or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse a String using Stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design a Stack that supports getMin() in O(1) time and O(1) extra space.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the next Greater element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The celebrity Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arithmetic Expression evaluation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluation of Postfix expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement a method to insert an element at its bottom without using any other data structure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse a stack using recursion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort a Stack using recursion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Overlapping Intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest rectangular Area in Histogram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length of the Longest Valid Substring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression contains redundant bracket or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Stack using Queue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Stack using Deque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stack Permutations (Check if an array is stack permutation of other)</t>
   </si>
   <si>
     <t xml:space="preserve">Implement Queue using Stack  </t>
   </si>
   <si>
-    <t>Implement "n" queue in an array</t>
-  </si>
-  <si>
-    <t>Implement a Circular queue</t>
-  </si>
-  <si>
-    <t>LRU Cache Implementationa</t>
-  </si>
-  <si>
-    <t>Reverse a Queue using recursion</t>
-  </si>
-  <si>
-    <t>Reverse the first “K” elements of a queue</t>
-  </si>
-  <si>
-    <t>Interleave the first half of the queue with second half</t>
-  </si>
-  <si>
-    <t>Find the first circular tour that visits all Petrol Pumps</t>
-  </si>
-  <si>
-    <t>Minimum time required to rot all oranges</t>
-  </si>
-  <si>
-    <t>Distance of nearest cell having 1 in a binary matrix</t>
-  </si>
-  <si>
-    <t>First negative integer in every window of size “k”</t>
-  </si>
-  <si>
-    <t>Check if all levels of two trees are anagrams or not.</t>
-  </si>
-  <si>
-    <t>Sum of minimum and maximum elements of all subarrays of size “k”.</t>
-  </si>
-  <si>
-    <t>Minimum sum of squares of character counts in a given string after removing “k” characters.</t>
-  </si>
-  <si>
-    <t>Queue based approach or first non-repeating character in a stream.</t>
-  </si>
-  <si>
-    <t>Next Smaller Element</t>
-  </si>
-  <si>
-    <t>Heap</t>
-  </si>
-  <si>
-    <t>Implement a Maxheap/MinHeap using arrays and recursion.</t>
-  </si>
-  <si>
-    <t>Sort an Array using heap. (HeapSort)</t>
-  </si>
-  <si>
-    <t>Maximum of all subarrays of size k.</t>
-  </si>
-  <si>
-    <t>“k” largest element in an array</t>
-  </si>
-  <si>
-    <t>Kth smallest and largest element in an unsorted array</t>
-  </si>
-  <si>
-    <t>Merge “K” sorted arrays. [ IMP ]</t>
-  </si>
-  <si>
-    <t>Merge 2 Binary Max Heaps</t>
-  </si>
-  <si>
-    <t>Kth largest sum continuous subarrays</t>
-  </si>
-  <si>
-    <t>Leetcode- reorganize strings</t>
-  </si>
-  <si>
-    <t>Merge “K” Sorted Linked Lists [V.IMP]</t>
-  </si>
-  <si>
-    <t>Smallest range in “K” Lists</t>
-  </si>
-  <si>
-    <t>Median in a stream of Integers</t>
-  </si>
-  <si>
-    <t>Check if a Binary Tree is Heap</t>
-  </si>
-  <si>
-    <t>Connect “n” ropes with minimum cost</t>
-  </si>
-  <si>
-    <t>Convert BST to Min Heap</t>
-  </si>
-  <si>
-    <t>Convert min heap to max heap</t>
-  </si>
-  <si>
-    <t>Rearrange characters in a string such that no two adjacent are same.</t>
-  </si>
-  <si>
-    <t>Minimum sum of two numbers formed from digits of an array</t>
-  </si>
-  <si>
-    <t>Graph</t>
-  </si>
-  <si>
-    <t>Create a Graph, print it</t>
+    <t xml:space="preserve">Implement "n" queue in an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement a Circular queue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRU Cache Implementationa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse a Queue using recursion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse the first “K” elements of a queue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interleave the first half of the queue with second half</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the first circular tour that visits all Petrol Pumps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum time required to rot all oranges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance of nearest cell having 1 in a binary matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First negative integer in every window of size “k”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if all levels of two trees are anagrams or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum of minimum and maximum elements of all subarrays of size “k”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum sum of squares of character counts in a given string after removing “k” characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queue based approach or first non-repeating character in a stream.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next Smaller Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement a Maxheap/MinHeap using arrays and recursion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort an Array using heap. (HeapSort)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum of all subarrays of size k.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“k” largest element in an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kth smallest and largest element in an unsorted array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge “K” sorted arrays. [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge 2 Binary Max Heaps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kth largest sum continuous subarrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leetcode- reorganize strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge “K” Sorted Linked Lists [V.IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smallest range in “K” Lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median in a stream of Integers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if a Binary Tree is Heap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connect “n” ropes with minimum cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert BST to Min Heap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert min heap to max heap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rearrange characters in a string such that no two adjacent are same.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum sum of two numbers formed from digits of an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a Graph, print it</t>
   </si>
   <si>
     <t xml:space="preserve">Implement BFS algorithm </t>
@@ -1077,356 +1072,359 @@
     <t xml:space="preserve">Detect Cycle in UnDirected Graph using BFS/DFS Algo </t>
   </si>
   <si>
-    <t>Search in a Maze</t>
-  </si>
-  <si>
-    <t>Minimum Step by Knight</t>
-  </si>
-  <si>
-    <t>flood fill algo</t>
-  </si>
-  <si>
-    <t>Clone a graph</t>
-  </si>
-  <si>
-    <t>Making wired Connections</t>
+    <t xml:space="preserve">Search in a Maze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Step by Knight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flood fill algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clone a graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Making wired Connections</t>
   </si>
   <si>
     <t xml:space="preserve">word Ladder </t>
   </si>
   <si>
-    <t>Dijkstra algo</t>
+    <t xml:space="preserve">Dijkstra algo</t>
   </si>
   <si>
     <t xml:space="preserve">Implement Topological Sort </t>
   </si>
   <si>
-    <t>Minimum time taken by each job to be completed given by a Directed Acyclic Graph</t>
-  </si>
-  <si>
-    <t>Find whether it is possible to finish all tasks or not from given dependencies</t>
-  </si>
-  <si>
-    <t>Find the no. of Isalnds</t>
-  </si>
-  <si>
-    <t>Given a sorted Dictionary of an Alien Language, find order of characters</t>
-  </si>
-  <si>
-    <t>Implement Kruksal’sAlgorithm</t>
-  </si>
-  <si>
-    <t>Implement Prim’s Algorithm</t>
-  </si>
-  <si>
-    <t>Total no. of Spanning tree in a graph</t>
-  </si>
-  <si>
-    <t>Implement Bellman Ford Algorithm</t>
-  </si>
-  <si>
-    <t>Implement Floyd warshallAlgorithm</t>
-  </si>
-  <si>
-    <t>Travelling Salesman Problem</t>
-  </si>
-  <si>
-    <t>Graph ColouringProblem</t>
-  </si>
-  <si>
-    <t>Snake and Ladders Problem</t>
-  </si>
-  <si>
-    <t>Find bridge in a graph</t>
-  </si>
-  <si>
-    <t>Count Strongly connected Components(Kosaraju Algo)</t>
-  </si>
-  <si>
-    <t>Check whether a graph is Bipartite or Not</t>
-  </si>
-  <si>
-    <t>Detect Negative cycle in a graph</t>
-  </si>
-  <si>
-    <t>Longest path in a Directed Acyclic Graph</t>
-  </si>
-  <si>
-    <t>Journey to the Moon</t>
-  </si>
-  <si>
-    <t>Cheapest Flights Within K Stops</t>
-  </si>
-  <si>
-    <t>Oliver and the Game</t>
-  </si>
-  <si>
-    <t>Water Jug problem using BFS</t>
-  </si>
-  <si>
-    <t>Find if there is a path of more thank length from a source</t>
-  </si>
-  <si>
-    <t>M-ColouringProblem</t>
-  </si>
-  <si>
-    <t>Minimum edges to reverse o make path from source to destination</t>
-  </si>
-  <si>
-    <t>Paths to travel each nodes using each edge(Seven Bridges)</t>
-  </si>
-  <si>
-    <t>Vertex Cover Problem</t>
-  </si>
-  <si>
-    <t>Chinese Postman or Route Inspection</t>
-  </si>
-  <si>
-    <t>Number of Triangles in a Directed and Undirected Graph</t>
-  </si>
-  <si>
-    <t>Minimise the cashflow among a given set of friends who have borrowed money from each other</t>
-  </si>
-  <si>
-    <t>Two Clique Problem</t>
-  </si>
-  <si>
-    <t>Trie</t>
-  </si>
-  <si>
-    <t>Construct a trie from scratch</t>
-  </si>
-  <si>
-    <t>Find shortest unique prefix for every word in a given list</t>
-  </si>
-  <si>
-    <t>Word Break Problem | (Trie solution)</t>
-  </si>
-  <si>
-    <t>Implement a Phone Directory</t>
-  </si>
-  <si>
-    <t>Print unique rows in a given boolean matrix</t>
-  </si>
-  <si>
-    <t>Dynamic Programming</t>
-  </si>
-  <si>
-    <t>Coin ChangeProblem</t>
-  </si>
-  <si>
-    <t>Knapsack Problem</t>
-  </si>
-  <si>
-    <t>Binomial CoefficientProblem</t>
-  </si>
-  <si>
-    <t>Permutation CoefficientProblem</t>
-  </si>
-  <si>
-    <t>Program for nth Catalan Number</t>
-  </si>
-  <si>
-    <t>Matrix Chain Multiplication </t>
-  </si>
-  <si>
-    <t>Edit Distance</t>
-  </si>
-  <si>
-    <t>Friends Pairing Problem</t>
-  </si>
-  <si>
-    <t>Gold Mine Problem</t>
-  </si>
-  <si>
-    <t>Assembly Line SchedulingProblem</t>
-  </si>
-  <si>
-    <t>Painting the Fenceproblem</t>
-  </si>
-  <si>
-    <t>Maximize The Cut Segments</t>
-  </si>
-  <si>
-    <t>Longest Common Subsequence</t>
-  </si>
-  <si>
-    <t>Longest Repeated Subsequence</t>
-  </si>
-  <si>
-    <t>Longest Increasing Subsequence</t>
-  </si>
-  <si>
-    <t>Space Optimized Solution of LCS</t>
-  </si>
-  <si>
-    <t>LCS (Longest Common Subsequence) of three strings</t>
-  </si>
-  <si>
-    <t>Maximum Sum Increasing Subsequence</t>
-  </si>
-  <si>
-    <t>Count all subsequences having product less than K</t>
-  </si>
-  <si>
-    <t>Longest subsequence such that difference between adjacent is one</t>
-  </si>
-  <si>
-    <t>Maximum subsequence sum such that no three are consecutive</t>
-  </si>
-  <si>
-    <t>Egg Dropping Problem</t>
-  </si>
-  <si>
-    <t>Maximum Length Chain of Pairs</t>
-  </si>
-  <si>
-    <t>Maximum size square sub-matrix with all 1s</t>
-  </si>
-  <si>
-    <t>Maximum sum of pairs with specific difference</t>
-  </si>
-  <si>
-    <t>Min Cost PathProblem</t>
-  </si>
-  <si>
-    <t>Maximum difference of zeros and ones in binary string</t>
-  </si>
-  <si>
-    <t>Minimum number of jumps to reach end</t>
-  </si>
-  <si>
-    <t>Minimum cost to fill given weight in a bag</t>
-  </si>
-  <si>
-    <t>Minimum removals from array to make max –min &lt;= K</t>
-  </si>
-  <si>
-    <t>Longest Common Substring</t>
-  </si>
-  <si>
-    <t>Count number of ways to reacha given score in a game</t>
-  </si>
-  <si>
-    <t>Count Balanced Binary Trees of Height h</t>
-  </si>
-  <si>
-    <t>LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]</t>
-  </si>
-  <si>
-    <t>Smallest sum contiguous subarray</t>
-  </si>
-  <si>
-    <t>Unbounded Knapsack (Repetition of items allowed)</t>
-  </si>
-  <si>
-    <t>Word Break Problem</t>
-  </si>
-  <si>
-    <t>Largest Independent Set Problem</t>
-  </si>
-  <si>
-    <t>Partition problem</t>
-  </si>
-  <si>
-    <t>Longest Palindromic Subsequence</t>
-  </si>
-  <si>
-    <t>Count All Palindromic Subsequence in a given String</t>
-  </si>
-  <si>
-    <t>Longest Palindromic Substring</t>
-  </si>
-  <si>
-    <t>Longest alternating subsequence</t>
-  </si>
-  <si>
-    <t>Weighted Job Scheduling</t>
-  </si>
-  <si>
-    <t>Coin game winner where every player has three choices</t>
-  </si>
-  <si>
-    <t>Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]</t>
-  </si>
-  <si>
-    <t>Maximum profit by buying and selling a share at most twice [ IMP ]</t>
-  </si>
-  <si>
-    <t>Optimal Strategy for a Game</t>
-  </si>
-  <si>
-    <t>Optimal Binary Search Tree</t>
-  </si>
-  <si>
-    <t>Palindrome PartitioningProblem</t>
-  </si>
-  <si>
-    <t>Word Wrap Problem</t>
-  </si>
-  <si>
-    <t>Mobile Numeric Keypad Problem [ IMP ]</t>
-  </si>
-  <si>
-    <t>Boolean Parenthesization Problem</t>
-  </si>
-  <si>
-    <t>Largest rectangular sub-matrix whose sum is 0</t>
-  </si>
-  <si>
-    <t>Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]</t>
-  </si>
-  <si>
-    <t>Maximum sum rectangle in a 2D matrix</t>
-  </si>
-  <si>
-    <t>Maximum profit by buying and selling a share at most k times</t>
-  </si>
-  <si>
-    <t>Find if a string is interleaved of two other strings</t>
-  </si>
-  <si>
-    <t>Maximum Length of Pair Chain</t>
-  </si>
-  <si>
-    <t>Bit Manipulation</t>
-  </si>
-  <si>
-    <t>Count set bits in an integer</t>
-  </si>
-  <si>
-    <t>Find the two non-repeating elements in an array of repeating elements</t>
-  </si>
-  <si>
-    <t>Count number of bits to be flipped to convert A to B</t>
-  </si>
-  <si>
-    <t>Count total set bits in all numbers from 1 to n</t>
-  </si>
-  <si>
-    <t>Program to find whether a no is power of two</t>
-  </si>
-  <si>
-    <t>Find position of the only set bit</t>
-  </si>
-  <si>
-    <t>Copy set bits in a range</t>
-  </si>
-  <si>
-    <t>Divide two integers without using multiplication, division and mod operator</t>
-  </si>
-  <si>
-    <t>Calculate square of a number without using *, / and pow()</t>
-  </si>
-  <si>
-    <t>Power Set</t>
+    <t xml:space="preserve">Minimum time taken by each job to be completed given by a Directed Acyclic Graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find whether it is possible to finish all tasks or not from given dependencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the no. of Isalnds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a sorted Dictionary of an Alien Language, find order of characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Kruksal’sAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Prim’s Algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total no. of Spanning tree in a graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Bellman Ford Algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Floyd warshallAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travelling Salesman Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph ColouringProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snake and Ladders Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find bridge in a graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count Strongly connected Components(Kosaraju Algo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check whether a graph is Bipartite or Not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detect Negative cycle in a graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest path in a Directed Acyclic Graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journey to the Moon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheapest Flights Within K Stops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oliver and the Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Jug problem using BFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find if there is a path of more thank length from a source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M-ColouringProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum edges to reverse o make path from source to destination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paths to travel each nodes using each edge(Seven Bridges)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertex Cover Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinese Postman or Route Inspection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Triangles in a Directed and Undirected Graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimise the cashflow among a given set of friends who have borrowed money from each other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two Clique Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construct a trie from scratch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find shortest unique prefix for every word in a given list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word Break Problem | (Trie solution)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement a Phone Directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print unique rows in a given boolean matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic Programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coin ChangeProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knapsack Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binomial CoefficientProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permutation CoefficientProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program for nth Catalan Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matrix Chain Multiplication </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit Distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friends Pairing Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Mine Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assembly Line SchedulingProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Painting the Fenceproblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximize The Cut Segments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Repeated Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Space Optimized Solution of LCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCS (Longest Common Subsequence) of three strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Sum Increasing Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count all subsequences having product less than K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest subsequence such that difference between adjacent is one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum subsequence sum such that no three are consecutive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg Dropping Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Length Chain of Pairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum size square sub-matrix with all 1s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum sum of pairs with specific difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min Cost PathProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum difference of zeros and ones in binary string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum number of jumps to reach end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum cost to fill given weight in a bag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum removals from array to make max –min &lt;= K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Common Substring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count number of ways to reacha given score in a game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count Balanced Binary Trees of Height h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smallest sum contiguous subarray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unbounded Knapsack (Repetition of items allowed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word Break Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest Independent Set Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partition problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Palindromic Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count All Palindromic Subsequence in a given String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest alternating subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Job Scheduling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coin game winner where every player has three choices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum profit by buying and selling a share at most twice [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimal Strategy for a Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimal Binary Search Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palindrome PartitioningProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word Wrap Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile Numeric Keypad Problem [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boolean Parenthesization Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest rectangular sub-matrix whose sum is 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum sum rectangle in a 2D matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum profit by buying and selling a share at most k times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find if a string is interleaved of two other strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Length of Pair Chain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bit Manipulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count set bits in an integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the two non-repeating elements in an array of repeating elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count number of bits to be flipped to convert A to B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count total set bits in all numbers from 1 to n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program to find whether a no is power of two</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find position of the only set bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copy set bits in a range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divide two integers without using multiplication, division and mod operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate square of a number without using *, / and pow()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1435,14 +1433,30 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="12"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -1450,8 +1464,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <u/>
+      <b val="true"/>
+      <u val="single"/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1459,7 +1473,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1467,7 +1481,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="16"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -1509,13 +1523,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFAFD095"/>
         <bgColor rgb="FFC5E0B4"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -1523,42 +1537,101 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  <cellStyleXfs count="21">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1617,348 +1690,40 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A342" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B346" sqref="B346"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A342" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B347" activeCellId="0" sqref="B347"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="123" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25">
+    <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21">
+    <row r="4" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1969,12 +1734,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21">
+    <row r="6" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1985,7 +1750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21">
+    <row r="7" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1996,7 +1761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="21">
+    <row r="8" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2007,7 +1772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21">
+    <row r="9" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -2018,7 +1783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21">
+    <row r="10" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -2029,7 +1794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21">
+    <row r="11" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -2040,7 +1805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21">
+    <row r="12" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -2051,7 +1816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21">
+    <row r="13" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -2062,7 +1827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21">
+    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -2073,7 +1838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21">
+    <row r="15" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -2084,7 +1849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21">
+    <row r="16" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -2095,7 +1860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21">
+    <row r="17" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -2106,7 +1871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21">
+    <row r="18" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -2117,7 +1882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21">
+    <row r="19" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -2128,7 +1893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21">
+    <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -2139,7 +1904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21">
+    <row r="21" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -2150,7 +1915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21">
+    <row r="22" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -2161,7 +1926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21">
+    <row r="23" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -2172,7 +1937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21">
+    <row r="24" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -2183,7 +1948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21">
+    <row r="25" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -2194,7 +1959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21">
+    <row r="26" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
@@ -2205,7 +1970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="21">
+    <row r="27" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -2216,7 +1981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21">
+    <row r="28" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
@@ -2227,7 +1992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="21">
+    <row r="29" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
@@ -2238,7 +2003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="21">
+    <row r="30" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
@@ -2249,7 +2014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21">
+    <row r="31" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
@@ -2260,7 +2025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21">
+    <row r="32" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
@@ -2271,7 +2036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="21">
+    <row r="33" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -2282,7 +2047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="21">
+    <row r="34" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
@@ -2293,7 +2058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="21">
+    <row r="35" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
@@ -2304,7 +2069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="21">
+    <row r="36" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
@@ -2315,7 +2080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="21">
+    <row r="37" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
@@ -2326,7 +2091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="21">
+    <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
@@ -2337,7 +2102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="21">
+    <row r="39" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -2348,7 +2113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="21">
+    <row r="40" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
@@ -2359,7 +2124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="21">
+    <row r="41" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
@@ -2370,20 +2135,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="21">
+    <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="21">
+    <row r="43" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="21">
+    <row r="44" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
@@ -2394,7 +2159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="21">
+    <row r="45" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
         <v>43</v>
       </c>
@@ -2405,7 +2170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="21">
+    <row r="46" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
         <v>43</v>
       </c>
@@ -2416,7 +2181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="21">
+    <row r="47" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
         <v>43</v>
       </c>
@@ -2427,7 +2192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="21">
+    <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
         <v>43</v>
       </c>
@@ -2438,7 +2203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="21">
+    <row r="49" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
         <v>43</v>
       </c>
@@ -2449,7 +2214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="21">
+    <row r="50" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
         <v>43</v>
       </c>
@@ -2460,7 +2225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="21">
+    <row r="51" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
         <v>43</v>
       </c>
@@ -2471,7 +2236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="21">
+    <row r="52" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
         <v>43</v>
       </c>
@@ -2482,7 +2247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="21">
+    <row r="53" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
         <v>43</v>
       </c>
@@ -2493,12 +2258,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="21">
+    <row r="55" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6"/>
       <c r="B55" s="8"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="1:3" ht="21">
+    <row r="56" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
         <v>54</v>
       </c>
@@ -2509,7 +2274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="21">
+    <row r="57" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
         <v>54</v>
       </c>
@@ -2520,7 +2285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="21">
+    <row r="58" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
         <v>54</v>
       </c>
@@ -2531,7 +2296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="21">
+    <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
         <v>54</v>
       </c>
@@ -2542,7 +2307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="21">
+    <row r="60" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
         <v>54</v>
       </c>
@@ -2553,7 +2318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="21">
+    <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
         <v>54</v>
       </c>
@@ -2564,7 +2329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="21">
+    <row r="62" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
         <v>54</v>
       </c>
@@ -2575,7 +2340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="21">
+    <row r="63" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
         <v>54</v>
       </c>
@@ -2586,7 +2351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="21">
+    <row r="64" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
         <v>54</v>
       </c>
@@ -2597,7 +2362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="21">
+    <row r="65" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
         <v>54</v>
       </c>
@@ -2608,7 +2373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="21">
+    <row r="66" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
         <v>54</v>
       </c>
@@ -2619,7 +2384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="21">
+    <row r="67" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
         <v>54</v>
       </c>
@@ -2630,7 +2395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="21">
+    <row r="68" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
         <v>54</v>
       </c>
@@ -2641,7 +2406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="21">
+    <row r="69" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
         <v>54</v>
       </c>
@@ -2652,7 +2417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="21">
+    <row r="70" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
         <v>54</v>
       </c>
@@ -2663,7 +2428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="21">
+    <row r="71" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
         <v>54</v>
       </c>
@@ -2674,7 +2439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="21">
+    <row r="72" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
         <v>54</v>
       </c>
@@ -2685,7 +2450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="21">
+    <row r="73" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
         <v>54</v>
       </c>
@@ -2696,7 +2461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="21">
+    <row r="74" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
         <v>54</v>
       </c>
@@ -2707,7 +2472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="21">
+    <row r="75" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
         <v>54</v>
       </c>
@@ -2718,7 +2483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="21">
+    <row r="76" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
         <v>54</v>
       </c>
@@ -2729,7 +2494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="21">
+    <row r="77" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
         <v>54</v>
       </c>
@@ -2740,7 +2505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="21">
+    <row r="78" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
         <v>54</v>
       </c>
@@ -2751,7 +2516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="21">
+    <row r="79" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
         <v>54</v>
       </c>
@@ -2762,7 +2527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="21">
+    <row r="80" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
         <v>54</v>
       </c>
@@ -2773,7 +2538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="21">
+    <row r="81" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
         <v>54</v>
       </c>
@@ -2784,7 +2549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="21">
+    <row r="82" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
         <v>54</v>
       </c>
@@ -2795,7 +2560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="21">
+    <row r="83" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
         <v>54</v>
       </c>
@@ -2806,7 +2571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="21">
+    <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
         <v>54</v>
       </c>
@@ -2817,7 +2582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="21">
+    <row r="85" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
         <v>54</v>
       </c>
@@ -2828,7 +2593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="21">
+    <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
         <v>54</v>
       </c>
@@ -2839,7 +2604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="21">
+    <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
         <v>54</v>
       </c>
@@ -2850,7 +2615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="21">
+    <row r="88" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
         <v>54</v>
       </c>
@@ -2861,7 +2626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="21">
+    <row r="89" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
         <v>54</v>
       </c>
@@ -2872,7 +2637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="21">
+    <row r="90" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
         <v>54</v>
       </c>
@@ -2883,7 +2648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="21">
+    <row r="91" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
         <v>54</v>
       </c>
@@ -2894,7 +2659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="21">
+    <row r="92" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
         <v>54</v>
       </c>
@@ -2905,7 +2670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="21">
+    <row r="93" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
         <v>54</v>
       </c>
@@ -2916,7 +2681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="21">
+    <row r="94" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
         <v>54</v>
       </c>
@@ -2927,7 +2692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="21">
+    <row r="95" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
         <v>54</v>
       </c>
@@ -2938,7 +2703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="21">
+    <row r="96" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
         <v>54</v>
       </c>
@@ -2949,7 +2714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="21">
+    <row r="97" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
         <v>54</v>
       </c>
@@ -2960,7 +2725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="21">
+    <row r="98" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
         <v>54</v>
       </c>
@@ -2971,12 +2736,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="21">
+    <row r="100" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6"/>
       <c r="B100" s="8"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="1:3" ht="21">
+    <row r="101" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
         <v>98</v>
       </c>
@@ -2987,7 +2752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="21">
+    <row r="102" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
         <v>98</v>
       </c>
@@ -2998,7 +2763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="21">
+    <row r="103" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
         <v>98</v>
       </c>
@@ -3009,7 +2774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="21">
+    <row r="104" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
         <v>98</v>
       </c>
@@ -3020,7 +2785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="21">
+    <row r="105" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
         <v>98</v>
       </c>
@@ -3031,7 +2796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="21">
+    <row r="106" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
         <v>98</v>
       </c>
@@ -3042,7 +2807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="21">
+    <row r="107" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
         <v>98</v>
       </c>
@@ -3053,7 +2818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="21">
+    <row r="108" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
         <v>98</v>
       </c>
@@ -3064,7 +2829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="21">
+    <row r="109" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
         <v>98</v>
       </c>
@@ -3075,7 +2840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="21">
+    <row r="110" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
         <v>98</v>
       </c>
@@ -3086,7 +2851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="21">
+    <row r="111" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
         <v>98</v>
       </c>
@@ -3097,7 +2862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="21">
+    <row r="112" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
         <v>98</v>
       </c>
@@ -3108,7 +2873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="21">
+    <row r="113" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
         <v>98</v>
       </c>
@@ -3119,7 +2884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="21">
+    <row r="114" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
         <v>98</v>
       </c>
@@ -3130,7 +2895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="21">
+    <row r="115" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
         <v>98</v>
       </c>
@@ -3141,7 +2906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="21">
+    <row r="116" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
         <v>98</v>
       </c>
@@ -3152,7 +2917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="21">
+    <row r="117" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
         <v>98</v>
       </c>
@@ -3163,7 +2928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="21">
+    <row r="118" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
         <v>98</v>
       </c>
@@ -3174,7 +2939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="21">
+    <row r="119" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
         <v>98</v>
       </c>
@@ -3185,7 +2950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="21">
+    <row r="120" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
         <v>98</v>
       </c>
@@ -3196,7 +2961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="21">
+    <row r="121" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
         <v>98</v>
       </c>
@@ -3207,7 +2972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="21">
+    <row r="122" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
         <v>98</v>
       </c>
@@ -3218,7 +2983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="21">
+    <row r="123" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
         <v>98</v>
       </c>
@@ -3229,7 +2994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="21">
+    <row r="124" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
         <v>98</v>
       </c>
@@ -3240,7 +3005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="21">
+    <row r="125" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
         <v>98</v>
       </c>
@@ -3251,7 +3016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="21">
+    <row r="126" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
         <v>98</v>
       </c>
@@ -3262,7 +3027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="21">
+    <row r="127" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
         <v>98</v>
       </c>
@@ -3273,7 +3038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="21">
+    <row r="128" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
         <v>98</v>
       </c>
@@ -3284,7 +3049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="21">
+    <row r="129" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
         <v>98</v>
       </c>
@@ -3295,7 +3060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="21">
+    <row r="130" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
         <v>98</v>
       </c>
@@ -3306,7 +3071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="21">
+    <row r="131" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
         <v>98</v>
       </c>
@@ -3317,7 +3082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="21">
+    <row r="132" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
         <v>98</v>
       </c>
@@ -3328,7 +3093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="21">
+    <row r="133" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
         <v>98</v>
       </c>
@@ -3339,7 +3104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="21">
+    <row r="134" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
         <v>98</v>
       </c>
@@ -3350,7 +3115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="21">
+    <row r="135" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
         <v>98</v>
       </c>
@@ -3361,7 +3126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="21">
+    <row r="136" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
         <v>98</v>
       </c>
@@ -3372,11 +3137,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="21">
+    <row r="138" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="8"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="1:3" ht="21">
+    <row r="139" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
         <v>135</v>
       </c>
@@ -3387,7 +3152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="21">
+    <row r="140" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="s">
         <v>135</v>
       </c>
@@ -3398,7 +3163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="21">
+    <row r="141" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="s">
         <v>135</v>
       </c>
@@ -3409,7 +3174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="21">
+    <row r="142" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
         <v>135</v>
       </c>
@@ -3420,7 +3185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="21">
+    <row r="143" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
         <v>135</v>
       </c>
@@ -3431,7 +3196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="21">
+    <row r="144" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
         <v>135</v>
       </c>
@@ -3442,7 +3207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="21">
+    <row r="145" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
         <v>135</v>
       </c>
@@ -3453,7 +3218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="21">
+    <row r="146" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="s">
         <v>135</v>
       </c>
@@ -3464,7 +3229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="21">
+    <row r="147" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="s">
         <v>135</v>
       </c>
@@ -3475,7 +3240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="21">
+    <row r="148" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="s">
         <v>135</v>
       </c>
@@ -3486,7 +3251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="21">
+    <row r="149" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="s">
         <v>135</v>
       </c>
@@ -3497,7 +3262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="21">
+    <row r="150" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="s">
         <v>135</v>
       </c>
@@ -3508,7 +3273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="21">
+    <row r="151" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="s">
         <v>135</v>
       </c>
@@ -3519,7 +3284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="21">
+    <row r="152" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="s">
         <v>135</v>
       </c>
@@ -3530,7 +3295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="21">
+    <row r="153" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="s">
         <v>135</v>
       </c>
@@ -3541,7 +3306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="21">
+    <row r="154" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="s">
         <v>135</v>
       </c>
@@ -3552,7 +3317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="21">
+    <row r="155" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="s">
         <v>135</v>
       </c>
@@ -3563,7 +3328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="21">
+    <row r="156" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
         <v>135</v>
       </c>
@@ -3574,7 +3339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="21">
+    <row r="157" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="s">
         <v>135</v>
       </c>
@@ -3585,7 +3350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="21">
+    <row r="158" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="s">
         <v>135</v>
       </c>
@@ -3596,7 +3361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="21">
+    <row r="159" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="s">
         <v>135</v>
       </c>
@@ -3607,7 +3372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="21">
+    <row r="160" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="s">
         <v>135</v>
       </c>
@@ -3618,7 +3383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="21">
+    <row r="161" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="s">
         <v>135</v>
       </c>
@@ -3629,7 +3394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="21">
+    <row r="162" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="s">
         <v>135</v>
       </c>
@@ -3640,7 +3405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="21">
+    <row r="163" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="s">
         <v>135</v>
       </c>
@@ -3651,7 +3416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="21">
+    <row r="164" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="s">
         <v>135</v>
       </c>
@@ -3662,7 +3427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="21">
+    <row r="165" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="s">
         <v>135</v>
       </c>
@@ -3673,7 +3438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="21">
+    <row r="166" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="s">
         <v>135</v>
       </c>
@@ -3684,7 +3449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="21">
+    <row r="167" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="s">
         <v>135</v>
       </c>
@@ -3695,7 +3460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="21">
+    <row r="168" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="s">
         <v>135</v>
       </c>
@@ -3706,7 +3471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="21">
+    <row r="169" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="s">
         <v>135</v>
       </c>
@@ -3717,7 +3482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="21">
+    <row r="170" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="s">
         <v>135</v>
       </c>
@@ -3728,7 +3493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="21">
+    <row r="171" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="s">
         <v>135</v>
       </c>
@@ -3739,7 +3504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="21">
+    <row r="172" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="s">
         <v>135</v>
       </c>
@@ -3750,7 +3515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="21">
+    <row r="173" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="s">
         <v>135</v>
       </c>
@@ -3761,7 +3526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="21">
+    <row r="174" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="s">
         <v>135</v>
       </c>
@@ -3772,11 +3537,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="21">
+    <row r="176" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="8"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177" spans="1:3" ht="21">
+    <row r="177" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="s">
         <v>172</v>
       </c>
@@ -3787,7 +3552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="21">
+    <row r="178" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="s">
         <v>172</v>
       </c>
@@ -3798,7 +3563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="21">
+    <row r="179" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="s">
         <v>172</v>
       </c>
@@ -3809,7 +3574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="21">
+    <row r="180" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="6" t="s">
         <v>172</v>
       </c>
@@ -3820,7 +3585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="21">
+    <row r="181" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="6" t="s">
         <v>172</v>
       </c>
@@ -3831,7 +3596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="21">
+    <row r="182" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="s">
         <v>172</v>
       </c>
@@ -3842,7 +3607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="21">
+    <row r="183" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="s">
         <v>172</v>
       </c>
@@ -3853,7 +3618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="21">
+    <row r="184" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="s">
         <v>172</v>
       </c>
@@ -3864,7 +3629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="21">
+    <row r="185" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="s">
         <v>172</v>
       </c>
@@ -3875,7 +3640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="21">
+    <row r="186" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="6" t="s">
         <v>172</v>
       </c>
@@ -3886,7 +3651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="21">
+    <row r="187" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="s">
         <v>172</v>
       </c>
@@ -3897,7 +3662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="21">
+    <row r="188" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="s">
         <v>172</v>
       </c>
@@ -3908,7 +3673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="21">
+    <row r="189" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="6" t="s">
         <v>172</v>
       </c>
@@ -3919,7 +3684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="21">
+    <row r="190" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="6" t="s">
         <v>172</v>
       </c>
@@ -3930,7 +3695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="21">
+    <row r="191" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="6" t="s">
         <v>172</v>
       </c>
@@ -3941,7 +3706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="21">
+    <row r="192" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="6" t="s">
         <v>172</v>
       </c>
@@ -3952,7 +3717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="21">
+    <row r="193" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="s">
         <v>172</v>
       </c>
@@ -3963,7 +3728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="21">
+    <row r="194" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="s">
         <v>172</v>
       </c>
@@ -3974,7 +3739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="21">
+    <row r="195" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="s">
         <v>172</v>
       </c>
@@ -3985,7 +3750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="21">
+    <row r="196" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="s">
         <v>172</v>
       </c>
@@ -3996,7 +3761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="21">
+    <row r="197" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="6" t="s">
         <v>172</v>
       </c>
@@ -4007,7 +3772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="21">
+    <row r="198" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
         <v>172</v>
       </c>
@@ -4018,7 +3783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="21">
+    <row r="199" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="s">
         <v>172</v>
       </c>
@@ -4029,7 +3794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="21">
+    <row r="200" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="s">
         <v>172</v>
       </c>
@@ -4040,7 +3805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="21">
+    <row r="201" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="s">
         <v>172</v>
       </c>
@@ -4051,7 +3816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="21">
+    <row r="202" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="s">
         <v>172</v>
       </c>
@@ -4062,7 +3827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="21">
+    <row r="203" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="6" t="s">
         <v>172</v>
       </c>
@@ -4073,7 +3838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="21">
+    <row r="204" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="s">
         <v>172</v>
       </c>
@@ -4084,7 +3849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="21">
+    <row r="205" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="6" t="s">
         <v>172</v>
       </c>
@@ -4095,7 +3860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="21">
+    <row r="206" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="6" t="s">
         <v>172</v>
       </c>
@@ -4106,7 +3871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="21">
+    <row r="207" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="s">
         <v>172</v>
       </c>
@@ -4117,7 +3882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="21">
+    <row r="208" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="6" t="s">
         <v>172</v>
       </c>
@@ -4128,7 +3893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="21">
+    <row r="209" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="s">
         <v>172</v>
       </c>
@@ -4139,7 +3904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="21">
+    <row r="210" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="s">
         <v>172</v>
       </c>
@@ -4150,7 +3915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="21">
+    <row r="211" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="s">
         <v>172</v>
       </c>
@@ -4161,17 +3926,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="21">
+    <row r="212" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="6"/>
       <c r="B212" s="8"/>
       <c r="C212" s="5"/>
     </row>
-    <row r="213" spans="1:3" ht="21">
+    <row r="213" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="6"/>
       <c r="B213" s="8"/>
       <c r="C213" s="5"/>
     </row>
-    <row r="214" spans="1:3" ht="21">
+    <row r="214" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="s">
         <v>208</v>
       </c>
@@ -4182,7 +3947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="21">
+    <row r="215" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="s">
         <v>208</v>
       </c>
@@ -4193,7 +3958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="21">
+    <row r="216" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="s">
         <v>208</v>
       </c>
@@ -4204,7 +3969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="21">
+    <row r="217" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="s">
         <v>208</v>
       </c>
@@ -4215,7 +3980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="21">
+    <row r="218" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="s">
         <v>208</v>
       </c>
@@ -4226,7 +3991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="21">
+    <row r="219" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="s">
         <v>208</v>
       </c>
@@ -4237,7 +4002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="21">
+    <row r="220" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="s">
         <v>208</v>
       </c>
@@ -4248,7 +4013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="21">
+    <row r="221" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="s">
         <v>208</v>
       </c>
@@ -4259,7 +4024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="21">
+    <row r="222" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="s">
         <v>208</v>
       </c>
@@ -4270,7 +4035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="21">
+    <row r="223" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="s">
         <v>208</v>
       </c>
@@ -4281,7 +4046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="21">
+    <row r="224" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="s">
         <v>208</v>
       </c>
@@ -4292,7 +4057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="21">
+    <row r="225" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="s">
         <v>208</v>
       </c>
@@ -4303,7 +4068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="21">
+    <row r="226" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="s">
         <v>208</v>
       </c>
@@ -4314,7 +4079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="21">
+    <row r="227" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="s">
         <v>208</v>
       </c>
@@ -4325,7 +4090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="21">
+    <row r="228" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="s">
         <v>208</v>
       </c>
@@ -4336,7 +4101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="21">
+    <row r="229" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="s">
         <v>208</v>
       </c>
@@ -4347,7 +4112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="21">
+    <row r="230" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="s">
         <v>208</v>
       </c>
@@ -4358,7 +4123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="21">
+    <row r="231" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="s">
         <v>208</v>
       </c>
@@ -4369,7 +4134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="21">
+    <row r="232" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="s">
         <v>208</v>
       </c>
@@ -4380,7 +4145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="21">
+    <row r="233" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="s">
         <v>208</v>
       </c>
@@ -4391,7 +4156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="21">
+    <row r="234" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="s">
         <v>208</v>
       </c>
@@ -4402,7 +4167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="21">
+    <row r="235" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="s">
         <v>208</v>
       </c>
@@ -4413,15 +4178,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="21">
+    <row r="236" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="8"/>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" spans="1:3" ht="21">
+    <row r="237" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="8"/>
       <c r="C237" s="5"/>
     </row>
-    <row r="238" spans="1:3" ht="21">
+    <row r="238" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="s">
         <v>231</v>
       </c>
@@ -4432,7 +4197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="21">
+    <row r="239" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="s">
         <v>231</v>
       </c>
@@ -4443,7 +4208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="21">
+    <row r="240" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="s">
         <v>231</v>
       </c>
@@ -4454,7 +4219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="21">
+    <row r="241" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="s">
         <v>231</v>
       </c>
@@ -4465,7 +4230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="21">
+    <row r="242" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="s">
         <v>231</v>
       </c>
@@ -4476,7 +4241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="21">
+    <row r="243" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="s">
         <v>231</v>
       </c>
@@ -4487,7 +4252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="21">
+    <row r="244" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="s">
         <v>231</v>
       </c>
@@ -4498,7 +4263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="21">
+    <row r="245" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="s">
         <v>231</v>
       </c>
@@ -4509,7 +4274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="21">
+    <row r="246" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="6" t="s">
         <v>231</v>
       </c>
@@ -4520,7 +4285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="21">
+    <row r="247" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="6" t="s">
         <v>231</v>
       </c>
@@ -4531,7 +4296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="21">
+    <row r="248" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="6" t="s">
         <v>231</v>
       </c>
@@ -4542,7 +4307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="21">
+    <row r="249" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="6" t="s">
         <v>231</v>
       </c>
@@ -4553,7 +4318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="21">
+    <row r="250" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="6" t="s">
         <v>231</v>
       </c>
@@ -4564,7 +4329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="21">
+    <row r="251" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="6" t="s">
         <v>231</v>
       </c>
@@ -4575,7 +4340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="21">
+    <row r="252" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="s">
         <v>231</v>
       </c>
@@ -4586,7 +4351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="21">
+    <row r="253" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="6" t="s">
         <v>231</v>
       </c>
@@ -4597,7 +4362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="21">
+    <row r="254" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6" t="s">
         <v>231</v>
       </c>
@@ -4608,7 +4373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="21">
+    <row r="255" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="s">
         <v>231</v>
       </c>
@@ -4619,7 +4384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="21">
+    <row r="256" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
         <v>231</v>
       </c>
@@ -4630,7 +4395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="21">
+    <row r="257" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6" t="s">
         <v>231</v>
       </c>
@@ -4641,7 +4406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="21">
+    <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6" t="s">
         <v>231</v>
       </c>
@@ -4652,7 +4417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="21">
+    <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="6" t="s">
         <v>231</v>
       </c>
@@ -4663,7 +4428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="21">
+    <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6" t="s">
         <v>231</v>
       </c>
@@ -4674,7 +4439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="21">
+    <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="6" t="s">
         <v>231</v>
       </c>
@@ -4685,7 +4450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="21">
+    <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6" t="s">
         <v>231</v>
       </c>
@@ -4696,7 +4461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="21">
+    <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6" t="s">
         <v>231</v>
       </c>
@@ -4707,7 +4472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="21">
+    <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="6" t="s">
         <v>231</v>
       </c>
@@ -4718,7 +4483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="21">
+    <row r="265" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="6" t="s">
         <v>231</v>
       </c>
@@ -4729,7 +4494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="21">
+    <row r="266" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6" t="s">
         <v>231</v>
       </c>
@@ -4740,7 +4505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="21">
+    <row r="267" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6" t="s">
         <v>231</v>
       </c>
@@ -4751,7 +4516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="21">
+    <row r="268" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6" t="s">
         <v>231</v>
       </c>
@@ -4762,7 +4527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="21">
+    <row r="269" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="6" t="s">
         <v>231</v>
       </c>
@@ -4773,7 +4538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="21">
+    <row r="270" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6" t="s">
         <v>231</v>
       </c>
@@ -4784,7 +4549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="21">
+    <row r="271" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="6" t="s">
         <v>231</v>
       </c>
@@ -4795,7 +4560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="21">
+    <row r="272" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="6" t="s">
         <v>231</v>
       </c>
@@ -4806,15 +4571,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="21">
+    <row r="273" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B273" s="8"/>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" spans="1:3" ht="21">
+    <row r="274" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="8"/>
       <c r="C274" s="5"/>
     </row>
-    <row r="275" spans="1:3" ht="21">
+    <row r="275" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="6" t="s">
         <v>266</v>
       </c>
@@ -4825,7 +4590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="21">
+    <row r="276" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="6" t="s">
         <v>266</v>
       </c>
@@ -4836,7 +4601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="21">
+    <row r="277" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="6" t="s">
         <v>266</v>
       </c>
@@ -4847,7 +4612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="21">
+    <row r="278" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="6" t="s">
         <v>266</v>
       </c>
@@ -4858,7 +4623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="21">
+    <row r="279" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="6" t="s">
         <v>266</v>
       </c>
@@ -4869,7 +4634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="21">
+    <row r="280" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="6" t="s">
         <v>266</v>
       </c>
@@ -4880,7 +4645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="21">
+    <row r="281" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
         <v>266</v>
       </c>
@@ -4891,7 +4656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="21">
+    <row r="282" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="6" t="s">
         <v>266</v>
       </c>
@@ -4902,7 +4667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="21">
+    <row r="283" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="6" t="s">
         <v>266</v>
       </c>
@@ -4913,7 +4678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="21">
+    <row r="284" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6" t="s">
         <v>266</v>
       </c>
@@ -4924,7 +4689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="21">
+    <row r="285" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6" t="s">
         <v>266</v>
       </c>
@@ -4935,7 +4700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="21">
+    <row r="286" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="6" t="s">
         <v>266</v>
       </c>
@@ -4946,7 +4711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="21">
+    <row r="287" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="6" t="s">
         <v>266</v>
       </c>
@@ -4957,7 +4722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="21">
+    <row r="288" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="6" t="s">
         <v>266</v>
       </c>
@@ -4968,7 +4733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="21">
+    <row r="289" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="6" t="s">
         <v>266</v>
       </c>
@@ -4979,7 +4744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="21">
+    <row r="290" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="6" t="s">
         <v>266</v>
       </c>
@@ -4990,7 +4755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="21">
+    <row r="291" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="6" t="s">
         <v>266</v>
       </c>
@@ -5001,7 +4766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="21">
+    <row r="292" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="6" t="s">
         <v>266</v>
       </c>
@@ -5012,7 +4777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="21">
+    <row r="293" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="6" t="s">
         <v>266</v>
       </c>
@@ -5023,15 +4788,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="21">
+    <row r="294" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="8"/>
       <c r="C294" s="5"/>
     </row>
-    <row r="295" spans="1:3" ht="21">
+    <row r="295" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B295" s="8"/>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" spans="1:3" ht="21">
+    <row r="296" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="6" t="s">
         <v>286</v>
       </c>
@@ -5042,7 +4807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="21">
+    <row r="297" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="6" t="s">
         <v>286</v>
       </c>
@@ -5053,7 +4818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="21">
+    <row r="298" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="6" t="s">
         <v>286</v>
       </c>
@@ -5064,7 +4829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="21">
+    <row r="299" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="6" t="s">
         <v>286</v>
       </c>
@@ -5075,7 +4840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="21">
+    <row r="300" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="6" t="s">
         <v>286</v>
       </c>
@@ -5086,7 +4851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="21">
+    <row r="301" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="6" t="s">
         <v>286</v>
       </c>
@@ -5097,7 +4862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="21">
+    <row r="302" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="6" t="s">
         <v>286</v>
       </c>
@@ -5108,7 +4873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="21">
+    <row r="303" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="6" t="s">
         <v>286</v>
       </c>
@@ -5119,7 +4884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="21">
+    <row r="304" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="6" t="s">
         <v>286</v>
       </c>
@@ -5130,7 +4895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="21">
+    <row r="305" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="6" t="s">
         <v>286</v>
       </c>
@@ -5141,7 +4906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="21">
+    <row r="306" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="6" t="s">
         <v>286</v>
       </c>
@@ -5152,7 +4917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="21">
+    <row r="307" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="6" t="s">
         <v>286</v>
       </c>
@@ -5163,7 +4928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="21">
+    <row r="308" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="6" t="s">
         <v>286</v>
       </c>
@@ -5174,7 +4939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="21">
+    <row r="309" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="6" t="s">
         <v>286</v>
       </c>
@@ -5185,7 +4950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="21">
+    <row r="310" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="6" t="s">
         <v>286</v>
       </c>
@@ -5196,7 +4961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="21">
+    <row r="311" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="6" t="s">
         <v>286</v>
       </c>
@@ -5207,7 +4972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="21">
+    <row r="312" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="6" t="s">
         <v>286</v>
       </c>
@@ -5218,7 +4983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="21">
+    <row r="313" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="6" t="s">
         <v>286</v>
       </c>
@@ -5229,7 +4994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="21">
+    <row r="314" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="6" t="s">
         <v>286</v>
       </c>
@@ -5240,7 +5005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="21">
+    <row r="315" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="6" t="s">
         <v>286</v>
       </c>
@@ -5251,7 +5016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="21">
+    <row r="316" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="6" t="s">
         <v>286</v>
       </c>
@@ -5262,7 +5027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="21">
+    <row r="317" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="6" t="s">
         <v>286</v>
       </c>
@@ -5273,7 +5038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="21">
+    <row r="318" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="6" t="s">
         <v>286</v>
       </c>
@@ -5284,7 +5049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="21">
+    <row r="319" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="6" t="s">
         <v>286</v>
       </c>
@@ -5295,7 +5060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="21">
+    <row r="320" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="6" t="s">
         <v>286</v>
       </c>
@@ -5306,7 +5071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="21">
+    <row r="321" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="6" t="s">
         <v>286</v>
       </c>
@@ -5317,7 +5082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="21">
+    <row r="322" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="6" t="s">
         <v>286</v>
       </c>
@@ -5328,7 +5093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="21">
+    <row r="323" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="6" t="s">
         <v>286</v>
       </c>
@@ -5339,7 +5104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="21">
+    <row r="324" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="6" t="s">
         <v>286</v>
       </c>
@@ -5350,7 +5115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="21">
+    <row r="325" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="6" t="s">
         <v>286</v>
       </c>
@@ -5361,7 +5126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="21">
+    <row r="326" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="6" t="s">
         <v>286</v>
       </c>
@@ -5372,7 +5137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="21">
+    <row r="327" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="6" t="s">
         <v>286</v>
       </c>
@@ -5383,7 +5148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="21">
+    <row r="328" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="6" t="s">
         <v>286</v>
       </c>
@@ -5394,7 +5159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="21">
+    <row r="329" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="6" t="s">
         <v>286</v>
       </c>
@@ -5405,7 +5170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="21">
+    <row r="330" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="6" t="s">
         <v>286</v>
       </c>
@@ -5416,7 +5181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="21">
+    <row r="331" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="6" t="s">
         <v>286</v>
       </c>
@@ -5427,7 +5192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="21">
+    <row r="332" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="6" t="s">
         <v>286</v>
       </c>
@@ -5438,7 +5203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="21">
+    <row r="333" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="6" t="s">
         <v>286</v>
       </c>
@@ -5449,15 +5214,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="21">
+    <row r="334" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B334" s="8"/>
       <c r="C334" s="5"/>
     </row>
-    <row r="335" spans="1:3" ht="21">
+    <row r="335" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B335" s="8"/>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" spans="1:3" ht="21">
+    <row r="336" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="6" t="s">
         <v>325</v>
       </c>
@@ -5468,7 +5233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="21">
+    <row r="337" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="6" t="s">
         <v>325</v>
       </c>
@@ -5479,7 +5244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="21">
+    <row r="338" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="6" t="s">
         <v>325</v>
       </c>
@@ -5490,7 +5255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="21">
+    <row r="339" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="6" t="s">
         <v>325</v>
       </c>
@@ -5501,29 +5266,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="21">
+    <row r="340" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B340" s="13" t="s">
+      <c r="B340" s="12" t="s">
         <v>330</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="21">
+    <row r="341" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B341" s="13" t="s">
+      <c r="B341" s="12" t="s">
         <v>331</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="21">
+    <row r="342" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="6" t="s">
         <v>325</v>
       </c>
@@ -5534,18 +5299,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="21">
+    <row r="343" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B343" s="13" t="s">
+      <c r="B343" s="12" t="s">
         <v>333</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="21">
+    <row r="344" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="6" t="s">
         <v>325</v>
       </c>
@@ -5556,18 +5321,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="21">
+    <row r="345" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B345" s="13" t="s">
+      <c r="B345" s="12" t="s">
         <v>335</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="21">
+    <row r="346" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="6" t="s">
         <v>325</v>
       </c>
@@ -5578,18 +5343,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="21">
+    <row r="347" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B347" s="7" t="s">
+      <c r="B347" s="13" t="s">
         <v>337</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="21">
+    <row r="348" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="6" t="s">
         <v>325</v>
       </c>
@@ -5600,7 +5365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="21">
+    <row r="349" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="6" t="s">
         <v>325</v>
       </c>
@@ -5611,7 +5376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="21">
+    <row r="350" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="6" t="s">
         <v>325</v>
       </c>
@@ -5622,7 +5387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="21">
+    <row r="351" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="6" t="s">
         <v>325</v>
       </c>
@@ -5633,7 +5398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="21">
+    <row r="352" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="6" t="s">
         <v>325</v>
       </c>
@@ -5644,7 +5409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="21">
+    <row r="353" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="6" t="s">
         <v>325</v>
       </c>
@@ -5655,15 +5420,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="21">
+    <row r="354" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B354" s="8"/>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" spans="1:3" ht="21">
+    <row r="355" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B355" s="8"/>
       <c r="C355" s="5"/>
     </row>
-    <row r="356" spans="1:3" ht="21">
+    <row r="356" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="6" t="s">
         <v>344</v>
       </c>
@@ -5674,7 +5439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="21">
+    <row r="357" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="6" t="s">
         <v>344</v>
       </c>
@@ -5685,7 +5450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="21">
+    <row r="358" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="6" t="s">
         <v>344</v>
       </c>
@@ -5696,7 +5461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="21">
+    <row r="359" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="6" t="s">
         <v>344</v>
       </c>
@@ -5707,7 +5472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="21">
+    <row r="360" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="6" t="s">
         <v>344</v>
       </c>
@@ -5718,7 +5483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="21">
+    <row r="361" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="6" t="s">
         <v>344</v>
       </c>
@@ -5729,7 +5494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="21">
+    <row r="362" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="6" t="s">
         <v>344</v>
       </c>
@@ -5740,7 +5505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="21">
+    <row r="363" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="6" t="s">
         <v>344</v>
       </c>
@@ -5751,7 +5516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="21">
+    <row r="364" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="6" t="s">
         <v>344</v>
       </c>
@@ -5762,7 +5527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="21">
+    <row r="365" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="6" t="s">
         <v>344</v>
       </c>
@@ -5773,7 +5538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="21">
+    <row r="366" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="6" t="s">
         <v>344</v>
       </c>
@@ -5784,7 +5549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="21">
+    <row r="367" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="6" t="s">
         <v>344</v>
       </c>
@@ -5795,7 +5560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="21">
+    <row r="368" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="6" t="s">
         <v>344</v>
       </c>
@@ -5806,7 +5571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="21">
+    <row r="369" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="6" t="s">
         <v>344</v>
       </c>
@@ -5817,7 +5582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="21">
+    <row r="370" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="6" t="s">
         <v>344</v>
       </c>
@@ -5828,7 +5593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="21">
+    <row r="371" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="6" t="s">
         <v>344</v>
       </c>
@@ -5839,7 +5604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="21">
+    <row r="372" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="6" t="s">
         <v>344</v>
       </c>
@@ -5850,7 +5615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="21">
+    <row r="373" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="6" t="s">
         <v>344</v>
       </c>
@@ -5861,7 +5626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="21">
+    <row r="374" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="6" t="s">
         <v>344</v>
       </c>
@@ -5872,7 +5637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="21">
+    <row r="375" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="6" t="s">
         <v>344</v>
       </c>
@@ -5883,7 +5648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="21">
+    <row r="376" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="6" t="s">
         <v>344</v>
       </c>
@@ -5894,7 +5659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="21">
+    <row r="377" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="6" t="s">
         <v>344</v>
       </c>
@@ -5905,7 +5670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="21">
+    <row r="378" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="6" t="s">
         <v>344</v>
       </c>
@@ -5916,7 +5681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="21">
+    <row r="379" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="6" t="s">
         <v>344</v>
       </c>
@@ -5927,7 +5692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="21">
+    <row r="380" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="6" t="s">
         <v>344</v>
       </c>
@@ -5938,7 +5703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="21">
+    <row r="381" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="6" t="s">
         <v>344</v>
       </c>
@@ -5949,7 +5714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="21">
+    <row r="382" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="6" t="s">
         <v>344</v>
       </c>
@@ -5960,7 +5725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="21">
+    <row r="383" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="6" t="s">
         <v>344</v>
       </c>
@@ -5971,7 +5736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="21">
+    <row r="384" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="6" t="s">
         <v>344</v>
       </c>
@@ -5982,7 +5747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="21">
+    <row r="385" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="6" t="s">
         <v>344</v>
       </c>
@@ -5993,7 +5758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="21">
+    <row r="386" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="6" t="s">
         <v>344</v>
       </c>
@@ -6004,7 +5769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="21">
+    <row r="387" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="6" t="s">
         <v>344</v>
       </c>
@@ -6015,7 +5780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="21">
+    <row r="388" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="6" t="s">
         <v>344</v>
       </c>
@@ -6026,7 +5791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="21">
+    <row r="389" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="6" t="s">
         <v>344</v>
       </c>
@@ -6037,7 +5802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="21">
+    <row r="390" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="6" t="s">
         <v>344</v>
       </c>
@@ -6048,7 +5813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="21">
+    <row r="391" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="6" t="s">
         <v>344</v>
       </c>
@@ -6059,7 +5824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="21">
+    <row r="392" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="6" t="s">
         <v>344</v>
       </c>
@@ -6070,7 +5835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="21">
+    <row r="393" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="6" t="s">
         <v>344</v>
       </c>
@@ -6081,7 +5846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="21">
+    <row r="394" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="6" t="s">
         <v>344</v>
       </c>
@@ -6092,7 +5857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="21">
+    <row r="395" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="6" t="s">
         <v>344</v>
       </c>
@@ -6103,7 +5868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="21">
+    <row r="396" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="6" t="s">
         <v>344</v>
       </c>
@@ -6114,7 +5879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="21">
+    <row r="397" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="6" t="s">
         <v>344</v>
       </c>
@@ -6125,7 +5890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="21">
+    <row r="398" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="6" t="s">
         <v>344</v>
       </c>
@@ -6136,7 +5901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="21">
+    <row r="399" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="6" t="s">
         <v>344</v>
       </c>
@@ -6147,15 +5912,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="21">
+    <row r="400" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B400" s="8"/>
       <c r="C400" s="5"/>
     </row>
-    <row r="401" spans="1:3" ht="21">
+    <row r="401" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B401" s="8"/>
       <c r="C401" s="5"/>
     </row>
-    <row r="402" spans="1:3" ht="21">
+    <row r="402" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="6" t="s">
         <v>388</v>
       </c>
@@ -6166,7 +5931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="21">
+    <row r="403" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="6" t="s">
         <v>388</v>
       </c>
@@ -6177,7 +5942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="21">
+    <row r="404" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="6" t="s">
         <v>388</v>
       </c>
@@ -6188,7 +5953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="21">
+    <row r="405" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="6" t="s">
         <v>388</v>
       </c>
@@ -6199,7 +5964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="21">
+    <row r="406" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="6" t="s">
         <v>388</v>
       </c>
@@ -6210,7 +5975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="21">
+    <row r="407" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="6" t="s">
         <v>388</v>
       </c>
@@ -6221,15 +5986,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="21">
+    <row r="408" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B408" s="8"/>
       <c r="C408" s="5"/>
     </row>
-    <row r="409" spans="1:3" ht="21">
+    <row r="409" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B409" s="8"/>
       <c r="C409" s="5"/>
     </row>
-    <row r="410" spans="1:3" ht="21">
+    <row r="410" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="6" t="s">
         <v>394</v>
       </c>
@@ -6240,7 +6005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="21">
+    <row r="411" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="6" t="s">
         <v>394</v>
       </c>
@@ -6251,7 +6016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="21">
+    <row r="412" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="6" t="s">
         <v>394</v>
       </c>
@@ -6262,7 +6027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="21">
+    <row r="413" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="6" t="s">
         <v>394</v>
       </c>
@@ -6273,7 +6038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="21">
+    <row r="414" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="6" t="s">
         <v>394</v>
       </c>
@@ -6284,7 +6049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="21">
+    <row r="415" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="6" t="s">
         <v>394</v>
       </c>
@@ -6295,7 +6060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="21">
+    <row r="416" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="6" t="s">
         <v>394</v>
       </c>
@@ -6306,7 +6071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="21">
+    <row r="417" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="6" t="s">
         <v>394</v>
       </c>
@@ -6317,7 +6082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="21">
+    <row r="418" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="6" t="s">
         <v>394</v>
       </c>
@@ -6328,7 +6093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="21">
+    <row r="419" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="6" t="s">
         <v>394</v>
       </c>
@@ -6339,7 +6104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="21">
+    <row r="420" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="6" t="s">
         <v>394</v>
       </c>
@@ -6350,7 +6115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="21">
+    <row r="421" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="6" t="s">
         <v>394</v>
       </c>
@@ -6361,7 +6126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="21">
+    <row r="422" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="6" t="s">
         <v>394</v>
       </c>
@@ -6372,7 +6137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="21">
+    <row r="423" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="6" t="s">
         <v>394</v>
       </c>
@@ -6383,7 +6148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="21">
+    <row r="424" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="6" t="s">
         <v>394</v>
       </c>
@@ -6394,7 +6159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="21">
+    <row r="425" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="6" t="s">
         <v>394</v>
       </c>
@@ -6405,7 +6170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="21">
+    <row r="426" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="6" t="s">
         <v>394</v>
       </c>
@@ -6416,7 +6181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="21">
+    <row r="427" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="6" t="s">
         <v>394</v>
       </c>
@@ -6427,7 +6192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="21">
+    <row r="428" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="6" t="s">
         <v>394</v>
       </c>
@@ -6438,7 +6203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="21">
+    <row r="429" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="6" t="s">
         <v>394</v>
       </c>
@@ -6449,7 +6214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="21">
+    <row r="430" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="6" t="s">
         <v>394</v>
       </c>
@@ -6460,7 +6225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="21">
+    <row r="431" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="6" t="s">
         <v>394</v>
       </c>
@@ -6471,7 +6236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="21">
+    <row r="432" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="6" t="s">
         <v>394</v>
       </c>
@@ -6482,7 +6247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="21">
+    <row r="433" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="6" t="s">
         <v>394</v>
       </c>
@@ -6493,7 +6258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="21">
+    <row r="434" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="6" t="s">
         <v>394</v>
       </c>
@@ -6504,7 +6269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="21">
+    <row r="435" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="6" t="s">
         <v>394</v>
       </c>
@@ -6515,7 +6280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="21">
+    <row r="436" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="6" t="s">
         <v>394</v>
       </c>
@@ -6526,7 +6291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="21">
+    <row r="437" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="6" t="s">
         <v>394</v>
       </c>
@@ -6537,7 +6302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="21">
+    <row r="438" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="6" t="s">
         <v>394</v>
       </c>
@@ -6548,7 +6313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="21">
+    <row r="439" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="6" t="s">
         <v>394</v>
       </c>
@@ -6559,7 +6324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="21">
+    <row r="440" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="6" t="s">
         <v>394</v>
       </c>
@@ -6570,7 +6335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="21">
+    <row r="441" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="6" t="s">
         <v>394</v>
       </c>
@@ -6581,7 +6346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="21">
+    <row r="442" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="6" t="s">
         <v>394</v>
       </c>
@@ -6592,7 +6357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="21">
+    <row r="443" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="6" t="s">
         <v>394</v>
       </c>
@@ -6603,7 +6368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="21">
+    <row r="444" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="6" t="s">
         <v>394</v>
       </c>
@@ -6614,7 +6379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="21">
+    <row r="445" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="6" t="s">
         <v>394</v>
       </c>
@@ -6625,7 +6390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="21">
+    <row r="446" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="6" t="s">
         <v>394</v>
       </c>
@@ -6636,7 +6401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="21">
+    <row r="447" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="6" t="s">
         <v>394</v>
       </c>
@@ -6647,7 +6412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="21">
+    <row r="448" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="6" t="s">
         <v>394</v>
       </c>
@@ -6658,7 +6423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="21">
+    <row r="449" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="6" t="s">
         <v>394</v>
       </c>
@@ -6669,7 +6434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="21">
+    <row r="450" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="6" t="s">
         <v>394</v>
       </c>
@@ -6680,7 +6445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="21">
+    <row r="451" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="6" t="s">
         <v>394</v>
       </c>
@@ -6691,7 +6456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="21">
+    <row r="452" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="6" t="s">
         <v>394</v>
       </c>
@@ -6702,7 +6467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="21">
+    <row r="453" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="6" t="s">
         <v>394</v>
       </c>
@@ -6713,7 +6478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="21">
+    <row r="454" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="6" t="s">
         <v>394</v>
       </c>
@@ -6724,7 +6489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="21">
+    <row r="455" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="6" t="s">
         <v>394</v>
       </c>
@@ -6735,7 +6500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="21">
+    <row r="456" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="6" t="s">
         <v>394</v>
       </c>
@@ -6746,7 +6511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="21">
+    <row r="457" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="6" t="s">
         <v>394</v>
       </c>
@@ -6757,7 +6522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="21">
+    <row r="458" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="6" t="s">
         <v>394</v>
       </c>
@@ -6768,7 +6533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="21">
+    <row r="459" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="6" t="s">
         <v>394</v>
       </c>
@@ -6779,7 +6544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="21">
+    <row r="460" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="6" t="s">
         <v>394</v>
       </c>
@@ -6790,7 +6555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="21">
+    <row r="461" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="6" t="s">
         <v>394</v>
       </c>
@@ -6801,7 +6566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="21">
+    <row r="462" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="6" t="s">
         <v>394</v>
       </c>
@@ -6812,7 +6577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="21">
+    <row r="463" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="6" t="s">
         <v>394</v>
       </c>
@@ -6823,7 +6588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="21">
+    <row r="464" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="6" t="s">
         <v>394</v>
       </c>
@@ -6834,7 +6599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="21">
+    <row r="465" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="6" t="s">
         <v>394</v>
       </c>
@@ -6845,7 +6610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="21">
+    <row r="466" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="6" t="s">
         <v>394</v>
       </c>
@@ -6856,7 +6621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="21">
+    <row r="467" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="6" t="s">
         <v>394</v>
       </c>
@@ -6867,7 +6632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="21">
+    <row r="468" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="6" t="s">
         <v>394</v>
       </c>
@@ -6878,7 +6643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="21">
+    <row r="469" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="6" t="s">
         <v>394</v>
       </c>
@@ -6889,16 +6654,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="21">
+    <row r="470" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B470" s="8"/>
       <c r="C470" s="5"/>
     </row>
-    <row r="471" spans="1:3" ht="21">
+    <row r="471" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="6"/>
       <c r="B471" s="8"/>
       <c r="C471" s="5"/>
     </row>
-    <row r="472" spans="1:3" ht="21">
+    <row r="472" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="6" t="s">
         <v>454</v>
       </c>
@@ -6909,7 +6674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="21">
+    <row r="473" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="6" t="s">
         <v>454</v>
       </c>
@@ -6920,7 +6685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="21">
+    <row r="474" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="6" t="s">
         <v>454</v>
       </c>
@@ -6931,7 +6696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="21">
+    <row r="475" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="6" t="s">
         <v>454</v>
       </c>
@@ -6942,7 +6707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="21">
+    <row r="476" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="6" t="s">
         <v>454</v>
       </c>
@@ -6953,7 +6718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="21">
+    <row r="477" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="6" t="s">
         <v>454</v>
       </c>
@@ -6964,7 +6729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="21">
+    <row r="478" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="6" t="s">
         <v>454</v>
       </c>
@@ -6975,7 +6740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="21">
+    <row r="479" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="6" t="s">
         <v>454</v>
       </c>
@@ -6986,7 +6751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="21">
+    <row r="480" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="6" t="s">
         <v>454</v>
       </c>
@@ -6997,7 +6762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="21">
+    <row r="481" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="6" t="s">
         <v>454</v>
       </c>
@@ -7010,454 +6775,459 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B21" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B22" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B23" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B24" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B25" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B26" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B27" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B28" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B29" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B30" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B31" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B32" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B33" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B34" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B35" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B36" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B37" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B38" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B39" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B40" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B41" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B44" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B45" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B46" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B47" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B48" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B49" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B50" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B51" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B52" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B53" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B56" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B57" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B58" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B60" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B61" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B62" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B63" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B64" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B65" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B66" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B67" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B68" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B69" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B70" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B71" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B72" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B73" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B74" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B75" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B76" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B77" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B78" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B79" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B80" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B81" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B82" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B83" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B84" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B85" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B86" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B87" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B88" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B89" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B90" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B91" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B92" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B93" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B94" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B95" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B96" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B97" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B98" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B101" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B102" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B103" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B104" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B105" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B106" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B107" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B108" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B109" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B110" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="B111" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="B112" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="B113" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="B114" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="B115" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="B116" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="B117" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="B118" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="B119" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B120" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="B121" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="B122" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="B123" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="B124" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="B125" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="B126" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="B127" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="B128" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="B129" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="B130" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="B131" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="B132" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="B133" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="B134" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="B135" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="B136" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="B139" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="B140" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="B141" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="B142" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="B143" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="B144" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="B145" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="B146" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="B147" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="B148" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="B149" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="B150" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="B151" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="B152" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="B153" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="B154" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="B155" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="B156" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="B157" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="B158" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="B159" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="B160" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="B161" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="B162" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="B163" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="B166" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="B167" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="B168" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="B169" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="B170" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="B171" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="B172" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="B173" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="B174" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="B177" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="B178" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="B179" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="B180" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="B181" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="B182" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="B183" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="B184" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="B185" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B186" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="B187" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="B188" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="B189" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="B190" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="B191" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B192" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="B193" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B194" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="B195" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="B196" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="B197" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B198" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="B199" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B200" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="B201" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="B202" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="B203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="B204" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="B205" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="B206" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="B207" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="B208" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="B209" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="B210" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="B211" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="B214" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="B215" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="B216" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="B217" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="B218" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="B219" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="B220" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="B221" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="B222" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="B223" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="B224" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B225" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="B226" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="B227" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="B228" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="B229" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B230" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B231" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="B232" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B233" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="B234" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="B235" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B238" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="B239" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B240" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B241" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="B242" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B243" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="B244" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B245" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="B246" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="B247" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B248" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="B249" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="B250" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="B251" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="B252" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B253" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B254" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B255" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B256" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B258" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B259" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B260" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B261" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="B262" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B263" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B264" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="B265" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B266" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B267" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B268" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B269" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B270" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B271" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B272" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="B275" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B276" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B277" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B278" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B279" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B280" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B281" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B282" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B283" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B284" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B285" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B286" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B287" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B288" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B289" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B290" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B291" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B292" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B293" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B296" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B297" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B298" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B299" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B300" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B301" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B302" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B303" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B304" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B305" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B307" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B308" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B309" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B310" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B311" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B312" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B313" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B314" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B315" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B316" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B317" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B318" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B319" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B320" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B321" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B322" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B323" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B324" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B325" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B326" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B327" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B328" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B329" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B330" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B331" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B332" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B333" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B336" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B337" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B338" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B339" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B340" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B341" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B342" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B343" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B344" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B345" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B346" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B347" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B348" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B349" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B350" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B351" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B352" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B353" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="B356" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="B357" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="B358" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="B359" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="B360" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="B361" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="B362" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="B363" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="B364" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="B365" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="B366" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="B367" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="B368" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="B369" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="B370" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="B371" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="B372" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="B373" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="B374" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="B375" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="B376" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="B377" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="B378" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
-    <hyperlink ref="B379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
-    <hyperlink ref="B380" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
-    <hyperlink ref="B381" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
-    <hyperlink ref="B382" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
-    <hyperlink ref="B383" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
-    <hyperlink ref="B384" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
-    <hyperlink ref="B385" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
-    <hyperlink ref="B386" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
-    <hyperlink ref="B387" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
-    <hyperlink ref="B388" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
-    <hyperlink ref="B389" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
-    <hyperlink ref="B390" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
-    <hyperlink ref="B391" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
-    <hyperlink ref="B392" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
-    <hyperlink ref="B393" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
-    <hyperlink ref="B394" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
-    <hyperlink ref="B395" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
-    <hyperlink ref="B396" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
-    <hyperlink ref="B397" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
-    <hyperlink ref="B398" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
-    <hyperlink ref="B399" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
-    <hyperlink ref="B402" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
-    <hyperlink ref="B403" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
-    <hyperlink ref="B404" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
-    <hyperlink ref="B405" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
-    <hyperlink ref="B406" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
-    <hyperlink ref="B407" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
-    <hyperlink ref="B410" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
-    <hyperlink ref="B411" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
-    <hyperlink ref="B412" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
-    <hyperlink ref="B413" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
-    <hyperlink ref="B414" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
-    <hyperlink ref="B415" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
-    <hyperlink ref="B416" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
-    <hyperlink ref="B417" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
-    <hyperlink ref="B418" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
-    <hyperlink ref="B419" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
-    <hyperlink ref="B420" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
-    <hyperlink ref="B421" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
-    <hyperlink ref="B422" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
-    <hyperlink ref="B423" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
-    <hyperlink ref="B424" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
-    <hyperlink ref="B425" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
-    <hyperlink ref="B426" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
-    <hyperlink ref="B427" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
-    <hyperlink ref="B428" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
-    <hyperlink ref="B429" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
-    <hyperlink ref="B430" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
-    <hyperlink ref="B431" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
-    <hyperlink ref="B432" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
-    <hyperlink ref="B433" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
-    <hyperlink ref="B434" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
-    <hyperlink ref="B435" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
-    <hyperlink ref="B436" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
-    <hyperlink ref="B437" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
-    <hyperlink ref="B438" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
-    <hyperlink ref="B439" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
-    <hyperlink ref="B440" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
-    <hyperlink ref="B441" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
-    <hyperlink ref="B442" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
-    <hyperlink ref="B443" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
-    <hyperlink ref="B444" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
-    <hyperlink ref="B445" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
-    <hyperlink ref="B446" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
-    <hyperlink ref="B447" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
-    <hyperlink ref="B448" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
-    <hyperlink ref="B449" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
-    <hyperlink ref="B450" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
-    <hyperlink ref="B451" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
-    <hyperlink ref="B452" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
-    <hyperlink ref="B453" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
-    <hyperlink ref="B454" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
-    <hyperlink ref="B455" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
-    <hyperlink ref="B456" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
-    <hyperlink ref="B457" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
-    <hyperlink ref="B458" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
-    <hyperlink ref="B459" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
-    <hyperlink ref="B460" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
-    <hyperlink ref="B461" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
-    <hyperlink ref="B462" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
-    <hyperlink ref="B463" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
-    <hyperlink ref="B464" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
-    <hyperlink ref="B465" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
-    <hyperlink ref="B466" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
-    <hyperlink ref="B467" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
-    <hyperlink ref="B468" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
-    <hyperlink ref="B469" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
-    <hyperlink ref="B472" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
-    <hyperlink ref="B473" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
-    <hyperlink ref="B474" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
-    <hyperlink ref="B475" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
-    <hyperlink ref="B476" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
-    <hyperlink ref="B477" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
-    <hyperlink ref="B478" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
-    <hyperlink ref="B479" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
-    <hyperlink ref="B480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
-    <hyperlink ref="B481" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw "/>
+    <hyperlink ref="B6" r:id="rId2" display="Reverse the array"/>
+    <hyperlink ref="B7" r:id="rId3" display="Find the maximum and minimum element in an array"/>
+    <hyperlink ref="B8" r:id="rId4" display="Find the &quot;Kth&quot; max and min element of an array "/>
+    <hyperlink ref="B9" r:id="rId5" display="Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo"/>
+    <hyperlink ref="B10" r:id="rId6" display="Move all the negative elements to one side of the array "/>
+    <hyperlink ref="B11" r:id="rId7" display="Find the Union and Intersection of the two sorted arrays."/>
+    <hyperlink ref="B12" r:id="rId8" display="Write a program to cyclically rotate an array by one."/>
+    <hyperlink ref="B13" r:id="rId9" display="find Largest sum contiguous Subarray [V. IMP]"/>
+    <hyperlink ref="B14" r:id="rId10" display="Minimise the maximum difference between heights [V.IMP]"/>
+    <hyperlink ref="B15" r:id="rId11" display="Minimum no. of Jumps to reach end of an array"/>
+    <hyperlink ref="B16" r:id="rId12" display="find duplicate in an array of N+1 Integers"/>
+    <hyperlink ref="B17" r:id="rId13" display="Merge 2 sorted arrays without using Extra space."/>
+    <hyperlink ref="B18" r:id="rId14" display="Kadane's Algo [V.V.V.V.V IMP]"/>
+    <hyperlink ref="B19" r:id="rId15" display="Merge Intervals"/>
+    <hyperlink ref="B20" r:id="rId16" display="Next Permutation"/>
+    <hyperlink ref="B21" r:id="rId17" display="Count Inversion"/>
+    <hyperlink ref="B22" r:id="rId18" display="Best time to buy and Sell stock"/>
+    <hyperlink ref="B23" r:id="rId19" display="find all pairs on integer array whose sum is equal to given number"/>
+    <hyperlink ref="B24" r:id="rId20" display="find common elements In 3 sorted arrays"/>
+    <hyperlink ref="B25" r:id="rId21" display="Rearrange the array in alternating positive and negative items with O(1) extra space"/>
+    <hyperlink ref="B26" r:id="rId22" display="Find if there is any subarray with sum equal to 0"/>
+    <hyperlink ref="B27" r:id="rId23" display="Find factorial of a large number"/>
+    <hyperlink ref="B28" r:id="rId24" display="find maximum product subarray "/>
+    <hyperlink ref="B29" r:id="rId25" display="Find longest coinsecutive subsequence"/>
+    <hyperlink ref="B30" r:id="rId26" display="Given an array of size n and a number k, fin all elements that appear more than &quot; n/k &quot; times."/>
+    <hyperlink ref="B31" r:id="rId27" display="Maximum profit by buying and selling a share atmost twice"/>
+    <hyperlink ref="B32" r:id="rId28" display="Find whether an array is a subset of another array"/>
+    <hyperlink ref="B33" r:id="rId29" display="Find the triplet that sum to a given value"/>
+    <hyperlink ref="B34" r:id="rId30" display="Trapping Rain water problem"/>
+    <hyperlink ref="B35" r:id="rId31" display="Chocolate Distribution problem"/>
+    <hyperlink ref="B36" r:id="rId32" display="Smallest Subarray with sum greater than a given value"/>
+    <hyperlink ref="B37" r:id="rId33" display="Three way partitioning of an array around a given value"/>
+    <hyperlink ref="B38" r:id="rId34" display="Minimum swaps required bring elements less equal K together"/>
+    <hyperlink ref="B39" r:id="rId35" display="Minimum no. of operations required to make an array palindrome"/>
+    <hyperlink ref="B40" r:id="rId36" display="Median of 2 sorted arrays of equal size"/>
+    <hyperlink ref="B41" r:id="rId37" display="Median of 2 sorted arrays of different size"/>
+    <hyperlink ref="B44" r:id="rId38" display="Spiral traversal on a Matrix"/>
+    <hyperlink ref="B45" r:id="rId39" display="Search an element in a matriix"/>
+    <hyperlink ref="B46" r:id="rId40" display="Find median in a row wise sorted matrix"/>
+    <hyperlink ref="B47" r:id="rId41" display="Find row with maximum no. of 1's"/>
+    <hyperlink ref="B48" r:id="rId42" display="Print elements in sorted order using row-column wise sorted matrix"/>
+    <hyperlink ref="B49" r:id="rId43" display="Maximum size rectangle"/>
+    <hyperlink ref="B50" r:id="rId44" display="Find a specific pair in matrix"/>
+    <hyperlink ref="B51" r:id="rId45" display="Rotate matrix by 90 degrees"/>
+    <hyperlink ref="B52" r:id="rId46" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
+    <hyperlink ref="B53" r:id="rId47" display="Common elements in all rows of a given matrix"/>
+    <hyperlink ref="B56" r:id="rId48" display="Reverse a String"/>
+    <hyperlink ref="B57" r:id="rId49" display="Check whether a String is Palindrome or not"/>
+    <hyperlink ref="B58" r:id="rId50" display="Find Duplicate characters in a string"/>
+    <hyperlink ref="B60" r:id="rId51" display="Write a Code to check whether one string is a rotation of another"/>
+    <hyperlink ref="B61" r:id="rId52" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
+    <hyperlink ref="B62" r:id="rId53" display="Count and Say problem"/>
+    <hyperlink ref="B63" r:id="rId54" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
+    <hyperlink ref="B64" r:id="rId55" display="Find Longest Recurring Subsequence in String"/>
+    <hyperlink ref="B65" r:id="rId56" display="Print all Subsequences of a string."/>
+    <hyperlink ref="B66" r:id="rId57" display="Print all the permutations of the given string"/>
+    <hyperlink ref="B67" r:id="rId58" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
+    <hyperlink ref="B68" r:id="rId59" display="Word Wrap Problem [VERY IMP]."/>
+    <hyperlink ref="B69" r:id="rId60" display="EDIT Distance [Very Imp]"/>
+    <hyperlink ref="B70" r:id="rId61" display="Find next greater number with same set of digits. [Very Very IMP]"/>
+    <hyperlink ref="B71" r:id="rId62" display="Balanced Parenthesis problem.[Imp]"/>
+    <hyperlink ref="B72" r:id="rId63" display="Word break Problem[ Very Imp]"/>
+    <hyperlink ref="B73" r:id="rId64" display="Rabin Karp Algo"/>
+    <hyperlink ref="B74" r:id="rId65" display="KMP Algo"/>
+    <hyperlink ref="B75" r:id="rId66" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
+    <hyperlink ref="B76" r:id="rId67" display="Minimum number of bracket reversals needed to make an expression balanced."/>
+    <hyperlink ref="B77" r:id="rId68" display="Count All Palindromic Subsequence in a given String."/>
+    <hyperlink ref="B78" r:id="rId69" display="Count of number of given string in 2D character array"/>
+    <hyperlink ref="B79" r:id="rId70" display="Search a Word in a 2D Grid of characters."/>
+    <hyperlink ref="B80" r:id="rId71" display="Boyer Moore Algorithm for Pattern Searching."/>
+    <hyperlink ref="B81" r:id="rId72" display="Converting Roman Numerals to Decimal"/>
+    <hyperlink ref="B82" r:id="rId73" display="Longest Common Prefix"/>
+    <hyperlink ref="B83" r:id="rId74" display="Number of flips to make binary string alternate"/>
+    <hyperlink ref="B84" r:id="rId75" display="Find the first repeated word in string."/>
+    <hyperlink ref="B85" r:id="rId76" display="Minimum number of swaps for bracket balancing."/>
+    <hyperlink ref="B86" r:id="rId77" display="Find the longest common subsequence between two strings."/>
+    <hyperlink ref="B87" r:id="rId78" display="Program to generate all possible valid IP addresses from given  string."/>
+    <hyperlink ref="B88" r:id="rId79" display="Write a program tofind the smallest window that contains all characters of string itself."/>
+    <hyperlink ref="B89" r:id="rId80" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="B90" r:id="rId81" display="Minimum characters to be added at front to make string palindrome"/>
+    <hyperlink ref="B91" r:id="rId82" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="B92" r:id="rId83" display="Find the smallest window in a string containing all characters of another string"/>
+    <hyperlink ref="B93" r:id="rId84" display="Recursively remove all adjacent duplicates"/>
+    <hyperlink ref="B94" r:id="rId85" display="String matching where one string contains wildcard characters"/>
+    <hyperlink ref="B95" r:id="rId86" display="Function to find Number of customers who could not get a computer"/>
+    <hyperlink ref="B96" r:id="rId87" display="Transform One String to Another using Minimum Number of Given Operation"/>
+    <hyperlink ref="B97" r:id="rId88" display="Check if two given strings are isomorphic to each other"/>
+    <hyperlink ref="B98" r:id="rId89" display="Recursively print all sentences that can be formed from list of word lists"/>
+    <hyperlink ref="B101" r:id="rId90" display="Find first and last positions of an element in a sorted array"/>
+    <hyperlink ref="B102" r:id="rId91" display="Find a Fixed Point (Value equal to index) in a given array"/>
+    <hyperlink ref="B103" r:id="rId92" display="Search in a rotated sorted array"/>
+    <hyperlink ref="B104" r:id="rId93" display="square root of an integer"/>
+    <hyperlink ref="B105" r:id="rId94" display="Maximum and minimum of an array using minimum number of comparisons"/>
+    <hyperlink ref="B106" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
+    <hyperlink ref="B107" r:id="rId96" display="Find the repeating and the missing"/>
+    <hyperlink ref="B108" r:id="rId97" display="find majority element"/>
+    <hyperlink ref="B109" r:id="rId98" display="Searching in an array where adjacent differ by at most k"/>
+    <hyperlink ref="B110" r:id="rId99" display="find a pair with a given difference"/>
+    <hyperlink ref="B111" r:id="rId100" display="find four elements that sum to a given value"/>
+    <hyperlink ref="B112" r:id="rId101" display="maximum sum such that no 2 elements are adjacent"/>
+    <hyperlink ref="B113" r:id="rId102" display="Count triplet with sum smaller than a given value"/>
+    <hyperlink ref="B114" r:id="rId103" display="merge 2 sorted arrays"/>
+    <hyperlink ref="B115" r:id="rId104" display="print all subarrays with 0 sum"/>
+    <hyperlink ref="B116" r:id="rId105" display="Product array Puzzle"/>
+    <hyperlink ref="B117" r:id="rId106" display="Sort array according to count of set bits"/>
+    <hyperlink ref="B118" r:id="rId107" display="minimum no. of swaps required to sort the array"/>
+    <hyperlink ref="B119" r:id="rId108" display="Bishu and Soldiers"/>
+    <hyperlink ref="B120" r:id="rId109" display="Rasta and Kheshtak"/>
+    <hyperlink ref="B121" r:id="rId110" display="Kth smallest number again"/>
+    <hyperlink ref="B122" r:id="rId111" display="Find pivot element in a sorted array"/>
+    <hyperlink ref="B123" r:id="rId112" display="K-th Element of Two Sorted Arrays"/>
+    <hyperlink ref="B124" r:id="rId113" display="Aggressive cows"/>
+    <hyperlink ref="B125" r:id="rId114" display="Book Allocation Problem"/>
+    <hyperlink ref="B126" r:id="rId115" display="EKOSPOJ:"/>
+    <hyperlink ref="B127" r:id="rId116" display="Job Scheduling Algo"/>
+    <hyperlink ref="B128" r:id="rId117" display="Missing Number in AP"/>
+    <hyperlink ref="B129" r:id="rId118" display="Smallest number with atleastn trailing zeroes infactorial"/>
+    <hyperlink ref="B130" r:id="rId119" display="Painters Partition Problem:"/>
+    <hyperlink ref="B131" r:id="rId120" display="ROTI-Prata SPOJ"/>
+    <hyperlink ref="B132" r:id="rId121" display="DoubleHelix SPOJ"/>
+    <hyperlink ref="B133" r:id="rId122" display="Subset Sums"/>
+    <hyperlink ref="B134" r:id="rId123" display="Findthe inversion count"/>
+    <hyperlink ref="B135" r:id="rId124" display="Implement Merge-sort in-place"/>
+    <hyperlink ref="B136" r:id="rId125" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
+    <hyperlink ref="B139" r:id="rId126" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
+    <hyperlink ref="B140" r:id="rId127" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
+    <hyperlink ref="B141" r:id="rId128" display="Write a program to Detect loop in a linked list."/>
+    <hyperlink ref="B142" r:id="rId129" display="Write a program to Delete loop in a linked list."/>
+    <hyperlink ref="B143" r:id="rId130" display="Find the starting point of the loop. "/>
+    <hyperlink ref="B144" r:id="rId131" display="Remove Duplicates in a sorted Linked List."/>
+    <hyperlink ref="B145" r:id="rId132" display="Remove Duplicates in a Un-sorted Linked List."/>
+    <hyperlink ref="B146" r:id="rId133" display="Write a Program to Move the last element to Front in a Linked List."/>
+    <hyperlink ref="B147" r:id="rId134" display="Add “1” to a number represented as a Linked List."/>
+    <hyperlink ref="B148" r:id="rId135" display="Add two numbers represented by linked lists."/>
+    <hyperlink ref="B149" r:id="rId136" display="Intersection of two Sorted Linked List."/>
+    <hyperlink ref="B150" r:id="rId137" display="Intersection Point of two Linked Lists."/>
+    <hyperlink ref="B151" r:id="rId138" display="Merge Sort For Linked lists.[Very Important]"/>
+    <hyperlink ref="B152" r:id="rId139" display="Quicksort for Linked Lists.[Very Important]"/>
+    <hyperlink ref="B153" r:id="rId140" display="Find the middle Element of a linked list."/>
+    <hyperlink ref="B154" r:id="rId141" display="Check if a linked list is a circular linked list."/>
+    <hyperlink ref="B155" r:id="rId142" display="Split a Circular linked list into two halves."/>
+    <hyperlink ref="B156" r:id="rId143" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
+    <hyperlink ref="B157" r:id="rId144" display="Deletion from a Circular Linked List."/>
+    <hyperlink ref="B158" r:id="rId145" display="Reverse a Doubly Linked list."/>
+    <hyperlink ref="B159" r:id="rId146" display="Find pairs with a given sum in a DLL."/>
+    <hyperlink ref="B160" r:id="rId147" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
+    <hyperlink ref="B161" r:id="rId148" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
+    <hyperlink ref="B162" r:id="rId149" display="Rotate DoublyLinked list by N nodes."/>
+    <hyperlink ref="B163" r:id="rId150" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
+    <hyperlink ref="B166" r:id="rId151" display="Flatten a Linked List"/>
+    <hyperlink ref="B167" r:id="rId152" display="Sort a LL of 0's, 1's and 2's"/>
+    <hyperlink ref="B168" r:id="rId153" display="Clone a linked list with next and random pointer"/>
+    <hyperlink ref="B169" r:id="rId154" display="Merge K sorted Linked list"/>
+    <hyperlink ref="B170" r:id="rId155" display="Multiply 2 no. represented by LL"/>
+    <hyperlink ref="B171" r:id="rId156" display="Delete nodes which have a greater value on right side"/>
+    <hyperlink ref="B172" r:id="rId157" display="Segregate even and odd nodes in a Linked List"/>
+    <hyperlink ref="B173" r:id="rId158" display="Program for n’th node from the end of a Linked List"/>
+    <hyperlink ref="B174" r:id="rId159" display="Find the first non-repeating character from a stream of characters"/>
+    <hyperlink ref="B177" r:id="rId160" display="level order traversal"/>
+    <hyperlink ref="B178" r:id="rId161" display="Reverse Level Order traversal"/>
+    <hyperlink ref="B179" r:id="rId162" display="Height of a tree"/>
+    <hyperlink ref="B180" r:id="rId163" display="Diameter of a tree"/>
+    <hyperlink ref="B181" r:id="rId164" display="Mirror of a tree"/>
+    <hyperlink ref="B182" r:id="rId165" display="Inorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B183" r:id="rId166" display="Preorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B184" r:id="rId167" display="Postorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B185" r:id="rId168" display="Left View of a tree"/>
+    <hyperlink ref="B186" r:id="rId169" display="Right View of Tree"/>
+    <hyperlink ref="B187" r:id="rId170" display="Top View of a tree"/>
+    <hyperlink ref="B188" r:id="rId171" display="Bottom View of a tree"/>
+    <hyperlink ref="B189" r:id="rId172" display="Zig-Zag traversal of a binary tree"/>
+    <hyperlink ref="B190" r:id="rId173" display="Check if a tree is balanced or not"/>
+    <hyperlink ref="B191" r:id="rId174" display="Diagnol Traversal of a Binary tree"/>
+    <hyperlink ref="B192" r:id="rId175" display="Boundary traversal of a Binary tree"/>
+    <hyperlink ref="B193" r:id="rId176" display="Construct Binary Tree from String with Bracket Representation"/>
+    <hyperlink ref="B194" r:id="rId177" display="Convert Binary tree into Doubly Linked List"/>
+    <hyperlink ref="B195" r:id="rId178" display="Convert Binary tree into Sum tree"/>
+    <hyperlink ref="B196" r:id="rId179" display="Construct Binary tree from Inorder and preorder traversal"/>
+    <hyperlink ref="B197" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
+    <hyperlink ref="B198" r:id="rId181" display="Check if Binary tree is Sum tree or not"/>
+    <hyperlink ref="B199" r:id="rId182" display="Check if all leaf nodes are at same level or not"/>
+    <hyperlink ref="B200" r:id="rId183" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
+    <hyperlink ref="B201" r:id="rId184" display="Check if 2 trees are mirror or not"/>
+    <hyperlink ref="B202" r:id="rId185" display="Sum of Nodes on the Longest path from root to leaf node "/>
+    <hyperlink ref="B203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
+    <hyperlink ref="B204" r:id="rId187" display="Find Largest subtree sum in a tree"/>
+    <hyperlink ref="B205" r:id="rId188" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
+    <hyperlink ref="B206" r:id="rId189" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
+    <hyperlink ref="B207" r:id="rId190" display="Find LCA in a Binary tree"/>
+    <hyperlink ref="B208" r:id="rId191" display="Find distance between 2 nodes in a Binary tree"/>
+    <hyperlink ref="B209" r:id="rId192" display="Kth Ancestor of node in a Binary tree"/>
+    <hyperlink ref="B210" r:id="rId193" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
+    <hyperlink ref="B211" r:id="rId194" display="Tree Isomorphism Problem"/>
+    <hyperlink ref="B214" r:id="rId195" display="Fina a value in a BST"/>
+    <hyperlink ref="B215" r:id="rId196" display="Deletion of a node in a BST"/>
+    <hyperlink ref="B216" r:id="rId197" display="Find min and max value in a BST"/>
+    <hyperlink ref="B217" r:id="rId198" display="Find inorder successor and inorder predecessor in a BST"/>
+    <hyperlink ref="B218" r:id="rId199" display="Check if a tree is a BST or not "/>
+    <hyperlink ref="B219" r:id="rId200" display="Populate Inorder successor of all nodes"/>
+    <hyperlink ref="B220" r:id="rId201" display="Find LCA  of 2 nodes in a BST"/>
+    <hyperlink ref="B221" r:id="rId202" display="Construct BST from preorder traversal"/>
+    <hyperlink ref="B222" r:id="rId203" display="Convert Binary tree into BST"/>
+    <hyperlink ref="B223" r:id="rId204" display="Convert a normal BST into a Balanced BST"/>
+    <hyperlink ref="B224" r:id="rId205" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="B225" r:id="rId206" display="Find Kth largest element in a BST"/>
+    <hyperlink ref="B226" r:id="rId207" display="Find Kth smallest element in a BST"/>
+    <hyperlink ref="B227" r:id="rId208" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
+    <hyperlink ref="B228" r:id="rId209" display="Find the median of BST in O(n) time and O(1) space"/>
+    <hyperlink ref="B229" r:id="rId210" display="Count BST ndoes that lie in a given range"/>
+    <hyperlink ref="B230" r:id="rId211" display="Replace every element with the least greater element on its right"/>
+    <hyperlink ref="B231" r:id="rId212" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
+    <hyperlink ref="B232" r:id="rId213" display="Check preorder is valid or not"/>
+    <hyperlink ref="B233" r:id="rId214" display="Check whether BST contains Dead end"/>
+    <hyperlink ref="B234" r:id="rId215" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
+    <hyperlink ref="B235" r:id="rId216" display="Flatten BST to sorted list"/>
+    <hyperlink ref="B238" r:id="rId217" display="Activity Selection Problem"/>
+    <hyperlink ref="B239" r:id="rId218" display="Job SequencingProblem"/>
+    <hyperlink ref="B240" r:id="rId219" display="Huffman Coding"/>
+    <hyperlink ref="B241" r:id="rId220" display="Water Connection Problem"/>
+    <hyperlink ref="B242" r:id="rId221" display="Fractional Knapsack Problem"/>
+    <hyperlink ref="B243" r:id="rId222" display="Greedy Algorithm to find Minimum number of Coins"/>
+    <hyperlink ref="B244" r:id="rId223" display="Maximum trains for which stoppage can be provided"/>
+    <hyperlink ref="B245" r:id="rId224" display="Minimum Platforms Problem"/>
+    <hyperlink ref="B246" r:id="rId225" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
+    <hyperlink ref="B247" r:id="rId226" display="Find the minimum and maximum amount to buy all N candies"/>
+    <hyperlink ref="B248" r:id="rId227" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B249" r:id="rId228" display="Minimum Cost to cut a board into squares"/>
+    <hyperlink ref="B250" r:id="rId229" display="Check if it is possible to survive on Island"/>
+    <hyperlink ref="B251" r:id="rId230" display="Find maximum meetings in one room"/>
+    <hyperlink ref="B252" r:id="rId231" display="Maximum product subset of an array"/>
+    <hyperlink ref="B253" r:id="rId232" display="Maximize array sum after K negations"/>
+    <hyperlink ref="B254" r:id="rId233" display="Maximize the sum of arr[i]*i"/>
+    <hyperlink ref="B255" r:id="rId234" display="Maximum sum of absolute difference of an array"/>
+    <hyperlink ref="B256" r:id="rId235" display="Maximize sum of consecutive differences in a circular array"/>
+    <hyperlink ref="B257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
+    <hyperlink ref="B258" r:id="rId237" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
+    <hyperlink ref="B259" r:id="rId238" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
+    <hyperlink ref="B260" r:id="rId239" display="Smallest subset with sum greater than all other elements"/>
+    <hyperlink ref="B261" r:id="rId240" display="Chocolate Distribution Problem"/>
+    <hyperlink ref="B262" r:id="rId241" display="DEFKIN -Defense of a Kingdom"/>
+    <hyperlink ref="B263" r:id="rId242" display="DIEHARD -DIE HARD"/>
+    <hyperlink ref="B264" r:id="rId243" display="GERGOVIA -Wine trading in Gergovia"/>
+    <hyperlink ref="B265" r:id="rId244" display="Picking Up Chicks"/>
+    <hyperlink ref="B266" r:id="rId245" display="CHOCOLA –Chocolate"/>
+    <hyperlink ref="B267" r:id="rId246" display="ARRANGE -Arranging Amplifiers"/>
+    <hyperlink ref="B268" r:id="rId247" display="K Centers Problem"/>
+    <hyperlink ref="B269" r:id="rId248" display="Minimum Cost of ropes"/>
+    <hyperlink ref="B270" r:id="rId249" display="Find smallest number with given number of digits and sum of digits"/>
+    <hyperlink ref="B271" r:id="rId250" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="B272" r:id="rId251" display="Find maximum sum possible equal sum of three stacks"/>
+    <hyperlink ref="B275" r:id="rId252" display="Rat in a maze Problem"/>
+    <hyperlink ref="B276" r:id="rId253" display="Printing all solutions in N-Queen Problem"/>
+    <hyperlink ref="B277" r:id="rId254" display="Word Break Problem using Backtracking"/>
+    <hyperlink ref="B278" r:id="rId255" display="Remove Invalid Parentheses"/>
+    <hyperlink ref="B279" r:id="rId256" display="Sudoku Solver"/>
+    <hyperlink ref="B280" r:id="rId257" display="m Coloring Problem"/>
+    <hyperlink ref="B281" r:id="rId258" display="Print all palindromic partitions of a string"/>
+    <hyperlink ref="B282" r:id="rId259" display="Subset Sum Problem"/>
+    <hyperlink ref="B283" r:id="rId260" display="The Knight’s tour problem"/>
+    <hyperlink ref="B284" r:id="rId261" display="Tug of War"/>
+    <hyperlink ref="B285" r:id="rId262" display="Find shortest safe route in a path with landmines"/>
+    <hyperlink ref="B286" r:id="rId263" display="Combinational Sum"/>
+    <hyperlink ref="B287" r:id="rId264" display="Find Maximum number possible by doing at-most K swaps"/>
+    <hyperlink ref="B288" r:id="rId265" display="Print all permutations of a string "/>
+    <hyperlink ref="B289" r:id="rId266" display="Find if there is a path of more than k length from a source"/>
+    <hyperlink ref="B290" r:id="rId267" display="Longest Possible Route in a Matrix with Hurdles"/>
+    <hyperlink ref="B291" r:id="rId268" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
+    <hyperlink ref="B292" r:id="rId269" display="Partition of a set intoK subsets with equal sum"/>
+    <hyperlink ref="B293" r:id="rId270" display="Find the K-th Permutation Sequence of first N natural numbers"/>
+    <hyperlink ref="B296" r:id="rId271" display=" Implement Stack from Scratch"/>
+    <hyperlink ref="B297" r:id="rId272" display=" Implement Queue from Scratch"/>
+    <hyperlink ref="B298" r:id="rId273" display="Implement 2 stack in an array"/>
+    <hyperlink ref="B299" r:id="rId274" display="find the middle element of a stack"/>
+    <hyperlink ref="B300" r:id="rId275" display="Implement &quot;N&quot; stacks in an Array"/>
+    <hyperlink ref="B301" r:id="rId276" display="Check the expression has valid or Balanced parenthesis or not."/>
+    <hyperlink ref="B302" r:id="rId277" display="Reverse a String using Stack"/>
+    <hyperlink ref="B303" r:id="rId278" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
+    <hyperlink ref="B304" r:id="rId279" display="Find the next Greater element"/>
+    <hyperlink ref="B305" r:id="rId280" display="The celebrity Problem"/>
+    <hyperlink ref="B306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
+    <hyperlink ref="B307" r:id="rId282" display="Evaluation of Postfix expression"/>
+    <hyperlink ref="B308" r:id="rId283" display="Implement a method to insert an element at its bottom without using any other data structure."/>
+    <hyperlink ref="B309" r:id="rId284" display="Reverse a stack using recursion"/>
+    <hyperlink ref="B310" r:id="rId285" display="Sort a Stack using recursion"/>
+    <hyperlink ref="B311" r:id="rId286" display="Merge Overlapping Intervals"/>
+    <hyperlink ref="B312" r:id="rId287" display="Largest rectangular Area in Histogram"/>
+    <hyperlink ref="B313" r:id="rId288" display="Length of the Longest Valid Substring"/>
+    <hyperlink ref="B314" r:id="rId289" display="Expression contains redundant bracket or not"/>
+    <hyperlink ref="B315" r:id="rId290" display="Implement Stack using Queue"/>
+    <hyperlink ref="B316" r:id="rId291" display="Implement Stack using Deque"/>
+    <hyperlink ref="B317" r:id="rId292" display="Stack Permutations (Check if an array is stack permutation of other)"/>
+    <hyperlink ref="B318" r:id="rId293" display="Implement Queue using Stack  "/>
+    <hyperlink ref="B319" r:id="rId294" display="Implement &quot;n&quot; queue in an array"/>
+    <hyperlink ref="B320" r:id="rId295" display="Implement a Circular queue"/>
+    <hyperlink ref="B321" r:id="rId296" display="LRU Cache Implementationa"/>
+    <hyperlink ref="B322" r:id="rId297" display="Reverse a Queue using recursion"/>
+    <hyperlink ref="B323" r:id="rId298" display="Reverse the first “K” elements of a queue"/>
+    <hyperlink ref="B324" r:id="rId299" display="Interleave the first half of the queue with second half"/>
+    <hyperlink ref="B325" r:id="rId300" display="Find the first circular tour that visits all Petrol Pumps"/>
+    <hyperlink ref="B326" r:id="rId301" display="Minimum time required to rot all oranges"/>
+    <hyperlink ref="B327" r:id="rId302" display="Distance of nearest cell having 1 in a binary matrix"/>
+    <hyperlink ref="B328" r:id="rId303" display="First negative integer in every window of size “k”"/>
+    <hyperlink ref="B329" r:id="rId304" display="Check if all levels of two trees are anagrams or not."/>
+    <hyperlink ref="B330" r:id="rId305" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
+    <hyperlink ref="B331" r:id="rId306" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
+    <hyperlink ref="B332" r:id="rId307" display="Queue based approach or first non-repeating character in a stream."/>
+    <hyperlink ref="B333" r:id="rId308" display="Next Smaller Element"/>
+    <hyperlink ref="B336" r:id="rId309" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
+    <hyperlink ref="B337" r:id="rId310" display="Sort an Array using heap. (HeapSort)"/>
+    <hyperlink ref="B338" r:id="rId311" display="Maximum of all subarrays of size k."/>
+    <hyperlink ref="B339" r:id="rId312" display="“k” largest element in an array"/>
+    <hyperlink ref="B340" r:id="rId313" display="Kth smallest and largest element in an unsorted array"/>
+    <hyperlink ref="B341" r:id="rId314" display="Merge “K” sorted arrays. [ IMP ]"/>
+    <hyperlink ref="B342" r:id="rId315" display="Merge 2 Binary Max Heaps"/>
+    <hyperlink ref="B343" r:id="rId316" display="Kth largest sum continuous subarrays"/>
+    <hyperlink ref="B344" r:id="rId317" display="Leetcode- reorganize strings"/>
+    <hyperlink ref="B345" r:id="rId318" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
+    <hyperlink ref="B346" r:id="rId319" display="Smallest range in “K” Lists"/>
+    <hyperlink ref="B347" r:id="rId320" display="Median in a stream of Integers"/>
+    <hyperlink ref="B348" r:id="rId321" display="Check if a Binary Tree is Heap"/>
+    <hyperlink ref="B349" r:id="rId322" display="Connect “n” ropes with minimum cost"/>
+    <hyperlink ref="B350" r:id="rId323" display="Convert BST to Min Heap"/>
+    <hyperlink ref="B351" r:id="rId324" display="Convert min heap to max heap"/>
+    <hyperlink ref="B352" r:id="rId325" display="Rearrange characters in a string such that no two adjacent are same."/>
+    <hyperlink ref="B353" r:id="rId326" display="Minimum sum of two numbers formed from digits of an array"/>
+    <hyperlink ref="B356" r:id="rId327" display="Create a Graph, print it"/>
+    <hyperlink ref="B357" r:id="rId328" display="Implement BFS algorithm "/>
+    <hyperlink ref="B358" r:id="rId329" display="Implement DFS Algo "/>
+    <hyperlink ref="B359" r:id="rId330" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B360" r:id="rId331" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B361" r:id="rId332" display="Search in a Maze"/>
+    <hyperlink ref="B362" r:id="rId333" display="Minimum Step by Knight"/>
+    <hyperlink ref="B363" r:id="rId334" display="flood fill algo"/>
+    <hyperlink ref="B364" r:id="rId335" display="Clone a graph"/>
+    <hyperlink ref="B365" r:id="rId336" display="Making wired Connections"/>
+    <hyperlink ref="B366" r:id="rId337" display="word Ladder "/>
+    <hyperlink ref="B367" r:id="rId338" display="Dijkstra algo"/>
+    <hyperlink ref="B368" r:id="rId339" display="Implement Topological Sort "/>
+    <hyperlink ref="B369" r:id="rId340" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
+    <hyperlink ref="B370" r:id="rId341" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
+    <hyperlink ref="B371" r:id="rId342" display="Find the no. of Isalnds"/>
+    <hyperlink ref="B372" r:id="rId343" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
+    <hyperlink ref="B373" r:id="rId344" display="Implement Kruksal’sAlgorithm"/>
+    <hyperlink ref="B374" r:id="rId345" display="Implement Prim’s Algorithm"/>
+    <hyperlink ref="B375" r:id="rId346" display="Total no. of Spanning tree in a graph"/>
+    <hyperlink ref="B376" r:id="rId347" display="Implement Bellman Ford Algorithm"/>
+    <hyperlink ref="B377" r:id="rId348" display="Implement Floyd warshallAlgorithm"/>
+    <hyperlink ref="B378" r:id="rId349" display="Travelling Salesman Problem"/>
+    <hyperlink ref="B379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
+    <hyperlink ref="B380" r:id="rId351" display="Snake and Ladders Problem"/>
+    <hyperlink ref="B381" r:id="rId352" display="Find bridge in a graph"/>
+    <hyperlink ref="B382" r:id="rId353" display="Count Strongly connected Components(Kosaraju Algo)"/>
+    <hyperlink ref="B383" r:id="rId354" display="Check whether a graph is Bipartite or Not"/>
+    <hyperlink ref="B384" r:id="rId355" display="Detect Negative cycle in a graph"/>
+    <hyperlink ref="B385" r:id="rId356" display="Longest path in a Directed Acyclic Graph"/>
+    <hyperlink ref="B386" r:id="rId357" display="Journey to the Moon"/>
+    <hyperlink ref="B387" r:id="rId358" display="Cheapest Flights Within K Stops"/>
+    <hyperlink ref="B388" r:id="rId359" display="Oliver and the Game"/>
+    <hyperlink ref="B389" r:id="rId360" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B390" r:id="rId361" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B391" r:id="rId362" display="Find if there is a path of more thank length from a source"/>
+    <hyperlink ref="B392" r:id="rId363" display="M-ColouringProblem"/>
+    <hyperlink ref="B393" r:id="rId364" display="Minimum edges to reverse o make path from source to destination"/>
+    <hyperlink ref="B394" r:id="rId365" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
+    <hyperlink ref="B395" r:id="rId366" display="Vertex Cover Problem"/>
+    <hyperlink ref="B396" r:id="rId367" display="Chinese Postman or Route Inspection"/>
+    <hyperlink ref="B397" r:id="rId368" display="Number of Triangles in a Directed and Undirected Graph"/>
+    <hyperlink ref="B398" r:id="rId369" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B399" r:id="rId370" display="Two Clique Problem"/>
+    <hyperlink ref="B402" r:id="rId371" display="Construct a trie from scratch"/>
+    <hyperlink ref="B403" r:id="rId372" display="Find shortest unique prefix for every word in a given list"/>
+    <hyperlink ref="B404" r:id="rId373" display="Word Break Problem | (Trie solution)"/>
+    <hyperlink ref="B405" r:id="rId374" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="B406" r:id="rId375" display="Implement a Phone Directory"/>
+    <hyperlink ref="B407" r:id="rId376" display="Print unique rows in a given boolean matrix"/>
+    <hyperlink ref="B410" r:id="rId377" display="Coin ChangeProblem"/>
+    <hyperlink ref="B411" r:id="rId378" display="Knapsack Problem"/>
+    <hyperlink ref="B412" r:id="rId379" display="Binomial CoefficientProblem"/>
+    <hyperlink ref="B413" r:id="rId380" display="Permutation CoefficientProblem"/>
+    <hyperlink ref="B414" r:id="rId381" display="Program for nth Catalan Number"/>
+    <hyperlink ref="B415" r:id="rId382" display="Matrix Chain Multiplication "/>
+    <hyperlink ref="B416" r:id="rId383" display="Edit Distance"/>
+    <hyperlink ref="B417" r:id="rId384" display="Subset Sum Problem"/>
+    <hyperlink ref="B418" r:id="rId385" display="Friends Pairing Problem"/>
+    <hyperlink ref="B419" r:id="rId386" display="Gold Mine Problem"/>
+    <hyperlink ref="B420" r:id="rId387" display="Assembly Line SchedulingProblem"/>
+    <hyperlink ref="B421" r:id="rId388" display="Painting the Fenceproblem"/>
+    <hyperlink ref="B422" r:id="rId389" display="Maximize The Cut Segments"/>
+    <hyperlink ref="B423" r:id="rId390" display="Longest Common Subsequence"/>
+    <hyperlink ref="B424" r:id="rId391" display="Longest Repeated Subsequence"/>
+    <hyperlink ref="B425" r:id="rId392" display="Longest Increasing Subsequence"/>
+    <hyperlink ref="B426" r:id="rId393" display="Space Optimized Solution of LCS"/>
+    <hyperlink ref="B427" r:id="rId394" display="LCS (Longest Common Subsequence) of three strings"/>
+    <hyperlink ref="B428" r:id="rId395" display="Maximum Sum Increasing Subsequence"/>
+    <hyperlink ref="B429" r:id="rId396" display="Count all subsequences having product less than K"/>
+    <hyperlink ref="B430" r:id="rId397" display="Longest subsequence such that difference between adjacent is one"/>
+    <hyperlink ref="B431" r:id="rId398" display="Maximum subsequence sum such that no three are consecutive"/>
+    <hyperlink ref="B432" r:id="rId399" display="Egg Dropping Problem"/>
+    <hyperlink ref="B433" r:id="rId400" display="Maximum Length Chain of Pairs"/>
+    <hyperlink ref="B434" r:id="rId401" display="Maximum size square sub-matrix with all 1s"/>
+    <hyperlink ref="B435" r:id="rId402" display="Maximum sum of pairs with specific difference"/>
+    <hyperlink ref="B436" r:id="rId403" display="Min Cost PathProblem"/>
+    <hyperlink ref="B437" r:id="rId404" display="Maximum difference of zeros and ones in binary string"/>
+    <hyperlink ref="B438" r:id="rId405" display="Minimum number of jumps to reach end"/>
+    <hyperlink ref="B439" r:id="rId406" display="Minimum cost to fill given weight in a bag"/>
+    <hyperlink ref="B440" r:id="rId407" display="Minimum removals from array to make max –min &lt;= K"/>
+    <hyperlink ref="B441" r:id="rId408" display="Longest Common Substring"/>
+    <hyperlink ref="B442" r:id="rId409" display="Count number of ways to reacha given score in a game"/>
+    <hyperlink ref="B443" r:id="rId410" display="Count Balanced Binary Trees of Height h"/>
+    <hyperlink ref="B444" r:id="rId411" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
+    <hyperlink ref="B445" r:id="rId412" display="Smallest sum contiguous subarray"/>
+    <hyperlink ref="B446" r:id="rId413" display="Unbounded Knapsack (Repetition of items allowed)"/>
+    <hyperlink ref="B447" r:id="rId414" display="Word Break Problem"/>
+    <hyperlink ref="B448" r:id="rId415" display="Largest Independent Set Problem"/>
+    <hyperlink ref="B449" r:id="rId416" display="Partition problem"/>
+    <hyperlink ref="B450" r:id="rId417" display="Longest Palindromic Subsequence"/>
+    <hyperlink ref="B451" r:id="rId418" display="Count All Palindromic Subsequence in a given String"/>
+    <hyperlink ref="B452" r:id="rId419" display="Longest Palindromic Substring"/>
+    <hyperlink ref="B453" r:id="rId420" display="Longest alternating subsequence"/>
+    <hyperlink ref="B454" r:id="rId421" display="Weighted Job Scheduling"/>
+    <hyperlink ref="B455" r:id="rId422" display="Coin game winner where every player has three choices"/>
+    <hyperlink ref="B456" r:id="rId423" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
+    <hyperlink ref="B457" r:id="rId424" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
+    <hyperlink ref="B458" r:id="rId425" display="Optimal Strategy for a Game"/>
+    <hyperlink ref="B459" r:id="rId426" display="Optimal Binary Search Tree"/>
+    <hyperlink ref="B460" r:id="rId427" display="Palindrome PartitioningProblem"/>
+    <hyperlink ref="B461" r:id="rId428" display="Word Wrap Problem"/>
+    <hyperlink ref="B462" r:id="rId429" display="Mobile Numeric Keypad Problem [ IMP ]"/>
+    <hyperlink ref="B463" r:id="rId430" display="Boolean Parenthesization Problem"/>
+    <hyperlink ref="B464" r:id="rId431" display="Largest rectangular sub-matrix whose sum is 0"/>
+    <hyperlink ref="B465" r:id="rId432" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
+    <hyperlink ref="B466" r:id="rId433" display="Maximum sum rectangle in a 2D matrix"/>
+    <hyperlink ref="B467" r:id="rId434" display="Maximum profit by buying and selling a share at most k times"/>
+    <hyperlink ref="B468" r:id="rId435" display="Find if a string is interleaved of two other strings"/>
+    <hyperlink ref="B469" r:id="rId436" display="Maximum Length of Pair Chain"/>
+    <hyperlink ref="B472" r:id="rId437" display="Count set bits in an integer"/>
+    <hyperlink ref="B473" r:id="rId438" display="Find the two non-repeating elements in an array of repeating elements"/>
+    <hyperlink ref="B474" r:id="rId439" display="Count number of bits to be flipped to convert A to B"/>
+    <hyperlink ref="B475" r:id="rId440" display="Count total set bits in all numbers from 1 to n"/>
+    <hyperlink ref="B476" r:id="rId441" display="Program to find whether a no is power of two"/>
+    <hyperlink ref="B477" r:id="rId442" display="Find position of the only set bit"/>
+    <hyperlink ref="B478" r:id="rId443" display="Copy set bits in a range"/>
+    <hyperlink ref="B479" r:id="rId444" display="Divide two integers without using multiplication, division and mod operator"/>
+    <hyperlink ref="B480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
+    <hyperlink ref="B481" r:id="rId446" display="Power Set"/>
   </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447D27B9-4E2E-4F33-A01F-77BE181B61F3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4583764F-D958-4F9A-97F3-3F8B8471CA26}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1509,14 +1509,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAFD095"/>
-        <bgColor rgb="FFC5E0B4"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFC5E0B4"/>
       </patternFill>
     </fill>
   </fills>
@@ -1944,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A341" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B350" sqref="B350"/>
+    <sheetView tabSelected="1" topLeftCell="A335" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B355" sqref="B355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
@@ -5578,7 +5578,7 @@
       <c r="A346" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B346" s="14" t="s">
+      <c r="B346" s="13" t="s">
         <v>336</v>
       </c>
       <c r="C346" s="5" t="s">
@@ -5589,7 +5589,7 @@
       <c r="A347" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B347" s="13" t="s">
+      <c r="B347" s="14" t="s">
         <v>337</v>
       </c>
       <c r="C347" s="5" t="s">
@@ -5622,7 +5622,7 @@
       <c r="A350" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B350" s="7" t="s">
+      <c r="B350" s="13" t="s">
         <v>340</v>
       </c>
       <c r="C350" s="5" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4583764F-D958-4F9A-97F3-3F8B8471CA26}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4BB74C-7A4A-4E82-9F0A-EFE0CDF374DD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1944,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A335" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B355" sqref="B355"/>
+    <sheetView tabSelected="1" topLeftCell="A297" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B305" sqref="B305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
@@ -5042,7 +5042,7 @@
       <c r="A296" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B296" s="7" t="s">
+      <c r="B296" s="13" t="s">
         <v>287</v>
       </c>
       <c r="C296" s="5" t="s">
@@ -5064,7 +5064,7 @@
       <c r="A298" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B298" s="7" t="s">
+      <c r="B298" s="13" t="s">
         <v>289</v>
       </c>
       <c r="C298" s="5" t="s">
@@ -5075,7 +5075,7 @@
       <c r="A299" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B299" s="7" t="s">
+      <c r="B299" s="13" t="s">
         <v>290</v>
       </c>
       <c r="C299" s="5" t="s">
@@ -5097,7 +5097,7 @@
       <c r="A301" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B301" s="7" t="s">
+      <c r="B301" s="13" t="s">
         <v>292</v>
       </c>
       <c r="C301" s="5" t="s">
@@ -5108,7 +5108,7 @@
       <c r="A302" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B302" s="7" t="s">
+      <c r="B302" s="13" t="s">
         <v>293</v>
       </c>
       <c r="C302" s="5" t="s">
@@ -5119,7 +5119,7 @@
       <c r="A303" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B303" s="7" t="s">
+      <c r="B303" s="13" t="s">
         <v>294</v>
       </c>
       <c r="C303" s="5" t="s">
@@ -5130,7 +5130,7 @@
       <c r="A304" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B304" s="7" t="s">
+      <c r="B304" s="13" t="s">
         <v>295</v>
       </c>
       <c r="C304" s="5" t="s">
@@ -5141,7 +5141,7 @@
       <c r="A305" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B305" s="7" t="s">
+      <c r="B305" s="13" t="s">
         <v>296</v>
       </c>
       <c r="C305" s="5" t="s">
@@ -6166,7 +6166,7 @@
       <c r="A402" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="B402" s="7" t="s">
+      <c r="B402" s="13" t="s">
         <v>389</v>
       </c>
       <c r="C402" s="5" t="s">
@@ -6210,7 +6210,7 @@
       <c r="A406" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="B406" s="7" t="s">
+      <c r="B406" s="13" t="s">
         <v>392</v>
       </c>
       <c r="C406" s="5" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4BB74C-7A4A-4E82-9F0A-EFE0CDF374DD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6740FA7C-7E75-42B7-B582-74DADE806723}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1533,7 +1533,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1559,6 +1559,9 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1944,8 +1947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A297" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B305" sqref="B305"/>
+    <sheetView tabSelected="1" topLeftCell="A301" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B309" sqref="B309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
@@ -5185,7 +5188,7 @@
       <c r="A309" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B309" s="11" t="s">
+      <c r="B309" s="15" t="s">
         <v>300</v>
       </c>
       <c r="C309" s="5" t="s">
@@ -5196,7 +5199,7 @@
       <c r="A310" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B310" s="7" t="s">
+      <c r="B310" s="13" t="s">
         <v>301</v>
       </c>
       <c r="C310" s="5" t="s">
@@ -5240,7 +5243,7 @@
       <c r="A314" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B314" s="7" t="s">
+      <c r="B314" s="13" t="s">
         <v>305</v>
       </c>
       <c r="C314" s="5" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\DSA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6740FA7C-7E75-42B7-B582-74DADE806723}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,13 +22,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="465">
   <si>
-    <t>Questions by Love Babbar:</t>
+    <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
   <si>
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
   </si>
   <si>
-    <t>Topic:</t>
+    <t xml:space="preserve">Topic:</t>
   </si>
   <si>
     <t xml:space="preserve">Problem: </t>
@@ -42,850 +37,850 @@
     <t xml:space="preserve">Done [yes or no] </t>
   </si>
   <si>
-    <t>&lt;-&gt;</t>
-  </si>
-  <si>
-    <t>Array</t>
-  </si>
-  <si>
-    <t>Reverse the array</t>
-  </si>
-  <si>
-    <t>Find the maximum and minimum element in an array</t>
+    <t xml:space="preserve">&lt;-&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse the array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the maximum and minimum element in an array</t>
   </si>
   <si>
     <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
   </si>
   <si>
-    <t>Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
+    <t xml:space="preserve">Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
   </si>
   <si>
     <t xml:space="preserve">Move all the negative elements to one side of the array </t>
   </si>
   <si>
-    <t>Find the Union and Intersection of the two sorted arrays.</t>
-  </si>
-  <si>
-    <t>Write a program to cyclically rotate an array by one.</t>
-  </si>
-  <si>
-    <t>find Largest sum contiguous Subarray [V. IMP]</t>
-  </si>
-  <si>
-    <t>Minimise the maximum difference between heights [V.IMP]</t>
-  </si>
-  <si>
-    <t>Minimum no. of Jumps to reach end of an array</t>
-  </si>
-  <si>
-    <t>find duplicate in an array of N+1 Integers</t>
-  </si>
-  <si>
-    <t>Merge 2 sorted arrays without using Extra space.</t>
-  </si>
-  <si>
-    <t>Kadane's Algo [V.V.V.V.V IMP]</t>
-  </si>
-  <si>
-    <t>Merge Intervals</t>
-  </si>
-  <si>
-    <t>Next Permutation</t>
-  </si>
-  <si>
-    <t>Count Inversion</t>
-  </si>
-  <si>
-    <t>Best time to buy and Sell stock</t>
-  </si>
-  <si>
-    <t>find all pairs on integer array whose sum is equal to given number</t>
-  </si>
-  <si>
-    <t>find common elements In 3 sorted arrays</t>
-  </si>
-  <si>
-    <t>Rearrange the array in alternating positive and negative items with O(1) extra space</t>
-  </si>
-  <si>
-    <t>Find if there is any subarray with sum equal to 0</t>
-  </si>
-  <si>
-    <t>Find factorial of a large number</t>
+    <t xml:space="preserve">Find the Union and Intersection of the two sorted arrays.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a program to cyclically rotate an array by one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find Largest sum contiguous Subarray [V. IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimise the maximum difference between heights [V.IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum no. of Jumps to reach end of an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find duplicate in an array of N+1 Integers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge 2 sorted arrays without using Extra space.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kadane's Algo [V.V.V.V.V IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next Permutation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count Inversion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best time to buy and Sell stock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find all pairs on integer array whose sum is equal to given number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find common elements In 3 sorted arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rearrange the array in alternating positive and negative items with O(1) extra space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find if there is any subarray with sum equal to 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find factorial of a large number</t>
   </si>
   <si>
     <t xml:space="preserve">find maximum product subarray </t>
   </si>
   <si>
-    <t>Find longest coinsecutive subsequence</t>
-  </si>
-  <si>
-    <t>Given an array of size n and a number k, fin all elements that appear more than " n/k " times.</t>
-  </si>
-  <si>
-    <t>Maximum profit by buying and selling a share atmost twice</t>
-  </si>
-  <si>
-    <t>Find whether an array is a subset of another array</t>
-  </si>
-  <si>
-    <t>Find the triplet that sum to a given value</t>
-  </si>
-  <si>
-    <t>Trapping Rain water problem</t>
-  </si>
-  <si>
-    <t>Chocolate Distribution problem</t>
-  </si>
-  <si>
-    <t>Smallest Subarray with sum greater than a given value</t>
-  </si>
-  <si>
-    <t>Three way partitioning of an array around a given value</t>
-  </si>
-  <si>
-    <t>Minimum swaps required bring elements less equal K together</t>
-  </si>
-  <si>
-    <t>Minimum no. of operations required to make an array palindrome</t>
-  </si>
-  <si>
-    <t>Median of 2 sorted arrays of equal size</t>
-  </si>
-  <si>
-    <t>Median of 2 sorted arrays of different size</t>
-  </si>
-  <si>
-    <t>Matrix</t>
-  </si>
-  <si>
-    <t>Spiral traversal on a Matrix</t>
-  </si>
-  <si>
-    <t>Search an element in a matriix</t>
-  </si>
-  <si>
-    <t>Find median in a row wise sorted matrix</t>
-  </si>
-  <si>
-    <t>Find row with maximum no. of 1's</t>
-  </si>
-  <si>
-    <t>Print elements in sorted order using row-column wise sorted matrix</t>
-  </si>
-  <si>
-    <t>Maximum size rectangle</t>
-  </si>
-  <si>
-    <t>Find a specific pair in matrix</t>
-  </si>
-  <si>
-    <t>Rotate matrix by 90 degrees</t>
-  </si>
-  <si>
-    <t>Kth smallest element in a row-cpumn wise sorted matrix</t>
-  </si>
-  <si>
-    <t>Common elements in all rows of a given matrix</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>Reverse a String</t>
-  </si>
-  <si>
-    <t>Check whether a String is Palindrome or not</t>
-  </si>
-  <si>
-    <t>Find Duplicate characters in a string</t>
-  </si>
-  <si>
-    <t>Why strings are immutable in Java?</t>
-  </si>
-  <si>
-    <t>Write a Code to check whether one string is a rotation of another</t>
-  </si>
-  <si>
-    <t>Write a Program to check whether a string is a valid shuffle of two strings or not</t>
-  </si>
-  <si>
-    <t>Count and Say problem</t>
-  </si>
-  <si>
-    <t>Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]</t>
-  </si>
-  <si>
-    <t>Find Longest Recurring Subsequence in String</t>
-  </si>
-  <si>
-    <t>Print all Subsequences of a string.</t>
-  </si>
-  <si>
-    <t>Print all the permutations of the given string</t>
-  </si>
-  <si>
-    <t>Split the Binary string into two substring with equal 0’s and 1’s</t>
-  </si>
-  <si>
-    <t>Word Wrap Problem [VERY IMP].</t>
-  </si>
-  <si>
-    <t>EDIT Distance [Very Imp]</t>
-  </si>
-  <si>
-    <t>Find next greater number with same set of digits. [Very Very IMP]</t>
-  </si>
-  <si>
-    <t>Balanced Parenthesis problem.[Imp]</t>
-  </si>
-  <si>
-    <t>Word break Problem[ Very Imp]</t>
-  </si>
-  <si>
-    <t>Rabin Karp Algo</t>
-  </si>
-  <si>
-    <t>KMP Algo</t>
-  </si>
-  <si>
-    <t>Convert a Sentence into its equivalent mobile numeric keypad sequence.</t>
-  </si>
-  <si>
-    <t>Minimum number of bracket reversals needed to make an expression balanced.</t>
-  </si>
-  <si>
-    <t>Count All Palindromic Subsequence in a given String.</t>
-  </si>
-  <si>
-    <t>Count of number of given string in 2D character array</t>
-  </si>
-  <si>
-    <t>Search a Word in a 2D Grid of characters.</t>
-  </si>
-  <si>
-    <t>Boyer Moore Algorithm for Pattern Searching.</t>
-  </si>
-  <si>
-    <t>Converting Roman Numerals to Decimal</t>
-  </si>
-  <si>
-    <t>Longest Common Prefix</t>
-  </si>
-  <si>
-    <t>Number of flips to make binary string alternate</t>
-  </si>
-  <si>
-    <t>Find the first repeated word in string.</t>
-  </si>
-  <si>
-    <t>Minimum number of swaps for bracket balancing.</t>
-  </si>
-  <si>
-    <t>Find the longest common subsequence between two strings.</t>
-  </si>
-  <si>
-    <t>Program to generate all possible valid IP addresses from given  string.</t>
-  </si>
-  <si>
-    <t>Write a program tofind the smallest window that contains all characters of string itself.</t>
-  </si>
-  <si>
-    <t>Rearrange characters in a string such that no two adjacent are same</t>
-  </si>
-  <si>
-    <t>Minimum characters to be added at front to make string palindrome</t>
-  </si>
-  <si>
-    <t>Given a sequence of words, print all anagrams together</t>
-  </si>
-  <si>
-    <t>Find the smallest window in a string containing all characters of another string</t>
-  </si>
-  <si>
-    <t>Recursively remove all adjacent duplicates</t>
-  </si>
-  <si>
-    <t>String matching where one string contains wildcard characters</t>
-  </si>
-  <si>
-    <t>Function to find Number of customers who could not get a computer</t>
-  </si>
-  <si>
-    <t>Transform One String to Another using Minimum Number of Given Operation</t>
-  </si>
-  <si>
-    <t>Check if two given strings are isomorphic to each other</t>
-  </si>
-  <si>
-    <t>Recursively print all sentences that can be formed from list of word lists</t>
-  </si>
-  <si>
-    <t>Searching &amp; Sorting</t>
-  </si>
-  <si>
-    <t>Find first and last positions of an element in a sorted array</t>
-  </si>
-  <si>
-    <t>Find a Fixed Point (Value equal to index) in a given array</t>
-  </si>
-  <si>
-    <t>Search in a rotated sorted array</t>
-  </si>
-  <si>
-    <t>square root of an integer</t>
-  </si>
-  <si>
-    <t>Maximum and minimum of an array using minimum number of comparisons</t>
-  </si>
-  <si>
-    <t>Optimum location of point to minimize total distance</t>
-  </si>
-  <si>
-    <t>Find the repeating and the missing</t>
-  </si>
-  <si>
-    <t>find majority element</t>
-  </si>
-  <si>
-    <t>Searching in an array where adjacent differ by at most k</t>
-  </si>
-  <si>
-    <t>find a pair with a given difference</t>
-  </si>
-  <si>
-    <t>find four elements that sum to a given value</t>
-  </si>
-  <si>
-    <t>maximum sum such that no 2 elements are adjacent</t>
-  </si>
-  <si>
-    <t>Count triplet with sum smaller than a given value</t>
-  </si>
-  <si>
-    <t>merge 2 sorted arrays</t>
-  </si>
-  <si>
-    <t>print all subarrays with 0 sum</t>
-  </si>
-  <si>
-    <t>Product array Puzzle</t>
-  </si>
-  <si>
-    <t>Sort array according to count of set bits</t>
-  </si>
-  <si>
-    <t>minimum no. of swaps required to sort the array</t>
-  </si>
-  <si>
-    <t>Bishu and Soldiers</t>
-  </si>
-  <si>
-    <t>Rasta and Kheshtak</t>
-  </si>
-  <si>
-    <t>Kth smallest number again</t>
-  </si>
-  <si>
-    <t>Find pivot element in a sorted array</t>
-  </si>
-  <si>
-    <t>K-th Element of Two Sorted Arrays</t>
-  </si>
-  <si>
-    <t>Aggressive cows</t>
-  </si>
-  <si>
-    <t>Book Allocation Problem</t>
-  </si>
-  <si>
-    <t>EKOSPOJ:</t>
-  </si>
-  <si>
-    <t>Job Scheduling Algo</t>
-  </si>
-  <si>
-    <t>Missing Number in AP</t>
-  </si>
-  <si>
-    <t>Smallest number with atleastn trailing zeroes infactorial</t>
-  </si>
-  <si>
-    <t>Painters Partition Problem:</t>
-  </si>
-  <si>
-    <t>ROTI-Prata SPOJ</t>
-  </si>
-  <si>
-    <t>DoubleHelix SPOJ</t>
-  </si>
-  <si>
-    <t>Subset Sums</t>
-  </si>
-  <si>
-    <t>Findthe inversion count</t>
-  </si>
-  <si>
-    <t>Implement Merge-sort in-place</t>
-  </si>
-  <si>
-    <t>Partitioning and Sorting Arrays with Many Repeated Entries</t>
-  </si>
-  <si>
-    <t>LinkedList</t>
-  </si>
-  <si>
-    <t>Write a Program to reverse the Linked List. (Both Iterative and recursive)</t>
-  </si>
-  <si>
-    <t>Reverse a Linked List in group of Given Size. [Very Imp]</t>
-  </si>
-  <si>
-    <t>Write a program to Detect loop in a linked list.</t>
-  </si>
-  <si>
-    <t>Write a program to Delete loop in a linked list.</t>
-  </si>
-  <si>
-    <t>Find the starting point of the loop. </t>
-  </si>
-  <si>
-    <t>Remove Duplicates in a sorted Linked List.</t>
-  </si>
-  <si>
-    <t>Remove Duplicates in a Un-sorted Linked List.</t>
-  </si>
-  <si>
-    <t>Write a Program to Move the last element to Front in a Linked List.</t>
-  </si>
-  <si>
-    <t>Add “1” to a number represented as a Linked List.</t>
-  </si>
-  <si>
-    <t>Add two numbers represented by linked lists.</t>
-  </si>
-  <si>
-    <t>Intersection of two Sorted Linked List.</t>
-  </si>
-  <si>
-    <t>Intersection Point of two Linked Lists.</t>
-  </si>
-  <si>
-    <t>Merge Sort For Linked lists.[Very Important]</t>
-  </si>
-  <si>
-    <t>Quicksort for Linked Lists.[Very Important]</t>
-  </si>
-  <si>
-    <t>Find the middle Element of a linked list.</t>
-  </si>
-  <si>
-    <t>Check if a linked list is a circular linked list.</t>
-  </si>
-  <si>
-    <t>Split a Circular linked list into two halves.</t>
-  </si>
-  <si>
-    <t>Write a Program to check whether the Singly Linked list is a palindrome or not.</t>
-  </si>
-  <si>
-    <t>Deletion from a Circular Linked List.</t>
-  </si>
-  <si>
-    <t>Reverse a Doubly Linked list.</t>
-  </si>
-  <si>
-    <t>Find pairs with a given sum in a DLL.</t>
-  </si>
-  <si>
-    <t>Count triplets in a sorted DLL whose sum is equal to given value “X”.</t>
-  </si>
-  <si>
-    <t>Sort a “k”sorted Doubly Linked list.[Very IMP]</t>
-  </si>
-  <si>
-    <t>Rotate DoublyLinked list by N nodes.</t>
-  </si>
-  <si>
-    <t>Rotate a Doubly Linked list in group of Given Size.[Very IMP]</t>
-  </si>
-  <si>
-    <t>Can we reverse a linked list in less than O(n) ?</t>
-  </si>
-  <si>
-    <t>Why Quicksort is preferred for. Arrays and Merge Sort for LinkedLists ?</t>
-  </si>
-  <si>
-    <t>Flatten a Linked List</t>
-  </si>
-  <si>
-    <t>Sort a LL of 0's, 1's and 2's</t>
-  </si>
-  <si>
-    <t>Clone a linked list with next and random pointer</t>
-  </si>
-  <si>
-    <t>Merge K sorted Linked list</t>
-  </si>
-  <si>
-    <t>Multiply 2 no. represented by LL</t>
-  </si>
-  <si>
-    <t>Delete nodes which have a greater value on right side</t>
-  </si>
-  <si>
-    <t>Segregate even and odd nodes in a Linked List</t>
-  </si>
-  <si>
-    <t>Program for n’th node from the end of a Linked List</t>
-  </si>
-  <si>
-    <t>Find the first non-repeating character from a stream of characters</t>
-  </si>
-  <si>
-    <t>Binary Trees</t>
-  </si>
-  <si>
-    <t>level order traversal</t>
-  </si>
-  <si>
-    <t>Reverse Level Order traversal</t>
-  </si>
-  <si>
-    <t>Height of a tree</t>
-  </si>
-  <si>
-    <t>Diameter of a tree</t>
-  </si>
-  <si>
-    <t>Mirror of a tree</t>
-  </si>
-  <si>
-    <t>Inorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t>Preorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t>Postorder Traversal of a tree both using recursion and Iteration</t>
-  </si>
-  <si>
-    <t>Left View of a tree</t>
-  </si>
-  <si>
-    <t>Right View of Tree</t>
-  </si>
-  <si>
-    <t>Top View of a tree</t>
-  </si>
-  <si>
-    <t>Bottom View of a tree</t>
-  </si>
-  <si>
-    <t>Zig-Zag traversal of a binary tree</t>
-  </si>
-  <si>
-    <t>Check if a tree is balanced or not</t>
-  </si>
-  <si>
-    <t>Diagnol Traversal of a Binary tree</t>
-  </si>
-  <si>
-    <t>Boundary traversal of a Binary tree</t>
-  </si>
-  <si>
-    <t>Construct Binary Tree from String with Bracket Representation</t>
-  </si>
-  <si>
-    <t>Convert Binary tree into Doubly Linked List</t>
-  </si>
-  <si>
-    <t>Convert Binary tree into Sum tree</t>
-  </si>
-  <si>
-    <t>Construct Binary tree from Inorder and preorder traversal</t>
-  </si>
-  <si>
-    <t>Find minimum swaps required to convert a Binary tree into BST</t>
-  </si>
-  <si>
-    <t>Check if Binary tree is Sum tree or not</t>
-  </si>
-  <si>
-    <t>Check if all leaf nodes are at same level or not</t>
-  </si>
-  <si>
-    <t>Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]</t>
-  </si>
-  <si>
-    <t>Check if 2 trees are mirror or not</t>
+    <t xml:space="preserve">Find longest coinsecutive subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given an array of size n and a number k, fin all elements that appear more than " n/k " times.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum profit by buying and selling a share atmost twice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find whether an array is a subset of another array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the triplet that sum to a given value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trapping Rain water problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chocolate Distribution problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smallest Subarray with sum greater than a given value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three way partitioning of an array around a given value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum swaps required bring elements less equal K together</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum no. of operations required to make an array palindrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median of 2 sorted arrays of equal size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median of 2 sorted arrays of different size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spiral traversal on a Matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search an element in a matriix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find median in a row wise sorted matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find row with maximum no. of 1's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print elements in sorted order using row-column wise sorted matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum size rectangle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find a specific pair in matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotate matrix by 90 degrees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kth smallest element in a row-cpumn wise sorted matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common elements in all rows of a given matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse a String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check whether a String is Palindrome or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Duplicate characters in a string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why strings are immutable in Java?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a Code to check whether one string is a rotation of another</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a Program to check whether a string is a valid shuffle of two strings or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count and Say problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Longest Recurring Subsequence in String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print all Subsequences of a string.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print all the permutations of the given string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Split the Binary string into two substring with equal 0’s and 1’s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word Wrap Problem [VERY IMP].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDIT Distance [Very Imp]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find next greater number with same set of digits. [Very Very IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balanced Parenthesis problem.[Imp]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word break Problem[ Very Imp]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rabin Karp Algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KMP Algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert a Sentence into its equivalent mobile numeric keypad sequence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum number of bracket reversals needed to make an expression balanced.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count All Palindromic Subsequence in a given String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of number of given string in 2D character array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search a Word in a 2D Grid of characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boyer Moore Algorithm for Pattern Searching.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Converting Roman Numerals to Decimal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Common Prefix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of flips to make binary string alternate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the first repeated word in string.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum number of swaps for bracket balancing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the longest common subsequence between two strings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program to generate all possible valid IP addresses from given  string.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a program tofind the smallest window that contains all characters of string itself.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rearrange characters in a string such that no two adjacent are same</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum characters to be added at front to make string palindrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a sequence of words, print all anagrams together</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the smallest window in a string containing all characters of another string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recursively remove all adjacent duplicates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String matching where one string contains wildcard characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Function to find Number of customers who could not get a computer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transform One String to Another using Minimum Number of Given Operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if two given strings are isomorphic to each other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recursively print all sentences that can be formed from list of word lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Searching &amp; Sorting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find first and last positions of an element in a sorted array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find a Fixed Point (Value equal to index) in a given array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search in a rotated sorted array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">square root of an integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum and minimum of an array using minimum number of comparisons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimum location of point to minimize total distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the repeating and the missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find majority element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Searching in an array where adjacent differ by at most k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find a pair with a given difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find four elements that sum to a given value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maximum sum such that no 2 elements are adjacent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count triplet with sum smaller than a given value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merge 2 sorted arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">print all subarrays with 0 sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product array Puzzle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort array according to count of set bits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum no. of swaps required to sort the array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bishu and Soldiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rasta and Kheshtak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kth smallest number again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find pivot element in a sorted array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K-th Element of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggressive cows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Book Allocation Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EKOSPOJ:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job Scheduling Algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing Number in AP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smallest number with atleastn trailing zeroes infactorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Painters Partition Problem:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROTI-Prata SPOJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DoubleHelix SPOJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subset Sums</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Findthe inversion count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Merge-sort in-place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partitioning and Sorting Arrays with Many Repeated Entries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LinkedList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a Program to reverse the Linked List. (Both Iterative and recursive)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse a Linked List in group of Given Size. [Very Imp]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a program to Detect loop in a linked list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a program to Delete loop in a linked list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the starting point of the loop. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove Duplicates in a sorted Linked List.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove Duplicates in a Un-sorted Linked List.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a Program to Move the last element to Front in a Linked List.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add “1” to a number represented as a Linked List.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add two numbers represented by linked lists.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intersection of two Sorted Linked List.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intersection Point of two Linked Lists.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Sort For Linked lists.[Very Important]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quicksort for Linked Lists.[Very Important]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the middle Element of a linked list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if a linked list is a circular linked list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Split a Circular linked list into two halves.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a Program to check whether the Singly Linked list is a palindrome or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deletion from a Circular Linked List.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse a Doubly Linked list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find pairs with a given sum in a DLL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count triplets in a sorted DLL whose sum is equal to given value “X”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort a “k”sorted Doubly Linked list.[Very IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotate DoublyLinked list by N nodes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotate a Doubly Linked list in group of Given Size.[Very IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can we reverse a linked list in less than O(n) ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why Quicksort is preferred for. Arrays and Merge Sort for LinkedLists ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flatten a Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort a LL of 0's, 1's and 2's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clone a linked list with next and random pointer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge K sorted Linked list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiply 2 no. represented by LL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete nodes which have a greater value on right side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segregate even and odd nodes in a Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program for n’th node from the end of a Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the first non-repeating character from a stream of characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level order traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse Level Order traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Height of a tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diameter of a tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirror of a tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postorder Traversal of a tree both using recursion and Iteration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left View of a tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right View of Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top View of a tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottom View of a tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zig-Zag traversal of a binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if a tree is balanced or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnol Traversal of a Binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boundary traversal of a Binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construct Binary Tree from String with Bracket Representation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert Binary tree into Doubly Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert Binary tree into Sum tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construct Binary tree from Inorder and preorder traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find minimum swaps required to convert a Binary tree into BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if Binary tree is Sum tree or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if all leaf nodes are at same level or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if 2 trees are mirror or not</t>
   </si>
   <si>
     <t xml:space="preserve">Sum of Nodes on the Longest path from root to leaf node </t>
   </si>
   <si>
-    <t>Check if given graph is tree or not.  [ IMP ]</t>
-  </si>
-  <si>
-    <t>Find Largest subtree sum in a tree</t>
+    <t xml:space="preserve">Check if given graph is tree or not.  [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Largest subtree sum in a tree</t>
   </si>
   <si>
     <t xml:space="preserve">Maximum Sum of nodes in Binary tree such that no two are adjacent </t>
   </si>
   <si>
-    <t>Print all "K" Sum paths in a Binary tree</t>
-  </si>
-  <si>
-    <t>Find LCA in a Binary tree</t>
-  </si>
-  <si>
-    <t>Find distance between 2 nodes in a Binary tree</t>
-  </si>
-  <si>
-    <t>Kth Ancestor of node in a Binary tree</t>
-  </si>
-  <si>
-    <t>Find all Duplicate subtrees in a Binary tree [ IMP ]</t>
-  </si>
-  <si>
-    <t>Tree Isomorphism Problem</t>
-  </si>
-  <si>
-    <t>Binary Search Trees</t>
-  </si>
-  <si>
-    <t>Fina a value in a BST</t>
-  </si>
-  <si>
-    <t>Deletion of a node in a BST</t>
-  </si>
-  <si>
-    <t>Find min and max value in a BST</t>
-  </si>
-  <si>
-    <t>Find inorder successor and inorder predecessor in a BST</t>
+    <t xml:space="preserve">Print all "K" Sum paths in a Binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find LCA in a Binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find distance between 2 nodes in a Binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kth Ancestor of node in a Binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find all Duplicate subtrees in a Binary tree [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tree Isomorphism Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Search Trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fina a value in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deletion of a node in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find min and max value in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find inorder successor and inorder predecessor in a BST</t>
   </si>
   <si>
     <t xml:space="preserve">Check if a tree is a BST or not </t>
   </si>
   <si>
-    <t>Populate Inorder successor of all nodes</t>
-  </si>
-  <si>
-    <t>Find LCA  of 2 nodes in a BST</t>
-  </si>
-  <si>
-    <t>Construct BST from preorder traversal</t>
-  </si>
-  <si>
-    <t>Convert Binary tree into BST</t>
-  </si>
-  <si>
-    <t>Convert a normal BST into a Balanced BST</t>
-  </si>
-  <si>
-    <t>Merge two BST [ V.V.V&gt;IMP ]</t>
-  </si>
-  <si>
-    <t>Find Kth largest element in a BST</t>
-  </si>
-  <si>
-    <t>Find Kth smallest element in a BST</t>
-  </si>
-  <si>
-    <t>Count pairs from 2 BST whose sum is equal to given value "X"</t>
-  </si>
-  <si>
-    <t>Find the median of BST in O(n) time and O(1) space</t>
-  </si>
-  <si>
-    <t>Count BST ndoes that lie in a given range</t>
-  </si>
-  <si>
-    <t>Replace every element with the least greater element on its right</t>
-  </si>
-  <si>
-    <t>Given "n" appointments, find the conflicting appointments</t>
-  </si>
-  <si>
-    <t>Check preorder is valid or not</t>
-  </si>
-  <si>
-    <t>Check whether BST contains Dead end</t>
-  </si>
-  <si>
-    <t>Largest BST in a Binary Tree [ V.V.V.V.V IMP ]</t>
-  </si>
-  <si>
-    <t>Flatten BST to sorted list</t>
-  </si>
-  <si>
-    <t>Greedy</t>
-  </si>
-  <si>
-    <t>Activity Selection Problem</t>
-  </si>
-  <si>
-    <t>Job SequencingProblem</t>
-  </si>
-  <si>
-    <t>Huffman Coding</t>
-  </si>
-  <si>
-    <t>Water Connection Problem</t>
-  </si>
-  <si>
-    <t>Fractional Knapsack Problem</t>
-  </si>
-  <si>
-    <t>Greedy Algorithm to find Minimum number of Coins</t>
-  </si>
-  <si>
-    <t>Maximum trains for which stoppage can be provided</t>
-  </si>
-  <si>
-    <t>Minimum Platforms Problem</t>
-  </si>
-  <si>
-    <t>Buy Maximum Stocks if i stocks can be bought on i-th day</t>
-  </si>
-  <si>
-    <t>Find the minimum and maximum amount to buy all N candies</t>
-  </si>
-  <si>
-    <t>Minimize Cash Flow among a given set of friends who have borrowed money from each other</t>
-  </si>
-  <si>
-    <t>Minimum Cost to cut a board into squares</t>
-  </si>
-  <si>
-    <t>Check if it is possible to survive on Island</t>
-  </si>
-  <si>
-    <t>Find maximum meetings in one room</t>
-  </si>
-  <si>
-    <t>Maximum product subset of an array</t>
-  </si>
-  <si>
-    <t>Maximize array sum after K negations</t>
-  </si>
-  <si>
-    <t>Maximize the sum of arr[i]*i</t>
-  </si>
-  <si>
-    <t>Maximum sum of absolute difference of an array</t>
-  </si>
-  <si>
-    <t>Maximize sum of consecutive differences in a circular array</t>
-  </si>
-  <si>
-    <t>Minimum sum of absolute difference of pairs of two arrays</t>
-  </si>
-  <si>
-    <t>Program for Shortest Job First (or SJF) CPU Scheduling</t>
-  </si>
-  <si>
-    <t>Program for Least Recently Used (LRU) Page Replacement algorithm</t>
-  </si>
-  <si>
-    <t>Smallest subset with sum greater than all other elements</t>
-  </si>
-  <si>
-    <t>Chocolate Distribution Problem</t>
-  </si>
-  <si>
-    <t>DEFKIN -Defense of a Kingdom</t>
-  </si>
-  <si>
-    <t>DIEHARD -DIE HARD</t>
-  </si>
-  <si>
-    <t>GERGOVIA -Wine trading in Gergovia</t>
-  </si>
-  <si>
-    <t>Picking Up Chicks</t>
-  </si>
-  <si>
-    <t>CHOCOLA –Chocolate</t>
-  </si>
-  <si>
-    <t>ARRANGE -Arranging Amplifiers</t>
-  </si>
-  <si>
-    <t>K Centers Problem</t>
-  </si>
-  <si>
-    <t>Minimum Cost of ropes</t>
-  </si>
-  <si>
-    <t>Find smallest number with given number of digits and sum of digits</t>
-  </si>
-  <si>
-    <t>Find maximum sum possible equal sum of three stacks</t>
-  </si>
-  <si>
-    <t>BackTracking</t>
-  </si>
-  <si>
-    <t>Rat in a maze Problem</t>
-  </si>
-  <si>
-    <t>Printing all solutions in N-Queen Problem</t>
-  </si>
-  <si>
-    <t>Word Break Problem using Backtracking</t>
-  </si>
-  <si>
-    <t>Remove Invalid Parentheses</t>
-  </si>
-  <si>
-    <t>Sudoku Solver</t>
-  </si>
-  <si>
-    <t>m Coloring Problem</t>
-  </si>
-  <si>
-    <t>Print all palindromic partitions of a string</t>
-  </si>
-  <si>
-    <t>Subset Sum Problem</t>
-  </si>
-  <si>
-    <t>The Knight’s tour problem</t>
-  </si>
-  <si>
-    <t>Tug of War</t>
-  </si>
-  <si>
-    <t>Find shortest safe route in a path with landmines</t>
-  </si>
-  <si>
-    <t>Combinational Sum</t>
-  </si>
-  <si>
-    <t>Find Maximum number possible by doing at-most K swaps</t>
+    <t xml:space="preserve">Populate Inorder successor of all nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find LCA  of 2 nodes in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construct BST from preorder traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert Binary tree into BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert a normal BST into a Balanced BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge two BST [ V.V.V&gt;IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Kth largest element in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Kth smallest element in a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count pairs from 2 BST whose sum is equal to given value "X"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the median of BST in O(n) time and O(1) space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count BST ndoes that lie in a given range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replace every element with the least greater element on its right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given "n" appointments, find the conflicting appointments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check preorder is valid or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check whether BST contains Dead end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest BST in a Binary Tree [ V.V.V.V.V IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flatten BST to sorted list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greedy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activity Selection Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job SequencingProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huffman Coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Connection Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fractional Knapsack Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greedy Algorithm to find Minimum number of Coins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum trains for which stoppage can be provided</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Platforms Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy Maximum Stocks if i stocks can be bought on i-th day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the minimum and maximum amount to buy all N candies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimize Cash Flow among a given set of friends who have borrowed money from each other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Cost to cut a board into squares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if it is possible to survive on Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find maximum meetings in one room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum product subset of an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximize array sum after K negations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximize the sum of arr[i]*i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum sum of absolute difference of an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximize sum of consecutive differences in a circular array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum sum of absolute difference of pairs of two arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program for Shortest Job First (or SJF) CPU Scheduling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program for Least Recently Used (LRU) Page Replacement algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smallest subset with sum greater than all other elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chocolate Distribution Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFKIN -Defense of a Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIEHARD -DIE HARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GERGOVIA -Wine trading in Gergovia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Picking Up Chicks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOCOLA –Chocolate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARRANGE -Arranging Amplifiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K Centers Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Cost of ropes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find smallest number with given number of digits and sum of digits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find maximum sum possible equal sum of three stacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackTracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rat in a maze Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printing all solutions in N-Queen Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word Break Problem using Backtracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove Invalid Parentheses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudoku Solver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m Coloring Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print all palindromic partitions of a string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subset Sum Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Knight’s tour problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tug of War</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find shortest safe route in a path with landmines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combinational Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Maximum number possible by doing at-most K swaps</t>
   </si>
   <si>
     <t xml:space="preserve">Print all permutations of a string </t>
   </si>
   <si>
-    <t>Find if there is a path of more than k length from a source</t>
-  </si>
-  <si>
-    <t>Longest Possible Route in a Matrix with Hurdles</t>
-  </si>
-  <si>
-    <t>Print all possible paths from top left to bottom right of a mXn matrix</t>
-  </si>
-  <si>
-    <t>Partition of a set intoK subsets with equal sum</t>
-  </si>
-  <si>
-    <t>Find the K-th Permutation Sequence of first N natural numbers</t>
-  </si>
-  <si>
-    <t>Stacks &amp; Queues</t>
+    <t xml:space="preserve">Find if there is a path of more than k length from a source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Possible Route in a Matrix with Hurdles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print all possible paths from top left to bottom right of a mXn matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partition of a set intoK subsets with equal sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the K-th Permutation Sequence of first N natural numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stacks &amp; Queues</t>
   </si>
   <si>
     <t xml:space="preserve"> Implement Stack from Scratch</t>
@@ -894,175 +889,175 @@
     <t xml:space="preserve"> Implement Queue from Scratch</t>
   </si>
   <si>
-    <t>Implement 2 stack in an array</t>
-  </si>
-  <si>
-    <t>find the middle element of a stack</t>
-  </si>
-  <si>
-    <t>Implement "N" stacks in an Array</t>
-  </si>
-  <si>
-    <t>Check the expression has valid or Balanced parenthesis or not.</t>
-  </si>
-  <si>
-    <t>Reverse a String using Stack</t>
-  </si>
-  <si>
-    <t>Design a Stack that supports getMin() in O(1) time and O(1) extra space.</t>
-  </si>
-  <si>
-    <t>Find the next Greater element</t>
-  </si>
-  <si>
-    <t>The celebrity Problem</t>
-  </si>
-  <si>
-    <t>Arithmetic Expression evaluation</t>
-  </si>
-  <si>
-    <t>Evaluation of Postfix expression</t>
-  </si>
-  <si>
-    <t>Implement a method to insert an element at its bottom without using any other data structure.</t>
-  </si>
-  <si>
-    <t>Reverse a stack using recursion</t>
-  </si>
-  <si>
-    <t>Sort a Stack using recursion</t>
-  </si>
-  <si>
-    <t>Merge Overlapping Intervals</t>
-  </si>
-  <si>
-    <t>Largest rectangular Area in Histogram</t>
-  </si>
-  <si>
-    <t>Length of the Longest Valid Substring</t>
-  </si>
-  <si>
-    <t>Expression contains redundant bracket or not</t>
-  </si>
-  <si>
-    <t>Implement Stack using Queue</t>
-  </si>
-  <si>
-    <t>Implement Stack using Deque</t>
-  </si>
-  <si>
-    <t>Stack Permutations (Check if an array is stack permutation of other)</t>
+    <t xml:space="preserve">Implement 2 stack in an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find the middle element of a stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement "N" stacks in an Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the expression has valid or Balanced parenthesis or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse a String using Stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design a Stack that supports getMin() in O(1) time and O(1) extra space.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the next Greater element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The celebrity Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arithmetic Expression evaluation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluation of Postfix expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement a method to insert an element at its bottom without using any other data structure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse a stack using recursion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort a Stack using recursion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Overlapping Intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest rectangular Area in Histogram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length of the Longest Valid Substring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression contains redundant bracket or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Stack using Queue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Stack using Deque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stack Permutations (Check if an array is stack permutation of other)</t>
   </si>
   <si>
     <t xml:space="preserve">Implement Queue using Stack  </t>
   </si>
   <si>
-    <t>Implement "n" queue in an array</t>
-  </si>
-  <si>
-    <t>Implement a Circular queue</t>
-  </si>
-  <si>
-    <t>LRU Cache Implementationa</t>
-  </si>
-  <si>
-    <t>Reverse a Queue using recursion</t>
-  </si>
-  <si>
-    <t>Reverse the first “K” elements of a queue</t>
-  </si>
-  <si>
-    <t>Interleave the first half of the queue with second half</t>
-  </si>
-  <si>
-    <t>Find the first circular tour that visits all Petrol Pumps</t>
-  </si>
-  <si>
-    <t>Minimum time required to rot all oranges</t>
-  </si>
-  <si>
-    <t>Distance of nearest cell having 1 in a binary matrix</t>
-  </si>
-  <si>
-    <t>First negative integer in every window of size “k”</t>
-  </si>
-  <si>
-    <t>Check if all levels of two trees are anagrams or not.</t>
-  </si>
-  <si>
-    <t>Sum of minimum and maximum elements of all subarrays of size “k”.</t>
-  </si>
-  <si>
-    <t>Minimum sum of squares of character counts in a given string after removing “k” characters.</t>
-  </si>
-  <si>
-    <t>Queue based approach or first non-repeating character in a stream.</t>
-  </si>
-  <si>
-    <t>Next Smaller Element</t>
-  </si>
-  <si>
-    <t>Heap</t>
-  </si>
-  <si>
-    <t>Implement a Maxheap/MinHeap using arrays and recursion.</t>
-  </si>
-  <si>
-    <t>Sort an Array using heap. (HeapSort)</t>
-  </si>
-  <si>
-    <t>Maximum of all subarrays of size k.</t>
-  </si>
-  <si>
-    <t>“k” largest element in an array</t>
-  </si>
-  <si>
-    <t>Kth smallest and largest element in an unsorted array</t>
-  </si>
-  <si>
-    <t>Merge “K” sorted arrays. [ IMP ]</t>
-  </si>
-  <si>
-    <t>Merge 2 Binary Max Heaps</t>
-  </si>
-  <si>
-    <t>Kth largest sum continuous subarrays</t>
-  </si>
-  <si>
-    <t>Leetcode- reorganize strings</t>
-  </si>
-  <si>
-    <t>Merge “K” Sorted Linked Lists [V.IMP]</t>
-  </si>
-  <si>
-    <t>Smallest range in “K” Lists</t>
-  </si>
-  <si>
-    <t>Median in a stream of Integers</t>
-  </si>
-  <si>
-    <t>Check if a Binary Tree is Heap</t>
-  </si>
-  <si>
-    <t>Connect “n” ropes with minimum cost</t>
-  </si>
-  <si>
-    <t>Convert BST to Min Heap</t>
-  </si>
-  <si>
-    <t>Convert min heap to max heap</t>
-  </si>
-  <si>
-    <t>Rearrange characters in a string such that no two adjacent are same.</t>
-  </si>
-  <si>
-    <t>Minimum sum of two numbers formed from digits of an array</t>
-  </si>
-  <si>
-    <t>Graph</t>
-  </si>
-  <si>
-    <t>Create a Graph, print it</t>
+    <t xml:space="preserve">Implement "n" queue in an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement a Circular queue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRU Cache Implementationa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse a Queue using recursion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse the first “K” elements of a queue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interleave the first half of the queue with second half</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the first circular tour that visits all Petrol Pumps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum time required to rot all oranges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distance of nearest cell having 1 in a binary matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First negative integer in every window of size “k”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if all levels of two trees are anagrams or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum of minimum and maximum elements of all subarrays of size “k”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum sum of squares of character counts in a given string after removing “k” characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queue based approach or first non-repeating character in a stream.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next Smaller Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement a Maxheap/MinHeap using arrays and recursion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort an Array using heap. (HeapSort)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum of all subarrays of size k.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“k” largest element in an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kth smallest and largest element in an unsorted array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge “K” sorted arrays. [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge 2 Binary Max Heaps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kth largest sum continuous subarrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leetcode- reorganize strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge “K” Sorted Linked Lists [V.IMP]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smallest range in “K” Lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median in a stream of Integers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if a Binary Tree is Heap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connect “n” ropes with minimum cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert BST to Min Heap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convert min heap to max heap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rearrange characters in a string such that no two adjacent are same.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum sum of two numbers formed from digits of an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a Graph, print it</t>
   </si>
   <si>
     <t xml:space="preserve">Implement BFS algorithm </t>
@@ -1077,356 +1072,359 @@
     <t xml:space="preserve">Detect Cycle in UnDirected Graph using BFS/DFS Algo </t>
   </si>
   <si>
-    <t>Search in a Maze</t>
-  </si>
-  <si>
-    <t>Minimum Step by Knight</t>
-  </si>
-  <si>
-    <t>flood fill algo</t>
-  </si>
-  <si>
-    <t>Clone a graph</t>
-  </si>
-  <si>
-    <t>Making wired Connections</t>
+    <t xml:space="preserve">Search in a Maze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Step by Knight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flood fill algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clone a graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Making wired Connections</t>
   </si>
   <si>
     <t xml:space="preserve">word Ladder </t>
   </si>
   <si>
-    <t>Dijkstra algo</t>
+    <t xml:space="preserve">Dijkstra algo</t>
   </si>
   <si>
     <t xml:space="preserve">Implement Topological Sort </t>
   </si>
   <si>
-    <t>Minimum time taken by each job to be completed given by a Directed Acyclic Graph</t>
-  </si>
-  <si>
-    <t>Find whether it is possible to finish all tasks or not from given dependencies</t>
-  </si>
-  <si>
-    <t>Find the no. of Isalnds</t>
-  </si>
-  <si>
-    <t>Given a sorted Dictionary of an Alien Language, find order of characters</t>
-  </si>
-  <si>
-    <t>Implement Kruksal’sAlgorithm</t>
-  </si>
-  <si>
-    <t>Implement Prim’s Algorithm</t>
-  </si>
-  <si>
-    <t>Total no. of Spanning tree in a graph</t>
-  </si>
-  <si>
-    <t>Implement Bellman Ford Algorithm</t>
-  </si>
-  <si>
-    <t>Implement Floyd warshallAlgorithm</t>
-  </si>
-  <si>
-    <t>Travelling Salesman Problem</t>
-  </si>
-  <si>
-    <t>Graph ColouringProblem</t>
-  </si>
-  <si>
-    <t>Snake and Ladders Problem</t>
-  </si>
-  <si>
-    <t>Find bridge in a graph</t>
-  </si>
-  <si>
-    <t>Count Strongly connected Components(Kosaraju Algo)</t>
-  </si>
-  <si>
-    <t>Check whether a graph is Bipartite or Not</t>
-  </si>
-  <si>
-    <t>Detect Negative cycle in a graph</t>
-  </si>
-  <si>
-    <t>Longest path in a Directed Acyclic Graph</t>
-  </si>
-  <si>
-    <t>Journey to the Moon</t>
-  </si>
-  <si>
-    <t>Cheapest Flights Within K Stops</t>
-  </si>
-  <si>
-    <t>Oliver and the Game</t>
-  </si>
-  <si>
-    <t>Water Jug problem using BFS</t>
-  </si>
-  <si>
-    <t>Find if there is a path of more thank length from a source</t>
-  </si>
-  <si>
-    <t>M-ColouringProblem</t>
-  </si>
-  <si>
-    <t>Minimum edges to reverse o make path from source to destination</t>
-  </si>
-  <si>
-    <t>Paths to travel each nodes using each edge(Seven Bridges)</t>
-  </si>
-  <si>
-    <t>Vertex Cover Problem</t>
-  </si>
-  <si>
-    <t>Chinese Postman or Route Inspection</t>
-  </si>
-  <si>
-    <t>Number of Triangles in a Directed and Undirected Graph</t>
-  </si>
-  <si>
-    <t>Minimise the cashflow among a given set of friends who have borrowed money from each other</t>
-  </si>
-  <si>
-    <t>Two Clique Problem</t>
-  </si>
-  <si>
-    <t>Trie</t>
-  </si>
-  <si>
-    <t>Construct a trie from scratch</t>
-  </si>
-  <si>
-    <t>Find shortest unique prefix for every word in a given list</t>
-  </si>
-  <si>
-    <t>Word Break Problem | (Trie solution)</t>
-  </si>
-  <si>
-    <t>Implement a Phone Directory</t>
-  </si>
-  <si>
-    <t>Print unique rows in a given boolean matrix</t>
-  </si>
-  <si>
-    <t>Dynamic Programming</t>
-  </si>
-  <si>
-    <t>Coin ChangeProblem</t>
-  </si>
-  <si>
-    <t>Knapsack Problem</t>
-  </si>
-  <si>
-    <t>Binomial CoefficientProblem</t>
-  </si>
-  <si>
-    <t>Permutation CoefficientProblem</t>
-  </si>
-  <si>
-    <t>Program for nth Catalan Number</t>
-  </si>
-  <si>
-    <t>Matrix Chain Multiplication </t>
-  </si>
-  <si>
-    <t>Edit Distance</t>
-  </si>
-  <si>
-    <t>Friends Pairing Problem</t>
-  </si>
-  <si>
-    <t>Gold Mine Problem</t>
-  </si>
-  <si>
-    <t>Assembly Line SchedulingProblem</t>
-  </si>
-  <si>
-    <t>Painting the Fenceproblem</t>
-  </si>
-  <si>
-    <t>Maximize The Cut Segments</t>
-  </si>
-  <si>
-    <t>Longest Common Subsequence</t>
-  </si>
-  <si>
-    <t>Longest Repeated Subsequence</t>
-  </si>
-  <si>
-    <t>Longest Increasing Subsequence</t>
-  </si>
-  <si>
-    <t>Space Optimized Solution of LCS</t>
-  </si>
-  <si>
-    <t>LCS (Longest Common Subsequence) of three strings</t>
-  </si>
-  <si>
-    <t>Maximum Sum Increasing Subsequence</t>
-  </si>
-  <si>
-    <t>Count all subsequences having product less than K</t>
-  </si>
-  <si>
-    <t>Longest subsequence such that difference between adjacent is one</t>
-  </si>
-  <si>
-    <t>Maximum subsequence sum such that no three are consecutive</t>
-  </si>
-  <si>
-    <t>Egg Dropping Problem</t>
-  </si>
-  <si>
-    <t>Maximum Length Chain of Pairs</t>
-  </si>
-  <si>
-    <t>Maximum size square sub-matrix with all 1s</t>
-  </si>
-  <si>
-    <t>Maximum sum of pairs with specific difference</t>
-  </si>
-  <si>
-    <t>Min Cost PathProblem</t>
-  </si>
-  <si>
-    <t>Maximum difference of zeros and ones in binary string</t>
-  </si>
-  <si>
-    <t>Minimum number of jumps to reach end</t>
-  </si>
-  <si>
-    <t>Minimum cost to fill given weight in a bag</t>
-  </si>
-  <si>
-    <t>Minimum removals from array to make max –min &lt;= K</t>
-  </si>
-  <si>
-    <t>Longest Common Substring</t>
-  </si>
-  <si>
-    <t>Count number of ways to reacha given score in a game</t>
-  </si>
-  <si>
-    <t>Count Balanced Binary Trees of Height h</t>
-  </si>
-  <si>
-    <t>LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]</t>
-  </si>
-  <si>
-    <t>Smallest sum contiguous subarray</t>
-  </si>
-  <si>
-    <t>Unbounded Knapsack (Repetition of items allowed)</t>
-  </si>
-  <si>
-    <t>Word Break Problem</t>
-  </si>
-  <si>
-    <t>Largest Independent Set Problem</t>
-  </si>
-  <si>
-    <t>Partition problem</t>
-  </si>
-  <si>
-    <t>Longest Palindromic Subsequence</t>
-  </si>
-  <si>
-    <t>Count All Palindromic Subsequence in a given String</t>
-  </si>
-  <si>
-    <t>Longest Palindromic Substring</t>
-  </si>
-  <si>
-    <t>Longest alternating subsequence</t>
-  </si>
-  <si>
-    <t>Weighted Job Scheduling</t>
-  </si>
-  <si>
-    <t>Coin game winner where every player has three choices</t>
-  </si>
-  <si>
-    <t>Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]</t>
-  </si>
-  <si>
-    <t>Maximum profit by buying and selling a share at most twice [ IMP ]</t>
-  </si>
-  <si>
-    <t>Optimal Strategy for a Game</t>
-  </si>
-  <si>
-    <t>Optimal Binary Search Tree</t>
-  </si>
-  <si>
-    <t>Palindrome PartitioningProblem</t>
-  </si>
-  <si>
-    <t>Word Wrap Problem</t>
-  </si>
-  <si>
-    <t>Mobile Numeric Keypad Problem [ IMP ]</t>
-  </si>
-  <si>
-    <t>Boolean Parenthesization Problem</t>
-  </si>
-  <si>
-    <t>Largest rectangular sub-matrix whose sum is 0</t>
-  </si>
-  <si>
-    <t>Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]</t>
-  </si>
-  <si>
-    <t>Maximum sum rectangle in a 2D matrix</t>
-  </si>
-  <si>
-    <t>Maximum profit by buying and selling a share at most k times</t>
-  </si>
-  <si>
-    <t>Find if a string is interleaved of two other strings</t>
-  </si>
-  <si>
-    <t>Maximum Length of Pair Chain</t>
-  </si>
-  <si>
-    <t>Bit Manipulation</t>
-  </si>
-  <si>
-    <t>Count set bits in an integer</t>
-  </si>
-  <si>
-    <t>Find the two non-repeating elements in an array of repeating elements</t>
-  </si>
-  <si>
-    <t>Count number of bits to be flipped to convert A to B</t>
-  </si>
-  <si>
-    <t>Count total set bits in all numbers from 1 to n</t>
-  </si>
-  <si>
-    <t>Program to find whether a no is power of two</t>
-  </si>
-  <si>
-    <t>Find position of the only set bit</t>
-  </si>
-  <si>
-    <t>Copy set bits in a range</t>
-  </si>
-  <si>
-    <t>Divide two integers without using multiplication, division and mod operator</t>
-  </si>
-  <si>
-    <t>Calculate square of a number without using *, / and pow()</t>
-  </si>
-  <si>
-    <t>Power Set</t>
+    <t xml:space="preserve">Minimum time taken by each job to be completed given by a Directed Acyclic Graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find whether it is possible to finish all tasks or not from given dependencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the no. of Isalnds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a sorted Dictionary of an Alien Language, find order of characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Kruksal’sAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Prim’s Algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total no. of Spanning tree in a graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Bellman Ford Algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement Floyd warshallAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Travelling Salesman Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph ColouringProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snake and Ladders Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find bridge in a graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count Strongly connected Components(Kosaraju Algo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check whether a graph is Bipartite or Not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detect Negative cycle in a graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest path in a Directed Acyclic Graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journey to the Moon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheapest Flights Within K Stops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oliver and the Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Jug problem using BFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find if there is a path of more thank length from a source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M-ColouringProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum edges to reverse o make path from source to destination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paths to travel each nodes using each edge(Seven Bridges)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertex Cover Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinese Postman or Route Inspection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Triangles in a Directed and Undirected Graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimise the cashflow among a given set of friends who have borrowed money from each other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two Clique Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construct a trie from scratch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find shortest unique prefix for every word in a given list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word Break Problem | (Trie solution)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement a Phone Directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print unique rows in a given boolean matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic Programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coin ChangeProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knapsack Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binomial CoefficientProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permutation CoefficientProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program for nth Catalan Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matrix Chain Multiplication </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit Distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friends Pairing Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Mine Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assembly Line SchedulingProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Painting the Fenceproblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximize The Cut Segments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Repeated Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Space Optimized Solution of LCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCS (Longest Common Subsequence) of three strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Sum Increasing Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count all subsequences having product less than K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest subsequence such that difference between adjacent is one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum subsequence sum such that no three are consecutive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg Dropping Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Length Chain of Pairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum size square sub-matrix with all 1s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum sum of pairs with specific difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min Cost PathProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum difference of zeros and ones in binary string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum number of jumps to reach end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum cost to fill given weight in a bag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum removals from array to make max –min &lt;= K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Common Substring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count number of ways to reacha given score in a game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count Balanced Binary Trees of Height h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smallest sum contiguous subarray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unbounded Knapsack (Repetition of items allowed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word Break Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest Independent Set Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partition problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Palindromic Subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count All Palindromic Subsequence in a given String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest alternating subsequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Job Scheduling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coin game winner where every player has three choices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum profit by buying and selling a share at most twice [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimal Strategy for a Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimal Binary Search Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palindrome PartitioningProblem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word Wrap Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile Numeric Keypad Problem [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boolean Parenthesization Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest rectangular sub-matrix whose sum is 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum sum rectangle in a 2D matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum profit by buying and selling a share at most k times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find if a string is interleaved of two other strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum Length of Pair Chain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bit Manipulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count set bits in an integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the two non-repeating elements in an array of repeating elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count number of bits to be flipped to convert A to B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count total set bits in all numbers from 1 to n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Program to find whether a no is power of two</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find position of the only set bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copy set bits in a range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divide two integers without using multiplication, division and mod operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate square of a number without using *, / and pow()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1435,14 +1433,30 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="12"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -1450,8 +1464,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <u/>
+      <b val="true"/>
+      <u val="single"/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1459,7 +1473,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1467,7 +1481,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="16"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -1482,7 +1496,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1504,24 +1518,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC5E0B4"/>
-        <bgColor rgb="FFAFD095"/>
+        <bgColor rgb="FFDDE8CB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFDDE8CB"/>
         <bgColor rgb="FFC5E0B4"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -1529,46 +1537,105 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  <cellStyleXfs count="21">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="15">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1585,7 +1652,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFAFD095"/>
+      <rgbColor rgb="FFC5E0B4"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -1605,7 +1672,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFC5E0B4"/>
+      <rgbColor rgb="FFDDE8CB"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -1627,348 +1694,40 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B309" sqref="B309"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A305" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B312" activeCellId="0" sqref="B312"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="123" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25">
+    <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21">
+    <row r="4" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1979,12 +1738,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21">
+    <row r="6" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1995,7 +1754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21">
+    <row r="7" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -2006,7 +1765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="21">
+    <row r="8" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -2017,7 +1776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21">
+    <row r="9" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -2028,7 +1787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21">
+    <row r="10" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -2039,7 +1798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21">
+    <row r="11" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
@@ -2050,7 +1809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21">
+    <row r="12" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -2061,7 +1820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21">
+    <row r="13" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
@@ -2072,7 +1831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21">
+    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -2083,7 +1842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21">
+    <row r="15" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -2094,7 +1853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21">
+    <row r="16" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -2105,7 +1864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21">
+    <row r="17" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
@@ -2116,7 +1875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21">
+    <row r="18" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -2127,7 +1886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21">
+    <row r="19" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -2138,7 +1897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21">
+    <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
         <v>6</v>
       </c>
@@ -2149,7 +1908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21">
+    <row r="21" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
@@ -2160,7 +1919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21">
+    <row r="22" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
         <v>6</v>
       </c>
@@ -2171,7 +1930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21">
+    <row r="23" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
@@ -2182,7 +1941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21">
+    <row r="24" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
         <v>6</v>
       </c>
@@ -2193,7 +1952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21">
+    <row r="25" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
@@ -2204,7 +1963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21">
+    <row r="26" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
@@ -2215,7 +1974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="21">
+    <row r="27" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
@@ -2226,7 +1985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21">
+    <row r="28" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
@@ -2237,7 +1996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="21">
+    <row r="29" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
         <v>6</v>
       </c>
@@ -2248,7 +2007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="21">
+    <row r="30" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
@@ -2259,7 +2018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21">
+    <row r="31" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
         <v>6</v>
       </c>
@@ -2270,7 +2029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="21">
+    <row r="32" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
         <v>6</v>
       </c>
@@ -2281,7 +2040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="21">
+    <row r="33" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -2292,7 +2051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="21">
+    <row r="34" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
@@ -2303,7 +2062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="21">
+    <row r="35" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
         <v>6</v>
       </c>
@@ -2314,7 +2073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="21">
+    <row r="36" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
@@ -2325,7 +2084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="21">
+    <row r="37" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
@@ -2336,7 +2095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="21">
+    <row r="38" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
         <v>6</v>
       </c>
@@ -2347,7 +2106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="21">
+    <row r="39" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
         <v>6</v>
       </c>
@@ -2358,7 +2117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="21">
+    <row r="40" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
         <v>6</v>
       </c>
@@ -2369,7 +2128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="21">
+    <row r="41" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
         <v>6</v>
       </c>
@@ -2380,20 +2139,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="21">
+    <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="21">
+    <row r="43" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="21">
+    <row r="44" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
@@ -2404,7 +2163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="21">
+    <row r="45" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
         <v>43</v>
       </c>
@@ -2415,7 +2174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="21">
+    <row r="46" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
         <v>43</v>
       </c>
@@ -2426,7 +2185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="21">
+    <row r="47" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
         <v>43</v>
       </c>
@@ -2437,7 +2196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="21">
+    <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
         <v>43</v>
       </c>
@@ -2448,7 +2207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="21">
+    <row r="49" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
         <v>43</v>
       </c>
@@ -2459,7 +2218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="21">
+    <row r="50" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
         <v>43</v>
       </c>
@@ -2470,7 +2229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="21">
+    <row r="51" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
         <v>43</v>
       </c>
@@ -2481,7 +2240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="21">
+    <row r="52" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
         <v>43</v>
       </c>
@@ -2492,7 +2251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="21">
+    <row r="53" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
         <v>43</v>
       </c>
@@ -2503,12 +2262,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="21">
+    <row r="55" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6"/>
       <c r="B55" s="8"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="1:3" ht="21">
+    <row r="56" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
         <v>54</v>
       </c>
@@ -2519,7 +2278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="21">
+    <row r="57" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
         <v>54</v>
       </c>
@@ -2530,7 +2289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="21">
+    <row r="58" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
         <v>54</v>
       </c>
@@ -2541,7 +2300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="21">
+    <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
         <v>54</v>
       </c>
@@ -2552,7 +2311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="21">
+    <row r="60" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
         <v>54</v>
       </c>
@@ -2563,7 +2322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="21">
+    <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
         <v>54</v>
       </c>
@@ -2574,7 +2333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="21">
+    <row r="62" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
         <v>54</v>
       </c>
@@ -2585,7 +2344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="21">
+    <row r="63" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
         <v>54</v>
       </c>
@@ -2596,7 +2355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="21">
+    <row r="64" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
         <v>54</v>
       </c>
@@ -2607,7 +2366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="21">
+    <row r="65" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
         <v>54</v>
       </c>
@@ -2618,7 +2377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="21">
+    <row r="66" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
         <v>54</v>
       </c>
@@ -2629,7 +2388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="21">
+    <row r="67" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
         <v>54</v>
       </c>
@@ -2640,7 +2399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="21">
+    <row r="68" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
         <v>54</v>
       </c>
@@ -2651,7 +2410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="21">
+    <row r="69" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
         <v>54</v>
       </c>
@@ -2662,7 +2421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="21">
+    <row r="70" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
         <v>54</v>
       </c>
@@ -2673,7 +2432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="21">
+    <row r="71" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
         <v>54</v>
       </c>
@@ -2684,7 +2443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="21">
+    <row r="72" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
         <v>54</v>
       </c>
@@ -2695,7 +2454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="21">
+    <row r="73" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
         <v>54</v>
       </c>
@@ -2706,7 +2465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="21">
+    <row r="74" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
         <v>54</v>
       </c>
@@ -2717,7 +2476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="21">
+    <row r="75" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
         <v>54</v>
       </c>
@@ -2728,7 +2487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="21">
+    <row r="76" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
         <v>54</v>
       </c>
@@ -2739,7 +2498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="21">
+    <row r="77" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
         <v>54</v>
       </c>
@@ -2750,7 +2509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="21">
+    <row r="78" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
         <v>54</v>
       </c>
@@ -2761,7 +2520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="21">
+    <row r="79" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
         <v>54</v>
       </c>
@@ -2772,7 +2531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="21">
+    <row r="80" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
         <v>54</v>
       </c>
@@ -2783,7 +2542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="21">
+    <row r="81" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
         <v>54</v>
       </c>
@@ -2794,7 +2553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="21">
+    <row r="82" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
         <v>54</v>
       </c>
@@ -2805,7 +2564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="21">
+    <row r="83" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
         <v>54</v>
       </c>
@@ -2816,7 +2575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="21">
+    <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
         <v>54</v>
       </c>
@@ -2827,7 +2586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="21">
+    <row r="85" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
         <v>54</v>
       </c>
@@ -2838,7 +2597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="21">
+    <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
         <v>54</v>
       </c>
@@ -2849,7 +2608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="21">
+    <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
         <v>54</v>
       </c>
@@ -2860,7 +2619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="21">
+    <row r="88" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
         <v>54</v>
       </c>
@@ -2871,7 +2630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="21">
+    <row r="89" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
         <v>54</v>
       </c>
@@ -2882,7 +2641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="21">
+    <row r="90" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
         <v>54</v>
       </c>
@@ -2893,7 +2652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="21">
+    <row r="91" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
         <v>54</v>
       </c>
@@ -2904,7 +2663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="21">
+    <row r="92" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
         <v>54</v>
       </c>
@@ -2915,7 +2674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="21">
+    <row r="93" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
         <v>54</v>
       </c>
@@ -2926,7 +2685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="21">
+    <row r="94" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
         <v>54</v>
       </c>
@@ -2937,7 +2696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="21">
+    <row r="95" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
         <v>54</v>
       </c>
@@ -2948,7 +2707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="21">
+    <row r="96" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
         <v>54</v>
       </c>
@@ -2959,7 +2718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="21">
+    <row r="97" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
         <v>54</v>
       </c>
@@ -2970,7 +2729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="21">
+    <row r="98" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
         <v>54</v>
       </c>
@@ -2981,12 +2740,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="21">
+    <row r="100" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6"/>
       <c r="B100" s="8"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="1:3" ht="21">
+    <row r="101" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
         <v>98</v>
       </c>
@@ -2997,7 +2756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="21">
+    <row r="102" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
         <v>98</v>
       </c>
@@ -3008,7 +2767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="21">
+    <row r="103" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
         <v>98</v>
       </c>
@@ -3019,7 +2778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="21">
+    <row r="104" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
         <v>98</v>
       </c>
@@ -3030,7 +2789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="21">
+    <row r="105" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="s">
         <v>98</v>
       </c>
@@ -3041,7 +2800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="21">
+    <row r="106" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="s">
         <v>98</v>
       </c>
@@ -3052,7 +2811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="21">
+    <row r="107" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="s">
         <v>98</v>
       </c>
@@ -3063,7 +2822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="21">
+    <row r="108" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="s">
         <v>98</v>
       </c>
@@ -3074,7 +2833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="21">
+    <row r="109" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="s">
         <v>98</v>
       </c>
@@ -3085,7 +2844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="21">
+    <row r="110" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="s">
         <v>98</v>
       </c>
@@ -3096,7 +2855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="21">
+    <row r="111" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
         <v>98</v>
       </c>
@@ -3107,7 +2866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="21">
+    <row r="112" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="s">
         <v>98</v>
       </c>
@@ -3118,7 +2877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="21">
+    <row r="113" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
         <v>98</v>
       </c>
@@ -3129,7 +2888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="21">
+    <row r="114" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
         <v>98</v>
       </c>
@@ -3140,7 +2899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="21">
+    <row r="115" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
         <v>98</v>
       </c>
@@ -3151,7 +2910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="21">
+    <row r="116" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
         <v>98</v>
       </c>
@@ -3162,7 +2921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="21">
+    <row r="117" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
         <v>98</v>
       </c>
@@ -3173,7 +2932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="21">
+    <row r="118" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
         <v>98</v>
       </c>
@@ -3184,7 +2943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="21">
+    <row r="119" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
         <v>98</v>
       </c>
@@ -3195,7 +2954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="21">
+    <row r="120" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
         <v>98</v>
       </c>
@@ -3206,7 +2965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="21">
+    <row r="121" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
         <v>98</v>
       </c>
@@ -3217,7 +2976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="21">
+    <row r="122" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="s">
         <v>98</v>
       </c>
@@ -3228,7 +2987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="21">
+    <row r="123" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="s">
         <v>98</v>
       </c>
@@ -3239,7 +2998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="21">
+    <row r="124" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="s">
         <v>98</v>
       </c>
@@ -3250,7 +3009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="21">
+    <row r="125" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
         <v>98</v>
       </c>
@@ -3261,7 +3020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="21">
+    <row r="126" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
         <v>98</v>
       </c>
@@ -3272,7 +3031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="21">
+    <row r="127" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
         <v>98</v>
       </c>
@@ -3283,7 +3042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="21">
+    <row r="128" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
         <v>98</v>
       </c>
@@ -3294,7 +3053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="21">
+    <row r="129" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="s">
         <v>98</v>
       </c>
@@ -3305,7 +3064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="21">
+    <row r="130" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="s">
         <v>98</v>
       </c>
@@ -3316,7 +3075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="21">
+    <row r="131" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="s">
         <v>98</v>
       </c>
@@ -3327,7 +3086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="21">
+    <row r="132" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
         <v>98</v>
       </c>
@@ -3338,7 +3097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="21">
+    <row r="133" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="s">
         <v>98</v>
       </c>
@@ -3349,7 +3108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="21">
+    <row r="134" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
         <v>98</v>
       </c>
@@ -3360,7 +3119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="21">
+    <row r="135" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
         <v>98</v>
       </c>
@@ -3371,7 +3130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="21">
+    <row r="136" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
         <v>98</v>
       </c>
@@ -3382,11 +3141,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="21">
+    <row r="138" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="8"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="1:3" ht="21">
+    <row r="139" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="s">
         <v>135</v>
       </c>
@@ -3397,7 +3156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="21">
+    <row r="140" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="s">
         <v>135</v>
       </c>
@@ -3408,7 +3167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="21">
+    <row r="141" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="s">
         <v>135</v>
       </c>
@@ -3419,7 +3178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="21">
+    <row r="142" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
         <v>135</v>
       </c>
@@ -3430,7 +3189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="21">
+    <row r="143" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="s">
         <v>135</v>
       </c>
@@ -3441,7 +3200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="21">
+    <row r="144" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
         <v>135</v>
       </c>
@@ -3452,7 +3211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="21">
+    <row r="145" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="s">
         <v>135</v>
       </c>
@@ -3463,7 +3222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="21">
+    <row r="146" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="s">
         <v>135</v>
       </c>
@@ -3474,7 +3233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="21">
+    <row r="147" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="s">
         <v>135</v>
       </c>
@@ -3485,7 +3244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="21">
+    <row r="148" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="s">
         <v>135</v>
       </c>
@@ -3496,7 +3255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="21">
+    <row r="149" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="s">
         <v>135</v>
       </c>
@@ -3507,7 +3266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="21">
+    <row r="150" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="s">
         <v>135</v>
       </c>
@@ -3518,7 +3277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="21">
+    <row r="151" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="s">
         <v>135</v>
       </c>
@@ -3529,7 +3288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="21">
+    <row r="152" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="s">
         <v>135</v>
       </c>
@@ -3540,7 +3299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="21">
+    <row r="153" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="s">
         <v>135</v>
       </c>
@@ -3551,7 +3310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="21">
+    <row r="154" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="s">
         <v>135</v>
       </c>
@@ -3562,7 +3321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="21">
+    <row r="155" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="s">
         <v>135</v>
       </c>
@@ -3573,7 +3332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="21">
+    <row r="156" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
         <v>135</v>
       </c>
@@ -3584,7 +3343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="21">
+    <row r="157" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="s">
         <v>135</v>
       </c>
@@ -3595,7 +3354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="21">
+    <row r="158" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="s">
         <v>135</v>
       </c>
@@ -3606,7 +3365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="21">
+    <row r="159" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="s">
         <v>135</v>
       </c>
@@ -3617,7 +3376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="21">
+    <row r="160" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="s">
         <v>135</v>
       </c>
@@ -3628,7 +3387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="21">
+    <row r="161" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="s">
         <v>135</v>
       </c>
@@ -3639,7 +3398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="21">
+    <row r="162" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="s">
         <v>135</v>
       </c>
@@ -3650,7 +3409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="21">
+    <row r="163" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="s">
         <v>135</v>
       </c>
@@ -3661,7 +3420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="21">
+    <row r="164" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="s">
         <v>135</v>
       </c>
@@ -3672,7 +3431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="21">
+    <row r="165" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="s">
         <v>135</v>
       </c>
@@ -3683,7 +3442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="21">
+    <row r="166" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="s">
         <v>135</v>
       </c>
@@ -3694,7 +3453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="21">
+    <row r="167" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="s">
         <v>135</v>
       </c>
@@ -3705,7 +3464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="21">
+    <row r="168" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="s">
         <v>135</v>
       </c>
@@ -3716,7 +3475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="21">
+    <row r="169" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="s">
         <v>135</v>
       </c>
@@ -3727,7 +3486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="21">
+    <row r="170" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="s">
         <v>135</v>
       </c>
@@ -3738,7 +3497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="21">
+    <row r="171" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="s">
         <v>135</v>
       </c>
@@ -3749,7 +3508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="21">
+    <row r="172" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="s">
         <v>135</v>
       </c>
@@ -3760,7 +3519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="21">
+    <row r="173" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="s">
         <v>135</v>
       </c>
@@ -3771,7 +3530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="21">
+    <row r="174" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="s">
         <v>135</v>
       </c>
@@ -3782,11 +3541,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="21">
+    <row r="176" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="8"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177" spans="1:3" ht="21">
+    <row r="177" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="s">
         <v>172</v>
       </c>
@@ -3797,7 +3556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="21">
+    <row r="178" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="s">
         <v>172</v>
       </c>
@@ -3808,7 +3567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="21">
+    <row r="179" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="s">
         <v>172</v>
       </c>
@@ -3819,7 +3578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="21">
+    <row r="180" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="6" t="s">
         <v>172</v>
       </c>
@@ -3830,7 +3589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="21">
+    <row r="181" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="6" t="s">
         <v>172</v>
       </c>
@@ -3841,7 +3600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="21">
+    <row r="182" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="s">
         <v>172</v>
       </c>
@@ -3852,7 +3611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="21">
+    <row r="183" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="s">
         <v>172</v>
       </c>
@@ -3863,7 +3622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="21">
+    <row r="184" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="s">
         <v>172</v>
       </c>
@@ -3874,7 +3633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="21">
+    <row r="185" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="s">
         <v>172</v>
       </c>
@@ -3885,7 +3644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="21">
+    <row r="186" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="6" t="s">
         <v>172</v>
       </c>
@@ -3896,7 +3655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="21">
+    <row r="187" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="s">
         <v>172</v>
       </c>
@@ -3907,7 +3666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="21">
+    <row r="188" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="s">
         <v>172</v>
       </c>
@@ -3918,7 +3677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="21">
+    <row r="189" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="6" t="s">
         <v>172</v>
       </c>
@@ -3929,7 +3688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="21">
+    <row r="190" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="6" t="s">
         <v>172</v>
       </c>
@@ -3940,7 +3699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="21">
+    <row r="191" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="6" t="s">
         <v>172</v>
       </c>
@@ -3951,7 +3710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="21">
+    <row r="192" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="6" t="s">
         <v>172</v>
       </c>
@@ -3962,7 +3721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="21">
+    <row r="193" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6" t="s">
         <v>172</v>
       </c>
@@ -3973,7 +3732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="21">
+    <row r="194" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6" t="s">
         <v>172</v>
       </c>
@@ -3984,7 +3743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="21">
+    <row r="195" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="s">
         <v>172</v>
       </c>
@@ -3995,7 +3754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="21">
+    <row r="196" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="s">
         <v>172</v>
       </c>
@@ -4006,7 +3765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="21">
+    <row r="197" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="6" t="s">
         <v>172</v>
       </c>
@@ -4017,7 +3776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="21">
+    <row r="198" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
         <v>172</v>
       </c>
@@ -4028,7 +3787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="21">
+    <row r="199" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="6" t="s">
         <v>172</v>
       </c>
@@ -4039,7 +3798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="21">
+    <row r="200" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="6" t="s">
         <v>172</v>
       </c>
@@ -4050,7 +3809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="21">
+    <row r="201" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="s">
         <v>172</v>
       </c>
@@ -4061,7 +3820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="21">
+    <row r="202" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="s">
         <v>172</v>
       </c>
@@ -4072,7 +3831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="21">
+    <row r="203" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="6" t="s">
         <v>172</v>
       </c>
@@ -4083,7 +3842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="21">
+    <row r="204" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="6" t="s">
         <v>172</v>
       </c>
@@ -4094,7 +3853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="21">
+    <row r="205" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="6" t="s">
         <v>172</v>
       </c>
@@ -4105,7 +3864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="21">
+    <row r="206" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="6" t="s">
         <v>172</v>
       </c>
@@ -4116,7 +3875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="21">
+    <row r="207" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="6" t="s">
         <v>172</v>
       </c>
@@ -4127,7 +3886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="21">
+    <row r="208" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="6" t="s">
         <v>172</v>
       </c>
@@ -4138,7 +3897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="21">
+    <row r="209" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="6" t="s">
         <v>172</v>
       </c>
@@ -4149,7 +3908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="21">
+    <row r="210" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="s">
         <v>172</v>
       </c>
@@ -4160,7 +3919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="21">
+    <row r="211" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6" t="s">
         <v>172</v>
       </c>
@@ -4171,17 +3930,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="21">
+    <row r="212" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="6"/>
       <c r="B212" s="8"/>
       <c r="C212" s="5"/>
     </row>
-    <row r="213" spans="1:3" ht="21">
+    <row r="213" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="6"/>
       <c r="B213" s="8"/>
       <c r="C213" s="5"/>
     </row>
-    <row r="214" spans="1:3" ht="21">
+    <row r="214" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="6" t="s">
         <v>208</v>
       </c>
@@ -4192,7 +3951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="21">
+    <row r="215" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="s">
         <v>208</v>
       </c>
@@ -4203,7 +3962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="21">
+    <row r="216" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="s">
         <v>208</v>
       </c>
@@ -4214,7 +3973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="21">
+    <row r="217" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="s">
         <v>208</v>
       </c>
@@ -4225,7 +3984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="21">
+    <row r="218" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="s">
         <v>208</v>
       </c>
@@ -4236,7 +3995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="21">
+    <row r="219" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="s">
         <v>208</v>
       </c>
@@ -4247,7 +4006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="21">
+    <row r="220" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6" t="s">
         <v>208</v>
       </c>
@@ -4258,7 +4017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="21">
+    <row r="221" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6" t="s">
         <v>208</v>
       </c>
@@ -4269,7 +4028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="21">
+    <row r="222" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6" t="s">
         <v>208</v>
       </c>
@@ -4280,7 +4039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="21">
+    <row r="223" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="s">
         <v>208</v>
       </c>
@@ -4291,7 +4050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="21">
+    <row r="224" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6" t="s">
         <v>208</v>
       </c>
@@ -4302,7 +4061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="21">
+    <row r="225" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="s">
         <v>208</v>
       </c>
@@ -4313,7 +4072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="21">
+    <row r="226" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="6" t="s">
         <v>208</v>
       </c>
@@ -4324,7 +4083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="21">
+    <row r="227" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="s">
         <v>208</v>
       </c>
@@ -4335,7 +4094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="21">
+    <row r="228" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="s">
         <v>208</v>
       </c>
@@ -4346,7 +4105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="21">
+    <row r="229" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="s">
         <v>208</v>
       </c>
@@ -4357,7 +4116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="21">
+    <row r="230" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="s">
         <v>208</v>
       </c>
@@ -4368,7 +4127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="21">
+    <row r="231" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="s">
         <v>208</v>
       </c>
@@ -4379,7 +4138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="21">
+    <row r="232" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="s">
         <v>208</v>
       </c>
@@ -4390,7 +4149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="21">
+    <row r="233" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="s">
         <v>208</v>
       </c>
@@ -4401,7 +4160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="21">
+    <row r="234" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="6" t="s">
         <v>208</v>
       </c>
@@ -4412,7 +4171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="21">
+    <row r="235" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="s">
         <v>208</v>
       </c>
@@ -4423,15 +4182,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="21">
+    <row r="236" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="8"/>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" spans="1:3" ht="21">
+    <row r="237" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="8"/>
       <c r="C237" s="5"/>
     </row>
-    <row r="238" spans="1:3" ht="21">
+    <row r="238" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="s">
         <v>231</v>
       </c>
@@ -4442,7 +4201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="21">
+    <row r="239" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="6" t="s">
         <v>231</v>
       </c>
@@ -4453,7 +4212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="21">
+    <row r="240" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="s">
         <v>231</v>
       </c>
@@ -4464,7 +4223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="21">
+    <row r="241" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="s">
         <v>231</v>
       </c>
@@ -4475,7 +4234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="21">
+    <row r="242" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="s">
         <v>231</v>
       </c>
@@ -4486,7 +4245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="21">
+    <row r="243" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="6" t="s">
         <v>231</v>
       </c>
@@ -4497,7 +4256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="21">
+    <row r="244" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="s">
         <v>231</v>
       </c>
@@ -4508,7 +4267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="21">
+    <row r="245" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="s">
         <v>231</v>
       </c>
@@ -4519,7 +4278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="21">
+    <row r="246" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="6" t="s">
         <v>231</v>
       </c>
@@ -4530,7 +4289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="21">
+    <row r="247" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="6" t="s">
         <v>231</v>
       </c>
@@ -4541,7 +4300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="21">
+    <row r="248" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="6" t="s">
         <v>231</v>
       </c>
@@ -4552,7 +4311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="21">
+    <row r="249" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="6" t="s">
         <v>231</v>
       </c>
@@ -4563,7 +4322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="21">
+    <row r="250" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="6" t="s">
         <v>231</v>
       </c>
@@ -4574,7 +4333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="21">
+    <row r="251" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="6" t="s">
         <v>231</v>
       </c>
@@ -4585,7 +4344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="21">
+    <row r="252" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="s">
         <v>231</v>
       </c>
@@ -4596,7 +4355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="21">
+    <row r="253" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="6" t="s">
         <v>231</v>
       </c>
@@ -4607,7 +4366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="21">
+    <row r="254" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6" t="s">
         <v>231</v>
       </c>
@@ -4618,7 +4377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="21">
+    <row r="255" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="s">
         <v>231</v>
       </c>
@@ -4629,7 +4388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="21">
+    <row r="256" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
         <v>231</v>
       </c>
@@ -4640,7 +4399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="21">
+    <row r="257" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6" t="s">
         <v>231</v>
       </c>
@@ -4651,7 +4410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="21">
+    <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6" t="s">
         <v>231</v>
       </c>
@@ -4662,7 +4421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="21">
+    <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="6" t="s">
         <v>231</v>
       </c>
@@ -4673,7 +4432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="21">
+    <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6" t="s">
         <v>231</v>
       </c>
@@ -4684,7 +4443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="21">
+    <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="6" t="s">
         <v>231</v>
       </c>
@@ -4695,7 +4454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="21">
+    <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6" t="s">
         <v>231</v>
       </c>
@@ -4706,7 +4465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="21">
+    <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6" t="s">
         <v>231</v>
       </c>
@@ -4717,7 +4476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="21">
+    <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="6" t="s">
         <v>231</v>
       </c>
@@ -4728,7 +4487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="21">
+    <row r="265" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="6" t="s">
         <v>231</v>
       </c>
@@ -4739,7 +4498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="21">
+    <row r="266" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6" t="s">
         <v>231</v>
       </c>
@@ -4750,7 +4509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="21">
+    <row r="267" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6" t="s">
         <v>231</v>
       </c>
@@ -4761,7 +4520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="21">
+    <row r="268" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6" t="s">
         <v>231</v>
       </c>
@@ -4772,7 +4531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="21">
+    <row r="269" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="6" t="s">
         <v>231</v>
       </c>
@@ -4783,7 +4542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="21">
+    <row r="270" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6" t="s">
         <v>231</v>
       </c>
@@ -4794,7 +4553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="21">
+    <row r="271" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="6" t="s">
         <v>231</v>
       </c>
@@ -4805,7 +4564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="21">
+    <row r="272" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="6" t="s">
         <v>231</v>
       </c>
@@ -4816,15 +4575,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="21">
+    <row r="273" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B273" s="8"/>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" spans="1:3" ht="21">
+    <row r="274" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="8"/>
       <c r="C274" s="5"/>
     </row>
-    <row r="275" spans="1:3" ht="21">
+    <row r="275" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="6" t="s">
         <v>266</v>
       </c>
@@ -4835,7 +4594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="21">
+    <row r="276" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="6" t="s">
         <v>266</v>
       </c>
@@ -4846,7 +4605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="21">
+    <row r="277" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="6" t="s">
         <v>266</v>
       </c>
@@ -4857,7 +4616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="21">
+    <row r="278" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="6" t="s">
         <v>266</v>
       </c>
@@ -4868,7 +4627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="21">
+    <row r="279" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="6" t="s">
         <v>266</v>
       </c>
@@ -4879,7 +4638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="21">
+    <row r="280" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="6" t="s">
         <v>266</v>
       </c>
@@ -4890,7 +4649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="21">
+    <row r="281" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
         <v>266</v>
       </c>
@@ -4901,7 +4660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="21">
+    <row r="282" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="6" t="s">
         <v>266</v>
       </c>
@@ -4912,7 +4671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="21">
+    <row r="283" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="6" t="s">
         <v>266</v>
       </c>
@@ -4923,7 +4682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="21">
+    <row r="284" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6" t="s">
         <v>266</v>
       </c>
@@ -4934,7 +4693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="21">
+    <row r="285" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6" t="s">
         <v>266</v>
       </c>
@@ -4945,7 +4704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="21">
+    <row r="286" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="6" t="s">
         <v>266</v>
       </c>
@@ -4956,7 +4715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="21">
+    <row r="287" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="6" t="s">
         <v>266</v>
       </c>
@@ -4967,7 +4726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="21">
+    <row r="288" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="6" t="s">
         <v>266</v>
       </c>
@@ -4978,7 +4737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="21">
+    <row r="289" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="6" t="s">
         <v>266</v>
       </c>
@@ -4989,7 +4748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="21">
+    <row r="290" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="6" t="s">
         <v>266</v>
       </c>
@@ -5000,7 +4759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="21">
+    <row r="291" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="6" t="s">
         <v>266</v>
       </c>
@@ -5011,7 +4770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="21">
+    <row r="292" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="6" t="s">
         <v>266</v>
       </c>
@@ -5022,7 +4781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="21">
+    <row r="293" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="6" t="s">
         <v>266</v>
       </c>
@@ -5033,26 +4792,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="21">
+    <row r="294" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B294" s="8"/>
       <c r="C294" s="5"/>
     </row>
-    <row r="295" spans="1:3" ht="21">
+    <row r="295" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B295" s="8"/>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" spans="1:3" ht="21">
+    <row r="296" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B296" s="13" t="s">
+      <c r="B296" s="12" t="s">
         <v>287</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="21">
+    <row r="297" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="6" t="s">
         <v>286</v>
       </c>
@@ -5063,29 +4822,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="21">
+    <row r="298" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B298" s="13" t="s">
+      <c r="B298" s="12" t="s">
         <v>289</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="21">
+    <row r="299" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B299" s="13" t="s">
+      <c r="B299" s="12" t="s">
         <v>290</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="21">
+    <row r="300" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="6" t="s">
         <v>286</v>
       </c>
@@ -5096,62 +4855,62 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="21">
+    <row r="301" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B301" s="13" t="s">
+      <c r="B301" s="12" t="s">
         <v>292</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="21">
+    <row r="302" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B302" s="13" t="s">
+      <c r="B302" s="12" t="s">
         <v>293</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="21">
+    <row r="303" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B303" s="13" t="s">
+      <c r="B303" s="12" t="s">
         <v>294</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="21">
+    <row r="304" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B304" s="13" t="s">
+      <c r="B304" s="12" t="s">
         <v>295</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="21">
+    <row r="305" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B305" s="13" t="s">
+      <c r="B305" s="12" t="s">
         <v>296</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="21">
+    <row r="306" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="6" t="s">
         <v>286</v>
       </c>
@@ -5162,51 +4921,51 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="21">
+    <row r="307" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B307" s="7" t="s">
+      <c r="B307" s="13" t="s">
         <v>298</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="21">
+    <row r="308" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B308" s="7" t="s">
+      <c r="B308" s="13" t="s">
         <v>299</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="21">
+    <row r="309" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B309" s="15" t="s">
+      <c r="B309" s="14" t="s">
         <v>300</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="21">
+    <row r="310" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B310" s="13" t="s">
+      <c r="B310" s="12" t="s">
         <v>301</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="21">
+    <row r="311" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="6" t="s">
         <v>286</v>
       </c>
@@ -5217,18 +4976,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="21">
+    <row r="312" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B312" s="7" t="s">
+      <c r="B312" s="13" t="s">
         <v>303</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="21">
+    <row r="313" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="6" t="s">
         <v>286</v>
       </c>
@@ -5239,18 +4998,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="21">
+    <row r="314" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B314" s="13" t="s">
+      <c r="B314" s="12" t="s">
         <v>305</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="21">
+    <row r="315" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="6" t="s">
         <v>286</v>
       </c>
@@ -5261,7 +5020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="21">
+    <row r="316" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="6" t="s">
         <v>286</v>
       </c>
@@ -5272,7 +5031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="21">
+    <row r="317" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="6" t="s">
         <v>286</v>
       </c>
@@ -5283,7 +5042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="21">
+    <row r="318" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="6" t="s">
         <v>286</v>
       </c>
@@ -5294,7 +5053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="21">
+    <row r="319" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="6" t="s">
         <v>286</v>
       </c>
@@ -5305,7 +5064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="21">
+    <row r="320" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="6" t="s">
         <v>286</v>
       </c>
@@ -5316,7 +5075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="21">
+    <row r="321" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="6" t="s">
         <v>286</v>
       </c>
@@ -5327,7 +5086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="21">
+    <row r="322" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="6" t="s">
         <v>286</v>
       </c>
@@ -5338,7 +5097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="21">
+    <row r="323" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="6" t="s">
         <v>286</v>
       </c>
@@ -5349,7 +5108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="21">
+    <row r="324" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="6" t="s">
         <v>286</v>
       </c>
@@ -5360,7 +5119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="21">
+    <row r="325" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="6" t="s">
         <v>286</v>
       </c>
@@ -5371,7 +5130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="21">
+    <row r="326" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="6" t="s">
         <v>286</v>
       </c>
@@ -5382,7 +5141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="21">
+    <row r="327" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="6" t="s">
         <v>286</v>
       </c>
@@ -5393,7 +5152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="21">
+    <row r="328" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="6" t="s">
         <v>286</v>
       </c>
@@ -5404,7 +5163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="21">
+    <row r="329" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="6" t="s">
         <v>286</v>
       </c>
@@ -5415,7 +5174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="21">
+    <row r="330" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="6" t="s">
         <v>286</v>
       </c>
@@ -5426,7 +5185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="21">
+    <row r="331" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="6" t="s">
         <v>286</v>
       </c>
@@ -5437,7 +5196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="21">
+    <row r="332" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="6" t="s">
         <v>286</v>
       </c>
@@ -5448,7 +5207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="21">
+    <row r="333" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="6" t="s">
         <v>286</v>
       </c>
@@ -5459,15 +5218,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="21">
+    <row r="334" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B334" s="8"/>
       <c r="C334" s="5"/>
     </row>
-    <row r="335" spans="1:3" ht="21">
+    <row r="335" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B335" s="8"/>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" spans="1:3" ht="21">
+    <row r="336" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="6" t="s">
         <v>325</v>
       </c>
@@ -5478,7 +5237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="21">
+    <row r="337" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="6" t="s">
         <v>325</v>
       </c>
@@ -5489,7 +5248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="21">
+    <row r="338" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="6" t="s">
         <v>325</v>
       </c>
@@ -5500,7 +5259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="21">
+    <row r="339" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="6" t="s">
         <v>325</v>
       </c>
@@ -5511,7 +5270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="21">
+    <row r="340" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="6" t="s">
         <v>325</v>
       </c>
@@ -5522,7 +5281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="21">
+    <row r="341" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="6" t="s">
         <v>325</v>
       </c>
@@ -5533,7 +5292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="21">
+    <row r="342" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="6" t="s">
         <v>325</v>
       </c>
@@ -5544,7 +5303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="21">
+    <row r="343" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="6" t="s">
         <v>325</v>
       </c>
@@ -5555,7 +5314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="21">
+    <row r="344" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="6" t="s">
         <v>325</v>
       </c>
@@ -5566,7 +5325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="21">
+    <row r="345" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="6" t="s">
         <v>325</v>
       </c>
@@ -5577,29 +5336,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="21">
+    <row r="346" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B346" s="13" t="s">
+      <c r="B346" s="12" t="s">
         <v>336</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="21">
+    <row r="347" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B347" s="14" t="s">
+      <c r="B347" s="12" t="s">
         <v>337</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="21">
+    <row r="348" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="6" t="s">
         <v>325</v>
       </c>
@@ -5610,7 +5369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="21">
+    <row r="349" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="6" t="s">
         <v>325</v>
       </c>
@@ -5621,18 +5380,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="21">
+    <row r="350" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B350" s="13" t="s">
+      <c r="B350" s="12" t="s">
         <v>340</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="21">
+    <row r="351" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="6" t="s">
         <v>325</v>
       </c>
@@ -5643,7 +5402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="21">
+    <row r="352" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="6" t="s">
         <v>325</v>
       </c>
@@ -5654,7 +5413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="21">
+    <row r="353" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="6" t="s">
         <v>325</v>
       </c>
@@ -5665,15 +5424,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="21">
+    <row r="354" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B354" s="8"/>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" spans="1:3" ht="21">
+    <row r="355" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B355" s="8"/>
       <c r="C355" s="5"/>
     </row>
-    <row r="356" spans="1:3" ht="21">
+    <row r="356" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="6" t="s">
         <v>344</v>
       </c>
@@ -5684,7 +5443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="21">
+    <row r="357" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="6" t="s">
         <v>344</v>
       </c>
@@ -5695,7 +5454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="21">
+    <row r="358" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="6" t="s">
         <v>344</v>
       </c>
@@ -5706,7 +5465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="21">
+    <row r="359" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="6" t="s">
         <v>344</v>
       </c>
@@ -5717,7 +5476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="21">
+    <row r="360" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="6" t="s">
         <v>344</v>
       </c>
@@ -5728,7 +5487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="21">
+    <row r="361" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="6" t="s">
         <v>344</v>
       </c>
@@ -5739,7 +5498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="21">
+    <row r="362" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="6" t="s">
         <v>344</v>
       </c>
@@ -5750,7 +5509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="21">
+    <row r="363" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="6" t="s">
         <v>344</v>
       </c>
@@ -5761,7 +5520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="21">
+    <row r="364" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="6" t="s">
         <v>344</v>
       </c>
@@ -5772,7 +5531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="21">
+    <row r="365" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="6" t="s">
         <v>344</v>
       </c>
@@ -5783,7 +5542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="21">
+    <row r="366" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="6" t="s">
         <v>344</v>
       </c>
@@ -5794,7 +5553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="21">
+    <row r="367" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="6" t="s">
         <v>344</v>
       </c>
@@ -5805,7 +5564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="21">
+    <row r="368" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="6" t="s">
         <v>344</v>
       </c>
@@ -5816,7 +5575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="21">
+    <row r="369" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="6" t="s">
         <v>344</v>
       </c>
@@ -5827,7 +5586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="21">
+    <row r="370" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="6" t="s">
         <v>344</v>
       </c>
@@ -5838,7 +5597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="21">
+    <row r="371" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="6" t="s">
         <v>344</v>
       </c>
@@ -5849,7 +5608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="21">
+    <row r="372" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="6" t="s">
         <v>344</v>
       </c>
@@ -5860,7 +5619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="21">
+    <row r="373" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="6" t="s">
         <v>344</v>
       </c>
@@ -5871,7 +5630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="21">
+    <row r="374" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="6" t="s">
         <v>344</v>
       </c>
@@ -5882,7 +5641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="21">
+    <row r="375" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="6" t="s">
         <v>344</v>
       </c>
@@ -5893,7 +5652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="21">
+    <row r="376" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="6" t="s">
         <v>344</v>
       </c>
@@ -5904,7 +5663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="21">
+    <row r="377" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="6" t="s">
         <v>344</v>
       </c>
@@ -5915,7 +5674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="21">
+    <row r="378" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="6" t="s">
         <v>344</v>
       </c>
@@ -5926,7 +5685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="21">
+    <row r="379" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="6" t="s">
         <v>344</v>
       </c>
@@ -5937,7 +5696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="21">
+    <row r="380" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="6" t="s">
         <v>344</v>
       </c>
@@ -5948,7 +5707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="21">
+    <row r="381" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="6" t="s">
         <v>344</v>
       </c>
@@ -5959,7 +5718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="21">
+    <row r="382" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="6" t="s">
         <v>344</v>
       </c>
@@ -5970,7 +5729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="21">
+    <row r="383" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="6" t="s">
         <v>344</v>
       </c>
@@ -5981,7 +5740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="21">
+    <row r="384" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="6" t="s">
         <v>344</v>
       </c>
@@ -5992,7 +5751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="21">
+    <row r="385" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="6" t="s">
         <v>344</v>
       </c>
@@ -6003,7 +5762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="21">
+    <row r="386" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="6" t="s">
         <v>344</v>
       </c>
@@ -6014,7 +5773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="21">
+    <row r="387" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="6" t="s">
         <v>344</v>
       </c>
@@ -6025,7 +5784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="21">
+    <row r="388" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="6" t="s">
         <v>344</v>
       </c>
@@ -6036,7 +5795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="21">
+    <row r="389" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="6" t="s">
         <v>344</v>
       </c>
@@ -6047,7 +5806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="21">
+    <row r="390" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="6" t="s">
         <v>344</v>
       </c>
@@ -6058,7 +5817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="21">
+    <row r="391" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="6" t="s">
         <v>344</v>
       </c>
@@ -6069,7 +5828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="21">
+    <row r="392" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="6" t="s">
         <v>344</v>
       </c>
@@ -6080,7 +5839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="21">
+    <row r="393" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="6" t="s">
         <v>344</v>
       </c>
@@ -6091,7 +5850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="21">
+    <row r="394" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="6" t="s">
         <v>344</v>
       </c>
@@ -6102,7 +5861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="21">
+    <row r="395" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="6" t="s">
         <v>344</v>
       </c>
@@ -6113,7 +5872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="21">
+    <row r="396" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="6" t="s">
         <v>344</v>
       </c>
@@ -6124,7 +5883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="21">
+    <row r="397" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="6" t="s">
         <v>344</v>
       </c>
@@ -6135,7 +5894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="21">
+    <row r="398" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="6" t="s">
         <v>344</v>
       </c>
@@ -6146,7 +5905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="21">
+    <row r="399" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="6" t="s">
         <v>344</v>
       </c>
@@ -6157,26 +5916,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="21">
+    <row r="400" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B400" s="8"/>
       <c r="C400" s="5"/>
     </row>
-    <row r="401" spans="1:3" ht="21">
+    <row r="401" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B401" s="8"/>
       <c r="C401" s="5"/>
     </row>
-    <row r="402" spans="1:3" ht="21">
+    <row r="402" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="B402" s="13" t="s">
+      <c r="B402" s="12" t="s">
         <v>389</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="21">
+    <row r="403" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="6" t="s">
         <v>388</v>
       </c>
@@ -6187,7 +5946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="21">
+    <row r="404" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="6" t="s">
         <v>388</v>
       </c>
@@ -6198,7 +5957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="21">
+    <row r="405" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="6" t="s">
         <v>388</v>
       </c>
@@ -6209,18 +5968,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="21">
+    <row r="406" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="B406" s="13" t="s">
+      <c r="B406" s="12" t="s">
         <v>392</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="21">
+    <row r="407" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="6" t="s">
         <v>388</v>
       </c>
@@ -6231,15 +5990,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="21">
+    <row r="408" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B408" s="8"/>
       <c r="C408" s="5"/>
     </row>
-    <row r="409" spans="1:3" ht="21">
+    <row r="409" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B409" s="8"/>
       <c r="C409" s="5"/>
     </row>
-    <row r="410" spans="1:3" ht="21">
+    <row r="410" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="6" t="s">
         <v>394</v>
       </c>
@@ -6250,7 +6009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="21">
+    <row r="411" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="6" t="s">
         <v>394</v>
       </c>
@@ -6261,7 +6020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="21">
+    <row r="412" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="6" t="s">
         <v>394</v>
       </c>
@@ -6272,7 +6031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="21">
+    <row r="413" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="6" t="s">
         <v>394</v>
       </c>
@@ -6283,7 +6042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="21">
+    <row r="414" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="6" t="s">
         <v>394</v>
       </c>
@@ -6294,7 +6053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="21">
+    <row r="415" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="6" t="s">
         <v>394</v>
       </c>
@@ -6305,7 +6064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="21">
+    <row r="416" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="6" t="s">
         <v>394</v>
       </c>
@@ -6316,7 +6075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="21">
+    <row r="417" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="6" t="s">
         <v>394</v>
       </c>
@@ -6327,7 +6086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="21">
+    <row r="418" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="6" t="s">
         <v>394</v>
       </c>
@@ -6338,7 +6097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="21">
+    <row r="419" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="6" t="s">
         <v>394</v>
       </c>
@@ -6349,7 +6108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="21">
+    <row r="420" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="6" t="s">
         <v>394</v>
       </c>
@@ -6360,7 +6119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="21">
+    <row r="421" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="6" t="s">
         <v>394</v>
       </c>
@@ -6371,7 +6130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="21">
+    <row r="422" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="6" t="s">
         <v>394</v>
       </c>
@@ -6382,7 +6141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="21">
+    <row r="423" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="6" t="s">
         <v>394</v>
       </c>
@@ -6393,7 +6152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="21">
+    <row r="424" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="6" t="s">
         <v>394</v>
       </c>
@@ -6404,7 +6163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="21">
+    <row r="425" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="6" t="s">
         <v>394</v>
       </c>
@@ -6415,7 +6174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="21">
+    <row r="426" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="6" t="s">
         <v>394</v>
       </c>
@@ -6426,7 +6185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="21">
+    <row r="427" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="6" t="s">
         <v>394</v>
       </c>
@@ -6437,7 +6196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="21">
+    <row r="428" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="6" t="s">
         <v>394</v>
       </c>
@@ -6448,7 +6207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="21">
+    <row r="429" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="6" t="s">
         <v>394</v>
       </c>
@@ -6459,7 +6218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="21">
+    <row r="430" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="6" t="s">
         <v>394</v>
       </c>
@@ -6470,7 +6229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="21">
+    <row r="431" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="6" t="s">
         <v>394</v>
       </c>
@@ -6481,7 +6240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="21">
+    <row r="432" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="6" t="s">
         <v>394</v>
       </c>
@@ -6492,7 +6251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="21">
+    <row r="433" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="6" t="s">
         <v>394</v>
       </c>
@@ -6503,7 +6262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="21">
+    <row r="434" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="6" t="s">
         <v>394</v>
       </c>
@@ -6514,7 +6273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="21">
+    <row r="435" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="6" t="s">
         <v>394</v>
       </c>
@@ -6525,7 +6284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="21">
+    <row r="436" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="6" t="s">
         <v>394</v>
       </c>
@@ -6536,7 +6295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="21">
+    <row r="437" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="6" t="s">
         <v>394</v>
       </c>
@@ -6547,7 +6306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="21">
+    <row r="438" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="6" t="s">
         <v>394</v>
       </c>
@@ -6558,7 +6317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="21">
+    <row r="439" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="6" t="s">
         <v>394</v>
       </c>
@@ -6569,7 +6328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="21">
+    <row r="440" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="6" t="s">
         <v>394</v>
       </c>
@@ -6580,7 +6339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="21">
+    <row r="441" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="6" t="s">
         <v>394</v>
       </c>
@@ -6591,7 +6350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="21">
+    <row r="442" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="6" t="s">
         <v>394</v>
       </c>
@@ -6602,7 +6361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="21">
+    <row r="443" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="6" t="s">
         <v>394</v>
       </c>
@@ -6613,7 +6372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="21">
+    <row r="444" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="6" t="s">
         <v>394</v>
       </c>
@@ -6624,7 +6383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="21">
+    <row r="445" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="6" t="s">
         <v>394</v>
       </c>
@@ -6635,7 +6394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="21">
+    <row r="446" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="6" t="s">
         <v>394</v>
       </c>
@@ -6646,7 +6405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="21">
+    <row r="447" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="6" t="s">
         <v>394</v>
       </c>
@@ -6657,7 +6416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="21">
+    <row r="448" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="6" t="s">
         <v>394</v>
       </c>
@@ -6668,7 +6427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="21">
+    <row r="449" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="6" t="s">
         <v>394</v>
       </c>
@@ -6679,7 +6438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="21">
+    <row r="450" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="6" t="s">
         <v>394</v>
       </c>
@@ -6690,7 +6449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="21">
+    <row r="451" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="6" t="s">
         <v>394</v>
       </c>
@@ -6701,7 +6460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="21">
+    <row r="452" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="6" t="s">
         <v>394</v>
       </c>
@@ -6712,7 +6471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="21">
+    <row r="453" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="6" t="s">
         <v>394</v>
       </c>
@@ -6723,7 +6482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="21">
+    <row r="454" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="6" t="s">
         <v>394</v>
       </c>
@@ -6734,7 +6493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="21">
+    <row r="455" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="6" t="s">
         <v>394</v>
       </c>
@@ -6745,7 +6504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="21">
+    <row r="456" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="6" t="s">
         <v>394</v>
       </c>
@@ -6756,7 +6515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="21">
+    <row r="457" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="6" t="s">
         <v>394</v>
       </c>
@@ -6767,7 +6526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="21">
+    <row r="458" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="6" t="s">
         <v>394</v>
       </c>
@@ -6778,7 +6537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="21">
+    <row r="459" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="6" t="s">
         <v>394</v>
       </c>
@@ -6789,7 +6548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="21">
+    <row r="460" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="6" t="s">
         <v>394</v>
       </c>
@@ -6800,7 +6559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="21">
+    <row r="461" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="6" t="s">
         <v>394</v>
       </c>
@@ -6811,7 +6570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="21">
+    <row r="462" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="6" t="s">
         <v>394</v>
       </c>
@@ -6822,7 +6581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="21">
+    <row r="463" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="6" t="s">
         <v>394</v>
       </c>
@@ -6833,7 +6592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="21">
+    <row r="464" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="6" t="s">
         <v>394</v>
       </c>
@@ -6844,7 +6603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="21">
+    <row r="465" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="6" t="s">
         <v>394</v>
       </c>
@@ -6855,7 +6614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="21">
+    <row r="466" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="6" t="s">
         <v>394</v>
       </c>
@@ -6866,7 +6625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="21">
+    <row r="467" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="6" t="s">
         <v>394</v>
       </c>
@@ -6877,7 +6636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="21">
+    <row r="468" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="6" t="s">
         <v>394</v>
       </c>
@@ -6888,7 +6647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="21">
+    <row r="469" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="6" t="s">
         <v>394</v>
       </c>
@@ -6899,16 +6658,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="21">
+    <row r="470" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B470" s="8"/>
       <c r="C470" s="5"/>
     </row>
-    <row r="471" spans="1:3" ht="21">
+    <row r="471" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="6"/>
       <c r="B471" s="8"/>
       <c r="C471" s="5"/>
     </row>
-    <row r="472" spans="1:3" ht="21">
+    <row r="472" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="6" t="s">
         <v>454</v>
       </c>
@@ -6919,7 +6678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="21">
+    <row r="473" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="6" t="s">
         <v>454</v>
       </c>
@@ -6930,7 +6689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="21">
+    <row r="474" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="6" t="s">
         <v>454</v>
       </c>
@@ -6941,7 +6700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="21">
+    <row r="475" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="6" t="s">
         <v>454</v>
       </c>
@@ -6952,7 +6711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="21">
+    <row r="476" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="6" t="s">
         <v>454</v>
       </c>
@@ -6963,7 +6722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="21">
+    <row r="477" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="6" t="s">
         <v>454</v>
       </c>
@@ -6974,7 +6733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="21">
+    <row r="478" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="6" t="s">
         <v>454</v>
       </c>
@@ -6985,7 +6744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="21">
+    <row r="479" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="6" t="s">
         <v>454</v>
       </c>
@@ -6996,7 +6755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="21">
+    <row r="480" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="6" t="s">
         <v>454</v>
       </c>
@@ -7007,7 +6766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="21">
+    <row r="481" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="6" t="s">
         <v>454</v>
       </c>
@@ -7020,454 +6779,459 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B20" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B21" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B22" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B23" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B24" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B25" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B26" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B27" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B28" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B29" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B30" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B31" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B32" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B33" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B34" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B35" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B36" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B37" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B38" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B39" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B40" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B41" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B44" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B45" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B46" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B47" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B48" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B49" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B50" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B51" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B52" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B53" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B56" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B57" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B58" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B60" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B61" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B62" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B63" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B64" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B65" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B66" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B67" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B68" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B69" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B70" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B71" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B72" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B73" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B74" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B75" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B76" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B77" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B78" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B79" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B80" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B81" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B82" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B83" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B84" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B85" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B86" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B87" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B88" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B89" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B90" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B91" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B92" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B93" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B94" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B95" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B96" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B97" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B98" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B101" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B102" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B103" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B104" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B105" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B106" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B107" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B108" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B109" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B110" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="B111" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="B112" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="B113" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="B114" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="B115" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="B116" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="B117" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="B118" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="B119" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B120" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="B121" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="B122" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="B123" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="B124" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="B125" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="B126" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="B127" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="B128" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="B129" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="B130" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="B131" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="B132" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="B133" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="B134" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="B135" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="B136" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="B139" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="B140" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="B141" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="B142" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="B143" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="B144" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="B145" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="B146" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="B147" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="B148" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="B149" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="B150" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="B151" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="B152" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="B153" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="B154" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="B155" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="B156" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="B157" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="B158" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="B159" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="B160" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="B161" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="B162" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="B163" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="B166" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="B167" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="B168" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="B169" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="B170" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="B171" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="B172" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="B173" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="B174" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="B177" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="B178" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="B179" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="B180" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="B181" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="B182" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="B183" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="B184" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="B185" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B186" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="B187" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="B188" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="B189" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="B190" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="B191" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B192" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="B193" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B194" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="B195" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="B196" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="B197" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B198" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="B199" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B200" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="B201" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="B202" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="B203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="B204" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="B205" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="B206" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="B207" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="B208" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="B209" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="B210" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="B211" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="B214" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="B215" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="B216" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="B217" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="B218" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="B219" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="B220" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="B221" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="B222" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="B223" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="B224" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B225" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="B226" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="B227" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="B228" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="B229" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B230" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B231" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="B232" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B233" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="B234" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="B235" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B238" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="B239" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B240" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B241" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="B242" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B243" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="B244" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B245" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="B246" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="B247" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B248" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="B249" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="B250" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="B251" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="B252" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B253" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B254" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B255" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B256" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B258" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B259" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B260" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B261" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="B262" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B263" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B264" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="B265" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B266" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B267" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B268" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B269" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B270" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B271" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B272" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="B275" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B276" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B277" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B278" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B279" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B280" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B281" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B282" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B283" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B284" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B285" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B286" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B287" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B288" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B289" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B290" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B291" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B292" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B293" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B296" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B297" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B298" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B299" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B300" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B301" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B302" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B303" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B304" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B305" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B307" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B308" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B309" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B310" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B311" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B312" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B313" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B314" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B315" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B316" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B317" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B318" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B319" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B320" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B321" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B322" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B323" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B324" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B325" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B326" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B327" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B328" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B329" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B330" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B331" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B332" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B333" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B336" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B337" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B338" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B339" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B340" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B341" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B342" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B343" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B344" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B345" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B346" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B347" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B348" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B349" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B350" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B351" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B352" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B353" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="B356" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="B357" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="B358" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="B359" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="B360" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="B361" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="B362" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="B363" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="B364" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="B365" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="B366" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="B367" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="B368" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="B369" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="B370" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="B371" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="B372" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="B373" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="B374" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="B375" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="B376" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="B377" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="B378" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
-    <hyperlink ref="B379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
-    <hyperlink ref="B380" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
-    <hyperlink ref="B381" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
-    <hyperlink ref="B382" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
-    <hyperlink ref="B383" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
-    <hyperlink ref="B384" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
-    <hyperlink ref="B385" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
-    <hyperlink ref="B386" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
-    <hyperlink ref="B387" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
-    <hyperlink ref="B388" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
-    <hyperlink ref="B389" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
-    <hyperlink ref="B390" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
-    <hyperlink ref="B391" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
-    <hyperlink ref="B392" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
-    <hyperlink ref="B393" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
-    <hyperlink ref="B394" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
-    <hyperlink ref="B395" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
-    <hyperlink ref="B396" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
-    <hyperlink ref="B397" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
-    <hyperlink ref="B398" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
-    <hyperlink ref="B399" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
-    <hyperlink ref="B402" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
-    <hyperlink ref="B403" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
-    <hyperlink ref="B404" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
-    <hyperlink ref="B405" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
-    <hyperlink ref="B406" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
-    <hyperlink ref="B407" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
-    <hyperlink ref="B410" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
-    <hyperlink ref="B411" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
-    <hyperlink ref="B412" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
-    <hyperlink ref="B413" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
-    <hyperlink ref="B414" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
-    <hyperlink ref="B415" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
-    <hyperlink ref="B416" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
-    <hyperlink ref="B417" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
-    <hyperlink ref="B418" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
-    <hyperlink ref="B419" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
-    <hyperlink ref="B420" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
-    <hyperlink ref="B421" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
-    <hyperlink ref="B422" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
-    <hyperlink ref="B423" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
-    <hyperlink ref="B424" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
-    <hyperlink ref="B425" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
-    <hyperlink ref="B426" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
-    <hyperlink ref="B427" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
-    <hyperlink ref="B428" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
-    <hyperlink ref="B429" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
-    <hyperlink ref="B430" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
-    <hyperlink ref="B431" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
-    <hyperlink ref="B432" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
-    <hyperlink ref="B433" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
-    <hyperlink ref="B434" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
-    <hyperlink ref="B435" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
-    <hyperlink ref="B436" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
-    <hyperlink ref="B437" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
-    <hyperlink ref="B438" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
-    <hyperlink ref="B439" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
-    <hyperlink ref="B440" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
-    <hyperlink ref="B441" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
-    <hyperlink ref="B442" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
-    <hyperlink ref="B443" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
-    <hyperlink ref="B444" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
-    <hyperlink ref="B445" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
-    <hyperlink ref="B446" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
-    <hyperlink ref="B447" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
-    <hyperlink ref="B448" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
-    <hyperlink ref="B449" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
-    <hyperlink ref="B450" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
-    <hyperlink ref="B451" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
-    <hyperlink ref="B452" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
-    <hyperlink ref="B453" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
-    <hyperlink ref="B454" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
-    <hyperlink ref="B455" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
-    <hyperlink ref="B456" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
-    <hyperlink ref="B457" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
-    <hyperlink ref="B458" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
-    <hyperlink ref="B459" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
-    <hyperlink ref="B460" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
-    <hyperlink ref="B461" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
-    <hyperlink ref="B462" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
-    <hyperlink ref="B463" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
-    <hyperlink ref="B464" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
-    <hyperlink ref="B465" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
-    <hyperlink ref="B466" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
-    <hyperlink ref="B467" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
-    <hyperlink ref="B468" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
-    <hyperlink ref="B469" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
-    <hyperlink ref="B472" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
-    <hyperlink ref="B473" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
-    <hyperlink ref="B474" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
-    <hyperlink ref="B475" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
-    <hyperlink ref="B476" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
-    <hyperlink ref="B477" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
-    <hyperlink ref="B478" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
-    <hyperlink ref="B479" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
-    <hyperlink ref="B480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
-    <hyperlink ref="B481" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw "/>
+    <hyperlink ref="B6" r:id="rId2" display="Reverse the array"/>
+    <hyperlink ref="B7" r:id="rId3" display="Find the maximum and minimum element in an array"/>
+    <hyperlink ref="B8" r:id="rId4" display="Find the &quot;Kth&quot; max and min element of an array "/>
+    <hyperlink ref="B9" r:id="rId5" display="Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo"/>
+    <hyperlink ref="B10" r:id="rId6" display="Move all the negative elements to one side of the array "/>
+    <hyperlink ref="B11" r:id="rId7" display="Find the Union and Intersection of the two sorted arrays."/>
+    <hyperlink ref="B12" r:id="rId8" display="Write a program to cyclically rotate an array by one."/>
+    <hyperlink ref="B13" r:id="rId9" display="find Largest sum contiguous Subarray [V. IMP]"/>
+    <hyperlink ref="B14" r:id="rId10" display="Minimise the maximum difference between heights [V.IMP]"/>
+    <hyperlink ref="B15" r:id="rId11" display="Minimum no. of Jumps to reach end of an array"/>
+    <hyperlink ref="B16" r:id="rId12" display="find duplicate in an array of N+1 Integers"/>
+    <hyperlink ref="B17" r:id="rId13" display="Merge 2 sorted arrays without using Extra space."/>
+    <hyperlink ref="B18" r:id="rId14" display="Kadane's Algo [V.V.V.V.V IMP]"/>
+    <hyperlink ref="B19" r:id="rId15" display="Merge Intervals"/>
+    <hyperlink ref="B20" r:id="rId16" display="Next Permutation"/>
+    <hyperlink ref="B21" r:id="rId17" display="Count Inversion"/>
+    <hyperlink ref="B22" r:id="rId18" display="Best time to buy and Sell stock"/>
+    <hyperlink ref="B23" r:id="rId19" display="find all pairs on integer array whose sum is equal to given number"/>
+    <hyperlink ref="B24" r:id="rId20" display="find common elements In 3 sorted arrays"/>
+    <hyperlink ref="B25" r:id="rId21" display="Rearrange the array in alternating positive and negative items with O(1) extra space"/>
+    <hyperlink ref="B26" r:id="rId22" display="Find if there is any subarray with sum equal to 0"/>
+    <hyperlink ref="B27" r:id="rId23" display="Find factorial of a large number"/>
+    <hyperlink ref="B28" r:id="rId24" display="find maximum product subarray "/>
+    <hyperlink ref="B29" r:id="rId25" display="Find longest coinsecutive subsequence"/>
+    <hyperlink ref="B30" r:id="rId26" display="Given an array of size n and a number k, fin all elements that appear more than &quot; n/k &quot; times."/>
+    <hyperlink ref="B31" r:id="rId27" display="Maximum profit by buying and selling a share atmost twice"/>
+    <hyperlink ref="B32" r:id="rId28" display="Find whether an array is a subset of another array"/>
+    <hyperlink ref="B33" r:id="rId29" display="Find the triplet that sum to a given value"/>
+    <hyperlink ref="B34" r:id="rId30" display="Trapping Rain water problem"/>
+    <hyperlink ref="B35" r:id="rId31" display="Chocolate Distribution problem"/>
+    <hyperlink ref="B36" r:id="rId32" display="Smallest Subarray with sum greater than a given value"/>
+    <hyperlink ref="B37" r:id="rId33" display="Three way partitioning of an array around a given value"/>
+    <hyperlink ref="B38" r:id="rId34" display="Minimum swaps required bring elements less equal K together"/>
+    <hyperlink ref="B39" r:id="rId35" display="Minimum no. of operations required to make an array palindrome"/>
+    <hyperlink ref="B40" r:id="rId36" display="Median of 2 sorted arrays of equal size"/>
+    <hyperlink ref="B41" r:id="rId37" display="Median of 2 sorted arrays of different size"/>
+    <hyperlink ref="B44" r:id="rId38" display="Spiral traversal on a Matrix"/>
+    <hyperlink ref="B45" r:id="rId39" display="Search an element in a matriix"/>
+    <hyperlink ref="B46" r:id="rId40" display="Find median in a row wise sorted matrix"/>
+    <hyperlink ref="B47" r:id="rId41" display="Find row with maximum no. of 1's"/>
+    <hyperlink ref="B48" r:id="rId42" display="Print elements in sorted order using row-column wise sorted matrix"/>
+    <hyperlink ref="B49" r:id="rId43" display="Maximum size rectangle"/>
+    <hyperlink ref="B50" r:id="rId44" display="Find a specific pair in matrix"/>
+    <hyperlink ref="B51" r:id="rId45" display="Rotate matrix by 90 degrees"/>
+    <hyperlink ref="B52" r:id="rId46" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
+    <hyperlink ref="B53" r:id="rId47" display="Common elements in all rows of a given matrix"/>
+    <hyperlink ref="B56" r:id="rId48" display="Reverse a String"/>
+    <hyperlink ref="B57" r:id="rId49" display="Check whether a String is Palindrome or not"/>
+    <hyperlink ref="B58" r:id="rId50" display="Find Duplicate characters in a string"/>
+    <hyperlink ref="B60" r:id="rId51" display="Write a Code to check whether one string is a rotation of another"/>
+    <hyperlink ref="B61" r:id="rId52" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
+    <hyperlink ref="B62" r:id="rId53" display="Count and Say problem"/>
+    <hyperlink ref="B63" r:id="rId54" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
+    <hyperlink ref="B64" r:id="rId55" display="Find Longest Recurring Subsequence in String"/>
+    <hyperlink ref="B65" r:id="rId56" display="Print all Subsequences of a string."/>
+    <hyperlink ref="B66" r:id="rId57" display="Print all the permutations of the given string"/>
+    <hyperlink ref="B67" r:id="rId58" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
+    <hyperlink ref="B68" r:id="rId59" display="Word Wrap Problem [VERY IMP]."/>
+    <hyperlink ref="B69" r:id="rId60" display="EDIT Distance [Very Imp]"/>
+    <hyperlink ref="B70" r:id="rId61" display="Find next greater number with same set of digits. [Very Very IMP]"/>
+    <hyperlink ref="B71" r:id="rId62" display="Balanced Parenthesis problem.[Imp]"/>
+    <hyperlink ref="B72" r:id="rId63" display="Word break Problem[ Very Imp]"/>
+    <hyperlink ref="B73" r:id="rId64" display="Rabin Karp Algo"/>
+    <hyperlink ref="B74" r:id="rId65" display="KMP Algo"/>
+    <hyperlink ref="B75" r:id="rId66" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
+    <hyperlink ref="B76" r:id="rId67" display="Minimum number of bracket reversals needed to make an expression balanced."/>
+    <hyperlink ref="B77" r:id="rId68" display="Count All Palindromic Subsequence in a given String."/>
+    <hyperlink ref="B78" r:id="rId69" display="Count of number of given string in 2D character array"/>
+    <hyperlink ref="B79" r:id="rId70" display="Search a Word in a 2D Grid of characters."/>
+    <hyperlink ref="B80" r:id="rId71" display="Boyer Moore Algorithm for Pattern Searching."/>
+    <hyperlink ref="B81" r:id="rId72" display="Converting Roman Numerals to Decimal"/>
+    <hyperlink ref="B82" r:id="rId73" display="Longest Common Prefix"/>
+    <hyperlink ref="B83" r:id="rId74" display="Number of flips to make binary string alternate"/>
+    <hyperlink ref="B84" r:id="rId75" display="Find the first repeated word in string."/>
+    <hyperlink ref="B85" r:id="rId76" display="Minimum number of swaps for bracket balancing."/>
+    <hyperlink ref="B86" r:id="rId77" display="Find the longest common subsequence between two strings."/>
+    <hyperlink ref="B87" r:id="rId78" display="Program to generate all possible valid IP addresses from given  string."/>
+    <hyperlink ref="B88" r:id="rId79" display="Write a program tofind the smallest window that contains all characters of string itself."/>
+    <hyperlink ref="B89" r:id="rId80" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="B90" r:id="rId81" display="Minimum characters to be added at front to make string palindrome"/>
+    <hyperlink ref="B91" r:id="rId82" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="B92" r:id="rId83" display="Find the smallest window in a string containing all characters of another string"/>
+    <hyperlink ref="B93" r:id="rId84" display="Recursively remove all adjacent duplicates"/>
+    <hyperlink ref="B94" r:id="rId85" display="String matching where one string contains wildcard characters"/>
+    <hyperlink ref="B95" r:id="rId86" display="Function to find Number of customers who could not get a computer"/>
+    <hyperlink ref="B96" r:id="rId87" display="Transform One String to Another using Minimum Number of Given Operation"/>
+    <hyperlink ref="B97" r:id="rId88" display="Check if two given strings are isomorphic to each other"/>
+    <hyperlink ref="B98" r:id="rId89" display="Recursively print all sentences that can be formed from list of word lists"/>
+    <hyperlink ref="B101" r:id="rId90" display="Find first and last positions of an element in a sorted array"/>
+    <hyperlink ref="B102" r:id="rId91" display="Find a Fixed Point (Value equal to index) in a given array"/>
+    <hyperlink ref="B103" r:id="rId92" display="Search in a rotated sorted array"/>
+    <hyperlink ref="B104" r:id="rId93" display="square root of an integer"/>
+    <hyperlink ref="B105" r:id="rId94" display="Maximum and minimum of an array using minimum number of comparisons"/>
+    <hyperlink ref="B106" r:id="rId95" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
+    <hyperlink ref="B107" r:id="rId96" display="Find the repeating and the missing"/>
+    <hyperlink ref="B108" r:id="rId97" display="find majority element"/>
+    <hyperlink ref="B109" r:id="rId98" display="Searching in an array where adjacent differ by at most k"/>
+    <hyperlink ref="B110" r:id="rId99" display="find a pair with a given difference"/>
+    <hyperlink ref="B111" r:id="rId100" display="find four elements that sum to a given value"/>
+    <hyperlink ref="B112" r:id="rId101" display="maximum sum such that no 2 elements are adjacent"/>
+    <hyperlink ref="B113" r:id="rId102" display="Count triplet with sum smaller than a given value"/>
+    <hyperlink ref="B114" r:id="rId103" display="merge 2 sorted arrays"/>
+    <hyperlink ref="B115" r:id="rId104" display="print all subarrays with 0 sum"/>
+    <hyperlink ref="B116" r:id="rId105" display="Product array Puzzle"/>
+    <hyperlink ref="B117" r:id="rId106" display="Sort array according to count of set bits"/>
+    <hyperlink ref="B118" r:id="rId107" display="minimum no. of swaps required to sort the array"/>
+    <hyperlink ref="B119" r:id="rId108" display="Bishu and Soldiers"/>
+    <hyperlink ref="B120" r:id="rId109" display="Rasta and Kheshtak"/>
+    <hyperlink ref="B121" r:id="rId110" display="Kth smallest number again"/>
+    <hyperlink ref="B122" r:id="rId111" display="Find pivot element in a sorted array"/>
+    <hyperlink ref="B123" r:id="rId112" display="K-th Element of Two Sorted Arrays"/>
+    <hyperlink ref="B124" r:id="rId113" display="Aggressive cows"/>
+    <hyperlink ref="B125" r:id="rId114" display="Book Allocation Problem"/>
+    <hyperlink ref="B126" r:id="rId115" display="EKOSPOJ:"/>
+    <hyperlink ref="B127" r:id="rId116" display="Job Scheduling Algo"/>
+    <hyperlink ref="B128" r:id="rId117" display="Missing Number in AP"/>
+    <hyperlink ref="B129" r:id="rId118" display="Smallest number with atleastn trailing zeroes infactorial"/>
+    <hyperlink ref="B130" r:id="rId119" display="Painters Partition Problem:"/>
+    <hyperlink ref="B131" r:id="rId120" display="ROTI-Prata SPOJ"/>
+    <hyperlink ref="B132" r:id="rId121" display="DoubleHelix SPOJ"/>
+    <hyperlink ref="B133" r:id="rId122" display="Subset Sums"/>
+    <hyperlink ref="B134" r:id="rId123" display="Findthe inversion count"/>
+    <hyperlink ref="B135" r:id="rId124" display="Implement Merge-sort in-place"/>
+    <hyperlink ref="B136" r:id="rId125" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
+    <hyperlink ref="B139" r:id="rId126" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
+    <hyperlink ref="B140" r:id="rId127" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
+    <hyperlink ref="B141" r:id="rId128" display="Write a program to Detect loop in a linked list."/>
+    <hyperlink ref="B142" r:id="rId129" display="Write a program to Delete loop in a linked list."/>
+    <hyperlink ref="B143" r:id="rId130" display="Find the starting point of the loop. "/>
+    <hyperlink ref="B144" r:id="rId131" display="Remove Duplicates in a sorted Linked List."/>
+    <hyperlink ref="B145" r:id="rId132" display="Remove Duplicates in a Un-sorted Linked List."/>
+    <hyperlink ref="B146" r:id="rId133" display="Write a Program to Move the last element to Front in a Linked List."/>
+    <hyperlink ref="B147" r:id="rId134" display="Add “1” to a number represented as a Linked List."/>
+    <hyperlink ref="B148" r:id="rId135" display="Add two numbers represented by linked lists."/>
+    <hyperlink ref="B149" r:id="rId136" display="Intersection of two Sorted Linked List."/>
+    <hyperlink ref="B150" r:id="rId137" display="Intersection Point of two Linked Lists."/>
+    <hyperlink ref="B151" r:id="rId138" display="Merge Sort For Linked lists.[Very Important]"/>
+    <hyperlink ref="B152" r:id="rId139" display="Quicksort for Linked Lists.[Very Important]"/>
+    <hyperlink ref="B153" r:id="rId140" display="Find the middle Element of a linked list."/>
+    <hyperlink ref="B154" r:id="rId141" display="Check if a linked list is a circular linked list."/>
+    <hyperlink ref="B155" r:id="rId142" display="Split a Circular linked list into two halves."/>
+    <hyperlink ref="B156" r:id="rId143" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
+    <hyperlink ref="B157" r:id="rId144" display="Deletion from a Circular Linked List."/>
+    <hyperlink ref="B158" r:id="rId145" display="Reverse a Doubly Linked list."/>
+    <hyperlink ref="B159" r:id="rId146" display="Find pairs with a given sum in a DLL."/>
+    <hyperlink ref="B160" r:id="rId147" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
+    <hyperlink ref="B161" r:id="rId148" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
+    <hyperlink ref="B162" r:id="rId149" display="Rotate DoublyLinked list by N nodes."/>
+    <hyperlink ref="B163" r:id="rId150" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
+    <hyperlink ref="B166" r:id="rId151" display="Flatten a Linked List"/>
+    <hyperlink ref="B167" r:id="rId152" display="Sort a LL of 0's, 1's and 2's"/>
+    <hyperlink ref="B168" r:id="rId153" display="Clone a linked list with next and random pointer"/>
+    <hyperlink ref="B169" r:id="rId154" display="Merge K sorted Linked list"/>
+    <hyperlink ref="B170" r:id="rId155" display="Multiply 2 no. represented by LL"/>
+    <hyperlink ref="B171" r:id="rId156" display="Delete nodes which have a greater value on right side"/>
+    <hyperlink ref="B172" r:id="rId157" display="Segregate even and odd nodes in a Linked List"/>
+    <hyperlink ref="B173" r:id="rId158" display="Program for n’th node from the end of a Linked List"/>
+    <hyperlink ref="B174" r:id="rId159" display="Find the first non-repeating character from a stream of characters"/>
+    <hyperlink ref="B177" r:id="rId160" display="level order traversal"/>
+    <hyperlink ref="B178" r:id="rId161" display="Reverse Level Order traversal"/>
+    <hyperlink ref="B179" r:id="rId162" display="Height of a tree"/>
+    <hyperlink ref="B180" r:id="rId163" display="Diameter of a tree"/>
+    <hyperlink ref="B181" r:id="rId164" display="Mirror of a tree"/>
+    <hyperlink ref="B182" r:id="rId165" display="Inorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B183" r:id="rId166" display="Preorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B184" r:id="rId167" display="Postorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B185" r:id="rId168" display="Left View of a tree"/>
+    <hyperlink ref="B186" r:id="rId169" display="Right View of Tree"/>
+    <hyperlink ref="B187" r:id="rId170" display="Top View of a tree"/>
+    <hyperlink ref="B188" r:id="rId171" display="Bottom View of a tree"/>
+    <hyperlink ref="B189" r:id="rId172" display="Zig-Zag traversal of a binary tree"/>
+    <hyperlink ref="B190" r:id="rId173" display="Check if a tree is balanced or not"/>
+    <hyperlink ref="B191" r:id="rId174" display="Diagnol Traversal of a Binary tree"/>
+    <hyperlink ref="B192" r:id="rId175" display="Boundary traversal of a Binary tree"/>
+    <hyperlink ref="B193" r:id="rId176" display="Construct Binary Tree from String with Bracket Representation"/>
+    <hyperlink ref="B194" r:id="rId177" display="Convert Binary tree into Doubly Linked List"/>
+    <hyperlink ref="B195" r:id="rId178" display="Convert Binary tree into Sum tree"/>
+    <hyperlink ref="B196" r:id="rId179" display="Construct Binary tree from Inorder and preorder traversal"/>
+    <hyperlink ref="B197" r:id="rId180" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
+    <hyperlink ref="B198" r:id="rId181" display="Check if Binary tree is Sum tree or not"/>
+    <hyperlink ref="B199" r:id="rId182" display="Check if all leaf nodes are at same level or not"/>
+    <hyperlink ref="B200" r:id="rId183" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
+    <hyperlink ref="B201" r:id="rId184" display="Check if 2 trees are mirror or not"/>
+    <hyperlink ref="B202" r:id="rId185" display="Sum of Nodes on the Longest path from root to leaf node "/>
+    <hyperlink ref="B203" r:id="rId186" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
+    <hyperlink ref="B204" r:id="rId187" display="Find Largest subtree sum in a tree"/>
+    <hyperlink ref="B205" r:id="rId188" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
+    <hyperlink ref="B206" r:id="rId189" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
+    <hyperlink ref="B207" r:id="rId190" display="Find LCA in a Binary tree"/>
+    <hyperlink ref="B208" r:id="rId191" display="Find distance between 2 nodes in a Binary tree"/>
+    <hyperlink ref="B209" r:id="rId192" display="Kth Ancestor of node in a Binary tree"/>
+    <hyperlink ref="B210" r:id="rId193" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
+    <hyperlink ref="B211" r:id="rId194" display="Tree Isomorphism Problem"/>
+    <hyperlink ref="B214" r:id="rId195" display="Fina a value in a BST"/>
+    <hyperlink ref="B215" r:id="rId196" display="Deletion of a node in a BST"/>
+    <hyperlink ref="B216" r:id="rId197" display="Find min and max value in a BST"/>
+    <hyperlink ref="B217" r:id="rId198" display="Find inorder successor and inorder predecessor in a BST"/>
+    <hyperlink ref="B218" r:id="rId199" display="Check if a tree is a BST or not "/>
+    <hyperlink ref="B219" r:id="rId200" display="Populate Inorder successor of all nodes"/>
+    <hyperlink ref="B220" r:id="rId201" display="Find LCA  of 2 nodes in a BST"/>
+    <hyperlink ref="B221" r:id="rId202" display="Construct BST from preorder traversal"/>
+    <hyperlink ref="B222" r:id="rId203" display="Convert Binary tree into BST"/>
+    <hyperlink ref="B223" r:id="rId204" display="Convert a normal BST into a Balanced BST"/>
+    <hyperlink ref="B224" r:id="rId205" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="B225" r:id="rId206" display="Find Kth largest element in a BST"/>
+    <hyperlink ref="B226" r:id="rId207" display="Find Kth smallest element in a BST"/>
+    <hyperlink ref="B227" r:id="rId208" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
+    <hyperlink ref="B228" r:id="rId209" display="Find the median of BST in O(n) time and O(1) space"/>
+    <hyperlink ref="B229" r:id="rId210" display="Count BST ndoes that lie in a given range"/>
+    <hyperlink ref="B230" r:id="rId211" display="Replace every element with the least greater element on its right"/>
+    <hyperlink ref="B231" r:id="rId212" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
+    <hyperlink ref="B232" r:id="rId213" display="Check preorder is valid or not"/>
+    <hyperlink ref="B233" r:id="rId214" display="Check whether BST contains Dead end"/>
+    <hyperlink ref="B234" r:id="rId215" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
+    <hyperlink ref="B235" r:id="rId216" display="Flatten BST to sorted list"/>
+    <hyperlink ref="B238" r:id="rId217" display="Activity Selection Problem"/>
+    <hyperlink ref="B239" r:id="rId218" display="Job SequencingProblem"/>
+    <hyperlink ref="B240" r:id="rId219" display="Huffman Coding"/>
+    <hyperlink ref="B241" r:id="rId220" display="Water Connection Problem"/>
+    <hyperlink ref="B242" r:id="rId221" display="Fractional Knapsack Problem"/>
+    <hyperlink ref="B243" r:id="rId222" display="Greedy Algorithm to find Minimum number of Coins"/>
+    <hyperlink ref="B244" r:id="rId223" display="Maximum trains for which stoppage can be provided"/>
+    <hyperlink ref="B245" r:id="rId224" display="Minimum Platforms Problem"/>
+    <hyperlink ref="B246" r:id="rId225" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
+    <hyperlink ref="B247" r:id="rId226" display="Find the minimum and maximum amount to buy all N candies"/>
+    <hyperlink ref="B248" r:id="rId227" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B249" r:id="rId228" display="Minimum Cost to cut a board into squares"/>
+    <hyperlink ref="B250" r:id="rId229" display="Check if it is possible to survive on Island"/>
+    <hyperlink ref="B251" r:id="rId230" display="Find maximum meetings in one room"/>
+    <hyperlink ref="B252" r:id="rId231" display="Maximum product subset of an array"/>
+    <hyperlink ref="B253" r:id="rId232" display="Maximize array sum after K negations"/>
+    <hyperlink ref="B254" r:id="rId233" display="Maximize the sum of arr[i]*i"/>
+    <hyperlink ref="B255" r:id="rId234" display="Maximum sum of absolute difference of an array"/>
+    <hyperlink ref="B256" r:id="rId235" display="Maximize sum of consecutive differences in a circular array"/>
+    <hyperlink ref="B257" r:id="rId236" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
+    <hyperlink ref="B258" r:id="rId237" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
+    <hyperlink ref="B259" r:id="rId238" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
+    <hyperlink ref="B260" r:id="rId239" display="Smallest subset with sum greater than all other elements"/>
+    <hyperlink ref="B261" r:id="rId240" display="Chocolate Distribution Problem"/>
+    <hyperlink ref="B262" r:id="rId241" display="DEFKIN -Defense of a Kingdom"/>
+    <hyperlink ref="B263" r:id="rId242" display="DIEHARD -DIE HARD"/>
+    <hyperlink ref="B264" r:id="rId243" display="GERGOVIA -Wine trading in Gergovia"/>
+    <hyperlink ref="B265" r:id="rId244" display="Picking Up Chicks"/>
+    <hyperlink ref="B266" r:id="rId245" display="CHOCOLA –Chocolate"/>
+    <hyperlink ref="B267" r:id="rId246" display="ARRANGE -Arranging Amplifiers"/>
+    <hyperlink ref="B268" r:id="rId247" display="K Centers Problem"/>
+    <hyperlink ref="B269" r:id="rId248" display="Minimum Cost of ropes"/>
+    <hyperlink ref="B270" r:id="rId249" display="Find smallest number with given number of digits and sum of digits"/>
+    <hyperlink ref="B271" r:id="rId250" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="B272" r:id="rId251" display="Find maximum sum possible equal sum of three stacks"/>
+    <hyperlink ref="B275" r:id="rId252" display="Rat in a maze Problem"/>
+    <hyperlink ref="B276" r:id="rId253" display="Printing all solutions in N-Queen Problem"/>
+    <hyperlink ref="B277" r:id="rId254" display="Word Break Problem using Backtracking"/>
+    <hyperlink ref="B278" r:id="rId255" display="Remove Invalid Parentheses"/>
+    <hyperlink ref="B279" r:id="rId256" display="Sudoku Solver"/>
+    <hyperlink ref="B280" r:id="rId257" display="m Coloring Problem"/>
+    <hyperlink ref="B281" r:id="rId258" display="Print all palindromic partitions of a string"/>
+    <hyperlink ref="B282" r:id="rId259" display="Subset Sum Problem"/>
+    <hyperlink ref="B283" r:id="rId260" display="The Knight’s tour problem"/>
+    <hyperlink ref="B284" r:id="rId261" display="Tug of War"/>
+    <hyperlink ref="B285" r:id="rId262" display="Find shortest safe route in a path with landmines"/>
+    <hyperlink ref="B286" r:id="rId263" display="Combinational Sum"/>
+    <hyperlink ref="B287" r:id="rId264" display="Find Maximum number possible by doing at-most K swaps"/>
+    <hyperlink ref="B288" r:id="rId265" display="Print all permutations of a string "/>
+    <hyperlink ref="B289" r:id="rId266" display="Find if there is a path of more than k length from a source"/>
+    <hyperlink ref="B290" r:id="rId267" display="Longest Possible Route in a Matrix with Hurdles"/>
+    <hyperlink ref="B291" r:id="rId268" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
+    <hyperlink ref="B292" r:id="rId269" display="Partition of a set intoK subsets with equal sum"/>
+    <hyperlink ref="B293" r:id="rId270" display="Find the K-th Permutation Sequence of first N natural numbers"/>
+    <hyperlink ref="B296" r:id="rId271" display=" Implement Stack from Scratch"/>
+    <hyperlink ref="B297" r:id="rId272" display=" Implement Queue from Scratch"/>
+    <hyperlink ref="B298" r:id="rId273" display="Implement 2 stack in an array"/>
+    <hyperlink ref="B299" r:id="rId274" display="find the middle element of a stack"/>
+    <hyperlink ref="B300" r:id="rId275" display="Implement &quot;N&quot; stacks in an Array"/>
+    <hyperlink ref="B301" r:id="rId276" display="Check the expression has valid or Balanced parenthesis or not."/>
+    <hyperlink ref="B302" r:id="rId277" display="Reverse a String using Stack"/>
+    <hyperlink ref="B303" r:id="rId278" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
+    <hyperlink ref="B304" r:id="rId279" display="Find the next Greater element"/>
+    <hyperlink ref="B305" r:id="rId280" display="The celebrity Problem"/>
+    <hyperlink ref="B306" r:id="rId281" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
+    <hyperlink ref="B307" r:id="rId282" display="Evaluation of Postfix expression"/>
+    <hyperlink ref="B308" r:id="rId283" display="Implement a method to insert an element at its bottom without using any other data structure."/>
+    <hyperlink ref="B309" r:id="rId284" display="Reverse a stack using recursion"/>
+    <hyperlink ref="B310" r:id="rId285" display="Sort a Stack using recursion"/>
+    <hyperlink ref="B311" r:id="rId286" display="Merge Overlapping Intervals"/>
+    <hyperlink ref="B312" r:id="rId287" display="Largest rectangular Area in Histogram"/>
+    <hyperlink ref="B313" r:id="rId288" display="Length of the Longest Valid Substring"/>
+    <hyperlink ref="B314" r:id="rId289" display="Expression contains redundant bracket or not"/>
+    <hyperlink ref="B315" r:id="rId290" display="Implement Stack using Queue"/>
+    <hyperlink ref="B316" r:id="rId291" display="Implement Stack using Deque"/>
+    <hyperlink ref="B317" r:id="rId292" display="Stack Permutations (Check if an array is stack permutation of other)"/>
+    <hyperlink ref="B318" r:id="rId293" display="Implement Queue using Stack  "/>
+    <hyperlink ref="B319" r:id="rId294" display="Implement &quot;n&quot; queue in an array"/>
+    <hyperlink ref="B320" r:id="rId295" display="Implement a Circular queue"/>
+    <hyperlink ref="B321" r:id="rId296" display="LRU Cache Implementationa"/>
+    <hyperlink ref="B322" r:id="rId297" display="Reverse a Queue using recursion"/>
+    <hyperlink ref="B323" r:id="rId298" display="Reverse the first “K” elements of a queue"/>
+    <hyperlink ref="B324" r:id="rId299" display="Interleave the first half of the queue with second half"/>
+    <hyperlink ref="B325" r:id="rId300" display="Find the first circular tour that visits all Petrol Pumps"/>
+    <hyperlink ref="B326" r:id="rId301" display="Minimum time required to rot all oranges"/>
+    <hyperlink ref="B327" r:id="rId302" display="Distance of nearest cell having 1 in a binary matrix"/>
+    <hyperlink ref="B328" r:id="rId303" display="First negative integer in every window of size “k”"/>
+    <hyperlink ref="B329" r:id="rId304" display="Check if all levels of two trees are anagrams or not."/>
+    <hyperlink ref="B330" r:id="rId305" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
+    <hyperlink ref="B331" r:id="rId306" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
+    <hyperlink ref="B332" r:id="rId307" display="Queue based approach or first non-repeating character in a stream."/>
+    <hyperlink ref="B333" r:id="rId308" display="Next Smaller Element"/>
+    <hyperlink ref="B336" r:id="rId309" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
+    <hyperlink ref="B337" r:id="rId310" display="Sort an Array using heap. (HeapSort)"/>
+    <hyperlink ref="B338" r:id="rId311" display="Maximum of all subarrays of size k."/>
+    <hyperlink ref="B339" r:id="rId312" display="“k” largest element in an array"/>
+    <hyperlink ref="B340" r:id="rId313" display="Kth smallest and largest element in an unsorted array"/>
+    <hyperlink ref="B341" r:id="rId314" display="Merge “K” sorted arrays. [ IMP ]"/>
+    <hyperlink ref="B342" r:id="rId315" display="Merge 2 Binary Max Heaps"/>
+    <hyperlink ref="B343" r:id="rId316" display="Kth largest sum continuous subarrays"/>
+    <hyperlink ref="B344" r:id="rId317" display="Leetcode- reorganize strings"/>
+    <hyperlink ref="B345" r:id="rId318" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
+    <hyperlink ref="B346" r:id="rId319" display="Smallest range in “K” Lists"/>
+    <hyperlink ref="B347" r:id="rId320" display="Median in a stream of Integers"/>
+    <hyperlink ref="B348" r:id="rId321" display="Check if a Binary Tree is Heap"/>
+    <hyperlink ref="B349" r:id="rId322" display="Connect “n” ropes with minimum cost"/>
+    <hyperlink ref="B350" r:id="rId323" display="Convert BST to Min Heap"/>
+    <hyperlink ref="B351" r:id="rId324" display="Convert min heap to max heap"/>
+    <hyperlink ref="B352" r:id="rId325" display="Rearrange characters in a string such that no two adjacent are same."/>
+    <hyperlink ref="B353" r:id="rId326" display="Minimum sum of two numbers formed from digits of an array"/>
+    <hyperlink ref="B356" r:id="rId327" display="Create a Graph, print it"/>
+    <hyperlink ref="B357" r:id="rId328" display="Implement BFS algorithm "/>
+    <hyperlink ref="B358" r:id="rId329" display="Implement DFS Algo "/>
+    <hyperlink ref="B359" r:id="rId330" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B360" r:id="rId331" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B361" r:id="rId332" display="Search in a Maze"/>
+    <hyperlink ref="B362" r:id="rId333" display="Minimum Step by Knight"/>
+    <hyperlink ref="B363" r:id="rId334" display="flood fill algo"/>
+    <hyperlink ref="B364" r:id="rId335" display="Clone a graph"/>
+    <hyperlink ref="B365" r:id="rId336" display="Making wired Connections"/>
+    <hyperlink ref="B366" r:id="rId337" display="word Ladder "/>
+    <hyperlink ref="B367" r:id="rId338" display="Dijkstra algo"/>
+    <hyperlink ref="B368" r:id="rId339" display="Implement Topological Sort "/>
+    <hyperlink ref="B369" r:id="rId340" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
+    <hyperlink ref="B370" r:id="rId341" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
+    <hyperlink ref="B371" r:id="rId342" display="Find the no. of Isalnds"/>
+    <hyperlink ref="B372" r:id="rId343" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
+    <hyperlink ref="B373" r:id="rId344" display="Implement Kruksal’sAlgorithm"/>
+    <hyperlink ref="B374" r:id="rId345" display="Implement Prim’s Algorithm"/>
+    <hyperlink ref="B375" r:id="rId346" display="Total no. of Spanning tree in a graph"/>
+    <hyperlink ref="B376" r:id="rId347" display="Implement Bellman Ford Algorithm"/>
+    <hyperlink ref="B377" r:id="rId348" display="Implement Floyd warshallAlgorithm"/>
+    <hyperlink ref="B378" r:id="rId349" display="Travelling Salesman Problem"/>
+    <hyperlink ref="B379" r:id="rId350" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
+    <hyperlink ref="B380" r:id="rId351" display="Snake and Ladders Problem"/>
+    <hyperlink ref="B381" r:id="rId352" display="Find bridge in a graph"/>
+    <hyperlink ref="B382" r:id="rId353" display="Count Strongly connected Components(Kosaraju Algo)"/>
+    <hyperlink ref="B383" r:id="rId354" display="Check whether a graph is Bipartite or Not"/>
+    <hyperlink ref="B384" r:id="rId355" display="Detect Negative cycle in a graph"/>
+    <hyperlink ref="B385" r:id="rId356" display="Longest path in a Directed Acyclic Graph"/>
+    <hyperlink ref="B386" r:id="rId357" display="Journey to the Moon"/>
+    <hyperlink ref="B387" r:id="rId358" display="Cheapest Flights Within K Stops"/>
+    <hyperlink ref="B388" r:id="rId359" display="Oliver and the Game"/>
+    <hyperlink ref="B389" r:id="rId360" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B390" r:id="rId361" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B391" r:id="rId362" display="Find if there is a path of more thank length from a source"/>
+    <hyperlink ref="B392" r:id="rId363" display="M-ColouringProblem"/>
+    <hyperlink ref="B393" r:id="rId364" display="Minimum edges to reverse o make path from source to destination"/>
+    <hyperlink ref="B394" r:id="rId365" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
+    <hyperlink ref="B395" r:id="rId366" display="Vertex Cover Problem"/>
+    <hyperlink ref="B396" r:id="rId367" display="Chinese Postman or Route Inspection"/>
+    <hyperlink ref="B397" r:id="rId368" display="Number of Triangles in a Directed and Undirected Graph"/>
+    <hyperlink ref="B398" r:id="rId369" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B399" r:id="rId370" display="Two Clique Problem"/>
+    <hyperlink ref="B402" r:id="rId371" display="Construct a trie from scratch"/>
+    <hyperlink ref="B403" r:id="rId372" display="Find shortest unique prefix for every word in a given list"/>
+    <hyperlink ref="B404" r:id="rId373" display="Word Break Problem | (Trie solution)"/>
+    <hyperlink ref="B405" r:id="rId374" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="B406" r:id="rId375" display="Implement a Phone Directory"/>
+    <hyperlink ref="B407" r:id="rId376" display="Print unique rows in a given boolean matrix"/>
+    <hyperlink ref="B410" r:id="rId377" display="Coin ChangeProblem"/>
+    <hyperlink ref="B411" r:id="rId378" display="Knapsack Problem"/>
+    <hyperlink ref="B412" r:id="rId379" display="Binomial CoefficientProblem"/>
+    <hyperlink ref="B413" r:id="rId380" display="Permutation CoefficientProblem"/>
+    <hyperlink ref="B414" r:id="rId381" display="Program for nth Catalan Number"/>
+    <hyperlink ref="B415" r:id="rId382" display="Matrix Chain Multiplication "/>
+    <hyperlink ref="B416" r:id="rId383" display="Edit Distance"/>
+    <hyperlink ref="B417" r:id="rId384" display="Subset Sum Problem"/>
+    <hyperlink ref="B418" r:id="rId385" display="Friends Pairing Problem"/>
+    <hyperlink ref="B419" r:id="rId386" display="Gold Mine Problem"/>
+    <hyperlink ref="B420" r:id="rId387" display="Assembly Line SchedulingProblem"/>
+    <hyperlink ref="B421" r:id="rId388" display="Painting the Fenceproblem"/>
+    <hyperlink ref="B422" r:id="rId389" display="Maximize The Cut Segments"/>
+    <hyperlink ref="B423" r:id="rId390" display="Longest Common Subsequence"/>
+    <hyperlink ref="B424" r:id="rId391" display="Longest Repeated Subsequence"/>
+    <hyperlink ref="B425" r:id="rId392" display="Longest Increasing Subsequence"/>
+    <hyperlink ref="B426" r:id="rId393" display="Space Optimized Solution of LCS"/>
+    <hyperlink ref="B427" r:id="rId394" display="LCS (Longest Common Subsequence) of three strings"/>
+    <hyperlink ref="B428" r:id="rId395" display="Maximum Sum Increasing Subsequence"/>
+    <hyperlink ref="B429" r:id="rId396" display="Count all subsequences having product less than K"/>
+    <hyperlink ref="B430" r:id="rId397" display="Longest subsequence such that difference between adjacent is one"/>
+    <hyperlink ref="B431" r:id="rId398" display="Maximum subsequence sum such that no three are consecutive"/>
+    <hyperlink ref="B432" r:id="rId399" display="Egg Dropping Problem"/>
+    <hyperlink ref="B433" r:id="rId400" display="Maximum Length Chain of Pairs"/>
+    <hyperlink ref="B434" r:id="rId401" display="Maximum size square sub-matrix with all 1s"/>
+    <hyperlink ref="B435" r:id="rId402" display="Maximum sum of pairs with specific difference"/>
+    <hyperlink ref="B436" r:id="rId403" display="Min Cost PathProblem"/>
+    <hyperlink ref="B437" r:id="rId404" display="Maximum difference of zeros and ones in binary string"/>
+    <hyperlink ref="B438" r:id="rId405" display="Minimum number of jumps to reach end"/>
+    <hyperlink ref="B439" r:id="rId406" display="Minimum cost to fill given weight in a bag"/>
+    <hyperlink ref="B440" r:id="rId407" display="Minimum removals from array to make max –min &lt;= K"/>
+    <hyperlink ref="B441" r:id="rId408" display="Longest Common Substring"/>
+    <hyperlink ref="B442" r:id="rId409" display="Count number of ways to reacha given score in a game"/>
+    <hyperlink ref="B443" r:id="rId410" display="Count Balanced Binary Trees of Height h"/>
+    <hyperlink ref="B444" r:id="rId411" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
+    <hyperlink ref="B445" r:id="rId412" display="Smallest sum contiguous subarray"/>
+    <hyperlink ref="B446" r:id="rId413" display="Unbounded Knapsack (Repetition of items allowed)"/>
+    <hyperlink ref="B447" r:id="rId414" display="Word Break Problem"/>
+    <hyperlink ref="B448" r:id="rId415" display="Largest Independent Set Problem"/>
+    <hyperlink ref="B449" r:id="rId416" display="Partition problem"/>
+    <hyperlink ref="B450" r:id="rId417" display="Longest Palindromic Subsequence"/>
+    <hyperlink ref="B451" r:id="rId418" display="Count All Palindromic Subsequence in a given String"/>
+    <hyperlink ref="B452" r:id="rId419" display="Longest Palindromic Substring"/>
+    <hyperlink ref="B453" r:id="rId420" display="Longest alternating subsequence"/>
+    <hyperlink ref="B454" r:id="rId421" display="Weighted Job Scheduling"/>
+    <hyperlink ref="B455" r:id="rId422" display="Coin game winner where every player has three choices"/>
+    <hyperlink ref="B456" r:id="rId423" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
+    <hyperlink ref="B457" r:id="rId424" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
+    <hyperlink ref="B458" r:id="rId425" display="Optimal Strategy for a Game"/>
+    <hyperlink ref="B459" r:id="rId426" display="Optimal Binary Search Tree"/>
+    <hyperlink ref="B460" r:id="rId427" display="Palindrome PartitioningProblem"/>
+    <hyperlink ref="B461" r:id="rId428" display="Word Wrap Problem"/>
+    <hyperlink ref="B462" r:id="rId429" display="Mobile Numeric Keypad Problem [ IMP ]"/>
+    <hyperlink ref="B463" r:id="rId430" display="Boolean Parenthesization Problem"/>
+    <hyperlink ref="B464" r:id="rId431" display="Largest rectangular sub-matrix whose sum is 0"/>
+    <hyperlink ref="B465" r:id="rId432" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
+    <hyperlink ref="B466" r:id="rId433" display="Maximum sum rectangle in a 2D matrix"/>
+    <hyperlink ref="B467" r:id="rId434" display="Maximum profit by buying and selling a share at most k times"/>
+    <hyperlink ref="B468" r:id="rId435" display="Find if a string is interleaved of two other strings"/>
+    <hyperlink ref="B469" r:id="rId436" display="Maximum Length of Pair Chain"/>
+    <hyperlink ref="B472" r:id="rId437" display="Count set bits in an integer"/>
+    <hyperlink ref="B473" r:id="rId438" display="Find the two non-repeating elements in an array of repeating elements"/>
+    <hyperlink ref="B474" r:id="rId439" display="Count number of bits to be flipped to convert A to B"/>
+    <hyperlink ref="B475" r:id="rId440" display="Count total set bits in all numbers from 1 to n"/>
+    <hyperlink ref="B476" r:id="rId441" display="Program to find whether a no is power of two"/>
+    <hyperlink ref="B477" r:id="rId442" display="Find position of the only set bit"/>
+    <hyperlink ref="B478" r:id="rId443" display="Copy set bits in a range"/>
+    <hyperlink ref="B479" r:id="rId444" display="Divide two integers without using multiplication, division and mod operator"/>
+    <hyperlink ref="B480" r:id="rId445" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
+    <hyperlink ref="B481" r:id="rId446" display="Power Set"/>
   </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1496,7 +1496,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1524,6 +1524,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDE8CB"/>
+        <bgColor rgb="FFC5E0B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFD095"/>
         <bgColor rgb="FFC5E0B4"/>
       </patternFill>
     </fill>
@@ -1565,7 +1571,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1626,6 +1632,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1652,7 +1662,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC5E0B4"/>
+      <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -1661,7 +1671,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0563C1"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFC5E0B4"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1706,11 +1716,11 @@
   </sheetPr>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A305" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B312" activeCellId="0" sqref="B312"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B320" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B333" activeCellId="0" sqref="B333"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -5211,7 +5221,7 @@
       <c r="A333" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B333" s="7" t="s">
+      <c r="B333" s="15" t="s">
         <v>324</v>
       </c>
       <c r="C333" s="5" t="s">
